--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t xml:space="preserve">BB&amp;T Atlanta Open</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">pella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coric</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B118" activeCellId="0" sqref="B118"/>
+      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2755,28 +2758,47 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6"/>
+      <c r="A117" s="6" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <f aca="false">D117-C117</f>
+        <v>1.12</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <f aca="false">SUM($E$1:E117)</f>
+        <v>-27.55</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>43683</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="E118" s="4" t="n">
         <f aca="false">D118-C118</f>
-        <v>1.12</v>
+        <v>-4</v>
       </c>
       <c r="F118" s="3" t="n">
         <f aca="false">SUM($E$1:E118)</f>
-        <v>-27.55</v>
+        <v>-31.55</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,21 +2806,21 @@
         <v>43683</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="E119" s="4" t="n">
         <f aca="false">D119-C119</f>
-        <v>-4</v>
+        <v>1.35</v>
       </c>
       <c r="F119" s="3" t="n">
         <f aca="false">SUM($E$1:E119)</f>
-        <v>-31.55</v>
+        <v>-30.2</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,21 +2828,21 @@
         <v>43683</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="E120" s="4" t="n">
         <f aca="false">D120-C120</f>
-        <v>1.35</v>
+        <v>-3</v>
       </c>
       <c r="F120" s="3" t="n">
         <f aca="false">SUM($E$1:E120)</f>
-        <v>-30.2</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,21 +2850,21 @@
         <v>43683</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="E121" s="4" t="n">
         <f aca="false">D121-C121</f>
-        <v>-3</v>
+        <v>0.66</v>
       </c>
       <c r="F121" s="3" t="n">
         <f aca="false">SUM($E$1:E121)</f>
-        <v>-33.2</v>
+        <v>-32.54</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,21 +2872,21 @@
         <v>43683</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>3.66</v>
+        <v>11.2</v>
       </c>
       <c r="E122" s="4" t="n">
         <f aca="false">D122-C122</f>
-        <v>0.66</v>
+        <v>7.2</v>
       </c>
       <c r="F122" s="3" t="n">
         <f aca="false">SUM($E$1:E122)</f>
-        <v>-32.54</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,21 +2894,109 @@
         <v>43683</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>11.2</v>
+        <v>5.44</v>
       </c>
       <c r="E123" s="4" t="n">
         <f aca="false">D123-C123</f>
-        <v>7.2</v>
+        <v>1.44</v>
       </c>
       <c r="F123" s="3" t="n">
         <f aca="false">SUM($E$1:E123)</f>
-        <v>-25.34</v>
+        <v>-23.9</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <f aca="false">D124-C124</f>
+        <v>2.8</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <f aca="false">SUM($E$1:E124)</f>
+        <v>-21.1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <f aca="false">D125-C125</f>
+        <v>6</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <f aca="false">SUM($E$1:E125)</f>
+        <v>-15.1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <f aca="false">D126-C126</f>
+        <v>-4</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <f aca="false">SUM($E$1:E126)</f>
+        <v>-19.1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <f aca="false">D127-C127</f>
+        <v>0.9</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <f aca="false">SUM($E$1:E127)</f>
+        <v>-18.2</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t xml:space="preserve">BB&amp;T Atlanta Open</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t xml:space="preserve">coric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monfils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishikori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shapovalov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wawrinka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paul t</t>
   </si>
 </sst>
 </file>
@@ -323,7 +341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,6 +378,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -377,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -670,14 +692,14 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5" t="n">
         <f aca="false">SUM($E$1:E15)</f>
         <v>36.05</v>
@@ -972,14 +994,14 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5" t="n">
         <f aca="false">SUM($E$1:E30)</f>
         <v>57.6</v>
@@ -1274,14 +1296,14 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
       <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="5" t="n">
         <f aca="false">SUM($E$1:E45)</f>
         <v>67.05</v>
@@ -2292,14 +2314,14 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0"/>
       <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="5" t="n">
         <f aca="false">SUM($E$1:E94)</f>
         <v>-14.46</v>
@@ -2762,21 +2784,21 @@
         <v>43683</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>5.12</v>
+        <v>3.66</v>
       </c>
       <c r="E117" s="4" t="n">
         <f aca="false">D117-C117</f>
-        <v>1.12</v>
+        <v>0.66</v>
       </c>
       <c r="F117" s="3" t="n">
         <f aca="false">SUM($E$1:E117)</f>
-        <v>-27.55</v>
+        <v>-28.01</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,21 +2806,21 @@
         <v>43683</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="E118" s="4" t="n">
         <f aca="false">D118-C118</f>
-        <v>-4</v>
+        <v>2.8</v>
       </c>
       <c r="F118" s="3" t="n">
         <f aca="false">SUM($E$1:E118)</f>
-        <v>-31.55</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,21 +2828,21 @@
         <v>43683</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="E119" s="4" t="n">
         <f aca="false">D119-C119</f>
-        <v>1.35</v>
+        <v>-4</v>
       </c>
       <c r="F119" s="3" t="n">
         <f aca="false">SUM($E$1:E119)</f>
-        <v>-30.2</v>
+        <v>-29.21</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,21 +2850,21 @@
         <v>43683</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E120" s="4" t="n">
         <f aca="false">D120-C120</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F120" s="3" t="n">
         <f aca="false">SUM($E$1:E120)</f>
-        <v>-33.2</v>
+        <v>-33.21</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,21 +2872,21 @@
         <v>43683</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="E121" s="4" t="n">
         <f aca="false">D121-C121</f>
-        <v>0.66</v>
+        <v>-3</v>
       </c>
       <c r="F121" s="3" t="n">
         <f aca="false">SUM($E$1:E121)</f>
-        <v>-32.54</v>
+        <v>-36.21</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +2908,7 @@
       </c>
       <c r="F122" s="3" t="n">
         <f aca="false">SUM($E$1:E122)</f>
-        <v>-25.34</v>
+        <v>-29.01</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,21 +2916,21 @@
         <v>43683</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>5.44</v>
+        <v>5.12</v>
       </c>
       <c r="E123" s="4" t="n">
         <f aca="false">D123-C123</f>
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="F123" s="3" t="n">
         <f aca="false">SUM($E$1:E123)</f>
-        <v>-23.9</v>
+        <v>-27.89</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,21 +2938,21 @@
         <v>43683</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>6.8</v>
+        <v>4.35</v>
       </c>
       <c r="E124" s="4" t="n">
         <f aca="false">D124-C124</f>
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="F124" s="3" t="n">
         <f aca="false">SUM($E$1:E124)</f>
-        <v>-21.1</v>
+        <v>-26.54</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,21 +2960,21 @@
         <v>43683</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>10</v>
+        <v>5.44</v>
       </c>
       <c r="E125" s="4" t="n">
         <f aca="false">D125-C125</f>
-        <v>6</v>
+        <v>1.44</v>
       </c>
       <c r="F125" s="3" t="n">
         <f aca="false">SUM($E$1:E125)</f>
-        <v>-15.1</v>
+        <v>-25.1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,17 +2982,17 @@
         <v>43683</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E126" s="4" t="n">
         <f aca="false">D126-C126</f>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F126" s="3" t="n">
         <f aca="false">SUM($E$1:E126)</f>
@@ -2997,6 +3019,292 @@
       <c r="F127" s="3" t="n">
         <f aca="false">SUM($E$1:E127)</f>
         <v>-18.2</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E128" s="4" t="n">
+        <f aca="false">D128-C128</f>
+        <v>1.95</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <f aca="false">SUM($E$1:E128)</f>
+        <v>-16.25</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E129" s="4" t="n">
+        <f aca="false">D129-C129</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <f aca="false">SUM($E$1:E129)</f>
+        <v>-16.25</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E130" s="4" t="n">
+        <f aca="false">D130-C130</f>
+        <v>0.72</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <f aca="false">SUM($E$1:E130)</f>
+        <v>-15.53</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E131" s="4" t="n">
+        <f aca="false">D131-C131</f>
+        <v>1.28</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <f aca="false">SUM($E$1:E131)</f>
+        <v>-14.25</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4" t="n">
+        <f aca="false">D132-C132</f>
+        <v>-3</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <f aca="false">SUM($E$1:E132)</f>
+        <v>-17.25</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="4" t="n">
+        <f aca="false">D133-C133</f>
+        <v>-4</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <f aca="false">SUM($E$1:E133)</f>
+        <v>-21.25</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E134" s="4" t="n">
+        <f aca="false">D134-C134</f>
+        <v>1.68</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <f aca="false">SUM($E$1:E134)</f>
+        <v>-19.57</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E135" s="4" t="n">
+        <f aca="false">D135-C135</f>
+        <v>1.92</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <f aca="false">SUM($E$1:E135)</f>
+        <v>-17.65</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4" t="n">
+        <f aca="false">D136-C136</f>
+        <v>-3</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <f aca="false">SUM($E$1:E136)</f>
+        <v>-20.65</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4" t="n">
+        <f aca="false">D137-C137</f>
+        <v>-4</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <f aca="false">SUM($E$1:E137)</f>
+        <v>-24.65</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E138" s="4" t="n">
+        <f aca="false">D138-C138</f>
+        <v>0.32</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <f aca="false">SUM($E$1:E138)</f>
+        <v>-24.33</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="4" t="n">
+        <f aca="false">D139-C139</f>
+        <v>-3</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <f aca="false">SUM($E$1:E139)</f>
+        <v>-27.33</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4" t="n">
+        <f aca="false">D140-C140</f>
+        <v>-4</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <f aca="false">SUM($E$1:E140)</f>
+        <v>-31.33</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t xml:space="preserve">BB&amp;T Atlanta Open</t>
   </si>
@@ -399,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="0" sqref="A108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3307,6 +3307,116 @@
         <v>-31.33</v>
       </c>
     </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="4" t="n">
+        <f aca="false">D141-C141</f>
+        <v>-4</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <f aca="false">SUM($E$1:E141)</f>
+        <v>-35.33</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" s="3" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <f aca="false">D142-C142</f>
+        <v>0.64</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <f aca="false">SUM($E$1:E142)</f>
+        <v>-34.69</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E143" s="4" t="n">
+        <f aca="false">D143-C143</f>
+        <v>1.26</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <f aca="false">SUM($E$1:E143)</f>
+        <v>-33.43</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E144" s="4" t="n">
+        <f aca="false">D144-C144</f>
+        <v>0.2</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <f aca="false">SUM($E$1:E144)</f>
+        <v>-33.23</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E145" s="4" t="n">
+        <f aca="false">D145-C145</f>
+        <v>1.04</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <f aca="false">SUM($E$1:E145)</f>
+        <v>-32.19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="3720" windowWidth="13880" windowHeight="15640" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="4620" windowWidth="13880" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>BB&amp;T Atlanta Open</t>
   </si>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4061,29 +4061,54 @@
         <v>-13.939999999999985</v>
       </c>
     </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="E166" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F166" s="9">
+        <f t="shared" ref="F166:F171" si="8">E166-C166</f>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="G166" s="4">
+        <f>SUM($F$1:F166)</f>
+        <v>-13.219999999999985</v>
+      </c>
+    </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>43688</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D167" s="3">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="E167" s="4">
-        <v>2.72</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F167" s="9">
-        <f t="shared" ref="F167:F172" si="8">E167-C167</f>
-        <v>0.7200000000000002</v>
+        <f t="shared" si="8"/>
+        <v>4.1999999999999993</v>
       </c>
       <c r="G167" s="4">
         <f>SUM($F$1:F167)</f>
-        <v>-13.219999999999985</v>
+        <v>-9.0199999999999854</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -4091,24 +4116,24 @@
         <v>43688</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D168" s="3">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="E168" s="4">
-        <v>10.199999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="F168" s="9">
         <f t="shared" si="8"/>
-        <v>4.1999999999999993</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="G168" s="4">
         <f>SUM($F$1:F168)</f>
-        <v>-9.0199999999999854</v>
+        <v>-8.3799999999999848</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -4116,20 +4141,20 @@
         <v>43688</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D169" s="3">
-        <v>1.32</v>
+        <v>1.85</v>
       </c>
       <c r="E169" s="4">
-        <v>2.64</v>
+        <v>6</v>
       </c>
       <c r="F169" s="9">
         <f t="shared" si="8"/>
-        <v>0.64000000000000012</v>
+        <v>0</v>
       </c>
       <c r="G169" s="4">
         <f>SUM($F$1:F169)</f>
@@ -4141,13 +4166,13 @@
         <v>43688</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C170">
         <v>6</v>
       </c>
       <c r="D170" s="3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="E170" s="4">
         <v>6</v>
@@ -4166,234 +4191,399 @@
         <v>43688</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C171">
         <v>6</v>
       </c>
       <c r="D171" s="3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="E171" s="4">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="F171" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G171" s="4">
         <f>SUM($F$1:F171)</f>
-        <v>-8.3799999999999848</v>
+        <v>-3.8799999999999848</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>43688</v>
+        <v>43690</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D172" s="3">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="E172" s="4">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="F172" s="9">
-        <f t="shared" si="8"/>
-        <v>4.5</v>
+        <f>E172-C172</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G172" s="4">
         <f>SUM($F$1:F172)</f>
-        <v>-3.8799999999999848</v>
+        <v>0.72000000000001485</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="E173"/>
+      <c r="A173" s="1">
+        <v>43690</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="E173" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="F173" s="9">
+        <f>E173-C173</f>
+        <v>0.96</v>
+      </c>
+      <c r="G173" s="4">
+        <f>SUM($F$1:F173)</f>
+        <v>1.6800000000000148</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>43690</v>
+        <v>43688</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C174">
         <v>4</v>
       </c>
       <c r="D174" s="3">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="E174" s="4">
-        <v>8.6</v>
+        <v>6.08</v>
       </c>
       <c r="F174" s="9">
         <f>E174-C174</f>
-        <v>4.5999999999999996</v>
+        <v>2.08</v>
       </c>
       <c r="G174" s="4">
         <f>SUM($F$1:F174)</f>
-        <v>0.72000000000001485</v>
+        <v>3.7600000000000149</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>43690</v>
+        <v>43688</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175" s="3">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="E175" s="4">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="F175" s="9">
         <f>E175-C175</f>
-        <v>0.96</v>
+        <v>0.83999999999999986</v>
       </c>
       <c r="G175" s="4">
         <f>SUM($F$1:F175)</f>
-        <v>1.6800000000000148</v>
+        <v>4.6000000000000147</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A176"/>
-      <c r="B176"/>
-      <c r="E176"/>
+      <c r="A176" s="1">
+        <v>43690</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F176" s="9">
+        <f>E176-C176</f>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="G176" s="4">
+        <f>SUM($F$1:F176)</f>
+        <v>4.7800000000000153</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>43688</v>
+        <v>43690</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D177" s="3">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="E177" s="4">
-        <v>6.08</v>
+        <v>2.06</v>
       </c>
       <c r="F177" s="9">
         <f>E177-C177</f>
-        <v>2.08</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="G177" s="4">
         <f>SUM($F$1:F177)</f>
-        <v>3.7600000000000149</v>
+        <v>4.8400000000000158</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>43688</v>
+        <v>43690</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178" s="3">
-        <v>1.42</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E178" s="4">
-        <v>2.84</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F178" s="9">
         <f>E178-C178</f>
-        <v>0.83999999999999986</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="G178" s="4">
         <f>SUM($F$1:F178)</f>
-        <v>4.6000000000000147</v>
+        <v>7.2400000000000162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+      <c r="F179" s="9">
+        <f>E179-C179</f>
+        <v>-2</v>
+      </c>
+      <c r="G179" s="4">
+        <f>SUM($F$1:F179)</f>
+        <v>5.2400000000000162</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>43690</v>
+        <v>43692</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="E180" s="4">
-        <v>2.1800000000000002</v>
+        <v>2.84</v>
       </c>
       <c r="F180" s="9">
         <f>E180-C180</f>
-        <v>0.18000000000000016</v>
+        <v>0.83999999999999986</v>
       </c>
       <c r="G180" s="4">
         <f>SUM($F$1:F180)</f>
-        <v>4.7800000000000153</v>
+        <v>6.0800000000000161</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>43690</v>
+        <v>43692</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="D181" s="3">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="E181" s="4">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="F181" s="9">
         <f>E181-C181</f>
-        <v>6.0000000000000053E-2</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="G181" s="4">
         <f>SUM($F$1:F181)</f>
-        <v>4.8400000000000158</v>
+        <v>6.8800000000000159</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>43690</v>
+        <v>43692</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E182" s="4">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F182" s="9">
         <f>E182-C182</f>
-        <v>2.4000000000000004</v>
+        <v>-2</v>
       </c>
       <c r="G182" s="4">
         <f>SUM($F$1:F182)</f>
-        <v>7.2400000000000162</v>
+        <v>4.8800000000000159</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="E183" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F183" s="9">
+        <f>E183-C183</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="G183" s="4">
+        <f>SUM($F$1:F183)</f>
+        <v>5.5600000000000165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0</v>
+      </c>
+      <c r="F184" s="9">
+        <f>E184-C184</f>
+        <v>-2</v>
+      </c>
+      <c r="G184" s="4">
+        <f>SUM($F$1:F184)</f>
+        <v>3.5600000000000165</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="E185" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="F185" s="9">
+        <f>E185-C185</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G185" s="4">
+        <f>SUM($F$1:F185)</f>
+        <v>3.6000000000000165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186">
+        <v>8</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+      <c r="F186" s="9">
+        <f>E186-C186</f>
+        <v>-8</v>
+      </c>
+      <c r="G186" s="4">
+        <f>SUM($F$1:F186)</f>
+        <v>-4.3999999999999835</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="4620" windowWidth="13880" windowHeight="15640" tabRatio="500"/>
+    <workbookView xWindow="18080" yWindow="3560" windowWidth="13880" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
   <si>
     <t>BB&amp;T Atlanta Open</t>
   </si>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4228,7 +4228,7 @@
         <v>8.6</v>
       </c>
       <c r="F172" s="9">
-        <f>E172-C172</f>
+        <f t="shared" ref="F172:F190" si="9">E172-C172</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G172" s="4">
@@ -4253,7 +4253,7 @@
         <v>2.96</v>
       </c>
       <c r="F173" s="9">
-        <f>E173-C173</f>
+        <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
       <c r="G173" s="4">
@@ -4278,7 +4278,7 @@
         <v>6.08</v>
       </c>
       <c r="F174" s="9">
-        <f>E174-C174</f>
+        <f t="shared" si="9"/>
         <v>2.08</v>
       </c>
       <c r="G174" s="4">
@@ -4303,7 +4303,7 @@
         <v>2.84</v>
       </c>
       <c r="F175" s="9">
-        <f>E175-C175</f>
+        <f t="shared" si="9"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="G175" s="4">
@@ -4328,7 +4328,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F176" s="9">
-        <f>E176-C176</f>
+        <f t="shared" si="9"/>
         <v>0.18000000000000016</v>
       </c>
       <c r="G176" s="4">
@@ -4353,7 +4353,7 @@
         <v>2.06</v>
       </c>
       <c r="F177" s="9">
-        <f>E177-C177</f>
+        <f t="shared" si="9"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="G177" s="4">
@@ -4378,7 +4378,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F178" s="9">
-        <f>E178-C178</f>
+        <f t="shared" si="9"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="G178" s="4">
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="9">
-        <f>E179-C179</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="G179" s="4">
@@ -4428,7 +4428,7 @@
         <v>2.84</v>
       </c>
       <c r="F180" s="9">
-        <f>E180-C180</f>
+        <f t="shared" si="9"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="G180" s="4">
@@ -4453,7 +4453,7 @@
         <v>2.8</v>
       </c>
       <c r="F181" s="9">
-        <f>E181-C181</f>
+        <f t="shared" si="9"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="G181" s="4">
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="F182" s="9">
-        <f>E182-C182</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="G182" s="4">
@@ -4503,7 +4503,7 @@
         <v>2.68</v>
       </c>
       <c r="F183" s="9">
-        <f>E183-C183</f>
+        <f t="shared" si="9"/>
         <v>0.68000000000000016</v>
       </c>
       <c r="G183" s="4">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="9">
-        <f>E184-C184</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="G184" s="4">
@@ -4553,7 +4553,7 @@
         <v>2.04</v>
       </c>
       <c r="F185" s="9">
-        <f>E185-C185</f>
+        <f t="shared" si="9"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G185" s="4">
@@ -4578,12 +4578,112 @@
         <v>0</v>
       </c>
       <c r="F186" s="9">
-        <f>E186-C186</f>
+        <f t="shared" si="9"/>
         <v>-8</v>
       </c>
       <c r="G186" s="4">
         <f>SUM($F$1:F186)</f>
         <v>-4.3999999999999835</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A187" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0</v>
+      </c>
+      <c r="F187" s="9">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="G187" s="4">
+        <f>SUM($F$1:F187)</f>
+        <v>-8.3999999999999844</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="E188" s="4">
+        <v>10</v>
+      </c>
+      <c r="F188" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="4">
+        <f>SUM($F$1:F188)</f>
+        <v>-8.3999999999999844</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A189" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+      <c r="F189" s="9">
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="G189" s="4">
+        <f>SUM($F$1:F189)</f>
+        <v>-18.399999999999984</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="E190" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="F190" s="9">
+        <f t="shared" si="9"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="G190" s="4">
+        <f>SUM($F$1:F190)</f>
+        <v>-18.279999999999983</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t>BB&amp;T Atlanta Open</t>
   </si>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4228,7 +4228,7 @@
         <v>8.6</v>
       </c>
       <c r="F172" s="9">
-        <f t="shared" ref="F172:F190" si="9">E172-C172</f>
+        <f t="shared" ref="F172:F192" si="9">E172-C172</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G172" s="4">
@@ -4684,6 +4684,56 @@
       <c r="G190" s="4">
         <f>SUM($F$1:F190)</f>
         <v>-18.279999999999983</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A191" s="1">
+        <v>43694</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="E191" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="F191" s="9">
+        <f t="shared" si="9"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="G191" s="4">
+        <f>SUM($F$1:F191)</f>
+        <v>-14.079999999999984</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" s="1">
+        <v>43694</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+      <c r="F192" s="9">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="G192" s="4">
+        <f>SUM($F$1:F192)</f>
+        <v>-18.079999999999984</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3580" windowWidth="14040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="4820" windowWidth="14040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="123">
   <si>
     <t>tx id</t>
   </si>
@@ -357,6 +357,45 @@
   </si>
   <si>
     <t>haase</t>
+  </si>
+  <si>
+    <t>rosol</t>
+  </si>
+  <si>
+    <t>krueger</t>
+  </si>
+  <si>
+    <t>usp</t>
+  </si>
+  <si>
+    <t>lorenzi</t>
+  </si>
+  <si>
+    <t>polansky</t>
+  </si>
+  <si>
+    <t>galovic</t>
+  </si>
+  <si>
+    <t>griekspoor tallo</t>
+  </si>
+  <si>
+    <t>lestienne</t>
+  </si>
+  <si>
+    <t>rubin</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>johnson</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>wsa</t>
   </si>
 </sst>
 </file>
@@ -821,11 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H257" sqref="H257"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6796,14 +6835,18 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B224" s="2" t="s">
-        <v>95</v>
+      <c r="I224" s="12">
+        <f>SUM(H225:H237)</f>
+        <v>21.47</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B225" s="2">
         <v>43696</v>
       </c>
+      <c r="C225" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D225" s="3" t="s">
         <v>28</v>
       </c>
@@ -6817,7 +6860,7 @@
         <v>6.2</v>
       </c>
       <c r="H225" s="7">
-        <f>G225-E225</f>
+        <f t="shared" ref="H225:H232" si="12">G225-E225</f>
         <v>4.2</v>
       </c>
       <c r="I225" s="7">
@@ -6829,6 +6872,9 @@
       <c r="B226" s="2">
         <v>43696</v>
       </c>
+      <c r="C226" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D226" s="3" t="s">
         <v>96</v>
       </c>
@@ -6842,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="H226" s="7">
-        <f>G226-E226</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I226" s="7">
@@ -6854,6 +6900,9 @@
       <c r="B227" s="2">
         <v>43696</v>
       </c>
+      <c r="C227" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D227" s="3" t="s">
         <v>97</v>
       </c>
@@ -6867,7 +6916,7 @@
         <v>9.75</v>
       </c>
       <c r="H227" s="7">
-        <f>G227-E227</f>
+        <f t="shared" si="12"/>
         <v>4.75</v>
       </c>
       <c r="I227" s="7">
@@ -6879,6 +6928,9 @@
       <c r="B228" s="2">
         <v>43696</v>
       </c>
+      <c r="C228" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D228" s="3" t="s">
         <v>20</v>
       </c>
@@ -6892,7 +6944,7 @@
         <v>2.68</v>
       </c>
       <c r="H228" s="7">
-        <f>G228-E228</f>
+        <f t="shared" si="12"/>
         <v>0.68000000000000016</v>
       </c>
       <c r="I228" s="7">
@@ -6904,6 +6956,9 @@
       <c r="B229" s="2">
         <v>43696</v>
       </c>
+      <c r="C229" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D229" s="3" t="s">
         <v>98</v>
       </c>
@@ -6917,7 +6972,7 @@
         <v>12</v>
       </c>
       <c r="H229" s="7">
-        <f>G229-E229</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I229" s="7">
@@ -6929,6 +6984,9 @@
       <c r="B230" s="2">
         <v>43696</v>
       </c>
+      <c r="C230" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D230" s="3" t="s">
         <v>99</v>
       </c>
@@ -6942,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="7">
-        <f>G230-E230</f>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="I230" s="7">
@@ -6954,6 +7012,9 @@
       <c r="B231" s="2">
         <v>43696</v>
       </c>
+      <c r="C231" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D231" s="19" t="s">
         <v>100</v>
       </c>
@@ -6967,7 +7028,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="H231" s="7">
-        <f>G231-E231</f>
+        <f t="shared" si="12"/>
         <v>0.18000000000000016</v>
       </c>
       <c r="I231" s="7">
@@ -6979,6 +7040,9 @@
       <c r="B232" s="2">
         <v>43696</v>
       </c>
+      <c r="C232" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D232" s="3" t="s">
         <v>101</v>
       </c>
@@ -6992,7 +7056,7 @@
         <v>4.3</v>
       </c>
       <c r="H232" s="7">
-        <f>G232-E232</f>
+        <f t="shared" si="12"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="I232" s="7">
@@ -7000,25 +7064,56 @@
         <v>-0.46999999999999931</v>
       </c>
     </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B233" s="2">
+        <v>43696</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E233" s="4">
+        <v>2</v>
+      </c>
+      <c r="F233" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="G233" s="6">
+        <v>2.64</v>
+      </c>
+      <c r="H233" s="7">
+        <f>G233-E233</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="I233" s="7">
+        <f>SUM($H$2:H233)</f>
+        <v>0.17000000000000082</v>
+      </c>
+    </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B234" s="2">
         <v>43696</v>
       </c>
+      <c r="C234" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D234" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E234" s="4">
         <v>2</v>
       </c>
       <c r="F234" s="5">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="G234" s="6">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="H234" s="7">
         <f>G234-E234</f>
-        <v>0.64000000000000012</v>
+        <v>0</v>
       </c>
       <c r="I234" s="7">
         <f>SUM($H$2:H234)</f>
@@ -7029,106 +7124,99 @@
       <c r="B235" s="2">
         <v>43696</v>
       </c>
+      <c r="C235" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D235" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E235" s="4">
         <v>2</v>
       </c>
       <c r="F235" s="5">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="G235" s="6">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="H235" s="7">
         <f>G235-E235</f>
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="I235" s="7">
         <f>SUM($H$2:H235)</f>
-        <v>0.17000000000000082</v>
+        <v>1.1300000000000008</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B236" s="2">
         <v>43696</v>
       </c>
+      <c r="C236" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D236" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E236" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F236" s="5">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="G236" s="6">
-        <v>2.96</v>
+        <v>6.4</v>
       </c>
       <c r="H236" s="7">
         <f>G236-E236</f>
-        <v>0.96</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="I236" s="7">
         <f>SUM($H$2:H236)</f>
-        <v>1.1300000000000008</v>
+        <v>3.5300000000000011</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B237" s="2">
         <v>43696</v>
       </c>
+      <c r="C237" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D237" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E237" s="4">
         <v>4</v>
       </c>
       <c r="F237" s="5">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="G237" s="6">
-        <v>6.4</v>
+        <v>5.36</v>
       </c>
       <c r="H237" s="7">
         <f>G237-E237</f>
-        <v>2.4000000000000004</v>
+        <v>1.3600000000000003</v>
       </c>
       <c r="I237" s="7">
         <f>SUM($H$2:H237)</f>
-        <v>3.5300000000000011</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B238" s="2">
-        <v>43696</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E238" s="4">
-        <v>4</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.34</v>
-      </c>
-      <c r="G238" s="6">
-        <v>5.36</v>
-      </c>
-      <c r="H238" s="7">
-        <f>G238-E238</f>
-        <v>1.3600000000000003</v>
-      </c>
-      <c r="I238" s="7">
-        <f>SUM($H$2:H238)</f>
         <v>4.8900000000000015</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I239" s="12">
+        <f>SUM(H240:H250)</f>
+        <v>0.7200000000000002</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B240" s="2">
         <v>43697</v>
       </c>
+      <c r="C240" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D240" s="3" t="s">
         <v>104</v>
       </c>
@@ -7142,7 +7230,7 @@
         <v>2.9</v>
       </c>
       <c r="H240" s="7">
-        <f>G240-E240</f>
+        <f t="shared" ref="H240:H250" si="13">G240-E240</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="I240" s="7">
@@ -7154,6 +7242,9 @@
       <c r="B241" s="2">
         <v>43697</v>
       </c>
+      <c r="C241" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D241" s="3" t="s">
         <v>105</v>
       </c>
@@ -7167,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="7">
-        <f>G241-E241</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="I241" s="7">
@@ -7179,6 +7270,9 @@
       <c r="B242" s="2">
         <v>43697</v>
       </c>
+      <c r="C242" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D242" s="3" t="s">
         <v>33</v>
       </c>
@@ -7192,7 +7286,7 @@
         <v>2.6</v>
       </c>
       <c r="H242" s="7">
-        <f>G242-E242</f>
+        <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="I242" s="7">
@@ -7204,6 +7298,9 @@
       <c r="B243" s="2">
         <v>43697</v>
       </c>
+      <c r="C243" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D243" s="3" t="s">
         <v>97</v>
       </c>
@@ -7217,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="H243" s="7">
-        <f>G243-E243</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="I243" s="7">
@@ -7229,6 +7326,9 @@
       <c r="B244" s="2">
         <v>43697</v>
       </c>
+      <c r="C244" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D244" s="3" t="s">
         <v>106</v>
       </c>
@@ -7242,7 +7342,7 @@
         <v>3.2</v>
       </c>
       <c r="H244" s="7">
-        <f>G244-E244</f>
+        <f t="shared" si="13"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="I244" s="7">
@@ -7254,6 +7354,9 @@
       <c r="B245" s="2">
         <v>43697</v>
       </c>
+      <c r="C245" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D245" s="3" t="s">
         <v>107</v>
       </c>
@@ -7267,7 +7370,7 @@
         <v>3.6</v>
       </c>
       <c r="H245" s="7">
-        <f>G245-E245</f>
+        <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
       <c r="I245" s="7">
@@ -7279,6 +7382,9 @@
       <c r="B246" s="2">
         <v>43697</v>
       </c>
+      <c r="C246" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D246" s="3" t="s">
         <v>27</v>
       </c>
@@ -7292,7 +7398,7 @@
         <v>3.1</v>
       </c>
       <c r="H246" s="7">
-        <f>G246-E246</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="I246" s="7">
@@ -7304,6 +7410,9 @@
       <c r="B247" s="2">
         <v>43697</v>
       </c>
+      <c r="C247" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D247" s="3" t="s">
         <v>32</v>
       </c>
@@ -7317,7 +7426,7 @@
         <v>3.8</v>
       </c>
       <c r="H247" s="7">
-        <f>G247-E247</f>
+        <f t="shared" si="13"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="I247" s="7">
@@ -7329,6 +7438,9 @@
       <c r="B248" s="2">
         <v>43697</v>
       </c>
+      <c r="C248" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D248" s="3" t="s">
         <v>92</v>
       </c>
@@ -7342,7 +7454,7 @@
         <v>2.52</v>
       </c>
       <c r="H248" s="7">
-        <f>G248-E248</f>
+        <f t="shared" si="13"/>
         <v>0.52</v>
       </c>
       <c r="I248" s="7">
@@ -7354,6 +7466,9 @@
       <c r="B249" s="2">
         <v>43697</v>
       </c>
+      <c r="C249" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D249" s="3" t="s">
         <v>101</v>
       </c>
@@ -7367,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="H249" s="7">
-        <f>G249-E249</f>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="I249" s="7">
@@ -7379,6 +7494,9 @@
       <c r="B250" s="2">
         <v>43697</v>
       </c>
+      <c r="C250" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D250" s="3" t="s">
         <v>108</v>
       </c>
@@ -7392,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="H250" s="7">
-        <f>G250-E250</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I250" s="7">
@@ -7401,149 +7519,145 @@
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B252" s="2">
-        <v>43698</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E252" s="4">
-        <v>2</v>
-      </c>
-      <c r="F252" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G252" s="6">
-        <v>0</v>
-      </c>
-      <c r="H252" s="7">
-        <f>G252-E252</f>
-        <v>-2</v>
-      </c>
-      <c r="I252" s="7">
-        <f>SUM($H$2:H252)</f>
-        <v>3.6100000000000012</v>
+      <c r="I252" s="12">
+        <f>SUM(H253:H260)</f>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B253" s="2">
         <v>43698</v>
       </c>
+      <c r="C253" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D253" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E253" s="4">
         <v>2</v>
       </c>
       <c r="F253" s="5">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G253" s="6">
         <v>0</v>
       </c>
       <c r="H253" s="7">
-        <f>G253-E253</f>
+        <f t="shared" ref="H253:H260" si="14">G253-E253</f>
         <v>-2</v>
       </c>
       <c r="I253" s="7">
         <f>SUM($H$2:H253)</f>
-        <v>1.6100000000000012</v>
+        <v>3.6100000000000012</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B254" s="2">
         <v>43698</v>
       </c>
+      <c r="C254" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D254" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E254" s="4">
         <v>2</v>
       </c>
       <c r="F254" s="5">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="G254" s="6">
         <v>0</v>
       </c>
       <c r="H254" s="7">
-        <f>G254-E254</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="I254" s="7">
         <f>SUM($H$2:H254)</f>
-        <v>-0.38999999999999879</v>
+        <v>1.6100000000000012</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B255" s="2">
         <v>43698</v>
       </c>
+      <c r="C255" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D255" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E255" s="4">
         <v>2</v>
       </c>
       <c r="F255" s="5">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="G255" s="6">
         <v>0</v>
       </c>
       <c r="H255" s="7">
-        <f>G255-E255</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="I255" s="7">
         <f>SUM($H$2:H255)</f>
-        <v>-2.3899999999999988</v>
+        <v>-0.38999999999999879</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B256" s="2">
         <v>43698</v>
       </c>
+      <c r="C256" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D256" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E256" s="4">
         <v>2</v>
       </c>
       <c r="F256" s="5">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G256" s="6">
         <v>0</v>
       </c>
       <c r="H256" s="7">
-        <f>G256-E256</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="I256" s="7">
         <f>SUM($H$2:H256)</f>
-        <v>-4.3899999999999988</v>
+        <v>-2.3899999999999988</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B257" s="2">
         <v>43698</v>
       </c>
+      <c r="C257" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D257" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E257" s="4">
         <v>2</v>
       </c>
       <c r="F257" s="5">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="G257" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H257" s="7">
-        <f>G257-E257</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-2</v>
       </c>
       <c r="I257" s="7">
         <f>SUM($H$2:H257)</f>
@@ -7554,20 +7668,23 @@
       <c r="B258" s="2">
         <v>43698</v>
       </c>
+      <c r="C258" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D258" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E258" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F258" s="5">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="G258" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H258" s="7">
-        <f>G258-E258</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I258" s="7">
@@ -7579,25 +7696,354 @@
       <c r="B259" s="2">
         <v>43698</v>
       </c>
+      <c r="C259" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D259" s="3" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="E259" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F259" s="5">
-        <v>2.2000000000000002</v>
+        <v>1.65</v>
       </c>
       <c r="G259" s="6">
-        <v>4.4000000000000004</v>
+        <v>8</v>
       </c>
       <c r="H259" s="7">
-        <f>G259-E259</f>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="I259" s="7">
         <f>SUM($H$2:H259)</f>
+        <v>-4.3899999999999988</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B260" s="2">
+        <v>43698</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E260" s="4">
+        <v>2</v>
+      </c>
+      <c r="F260" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G260" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H260" s="7">
+        <f t="shared" si="14"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I260" s="7">
+        <f>SUM($H$2:H260)</f>
         <v>-1.9899999999999984</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I262" s="12">
+        <f>SUM(H263:H273)</f>
+        <v>-5.4600000000000017</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B263" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E263" s="4">
+        <v>6</v>
+      </c>
+      <c r="F263" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="G263" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H263" s="7">
+        <f t="shared" ref="H263:H271" si="15">G263-E263</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="I263" s="7">
+        <f>SUM($H$2:H263)</f>
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B264" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E264" s="4">
+        <v>5</v>
+      </c>
+      <c r="F264" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G264" s="6">
+        <v>0</v>
+      </c>
+      <c r="H264" s="7">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+      <c r="I264" s="7">
+        <f>SUM($H$2:H264)</f>
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B265" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E265" s="4">
+        <v>5</v>
+      </c>
+      <c r="F265" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="G265" s="6">
+        <v>13</v>
+      </c>
+      <c r="H265" s="7">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I265" s="7">
+        <f>SUM($H$2:H265)</f>
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B266" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E266" s="4">
+        <v>8</v>
+      </c>
+      <c r="F266" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="G266" s="6">
+        <v>0</v>
+      </c>
+      <c r="H266" s="7">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+      <c r="I266" s="7">
+        <f>SUM($H$2:H266)</f>
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B267" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E267" s="4">
+        <v>6</v>
+      </c>
+      <c r="F267" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="G267" s="6">
+        <v>0</v>
+      </c>
+      <c r="H267" s="7">
+        <f t="shared" si="15"/>
+        <v>-6</v>
+      </c>
+      <c r="I267" s="7">
+        <f>SUM($H$2:H267)</f>
+        <v>-1.5899999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B268" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E268" s="4">
+        <v>2</v>
+      </c>
+      <c r="F268" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="G268" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H268" s="7">
+        <f t="shared" si="15"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="I268" s="7">
+        <f>SUM($H$2:H268)</f>
+        <v>-0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B269" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E269" s="4">
+        <v>4</v>
+      </c>
+      <c r="F269" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="G269" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="H269" s="7">
+        <f t="shared" si="15"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="I269" s="7">
+        <f>SUM($H$2:H269)</f>
+        <v>1.5499999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B270" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E270" s="4">
+        <v>6</v>
+      </c>
+      <c r="F270" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="G270" s="6">
+        <v>0</v>
+      </c>
+      <c r="H270" s="7">
+        <f t="shared" si="15"/>
+        <v>-6</v>
+      </c>
+      <c r="I270" s="7">
+        <f>SUM($H$2:H270)</f>
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B271" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E271" s="4">
+        <v>3</v>
+      </c>
+      <c r="F271" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="G271" s="6">
+        <v>0</v>
+      </c>
+      <c r="H271" s="7">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+      <c r="I271" s="7">
+        <f>SUM($H$2:H271)</f>
+        <v>-7.45</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B272" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E272" s="4">
+        <v>2</v>
+      </c>
+      <c r="F272" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B273" s="2">
+        <v>43699</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E273" s="4">
+        <v>4</v>
+      </c>
+      <c r="F273" s="5">
+        <v>2</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="4820" windowWidth="14040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="2080" windowWidth="14040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="132">
   <si>
     <t>tx id</t>
   </si>
@@ -392,10 +392,37 @@
     <t>johnson</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>wsa</t>
+  </si>
+  <si>
+    <t>coppejans</t>
+  </si>
+  <si>
+    <t>kamke</t>
+  </si>
+  <si>
+    <t>griekspoor</t>
+  </si>
+  <si>
+    <t>koepfer dominik</t>
+  </si>
+  <si>
+    <t>vesely</t>
+  </si>
+  <si>
+    <t>menezes</t>
+  </si>
+  <si>
+    <t>chung h</t>
+  </si>
+  <si>
+    <t>donskoy</t>
+  </si>
+  <si>
+    <t>lestienne c</t>
+  </si>
+  <si>
+    <t>vilella martinez</t>
   </si>
 </sst>
 </file>
@@ -860,18 +887,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="5" customWidth="1"/>
@@ -7751,7 +7778,7 @@
     <row r="262" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I262" s="12">
         <f>SUM(H263:H273)</f>
-        <v>-5.4600000000000017</v>
+        <v>-8.4200000000000017</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.15">
@@ -8011,7 +8038,7 @@
         <v>43699</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>120</v>
@@ -8022,16 +8049,24 @@
       <c r="F272" s="5">
         <v>1.52</v>
       </c>
-      <c r="G272" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G272" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="H272" s="7">
+        <f t="shared" ref="H272:H273" si="16">G272-E272</f>
+        <v>1.04</v>
+      </c>
+      <c r="I272" s="7">
+        <f>SUM($H$2:H272)</f>
+        <v>-6.41</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B273" s="2">
         <v>43699</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>108</v>
@@ -8042,8 +8077,386 @@
       <c r="F273" s="5">
         <v>2</v>
       </c>
-      <c r="G273" s="6" t="s">
-        <v>121</v>
+      <c r="G273" s="6">
+        <v>0</v>
+      </c>
+      <c r="H273" s="7">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+      <c r="I273" s="7">
+        <f>SUM($H$2:H273)</f>
+        <v>-10.41</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I275" s="12">
+        <f>SUM(H276:H288)</f>
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B276" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E276" s="4">
+        <v>1</v>
+      </c>
+      <c r="F276" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="G276" s="6">
+        <v>0</v>
+      </c>
+      <c r="H276" s="7">
+        <f t="shared" ref="H276:H288" si="17">G276-E276</f>
+        <v>-1</v>
+      </c>
+      <c r="I276" s="7">
+        <f>SUM($H$2:H276)</f>
+        <v>-11.41</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B277" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E277" s="4">
+        <v>2</v>
+      </c>
+      <c r="F277" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="G277" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="H277" s="7">
+        <f t="shared" si="17"/>
+        <v>3.2</v>
+      </c>
+      <c r="I277" s="7">
+        <f>SUM($H$2:H277)</f>
+        <v>-8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B278" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E278" s="4">
+        <v>1</v>
+      </c>
+      <c r="F278" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="G278" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="H278" s="7">
+        <f t="shared" si="17"/>
+        <v>0.26</v>
+      </c>
+      <c r="I278" s="7">
+        <f>SUM($H$2:H278)</f>
+        <v>-7.9500000000000011</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B279" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E279" s="4">
+        <v>2</v>
+      </c>
+      <c r="F279" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="G279" s="6">
+        <v>0</v>
+      </c>
+      <c r="H279" s="7">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="I279" s="7">
+        <f>SUM($H$2:H279)</f>
+        <v>-9.9500000000000011</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B280" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E280" s="4">
+        <v>1</v>
+      </c>
+      <c r="F280" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="G280" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="H280" s="7">
+        <f t="shared" si="17"/>
+        <v>0.52</v>
+      </c>
+      <c r="I280" s="7">
+        <f>SUM($H$2:H280)</f>
+        <v>-9.4300000000000015</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B281" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E281" s="4">
+        <v>1</v>
+      </c>
+      <c r="F281" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="G281" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="H281" s="7">
+        <f t="shared" si="17"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="I281" s="7">
+        <f>SUM($H$2:H281)</f>
+        <v>-9.0700000000000021</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B282" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E282" s="4">
+        <v>1</v>
+      </c>
+      <c r="F282" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="G282" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="H282" s="7">
+        <f t="shared" si="17"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="I282" s="7">
+        <f>SUM($H$2:H282)</f>
+        <v>-8.3900000000000023</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B283" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E283" s="4">
+        <v>3</v>
+      </c>
+      <c r="F283" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G283" s="6">
+        <v>0</v>
+      </c>
+      <c r="H283" s="7">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="I283" s="7">
+        <f>SUM($H$2:H283)</f>
+        <v>-11.390000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B284" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E284" s="4">
+        <v>1</v>
+      </c>
+      <c r="F284" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="G284" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="H284" s="7">
+        <f t="shared" si="17"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="I284" s="7">
+        <f>SUM($H$2:H284)</f>
+        <v>-10.740000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B285" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E285" s="4">
+        <v>1</v>
+      </c>
+      <c r="F285" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="G285" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="H285" s="7">
+        <f t="shared" si="17"/>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="I285" s="7">
+        <f>SUM($H$2:H285)</f>
+        <v>-10.380000000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B286" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E286" s="4">
+        <v>1</v>
+      </c>
+      <c r="F286" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="G286" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H286" s="7">
+        <f t="shared" si="17"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I286" s="7">
+        <f>SUM($H$2:H286)</f>
+        <v>-9.7800000000000029</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B287" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E287" s="4">
+        <v>1</v>
+      </c>
+      <c r="F287" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="G287" s="6">
+        <v>0</v>
+      </c>
+      <c r="H287" s="7">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="I287" s="7">
+        <f>SUM($H$2:H287)</f>
+        <v>-10.780000000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B288" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E288" s="4">
+        <v>2</v>
+      </c>
+      <c r="F288" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="G288" s="6">
+        <v>0</v>
+      </c>
+      <c r="H288" s="7">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="I288" s="7">
+        <f>SUM($H$2:H288)</f>
+        <v>-12.780000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="145">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -416,6 +416,45 @@
   </si>
   <si>
     <t xml:space="preserve">vilella martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berdych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darcis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fucsovics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eubanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kudla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monteiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trungelliti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berankis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majchrzak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishioka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sock j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benchetrit ellio</t>
   </si>
 </sst>
 </file>
@@ -699,12 +738,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D270" activeCellId="0" sqref="D270"/>
+      <selection pane="bottomLeft" activeCell="A290" activeCellId="0" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8317,6 +8356,824 @@
         <v>-12.78</v>
       </c>
     </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I290" s="12" t="n">
+        <f aca="false">SUM(H291:H319)</f>
+        <v>-17.19</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E291" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F291" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="7" t="n">
+        <f aca="false">G291-E291</f>
+        <v>-2</v>
+      </c>
+      <c r="I291" s="7" t="n">
+        <f aca="false">SUM($H$2:H291)</f>
+        <v>-14.78</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E292" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F292" s="5" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G292" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H292" s="7" t="n">
+        <f aca="false">G292-E292</f>
+        <v>-3</v>
+      </c>
+      <c r="I292" s="7" t="n">
+        <f aca="false">SUM($H$2:H292)</f>
+        <v>-17.78</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E293" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F293" s="5" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G293" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" s="7" t="n">
+        <f aca="false">G293-E293</f>
+        <v>-3</v>
+      </c>
+      <c r="I293" s="7" t="n">
+        <f aca="false">SUM($H$2:H293)</f>
+        <v>-20.78</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E294" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F294" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G294" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" s="7" t="n">
+        <f aca="false">G294-E294</f>
+        <v>-2</v>
+      </c>
+      <c r="I294" s="7" t="n">
+        <f aca="false">SUM($H$2:H294)</f>
+        <v>-22.78</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E295" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F295" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G295" s="6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H295" s="7" t="n">
+        <f aca="false">G295-E295</f>
+        <v>0.96</v>
+      </c>
+      <c r="I295" s="7" t="n">
+        <f aca="false">SUM($H$2:H295)</f>
+        <v>-21.82</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E296" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F296" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G296" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" s="7" t="n">
+        <f aca="false">G296-E296</f>
+        <v>-3</v>
+      </c>
+      <c r="I296" s="7" t="n">
+        <f aca="false">SUM($H$2:H296)</f>
+        <v>-24.82</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E297" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F297" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G297" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H297" s="7" t="n">
+        <f aca="false">G297-E297</f>
+        <v>0</v>
+      </c>
+      <c r="I297" s="7" t="n">
+        <f aca="false">SUM($H$2:H297)</f>
+        <v>-24.82</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E298" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F298" s="5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G298" s="6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H298" s="7" t="n">
+        <f aca="false">G298-E298</f>
+        <v>0.65</v>
+      </c>
+      <c r="I298" s="7" t="n">
+        <f aca="false">SUM($H$2:H298)</f>
+        <v>-24.17</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E299" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G299" s="6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H299" s="7" t="n">
+        <f aca="false">G299-E299</f>
+        <v>0.24</v>
+      </c>
+      <c r="I299" s="7" t="n">
+        <f aca="false">SUM($H$2:H299)</f>
+        <v>-23.93</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E300" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" s="5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G300" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" s="7" t="n">
+        <f aca="false">G300-E300</f>
+        <v>-1</v>
+      </c>
+      <c r="I300" s="7" t="n">
+        <f aca="false">SUM($H$2:H300)</f>
+        <v>-24.93</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E301" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" s="5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G301" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" s="7" t="n">
+        <f aca="false">G301-E301</f>
+        <v>0</v>
+      </c>
+      <c r="I301" s="7" t="n">
+        <f aca="false">SUM($H$2:H301)</f>
+        <v>-24.93</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E302" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" s="5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G302" s="6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H302" s="7" t="n">
+        <f aca="false">G302-E302</f>
+        <v>0.18</v>
+      </c>
+      <c r="I302" s="7" t="n">
+        <f aca="false">SUM($H$2:H302)</f>
+        <v>-24.75</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E303" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G303" s="6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H303" s="7" t="n">
+        <f aca="false">G303-E303</f>
+        <v>0.42</v>
+      </c>
+      <c r="I303" s="7" t="n">
+        <f aca="false">SUM($H$2:H303)</f>
+        <v>-24.33</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G304" s="6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H304" s="7" t="n">
+        <f aca="false">G304-E304</f>
+        <v>0.0800000000000001</v>
+      </c>
+      <c r="I304" s="7" t="n">
+        <f aca="false">SUM($H$2:H304)</f>
+        <v>-24.25</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E305" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F305" s="5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G305" s="6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H305" s="7" t="n">
+        <f aca="false">G305-E305</f>
+        <v>0.0600000000000001</v>
+      </c>
+      <c r="I305" s="7" t="n">
+        <f aca="false">SUM($H$2:H305)</f>
+        <v>-24.19</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E306" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F306" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G306" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" s="7" t="n">
+        <f aca="false">G306-E306</f>
+        <v>-2</v>
+      </c>
+      <c r="I306" s="7" t="n">
+        <f aca="false">SUM($H$2:H306)</f>
+        <v>-26.19</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E307" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F307" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G307" s="6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H307" s="7" t="n">
+        <f aca="false">G307-E307</f>
+        <v>0.48</v>
+      </c>
+      <c r="I307" s="7" t="n">
+        <f aca="false">SUM($H$2:H307)</f>
+        <v>-25.71</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E308" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F308" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G308" s="6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H308" s="7" t="n">
+        <f aca="false">G308-E308</f>
+        <v>0.52</v>
+      </c>
+      <c r="I308" s="7" t="n">
+        <f aca="false">SUM($H$2:H308)</f>
+        <v>-25.19</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E309" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F309" s="5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G309" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H309" s="7" t="n">
+        <f aca="false">G309-E309</f>
+        <v>-1</v>
+      </c>
+      <c r="I309" s="7" t="n">
+        <f aca="false">SUM($H$2:H309)</f>
+        <v>-26.19</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F310" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G310" s="6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H310" s="7" t="n">
+        <f aca="false">G310-E310</f>
+        <v>0.6</v>
+      </c>
+      <c r="I310" s="7" t="n">
+        <f aca="false">SUM($H$2:H310)</f>
+        <v>-25.59</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E311" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F311" s="5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G311" s="6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H311" s="7" t="n">
+        <f aca="false">G311-E311</f>
+        <v>1.3</v>
+      </c>
+      <c r="I311" s="7" t="n">
+        <f aca="false">SUM($H$2:H311)</f>
+        <v>-24.29</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E312" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F312" s="5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G312" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" s="7" t="n">
+        <f aca="false">G312-E312</f>
+        <v>-2</v>
+      </c>
+      <c r="I312" s="7" t="n">
+        <f aca="false">SUM($H$2:H312)</f>
+        <v>-26.29</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E313" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F313" s="5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G313" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H313" s="7" t="n">
+        <f aca="false">G313-E313</f>
+        <v>-2</v>
+      </c>
+      <c r="I313" s="7" t="n">
+        <f aca="false">SUM($H$2:H313)</f>
+        <v>-28.29</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E314" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F314" s="5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G314" s="6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H314" s="7" t="n">
+        <f aca="false">G314-E314</f>
+        <v>2.1</v>
+      </c>
+      <c r="I314" s="7" t="n">
+        <f aca="false">SUM($H$2:H314)</f>
+        <v>-26.19</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E315" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F315" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G315" s="6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H315" s="7" t="n">
+        <f aca="false">G315-E315</f>
+        <v>0.24</v>
+      </c>
+      <c r="I315" s="7" t="n">
+        <f aca="false">SUM($H$2:H315)</f>
+        <v>-25.95</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E316" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G316" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H316" s="7" t="n">
+        <f aca="false">G316-E316</f>
+        <v>0.8</v>
+      </c>
+      <c r="I316" s="7" t="n">
+        <f aca="false">SUM($H$2:H316)</f>
+        <v>-25.15</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E317" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F317" s="5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G317" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" s="7" t="n">
+        <f aca="false">G317-E317</f>
+        <v>-3</v>
+      </c>
+      <c r="I317" s="7" t="n">
+        <f aca="false">SUM($H$2:H317)</f>
+        <v>-28.15</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E318" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F318" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G318" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" s="7" t="n">
+        <f aca="false">G318-E318</f>
+        <v>-2</v>
+      </c>
+      <c r="I318" s="7" t="n">
+        <f aca="false">SUM($H$2:H318)</f>
+        <v>-30.15</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E319" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F319" s="5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G319" s="6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H319" s="7" t="n">
+        <f aca="false">G319-E319</f>
+        <v>0.18</v>
+      </c>
+      <c r="I319" s="7" t="n">
+        <f aca="false">SUM($H$2:H319)</f>
+        <v>-29.97</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="153">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -455,6 +455,30 @@
   </si>
   <si>
     <t xml:space="preserve">benchetrit ellio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granollers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabbiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">george harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayer l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kokkinakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovalik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laaksonen</t>
   </si>
 </sst>
 </file>
@@ -738,12 +762,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A290" activeCellId="0" sqref="A290"/>
+      <selection pane="bottomLeft" activeCell="A321" activeCellId="0" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9174,6 +9198,908 @@
         <v>-29.97</v>
       </c>
     </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I321" s="12" t="n">
+        <f aca="false">SUM(H322:H353)</f>
+        <v>-7.84</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E322" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G322" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H322" s="7" t="n">
+        <f aca="false">G322-E322</f>
+        <v>-5</v>
+      </c>
+      <c r="I322" s="7" t="n">
+        <f aca="false">SUM($H$2:H322)</f>
+        <v>-34.97</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E323" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F323" s="5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G323" s="6" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H323" s="7" t="n">
+        <f aca="false">G323-E323</f>
+        <v>3.1</v>
+      </c>
+      <c r="I323" s="7" t="n">
+        <f aca="false">SUM($H$2:H323)</f>
+        <v>-31.87</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E324" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F324" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G324" s="6" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="H324" s="7" t="n">
+        <f aca="false">G324-E324</f>
+        <v>1.26</v>
+      </c>
+      <c r="I324" s="7" t="n">
+        <f aca="false">SUM($H$2:H324)</f>
+        <v>-30.61</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E325" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F325" s="5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G325" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" s="7" t="n">
+        <f aca="false">G325-E325</f>
+        <v>-2</v>
+      </c>
+      <c r="I325" s="7" t="n">
+        <f aca="false">SUM($H$2:H325)</f>
+        <v>-32.61</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E326" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F326" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G326" s="6" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H326" s="7" t="n">
+        <f aca="false">G326-E326</f>
+        <v>2.08</v>
+      </c>
+      <c r="I326" s="7" t="n">
+        <f aca="false">SUM($H$2:H326)</f>
+        <v>-30.53</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E327" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F327" s="5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G327" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" s="7" t="n">
+        <f aca="false">G327-E327</f>
+        <v>-4</v>
+      </c>
+      <c r="I327" s="7" t="n">
+        <f aca="false">SUM($H$2:H327)</f>
+        <v>-34.53</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E328" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F328" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G328" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H328" s="7" t="n">
+        <f aca="false">G328-E328</f>
+        <v>-3</v>
+      </c>
+      <c r="I328" s="7" t="n">
+        <f aca="false">SUM($H$2:H328)</f>
+        <v>-37.53</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E329" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F329" s="5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G329" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H329" s="7" t="n">
+        <f aca="false">G329-E329</f>
+        <v>-2</v>
+      </c>
+      <c r="I329" s="7" t="n">
+        <f aca="false">SUM($H$2:H329)</f>
+        <v>-39.53</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E330" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F330" s="5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G330" s="6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H330" s="7" t="n">
+        <f aca="false">G330-E330</f>
+        <v>0.54</v>
+      </c>
+      <c r="I330" s="7" t="n">
+        <f aca="false">SUM($H$2:H330)</f>
+        <v>-38.99</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E331" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F331" s="5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G331" s="6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H331" s="7" t="n">
+        <f aca="false">G331-E331</f>
+        <v>0.28</v>
+      </c>
+      <c r="I331" s="7" t="n">
+        <f aca="false">SUM($H$2:H331)</f>
+        <v>-38.71</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F332" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G332" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H332" s="7" t="n">
+        <f aca="false">G332-E332</f>
+        <v>-4</v>
+      </c>
+      <c r="I332" s="7" t="n">
+        <f aca="false">SUM($H$2:H332)</f>
+        <v>-42.71</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E333" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F333" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G333" s="6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H333" s="7" t="n">
+        <f aca="false">G333-E333</f>
+        <v>0.78</v>
+      </c>
+      <c r="I333" s="7" t="n">
+        <f aca="false">SUM($H$2:H333)</f>
+        <v>-41.93</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E334" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F334" s="5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G334" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" s="7" t="n">
+        <f aca="false">G334-E334</f>
+        <v>-3</v>
+      </c>
+      <c r="I334" s="7" t="n">
+        <f aca="false">SUM($H$2:H334)</f>
+        <v>-44.93</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E335" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F335" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G335" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" s="7" t="n">
+        <f aca="false">G335-E335</f>
+        <v>-2</v>
+      </c>
+      <c r="I335" s="7" t="n">
+        <f aca="false">SUM($H$2:H335)</f>
+        <v>-46.93</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E336" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F336" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G336" s="6" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H336" s="7" t="n">
+        <f aca="false">G336-E336</f>
+        <v>22.5</v>
+      </c>
+      <c r="I336" s="7" t="n">
+        <f aca="false">SUM($H$2:H336)</f>
+        <v>-24.43</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E337" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F337" s="5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G337" s="6" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="H337" s="7" t="n">
+        <f aca="false">G337-E337</f>
+        <v>0.66</v>
+      </c>
+      <c r="I337" s="7" t="n">
+        <f aca="false">SUM($H$2:H337)</f>
+        <v>-23.77</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E338" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F338" s="5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G338" s="6" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H338" s="7" t="n">
+        <f aca="false">G338-E338</f>
+        <v>0.96</v>
+      </c>
+      <c r="I338" s="7" t="n">
+        <f aca="false">SUM($H$2:H338)</f>
+        <v>-22.81</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E339" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F339" s="5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G339" s="6" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H339" s="7" t="n">
+        <f aca="false">G339-E339</f>
+        <v>1.14</v>
+      </c>
+      <c r="I339" s="7" t="n">
+        <f aca="false">SUM($H$2:H339)</f>
+        <v>-21.67</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E340" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F340" s="5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G340" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H340" s="7" t="n">
+        <f aca="false">G340-E340</f>
+        <v>-4</v>
+      </c>
+      <c r="I340" s="7" t="n">
+        <f aca="false">SUM($H$2:H340)</f>
+        <v>-25.67</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E341" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F341" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G341" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H341" s="7" t="n">
+        <f aca="false">G341-E341</f>
+        <v>-3</v>
+      </c>
+      <c r="I341" s="7" t="n">
+        <f aca="false">SUM($H$2:H341)</f>
+        <v>-28.67</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E342" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F342" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G342" s="6" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H342" s="7" t="n">
+        <f aca="false">G342-E342</f>
+        <v>0.72</v>
+      </c>
+      <c r="I342" s="7" t="n">
+        <f aca="false">SUM($H$2:H342)</f>
+        <v>-27.95</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E343" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F343" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G343" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H343" s="7" t="n">
+        <f aca="false">G343-E343</f>
+        <v>-3</v>
+      </c>
+      <c r="I343" s="7" t="n">
+        <f aca="false">SUM($H$2:H343)</f>
+        <v>-30.95</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E344" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F344" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G344" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H344" s="7" t="n">
+        <f aca="false">G344-E344</f>
+        <v>-5</v>
+      </c>
+      <c r="I344" s="7" t="n">
+        <f aca="false">SUM($H$2:H344)</f>
+        <v>-35.95</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E345" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F345" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G345" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H345" s="7" t="n">
+        <f aca="false">G345-E345</f>
+        <v>0</v>
+      </c>
+      <c r="I345" s="7" t="n">
+        <f aca="false">SUM($H$2:H345)</f>
+        <v>-35.95</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E346" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F346" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G346" s="6" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H346" s="7" t="n">
+        <f aca="false">G346-E346</f>
+        <v>2.55</v>
+      </c>
+      <c r="I346" s="7" t="n">
+        <f aca="false">SUM($H$2:H346)</f>
+        <v>-33.4</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E347" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F347" s="5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G347" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H347" s="7" t="n">
+        <f aca="false">G347-E347</f>
+        <v>-6</v>
+      </c>
+      <c r="I347" s="7" t="n">
+        <f aca="false">SUM($H$2:H347)</f>
+        <v>-39.4</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E348" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F348" s="5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G348" s="6" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="H348" s="7" t="n">
+        <f aca="false">G348-E348</f>
+        <v>4.05</v>
+      </c>
+      <c r="I348" s="7" t="n">
+        <f aca="false">SUM($H$2:H348)</f>
+        <v>-35.35</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E349" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F349" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G349" s="6" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H349" s="7" t="n">
+        <f aca="false">G349-E349</f>
+        <v>0.72</v>
+      </c>
+      <c r="I349" s="7" t="n">
+        <f aca="false">SUM($H$2:H349)</f>
+        <v>-34.63</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E350" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F350" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G350" s="6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H350" s="7" t="n">
+        <f aca="false">G350-E350</f>
+        <v>0.48</v>
+      </c>
+      <c r="I350" s="7" t="n">
+        <f aca="false">SUM($H$2:H350)</f>
+        <v>-34.15</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E351" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F351" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G351" s="6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H351" s="7" t="n">
+        <f aca="false">G351-E351</f>
+        <v>1.7</v>
+      </c>
+      <c r="I351" s="7" t="n">
+        <f aca="false">SUM($H$2:H351)</f>
+        <v>-32.45</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E352" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F352" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G352" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H352" s="7" t="n">
+        <f aca="false">G352-E352</f>
+        <v>-6</v>
+      </c>
+      <c r="I352" s="7" t="n">
+        <f aca="false">SUM($H$2:H352)</f>
+        <v>-38.45</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E353" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F353" s="5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G353" s="6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H353" s="7" t="n">
+        <f aca="false">G353-E353</f>
+        <v>0.64</v>
+      </c>
+      <c r="I353" s="7" t="n">
+        <f aca="false">SUM($H$2:H353)</f>
+        <v>-37.81</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -466,7 +466,7 @@
     <t xml:space="preserve">fabbiano</t>
   </si>
   <si>
-    <t xml:space="preserve">george harris</t>
+    <t xml:space="preserve">lloyd harris</t>
   </si>
   <si>
     <t xml:space="preserve">mayer l</t>
@@ -604,7 +604,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,7 +629,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,10 +658,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,12 +761,12 @@
   <dimension ref="A1:I353"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A321" activeCellId="0" sqref="A321"/>
+      <selection pane="bottomLeft" activeCell="G322" activeCellId="0" sqref="G322:G355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.99"/>
@@ -783,7 +779,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -812,13 +808,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="12" t="n">
         <f aca="false">SUM(H3:H14)</f>
         <v>38.3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>60716557240004900</v>
       </c>
@@ -837,7 +833,7 @@
       <c r="F3" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="n">
@@ -849,7 +845,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>53225617401257900</v>
       </c>
@@ -868,7 +864,7 @@
       <c r="F4" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="6" t="n">
         <v>9</v>
       </c>
       <c r="H4" s="7" t="n">
@@ -880,7 +876,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>55160578042260900</v>
       </c>
@@ -899,7 +895,7 @@
       <c r="F5" s="5" t="n">
         <v>1.18</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="6" t="n">
         <v>23.6</v>
       </c>
       <c r="H5" s="7" t="n">
@@ -911,7 +907,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>26447582270820900</v>
       </c>
@@ -930,7 +926,7 @@
       <c r="F6" s="5" t="n">
         <v>2.05</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="6" t="n">
         <v>10.25</v>
       </c>
       <c r="H6" s="7" t="n">
@@ -942,7 +938,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>86544399732709900</v>
       </c>
@@ -961,7 +957,7 @@
       <c r="F7" s="5" t="n">
         <v>1.58</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="6" t="n">
         <v>31.6</v>
       </c>
       <c r="H7" s="7" t="n">
@@ -973,7 +969,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>93727156562692900</v>
       </c>
@@ -992,7 +988,7 @@
       <c r="F8" s="5" t="n">
         <v>1.4</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="7" t="n">
@@ -1004,7 +1000,7 @@
         <v>-0.549999999999997</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>77974636236975900</v>
       </c>
@@ -1023,7 +1019,7 @@
       <c r="F9" s="5" t="n">
         <v>1.95</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="6" t="n">
         <v>9.75</v>
       </c>
       <c r="H9" s="7" t="n">
@@ -1035,7 +1031,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>82489604510483900</v>
       </c>
@@ -1054,7 +1050,7 @@
       <c r="F10" s="5" t="n">
         <v>2.6</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="6" t="n">
         <v>13</v>
       </c>
       <c r="H10" s="7" t="n">
@@ -1066,7 +1062,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>65769415495576900</v>
       </c>
@@ -1085,7 +1081,7 @@
       <c r="F11" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="6" t="n">
         <v>9.5</v>
       </c>
       <c r="H11" s="7" t="n">
@@ -1097,7 +1093,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>73103606585283900</v>
       </c>
@@ -1116,7 +1112,7 @@
       <c r="F12" s="5" t="n">
         <v>1.85</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="6" t="n">
         <v>37</v>
       </c>
       <c r="H12" s="7" t="n">
@@ -1128,7 +1124,7 @@
         <v>33.7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10148050934949900</v>
       </c>
@@ -1147,7 +1143,7 @@
       <c r="F13" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="6" t="n">
         <v>29.6</v>
       </c>
       <c r="H13" s="7" t="n">
@@ -1159,7 +1155,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>99480545992578900</v>
       </c>
@@ -1178,7 +1174,7 @@
       <c r="F14" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="G14" s="14" t="n">
+      <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="7" t="n">
@@ -1190,17 +1186,17 @@
         <v>38.3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="15"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="14"/>
       <c r="I16" s="12" t="n">
         <f aca="false">SUM(H17:H28)</f>
         <v>37.75</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15328972766758900</v>
       </c>
@@ -1219,7 +1215,7 @@
       <c r="F17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="14" t="n">
+      <c r="G17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="7" t="n">
@@ -1231,7 +1227,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>23192693053772900</v>
       </c>
@@ -1250,7 +1246,7 @@
       <c r="F18" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G18" s="14" t="n">
+      <c r="G18" s="6" t="n">
         <v>28.4</v>
       </c>
       <c r="H18" s="7" t="n">
@@ -1262,7 +1258,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>50128230610163900</v>
       </c>
@@ -1281,7 +1277,7 @@
       <c r="F19" s="5" t="n">
         <v>1.16</v>
       </c>
-      <c r="G19" s="14" t="n">
+      <c r="G19" s="6" t="n">
         <v>5.8</v>
       </c>
       <c r="H19" s="7" t="n">
@@ -1293,7 +1289,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>88979627592492900</v>
       </c>
@@ -1312,7 +1308,7 @@
       <c r="F20" s="5" t="n">
         <v>1.95</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="6" t="n">
         <v>9.75</v>
       </c>
       <c r="H20" s="7" t="n">
@@ -1324,7 +1320,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>8793541109445900</v>
       </c>
@@ -1343,7 +1339,7 @@
       <c r="F21" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G21" s="6" t="n">
         <v>29.6</v>
       </c>
       <c r="H21" s="7" t="n">
@@ -1355,7 +1351,7 @@
         <v>41.85</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>22282409803199900</v>
       </c>
@@ -1374,7 +1370,7 @@
       <c r="F22" s="5" t="n">
         <v>1.24</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="6" t="n">
         <v>6.2</v>
       </c>
       <c r="H22" s="7" t="n">
@@ -1386,7 +1382,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>7408066836900900</v>
       </c>
@@ -1405,7 +1401,7 @@
       <c r="F23" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G23" s="14" t="n">
+      <c r="G23" s="6" t="n">
         <v>7.4</v>
       </c>
       <c r="H23" s="7" t="n">
@@ -1417,7 +1413,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>8256411227378900</v>
       </c>
@@ -1436,7 +1432,7 @@
       <c r="F24" s="5" t="n">
         <v>1.28</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="6" t="n">
         <v>25.6</v>
       </c>
       <c r="H24" s="7" t="n">
@@ -1448,7 +1444,7 @@
         <v>51.05</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>69823633146967900</v>
       </c>
@@ -1467,7 +1463,7 @@
       <c r="F25" s="5" t="n">
         <v>1.45</v>
       </c>
-      <c r="G25" s="14" t="n">
+      <c r="G25" s="6" t="n">
         <v>29</v>
       </c>
       <c r="H25" s="7" t="n">
@@ -1479,7 +1475,7 @@
         <v>60.05</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>5559550535645900</v>
       </c>
@@ -1498,7 +1494,7 @@
       <c r="F26" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="G26" s="14" t="n">
+      <c r="G26" s="6" t="n">
         <v>50</v>
       </c>
       <c r="H26" s="7" t="n">
@@ -1510,7 +1506,7 @@
         <v>90.05</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>32704090244337900</v>
       </c>
@@ -1529,7 +1525,7 @@
       <c r="F27" s="5" t="n">
         <v>3.8</v>
       </c>
-      <c r="G27" s="14" t="n">
+      <c r="G27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="7" t="n">
@@ -1541,7 +1537,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>55809040279145900</v>
       </c>
@@ -1560,7 +1556,7 @@
       <c r="F28" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="G28" s="14" t="n">
+      <c r="G28" s="6" t="n">
         <v>26</v>
       </c>
       <c r="H28" s="7" t="n">
@@ -1572,19 +1568,19 @@
         <v>76.05</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="14"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="12" t="n">
         <f aca="false">SUM(H31:H42)</f>
         <v>-10.9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>55281985326571900</v>
       </c>
@@ -1603,7 +1599,7 @@
       <c r="F31" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="G31" s="14" t="n">
+      <c r="G31" s="6" t="n">
         <v>20</v>
       </c>
       <c r="H31" s="7" t="n">
@@ -1615,7 +1611,7 @@
         <v>76.05</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>28908656081156900</v>
       </c>
@@ -1634,7 +1630,7 @@
       <c r="F32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="14" t="n">
+      <c r="G32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="7" t="n">
@@ -1646,8 +1642,8 @@
         <v>66.05</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="n">
         <v>55789669685950900</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -1665,7 +1661,7 @@
       <c r="F33" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G33" s="14" t="n">
+      <c r="G33" s="6" t="n">
         <v>18</v>
       </c>
       <c r="H33" s="7" t="n">
@@ -1677,7 +1673,7 @@
         <v>74.05</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>83397613180977900</v>
       </c>
@@ -1696,7 +1692,7 @@
       <c r="F34" s="5" t="n">
         <v>1.45</v>
       </c>
-      <c r="G34" s="14" t="n">
+      <c r="G34" s="6" t="n">
         <v>14.5</v>
       </c>
       <c r="H34" s="7" t="n">
@@ -1708,7 +1704,7 @@
         <v>78.55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>6303592502202900</v>
       </c>
@@ -1727,7 +1723,7 @@
       <c r="F35" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="G35" s="14" t="n">
+      <c r="G35" s="6" t="n">
         <v>16</v>
       </c>
       <c r="H35" s="7" t="n">
@@ -1739,7 +1735,7 @@
         <v>84.55</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>77372903741363900</v>
       </c>
@@ -1758,7 +1754,7 @@
       <c r="F36" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G36" s="14" t="n">
+      <c r="G36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="n">
@@ -1770,7 +1766,7 @@
         <v>74.55</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>52987543344472900</v>
       </c>
@@ -1789,7 +1785,7 @@
       <c r="F37" s="5" t="n">
         <v>1.24</v>
       </c>
-      <c r="G37" s="14" t="n">
+      <c r="G37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="7" t="n">
@@ -1801,7 +1797,7 @@
         <v>64.55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>56209566032250900</v>
       </c>
@@ -1820,7 +1816,7 @@
       <c r="F38" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="G38" s="14" t="n">
+      <c r="G38" s="6" t="n">
         <v>19</v>
       </c>
       <c r="H38" s="7" t="n">
@@ -1832,7 +1828,7 @@
         <v>73.55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>70693646179063900</v>
       </c>
@@ -1851,7 +1847,7 @@
       <c r="F39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="14" t="n">
+      <c r="G39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="7" t="n">
@@ -1863,7 +1859,7 @@
         <v>63.55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>61783022146123900</v>
       </c>
@@ -1882,7 +1878,7 @@
       <c r="F40" s="5" t="n">
         <v>1.14</v>
       </c>
-      <c r="G40" s="14" t="n">
+      <c r="G40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="7" t="n">
@@ -1894,7 +1890,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>70419856915199900</v>
       </c>
@@ -1913,7 +1909,7 @@
       <c r="F41" s="5" t="n">
         <v>1.36</v>
       </c>
-      <c r="G41" s="14" t="n">
+      <c r="G41" s="6" t="n">
         <v>13.6</v>
       </c>
       <c r="H41" s="7" t="n">
@@ -1925,7 +1921,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>81762474744335900</v>
       </c>
@@ -1944,7 +1940,7 @@
       <c r="F42" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G42" s="14" t="n">
+      <c r="G42" s="6" t="n">
         <v>18</v>
       </c>
       <c r="H42" s="7" t="n">
@@ -1956,20 +1952,20 @@
         <v>65.15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="18"/>
-      <c r="F43" s="15"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="15"/>
-      <c r="H44" s="16"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="17"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="12" t="n">
         <f aca="false">SUM(H45:H57)</f>
         <v>-72.9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>37712115388531900</v>
       </c>
@@ -1988,7 +1984,7 @@
       <c r="F45" s="5" t="n">
         <v>1.22</v>
       </c>
-      <c r="G45" s="14" t="n">
+      <c r="G45" s="6" t="n">
         <v>18.3</v>
       </c>
       <c r="H45" s="7" t="n">
@@ -2000,7 +1996,7 @@
         <v>68.45</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45953178666791900</v>
       </c>
@@ -2019,7 +2015,7 @@
       <c r="F46" s="5" t="n">
         <v>1.75</v>
       </c>
-      <c r="G46" s="14" t="n">
+      <c r="G46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="7" t="n">
@@ -2031,7 +2027,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>57890110493409900</v>
       </c>
@@ -2050,7 +2046,7 @@
       <c r="F47" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="G47" s="14" t="n">
+      <c r="G47" s="6" t="n">
         <v>28.5</v>
       </c>
       <c r="H47" s="7" t="n">
@@ -2062,7 +2058,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>42699618425548900</v>
       </c>
@@ -2081,7 +2077,7 @@
       <c r="F48" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G48" s="14" t="n">
+      <c r="G48" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H48" s="7" t="n">
@@ -2093,7 +2089,7 @@
         <v>51.95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>43571718683245900</v>
       </c>
@@ -2112,7 +2108,7 @@
       <c r="F49" s="5" t="n">
         <v>1.72</v>
       </c>
-      <c r="G49" s="14" t="n">
+      <c r="G49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="7" t="n">
@@ -2124,7 +2120,7 @@
         <v>36.95</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>27501133718127900</v>
       </c>
@@ -2143,7 +2139,7 @@
       <c r="F50" s="5" t="n">
         <v>1.55</v>
       </c>
-      <c r="G50" s="14" t="n">
+      <c r="G50" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H50" s="7" t="n">
@@ -2155,7 +2151,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>93239611773477900</v>
       </c>
@@ -2174,7 +2170,7 @@
       <c r="F51" s="5" t="n">
         <v>1.55</v>
       </c>
-      <c r="G51" s="14" t="n">
+      <c r="G51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="7" t="n">
@@ -2186,7 +2182,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>30939569229229900</v>
       </c>
@@ -2205,7 +2201,7 @@
       <c r="F52" s="5" t="n">
         <v>1.46</v>
       </c>
-      <c r="G52" s="14" t="n">
+      <c r="G52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="7" t="n">
@@ -2217,7 +2213,7 @@
         <v>-8.05</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>80099781188467900</v>
       </c>
@@ -2236,7 +2232,7 @@
       <c r="F53" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G53" s="14" t="n">
+      <c r="G53" s="6" t="n">
         <v>19.8</v>
       </c>
       <c r="H53" s="7" t="n">
@@ -2248,7 +2244,7 @@
         <v>-3.25</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>19647482621903900</v>
       </c>
@@ -2267,7 +2263,7 @@
       <c r="F54" s="5" t="n">
         <v>1.46</v>
       </c>
-      <c r="G54" s="14" t="n">
+      <c r="G54" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="7" t="n">
@@ -2279,7 +2275,7 @@
         <v>-18.25</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>99900636881038900</v>
       </c>
@@ -2298,7 +2294,7 @@
       <c r="F55" s="5" t="n">
         <v>1.36</v>
       </c>
-      <c r="G55" s="14" t="n">
+      <c r="G55" s="6" t="n">
         <v>20.4</v>
       </c>
       <c r="H55" s="7" t="n">
@@ -2310,7 +2306,7 @@
         <v>-12.85</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>8904694386338900</v>
       </c>
@@ -2329,7 +2325,7 @@
       <c r="F56" s="5" t="n">
         <v>1.18</v>
       </c>
-      <c r="G56" s="14" t="n">
+      <c r="G56" s="6" t="n">
         <v>17.7</v>
       </c>
       <c r="H56" s="7" t="n">
@@ -2341,7 +2337,7 @@
         <v>-10.15</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>35769363193347900</v>
       </c>
@@ -2360,7 +2356,7 @@
       <c r="F57" s="5" t="n">
         <v>1.16</v>
       </c>
-      <c r="G57" s="14" t="n">
+      <c r="G57" s="6" t="n">
         <v>17.4</v>
       </c>
       <c r="H57" s="7" t="n">
@@ -2372,17 +2368,17 @@
         <v>-7.75</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="13"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="13"/>
       <c r="I59" s="12" t="n">
         <f aca="false">SUM(H60:H73)</f>
         <v>2.17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>92397530335118900</v>
       </c>
@@ -2401,7 +2397,7 @@
       <c r="F60" s="5" t="n">
         <v>1.24</v>
       </c>
-      <c r="G60" s="14" t="n">
+      <c r="G60" s="6" t="n">
         <v>13.64</v>
       </c>
       <c r="H60" s="7" t="n">
@@ -2413,7 +2409,7 @@
         <v>-5.11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>76692323817685900</v>
       </c>
@@ -2432,7 +2428,7 @@
       <c r="F61" s="5" t="n">
         <v>2.4</v>
       </c>
-      <c r="G61" s="14" t="n">
+      <c r="G61" s="6" t="n">
         <v>11</v>
       </c>
       <c r="H61" s="7" t="n">
@@ -2444,7 +2440,7 @@
         <v>-5.11</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>76437535954463900</v>
       </c>
@@ -2463,7 +2459,7 @@
       <c r="F62" s="5" t="n">
         <v>1.22</v>
       </c>
-      <c r="G62" s="14" t="n">
+      <c r="G62" s="6" t="n">
         <v>13.42</v>
       </c>
       <c r="H62" s="7" t="n">
@@ -2475,7 +2471,7 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>55765156120352900</v>
       </c>
@@ -2494,7 +2490,7 @@
       <c r="F63" s="5" t="n">
         <v>1.65</v>
       </c>
-      <c r="G63" s="14" t="n">
+      <c r="G63" s="6" t="n">
         <v>18.15</v>
       </c>
       <c r="H63" s="7" t="n">
@@ -2506,7 +2502,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>42584287494109900</v>
       </c>
@@ -2525,7 +2521,7 @@
       <c r="F64" s="5" t="n">
         <v>1.34</v>
       </c>
-      <c r="G64" s="14" t="n">
+      <c r="G64" s="6" t="n">
         <v>16.08</v>
       </c>
       <c r="H64" s="7" t="n">
@@ -2537,7 +2533,7 @@
         <v>8.54</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>44013658441449900</v>
       </c>
@@ -2556,7 +2552,7 @@
       <c r="F65" s="5" t="n">
         <v>2.35</v>
       </c>
-      <c r="G65" s="14" t="n">
+      <c r="G65" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="7" t="n">
@@ -2568,7 +2564,7 @@
         <v>-2.46</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>26904341718147900</v>
       </c>
@@ -2587,7 +2583,7 @@
       <c r="F66" s="5" t="n">
         <v>1.38</v>
       </c>
-      <c r="G66" s="14" t="n">
+      <c r="G66" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="7" t="n">
@@ -2599,7 +2595,7 @@
         <v>-14.46</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>37637444209940900</v>
       </c>
@@ -2618,7 +2614,7 @@
       <c r="F67" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="G67" s="14" t="n">
+      <c r="G67" s="6" t="n">
         <v>7.8</v>
       </c>
       <c r="H67" s="7" t="n">
@@ -2630,7 +2626,7 @@
         <v>-12.66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>23362559081882900</v>
       </c>
@@ -2649,7 +2645,7 @@
       <c r="F68" s="5" t="n">
         <v>1.28</v>
       </c>
-      <c r="G68" s="14" t="n">
+      <c r="G68" s="6" t="n">
         <v>7.68</v>
       </c>
       <c r="H68" s="7" t="n">
@@ -2661,7 +2657,7 @@
         <v>-10.98</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>12642755868013900</v>
       </c>
@@ -2680,7 +2676,7 @@
       <c r="F69" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="G69" s="14" t="n">
+      <c r="G69" s="6" t="n">
         <v>9.9</v>
       </c>
       <c r="H69" s="7" t="n">
@@ -2692,7 +2688,7 @@
         <v>-7.08</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>53523159851952900</v>
       </c>
@@ -2711,7 +2707,7 @@
       <c r="F70" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="G70" s="14" t="n">
+      <c r="G70" s="6" t="n">
         <v>7.8</v>
       </c>
       <c r="H70" s="7" t="n">
@@ -2723,7 +2719,7 @@
         <v>-5.28</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>66623083376638900</v>
       </c>
@@ -2742,7 +2738,7 @@
       <c r="F71" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="G71" s="14" t="n">
+      <c r="G71" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="7" t="n">
@@ -2754,7 +2750,7 @@
         <v>-11.28</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>16567392473416900</v>
       </c>
@@ -2773,7 +2769,7 @@
       <c r="F72" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G72" s="14" t="n">
+      <c r="G72" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H72" s="7" t="n">
@@ -2785,8 +2781,8 @@
         <v>-20.28</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="n">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="n">
         <v>84695128546519900</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -2804,7 +2800,7 @@
       <c r="F73" s="5" t="n">
         <v>3.1</v>
       </c>
-      <c r="G73" s="14" t="n">
+      <c r="G73" s="6" t="n">
         <v>21.7</v>
       </c>
       <c r="H73" s="7" t="n">
@@ -2816,14 +2812,14 @@
         <v>-5.58000000000001</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I75" s="12" t="n">
         <f aca="false">SUM(H76:H95)</f>
         <v>-6.1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="n">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="16" t="n">
         <v>55111933057819900</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -2841,7 +2837,7 @@
       <c r="F76" s="5" t="n">
         <v>1.36</v>
       </c>
-      <c r="G76" s="14" t="n">
+      <c r="G76" s="6" t="n">
         <v>4</v>
       </c>
       <c r="H76" s="7" t="n">
@@ -2853,8 +2849,8 @@
         <v>-5.58000000000001</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17" t="n">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16" t="n">
         <v>32449112561634900</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -2872,7 +2868,7 @@
       <c r="F77" s="5" t="n">
         <v>1.55</v>
       </c>
-      <c r="G77" s="14" t="n">
+      <c r="G77" s="6" t="n">
         <v>6.2</v>
       </c>
       <c r="H77" s="7" t="n">
@@ -2884,8 +2880,8 @@
         <v>-3.38000000000001</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17" t="n">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="16" t="n">
         <v>8399106639015900</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -2903,7 +2899,7 @@
       <c r="F78" s="5" t="n">
         <v>2.25</v>
       </c>
-      <c r="G78" s="14" t="n">
+      <c r="G78" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H78" s="7" t="n">
@@ -2915,8 +2911,8 @@
         <v>-7.38000000000001</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17" t="n">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="16" t="n">
         <v>92597797987084900</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -2934,7 +2930,7 @@
       <c r="F79" s="5" t="n">
         <v>1.95</v>
       </c>
-      <c r="G79" s="14" t="n">
+      <c r="G79" s="6" t="n">
         <v>5.85</v>
       </c>
       <c r="H79" s="7" t="n">
@@ -2946,8 +2942,8 @@
         <v>-4.53000000000001</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17" t="n">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="16" t="n">
         <v>83046874670368900</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -2965,7 +2961,7 @@
       <c r="F80" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G80" s="14" t="n">
+      <c r="G80" s="6" t="n">
         <v>5.92</v>
       </c>
       <c r="H80" s="7" t="n">
@@ -2977,8 +2973,8 @@
         <v>-2.61000000000001</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17" t="n">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="16" t="n">
         <v>17081153296060900</v>
       </c>
       <c r="B81" s="2" t="n">
@@ -2996,7 +2992,7 @@
       <c r="F81" s="5" t="n">
         <v>1.16</v>
       </c>
-      <c r="G81" s="14" t="n">
+      <c r="G81" s="6" t="n">
         <v>4.64</v>
       </c>
       <c r="H81" s="7" t="n">
@@ -3008,8 +3004,8 @@
         <v>-1.97000000000001</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17" t="n">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="16" t="n">
         <v>63433745394591900</v>
       </c>
       <c r="B82" s="2" t="n">
@@ -3027,7 +3023,7 @@
       <c r="F82" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G82" s="14" t="n">
+      <c r="G82" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H82" s="7" t="n">
@@ -3039,8 +3035,8 @@
         <v>-4.97000000000001</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17" t="n">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="16" t="n">
         <v>80240574931447900</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -3058,7 +3054,7 @@
       <c r="F83" s="5" t="n">
         <v>1.26</v>
       </c>
-      <c r="G83" s="14" t="n">
+      <c r="G83" s="6" t="n">
         <v>5.04</v>
       </c>
       <c r="H83" s="7" t="n">
@@ -3070,8 +3066,8 @@
         <v>-3.93000000000001</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17" t="n">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="16" t="n">
         <v>46519948408238900</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -3089,7 +3085,7 @@
       <c r="F84" s="5" t="n">
         <v>1.95</v>
       </c>
-      <c r="G84" s="14" t="n">
+      <c r="G84" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H84" s="7" t="n">
@@ -3101,8 +3097,8 @@
         <v>-7.93000000000001</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17" t="n">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="16" t="n">
         <v>38022576551995900</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -3120,7 +3116,7 @@
       <c r="F85" s="5" t="n">
         <v>1.65</v>
       </c>
-      <c r="G85" s="14" t="n">
+      <c r="G85" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H85" s="7" t="n">
@@ -3132,8 +3128,8 @@
         <v>-11.93</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17" t="n">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="16" t="n">
         <v>92105698423495900</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -3151,7 +3147,7 @@
       <c r="F86" s="5" t="n">
         <v>1.65</v>
       </c>
-      <c r="G86" s="14" t="n">
+      <c r="G86" s="6" t="n">
         <v>6.6</v>
       </c>
       <c r="H86" s="7" t="n">
@@ -3163,8 +3159,8 @@
         <v>-9.33000000000001</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17" t="n">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="16" t="n">
         <v>31449149026042900</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -3182,7 +3178,7 @@
       <c r="F87" s="5" t="n">
         <v>1.26</v>
       </c>
-      <c r="G87" s="14" t="n">
+      <c r="G87" s="6" t="n">
         <v>3.78</v>
       </c>
       <c r="H87" s="7" t="n">
@@ -3194,8 +3190,8 @@
         <v>-8.55000000000001</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17" t="n">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="16" t="n">
         <v>87540187595095900</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -3213,7 +3209,7 @@
       <c r="F88" s="5" t="n">
         <v>1.06</v>
       </c>
-      <c r="G88" s="14" t="n">
+      <c r="G88" s="6" t="n">
         <v>4.24</v>
       </c>
       <c r="H88" s="7" t="n">
@@ -3225,8 +3221,8 @@
         <v>-8.31000000000001</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17" t="n">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16" t="n">
         <v>72677812737745900</v>
       </c>
       <c r="B89" s="2" t="n">
@@ -3244,7 +3240,7 @@
       <c r="F89" s="5" t="n">
         <v>1.85</v>
       </c>
-      <c r="G89" s="14" t="n">
+      <c r="G89" s="6" t="n">
         <v>5.55</v>
       </c>
       <c r="H89" s="7" t="n">
@@ -3256,8 +3252,8 @@
         <v>-5.76000000000001</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17" t="n">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16" t="n">
         <v>96327114582474900</v>
       </c>
       <c r="B90" s="2" t="n">
@@ -3275,7 +3271,7 @@
       <c r="F90" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G90" s="14" t="n">
+      <c r="G90" s="6" t="n">
         <v>5.68</v>
       </c>
       <c r="H90" s="7" t="n">
@@ -3287,8 +3283,8 @@
         <v>-4.08000000000001</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17" t="n">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16" t="n">
         <v>14050656650510900</v>
       </c>
       <c r="B91" s="2" t="n">
@@ -3306,7 +3302,7 @@
       <c r="F91" s="5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G91" s="14" t="n">
+      <c r="G91" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H91" s="7" t="n">
@@ -3318,8 +3314,8 @@
         <v>-8.08000000000001</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="n">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="16" t="n">
         <v>90089413999497900</v>
       </c>
       <c r="B92" s="2" t="n">
@@ -3337,7 +3333,7 @@
       <c r="F92" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G92" s="14" t="n">
+      <c r="G92" s="6" t="n">
         <v>4.44</v>
       </c>
       <c r="H92" s="7" t="n">
@@ -3349,8 +3345,8 @@
         <v>-6.64000000000001</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="n">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16" t="n">
         <v>57383766173800900</v>
       </c>
       <c r="B93" s="2" t="n">
@@ -3368,7 +3364,7 @@
       <c r="F93" s="5" t="n">
         <v>1.85</v>
       </c>
-      <c r="G93" s="14" t="n">
+      <c r="G93" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H93" s="7" t="n">
@@ -3380,8 +3376,8 @@
         <v>-9.64000000000001</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="n">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="16" t="n">
         <v>14697983966019900</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -3399,7 +3395,7 @@
       <c r="F94" s="5" t="n">
         <v>1.24</v>
       </c>
-      <c r="G94" s="14" t="n">
+      <c r="G94" s="6" t="n">
         <v>4.96</v>
       </c>
       <c r="H94" s="7" t="n">
@@ -3411,8 +3407,8 @@
         <v>-8.68000000000001</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="n">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="16" t="n">
         <v>86413485825055900</v>
       </c>
       <c r="B95" s="2" t="n">
@@ -3430,7 +3426,7 @@
       <c r="F95" s="5" t="n">
         <v>1.68</v>
       </c>
-      <c r="G95" s="14" t="n">
+      <c r="G95" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H95" s="7" t="n">
@@ -3442,13 +3438,13 @@
         <v>-11.68</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I97" s="12" t="n">
         <f aca="false">SUM(H98:H105)</f>
         <v>5.65</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>64849811842845900</v>
       </c>
@@ -3467,7 +3463,7 @@
       <c r="F98" s="5" t="n">
         <v>3.2</v>
       </c>
-      <c r="G98" s="14" t="n">
+      <c r="G98" s="6" t="n">
         <v>12.8</v>
       </c>
       <c r="H98" s="7" t="n">
@@ -3479,7 +3475,7 @@
         <v>-2.88000000000001</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>88287833312115900</v>
       </c>
@@ -3498,7 +3494,7 @@
       <c r="F99" s="5" t="n">
         <v>1.45</v>
       </c>
-      <c r="G99" s="14" t="n">
+      <c r="G99" s="6" t="n">
         <v>4.35</v>
       </c>
       <c r="H99" s="7" t="n">
@@ -3510,7 +3506,7 @@
         <v>-1.53000000000001</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>63106942606968900</v>
       </c>
@@ -3529,7 +3525,7 @@
       <c r="F100" s="5" t="n">
         <v>1.58</v>
       </c>
-      <c r="G100" s="14" t="n">
+      <c r="G100" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H100" s="7" t="n">
@@ -3541,7 +3537,7 @@
         <v>-4.53000000000001</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>70733355466563900</v>
       </c>
@@ -3560,7 +3556,7 @@
       <c r="F101" s="5" t="n">
         <v>1.75</v>
       </c>
-      <c r="G101" s="14" t="n">
+      <c r="G101" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H101" s="7" t="n">
@@ -3572,7 +3568,7 @@
         <v>-7.53000000000001</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>47416930042785900</v>
       </c>
@@ -3591,7 +3587,7 @@
       <c r="F102" s="5" t="n">
         <v>2.4</v>
       </c>
-      <c r="G102" s="14" t="n">
+      <c r="G102" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H102" s="7" t="n">
@@ -3603,7 +3599,7 @@
         <v>-10.53</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>69461118490774900</v>
       </c>
@@ -3622,7 +3618,7 @@
       <c r="F103" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G103" s="14" t="n">
+      <c r="G103" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H103" s="7" t="n">
@@ -3634,7 +3630,7 @@
         <v>-13.53</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>96513317468669900</v>
       </c>
@@ -3653,7 +3649,7 @@
       <c r="F104" s="5" t="n">
         <v>2.1</v>
       </c>
-      <c r="G104" s="14" t="n">
+      <c r="G104" s="6" t="n">
         <v>6.3</v>
       </c>
       <c r="H104" s="7" t="n">
@@ -3665,7 +3661,7 @@
         <v>-10.23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>35542881310655900</v>
       </c>
@@ -3684,7 +3680,7 @@
       <c r="F105" s="5" t="n">
         <v>2.05</v>
       </c>
-      <c r="G105" s="14" t="n">
+      <c r="G105" s="6" t="n">
         <v>8.2</v>
       </c>
       <c r="H105" s="7" t="n">
@@ -3696,13 +3692,13 @@
         <v>-6.03000000000001</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I107" s="12" t="n">
         <f aca="false">SUM(H108:H114)</f>
         <v>-10.16</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>47904093306396900</v>
       </c>
@@ -3721,7 +3717,7 @@
       <c r="F108" s="5" t="n">
         <v>1.28</v>
       </c>
-      <c r="G108" s="14" t="n">
+      <c r="G108" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H108" s="7" t="n">
@@ -3733,7 +3729,7 @@
         <v>-9.03000000000001</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>59580545306070900</v>
       </c>
@@ -3752,7 +3748,7 @@
       <c r="F109" s="5" t="n">
         <v>2.15</v>
       </c>
-      <c r="G109" s="14" t="n">
+      <c r="G109" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H109" s="7" t="n">
@@ -3764,7 +3760,7 @@
         <v>-13.03</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>64292544573696900</v>
       </c>
@@ -3783,7 +3779,7 @@
       <c r="F110" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G110" s="14" t="n">
+      <c r="G110" s="6" t="n">
         <v>5.28</v>
       </c>
       <c r="H110" s="7" t="n">
@@ -3795,7 +3791,7 @@
         <v>-11.75</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>41751130129672900</v>
       </c>
@@ -3814,7 +3810,7 @@
       <c r="F111" s="5" t="n">
         <v>1.16</v>
       </c>
-      <c r="G111" s="14" t="n">
+      <c r="G111" s="6" t="n">
         <v>3.48</v>
       </c>
       <c r="H111" s="7" t="n">
@@ -3826,7 +3822,7 @@
         <v>-11.27</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>10177126368608900</v>
       </c>
@@ -3845,7 +3841,7 @@
       <c r="F112" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G112" s="14" t="n">
+      <c r="G112" s="6" t="n">
         <v>6.08</v>
       </c>
       <c r="H112" s="7" t="n">
@@ -3857,7 +3853,7 @@
         <v>-9.19000000000001</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>41338451224244900</v>
       </c>
@@ -3876,7 +3872,7 @@
       <c r="F113" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="G113" s="14" t="n">
+      <c r="G113" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H113" s="7" t="n">
@@ -3888,7 +3884,7 @@
         <v>-12.19</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>36402065320682900</v>
       </c>
@@ -3907,7 +3903,7 @@
       <c r="F114" s="5" t="n">
         <v>2.4</v>
       </c>
-      <c r="G114" s="14" t="n">
+      <c r="G114" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H114" s="7" t="n">
@@ -3919,13 +3915,13 @@
         <v>-16.19</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I116" s="12" t="n">
         <f aca="false">SUM(H117:H119)</f>
         <v>-6.12</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>39028811025547900</v>
       </c>
@@ -3944,7 +3940,7 @@
       <c r="F117" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G117" s="14" t="n">
+      <c r="G117" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H117" s="7" t="n">
@@ -3956,7 +3952,7 @@
         <v>-19.19</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>31502348350978900</v>
       </c>
@@ -3975,7 +3971,7 @@
       <c r="F118" s="5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G118" s="14" t="n">
+      <c r="G118" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H118" s="7" t="n">
@@ -3987,7 +3983,7 @@
         <v>-23.19</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>10627806130657900</v>
       </c>
@@ -4006,7 +4002,7 @@
       <c r="F119" s="5" t="n">
         <v>1.22</v>
       </c>
-      <c r="G119" s="14" t="n">
+      <c r="G119" s="6" t="n">
         <v>4.88</v>
       </c>
       <c r="H119" s="7" t="n">
@@ -4018,13 +4014,13 @@
         <v>-22.31</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I121" s="12" t="n">
         <f aca="false">SUM(H122:H126)</f>
         <v>-6.46</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>94658531392373900</v>
       </c>
@@ -4043,7 +4039,7 @@
       <c r="F122" s="5" t="n">
         <v>2.05</v>
       </c>
-      <c r="G122" s="14" t="n">
+      <c r="G122" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H122" s="7" t="n">
@@ -4055,7 +4051,7 @@
         <v>-26.31</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>19640261389979900</v>
       </c>
@@ -4074,7 +4070,7 @@
       <c r="F123" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G123" s="14" t="n">
+      <c r="G123" s="6" t="n">
         <v>5.4</v>
       </c>
       <c r="H123" s="7" t="n">
@@ -4086,7 +4082,7 @@
         <v>-23.91</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>27813301233533900</v>
       </c>
@@ -4105,7 +4101,7 @@
       <c r="F124" s="5" t="n">
         <v>1.38</v>
       </c>
-      <c r="G124" s="14" t="n">
+      <c r="G124" s="6" t="n">
         <v>4.14</v>
       </c>
       <c r="H124" s="7" t="n">
@@ -4117,7 +4113,7 @@
         <v>-22.77</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>18310074078137900</v>
       </c>
@@ -4136,7 +4132,7 @@
       <c r="F125" s="5" t="n">
         <v>1.58</v>
       </c>
-      <c r="G125" s="14" t="n">
+      <c r="G125" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="7" t="n">
@@ -4148,7 +4144,7 @@
         <v>-25.77</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>25070085395084900</v>
       </c>
@@ -4167,7 +4163,7 @@
       <c r="F126" s="5" t="n">
         <v>2.35</v>
       </c>
-      <c r="G126" s="14" t="n">
+      <c r="G126" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H126" s="7" t="n">
@@ -4179,13 +4175,13 @@
         <v>-28.77</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I128" s="12" t="n">
         <f aca="false">SUM(H129:H139)</f>
         <v>10.47</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>6867131734050900</v>
       </c>
@@ -4204,7 +4200,7 @@
       <c r="F129" s="5" t="n">
         <v>1.28</v>
       </c>
-      <c r="G129" s="14" t="n">
+      <c r="G129" s="6" t="n">
         <v>5.12</v>
       </c>
       <c r="H129" s="7" t="n">
@@ -4216,7 +4212,7 @@
         <v>-27.65</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>35806982744204900</v>
       </c>
@@ -4235,7 +4231,7 @@
       <c r="F130" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G130" s="14" t="n">
+      <c r="G130" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H130" s="7" t="n">
@@ -4247,7 +4243,7 @@
         <v>-31.65</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>56211278257814900</v>
       </c>
@@ -4266,7 +4262,7 @@
       <c r="F131" s="5" t="n">
         <v>1.45</v>
       </c>
-      <c r="G131" s="14" t="n">
+      <c r="G131" s="6" t="n">
         <v>4.35</v>
       </c>
       <c r="H131" s="7" t="n">
@@ -4278,7 +4274,7 @@
         <v>-30.3</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>30477488391042900</v>
       </c>
@@ -4297,7 +4293,7 @@
       <c r="F132" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G132" s="14" t="n">
+      <c r="G132" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H132" s="7" t="n">
@@ -4309,7 +4305,7 @@
         <v>-33.3</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>9224465234477900</v>
       </c>
@@ -4328,7 +4324,7 @@
       <c r="F133" s="5" t="n">
         <v>1.22</v>
       </c>
-      <c r="G133" s="14" t="n">
+      <c r="G133" s="6" t="n">
         <v>3.66</v>
       </c>
       <c r="H133" s="7" t="n">
@@ -4340,7 +4336,7 @@
         <v>-32.64</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>92541555831590900</v>
       </c>
@@ -4359,7 +4355,7 @@
       <c r="F134" s="5" t="n">
         <v>2.8</v>
       </c>
-      <c r="G134" s="14" t="n">
+      <c r="G134" s="6" t="n">
         <v>11.2</v>
       </c>
       <c r="H134" s="7" t="n">
@@ -4371,7 +4367,7 @@
         <v>-25.44</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>14457064152655900</v>
       </c>
@@ -4390,7 +4386,7 @@
       <c r="F135" s="5" t="n">
         <v>1.36</v>
       </c>
-      <c r="G135" s="14" t="n">
+      <c r="G135" s="6" t="n">
         <v>5.44</v>
       </c>
       <c r="H135" s="7" t="n">
@@ -4402,7 +4398,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>65978035831590900</v>
       </c>
@@ -4421,7 +4417,7 @@
       <c r="F136" s="5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G136" s="14" t="n">
+      <c r="G136" s="6" t="n">
         <v>6.8</v>
       </c>
       <c r="H136" s="7" t="n">
@@ -4433,7 +4429,7 @@
         <v>-21.2</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>14056920069821900</v>
       </c>
@@ -4452,7 +4448,7 @@
       <c r="F137" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="G137" s="14" t="n">
+      <c r="G137" s="6" t="n">
         <v>10</v>
       </c>
       <c r="H137" s="7" t="n">
@@ -4464,7 +4460,7 @@
         <v>-15.2</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>49172341151035900</v>
       </c>
@@ -4483,7 +4479,7 @@
       <c r="F138" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G138" s="14" t="n">
+      <c r="G138" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H138" s="7" t="n">
@@ -4495,7 +4491,7 @@
         <v>-19.2</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>83027301210296900</v>
       </c>
@@ -4514,7 +4510,7 @@
       <c r="F139" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="G139" s="14" t="n">
+      <c r="G139" s="6" t="n">
         <v>3.9</v>
       </c>
       <c r="H139" s="7" t="n">
@@ -4526,13 +4522,13 @@
         <v>-18.3</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I141" s="12" t="n">
         <f aca="false">SUM(H142:H154)</f>
         <v>-13.13</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>76744191947079900</v>
       </c>
@@ -4551,7 +4547,7 @@
       <c r="F142" s="5" t="n">
         <v>1.65</v>
       </c>
-      <c r="G142" s="14" t="n">
+      <c r="G142" s="6" t="n">
         <v>4.95</v>
       </c>
       <c r="H142" s="7" t="n">
@@ -4563,7 +4559,7 @@
         <v>-16.35</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>23983283474717900</v>
       </c>
@@ -4582,7 +4578,7 @@
       <c r="F143" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G143" s="14" t="n">
+      <c r="G143" s="6" t="n">
         <v>5.28</v>
       </c>
       <c r="H143" s="7" t="n">
@@ -4594,7 +4590,7 @@
         <v>-15.07</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>89561401246929900</v>
       </c>
@@ -4613,7 +4609,7 @@
       <c r="F144" s="5" t="n">
         <v>1.28</v>
       </c>
-      <c r="G144" s="14" t="n">
+      <c r="G144" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H144" s="7" t="n">
@@ -4625,7 +4621,7 @@
         <v>-18.07</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>6529692152602900</v>
       </c>
@@ -4644,7 +4640,7 @@
       <c r="F145" s="5" t="n">
         <v>1.08</v>
       </c>
-      <c r="G145" s="14" t="n">
+      <c r="G145" s="6" t="n">
         <v>4.32</v>
       </c>
       <c r="H145" s="7" t="n">
@@ -4656,7 +4652,7 @@
         <v>-17.75</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>49947735059773900</v>
       </c>
@@ -4675,7 +4671,7 @@
       <c r="F146" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G146" s="14" t="n">
+      <c r="G146" s="6" t="n">
         <v>5.68</v>
       </c>
       <c r="H146" s="7" t="n">
@@ -4687,7 +4683,7 @@
         <v>-16.07</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>34333725322239900</v>
       </c>
@@ -4706,7 +4702,7 @@
       <c r="F147" s="5" t="n">
         <v>1.34</v>
       </c>
-      <c r="G147" s="14" t="n">
+      <c r="G147" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H147" s="7" t="n">
@@ -4718,7 +4714,7 @@
         <v>-19.07</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>46259263316656900</v>
       </c>
@@ -4737,7 +4733,7 @@
       <c r="F148" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G148" s="14" t="n">
+      <c r="G148" s="6" t="n">
         <v>5.92</v>
       </c>
       <c r="H148" s="7" t="n">
@@ -4749,7 +4745,7 @@
         <v>-17.15</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>68667866428913900</v>
       </c>
@@ -4768,7 +4764,7 @@
       <c r="F149" s="5" t="n">
         <v>2.3</v>
       </c>
-      <c r="G149" s="14" t="n">
+      <c r="G149" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H149" s="7" t="n">
@@ -4780,7 +4776,7 @@
         <v>-21.15</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>39066438721738900</v>
       </c>
@@ -4799,7 +4795,7 @@
       <c r="F150" s="5" t="n">
         <v>1.24</v>
       </c>
-      <c r="G150" s="14" t="n">
+      <c r="G150" s="6" t="n">
         <v>3.72</v>
       </c>
       <c r="H150" s="7" t="n">
@@ -4811,7 +4807,7 @@
         <v>-20.43</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>25880248710585900</v>
       </c>
@@ -4830,7 +4826,7 @@
       <c r="F151" s="5" t="n">
         <v>1.4</v>
       </c>
-      <c r="G151" s="14" t="n">
+      <c r="G151" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H151" s="7" t="n">
@@ -4842,7 +4838,7 @@
         <v>-24.43</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>36624559598721900</v>
       </c>
@@ -4861,7 +4857,7 @@
       <c r="F152" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="G152" s="14" t="n">
+      <c r="G152" s="6" t="n">
         <v>3</v>
       </c>
       <c r="H152" s="7" t="n">
@@ -4873,7 +4869,7 @@
         <v>-24.43</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>80710634844712900</v>
       </c>
@@ -4892,7 +4888,7 @@
       <c r="F153" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="G153" s="14" t="n">
+      <c r="G153" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H153" s="7" t="n">
@@ -4904,7 +4900,7 @@
         <v>-27.43</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>62292413578666900</v>
       </c>
@@ -4923,7 +4919,7 @@
       <c r="F154" s="5" t="n">
         <v>2.25</v>
       </c>
-      <c r="G154" s="14" t="n">
+      <c r="G154" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H154" s="7" t="n">
@@ -4935,13 +4931,13 @@
         <v>-31.43</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I156" s="12" t="n">
         <f aca="false">SUM(H157:H161)</f>
         <v>-0.86</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>4805823246488900</v>
       </c>
@@ -4960,7 +4956,7 @@
       <c r="F157" s="5" t="n">
         <v>2.05</v>
       </c>
-      <c r="G157" s="14" t="n">
+      <c r="G157" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H157" s="7" t="n">
@@ -4972,7 +4968,7 @@
         <v>-35.43</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>8343051942518900</v>
       </c>
@@ -4991,7 +4987,7 @@
       <c r="F158" s="5" t="n">
         <v>1.16</v>
       </c>
-      <c r="G158" s="14" t="n">
+      <c r="G158" s="6" t="n">
         <v>4.64</v>
       </c>
       <c r="H158" s="7" t="n">
@@ -5003,7 +4999,7 @@
         <v>-34.79</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>30182602502049900</v>
       </c>
@@ -5022,7 +5018,7 @@
       <c r="F159" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G159" s="14" t="n">
+      <c r="G159" s="6" t="n">
         <v>4.26</v>
       </c>
       <c r="H159" s="7" t="n">
@@ -5034,7 +5030,7 @@
         <v>-33.53</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>63121954673331900</v>
       </c>
@@ -5053,7 +5049,7 @@
       <c r="F160" s="5" t="n">
         <v>1.05</v>
       </c>
-      <c r="G160" s="14" t="n">
+      <c r="G160" s="6" t="n">
         <v>4.2</v>
       </c>
       <c r="H160" s="7" t="n">
@@ -5065,7 +5061,7 @@
         <v>-33.33</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>12699189113517900</v>
       </c>
@@ -5084,7 +5080,7 @@
       <c r="F161" s="5" t="n">
         <v>1.26</v>
       </c>
-      <c r="G161" s="14" t="n">
+      <c r="G161" s="6" t="n">
         <v>5.04</v>
       </c>
       <c r="H161" s="7" t="n">
@@ -5096,13 +5092,13 @@
         <v>-32.29</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I163" s="12" t="n">
         <f aca="false">SUM(H164:H167)</f>
         <v>7.71</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>37684564822425900</v>
       </c>
@@ -5121,7 +5117,7 @@
       <c r="F164" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="G164" s="14" t="n">
+      <c r="G164" s="6" t="n">
         <v>3.2</v>
       </c>
       <c r="H164" s="7" t="n">
@@ -5133,7 +5129,7 @@
         <v>-31.09</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>37069725551265900</v>
       </c>
@@ -5152,7 +5148,7 @@
       <c r="F165" s="5" t="n">
         <v>1.85</v>
       </c>
-      <c r="G165" s="14" t="n">
+      <c r="G165" s="6" t="n">
         <v>5.55</v>
       </c>
       <c r="H165" s="7" t="n">
@@ -5164,7 +5160,7 @@
         <v>-28.54</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>47438597951649900</v>
       </c>
@@ -5183,7 +5179,7 @@
       <c r="F166" s="5" t="n">
         <v>1.12</v>
       </c>
-      <c r="G166" s="14" t="n">
+      <c r="G166" s="6" t="n">
         <v>3.36</v>
       </c>
       <c r="H166" s="7" t="n">
@@ -5195,7 +5191,7 @@
         <v>-28.18</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>13476668471356900</v>
       </c>
@@ -5214,7 +5210,7 @@
       <c r="F167" s="5" t="n">
         <v>2.2</v>
       </c>
-      <c r="G167" s="14" t="n">
+      <c r="G167" s="6" t="n">
         <v>6.6</v>
       </c>
       <c r="H167" s="7" t="n">
@@ -5226,13 +5222,13 @@
         <v>-24.58</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I169" s="12" t="n">
         <f aca="false">SUM(H170:H192)</f>
         <v>23.52</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>9165946166826900</v>
       </c>
@@ -5251,7 +5247,7 @@
       <c r="F170" s="5" t="n">
         <v>1.46</v>
       </c>
-      <c r="G170" s="14" t="n">
+      <c r="G170" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H170" s="7" t="n">
@@ -5263,7 +5259,7 @@
         <v>-26.58</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>69581005434357900</v>
       </c>
@@ -5282,7 +5278,7 @@
       <c r="F171" s="5" t="n">
         <v>1.46</v>
       </c>
-      <c r="G171" s="14" t="n">
+      <c r="G171" s="6" t="n">
         <v>5.84</v>
       </c>
       <c r="H171" s="7" t="n">
@@ -5294,7 +5290,7 @@
         <v>-24.74</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>96307920776355900</v>
       </c>
@@ -5313,7 +5309,7 @@
       <c r="F172" s="5" t="n">
         <v>1.22</v>
       </c>
-      <c r="G172" s="14" t="n">
+      <c r="G172" s="6" t="n">
         <v>2.44</v>
       </c>
       <c r="H172" s="7" t="n">
@@ -5325,7 +5321,7 @@
         <v>-24.3</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>93942420057243900</v>
       </c>
@@ -5344,7 +5340,7 @@
       <c r="F173" s="5" t="n">
         <v>1.62</v>
       </c>
-      <c r="G173" s="14" t="n">
+      <c r="G173" s="6" t="n">
         <v>9.72</v>
       </c>
       <c r="H173" s="7" t="n">
@@ -5356,7 +5352,7 @@
         <v>-20.58</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>4214737564162900</v>
       </c>
@@ -5375,7 +5371,7 @@
       <c r="F174" s="5" t="n">
         <v>2.2</v>
       </c>
-      <c r="G174" s="14" t="n">
+      <c r="G174" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H174" s="7" t="n">
@@ -5387,7 +5383,7 @@
         <v>-26.58</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>60306345480774900</v>
       </c>
@@ -5406,7 +5402,7 @@
       <c r="F175" s="5" t="n">
         <v>1.18</v>
       </c>
-      <c r="G175" s="14" t="n">
+      <c r="G175" s="6" t="n">
         <v>2.36</v>
       </c>
       <c r="H175" s="7" t="n">
@@ -5418,7 +5414,7 @@
         <v>-26.22</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>43527255697697900</v>
       </c>
@@ -5437,7 +5433,7 @@
       <c r="F176" s="5" t="n">
         <v>1.75</v>
       </c>
-      <c r="G176" s="14" t="n">
+      <c r="G176" s="6" t="n">
         <v>10.5</v>
       </c>
       <c r="H176" s="7" t="n">
@@ -5449,7 +5445,7 @@
         <v>-21.72</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>82402773287604900</v>
       </c>
@@ -5468,7 +5464,7 @@
       <c r="F177" s="5" t="n">
         <v>1.28</v>
       </c>
-      <c r="G177" s="14" t="n">
+      <c r="G177" s="6" t="n">
         <v>2.56</v>
       </c>
       <c r="H177" s="7" t="n">
@@ -5480,7 +5476,7 @@
         <v>-21.16</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>68485467959267900</v>
       </c>
@@ -5499,7 +5495,7 @@
       <c r="F178" s="5" t="n">
         <v>1.38</v>
       </c>
-      <c r="G178" s="14" t="n">
+      <c r="G178" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H178" s="7" t="n">
@@ -5511,7 +5507,7 @@
         <v>-23.16</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>84565164617490900</v>
       </c>
@@ -5530,7 +5526,7 @@
       <c r="F179" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G179" s="14" t="n">
+      <c r="G179" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H179" s="7" t="n">
@@ -5542,7 +5538,7 @@
         <v>-25.16</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>97556410762865900</v>
       </c>
@@ -5561,7 +5557,7 @@
       <c r="F180" s="5" t="n">
         <v>1.36</v>
       </c>
-      <c r="G180" s="14" t="n">
+      <c r="G180" s="6" t="n">
         <v>2.72</v>
       </c>
       <c r="H180" s="7" t="n">
@@ -5573,7 +5569,7 @@
         <v>-24.44</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>60764055697697900</v>
       </c>
@@ -5592,7 +5588,7 @@
       <c r="F181" s="5" t="n">
         <v>1.2</v>
       </c>
-      <c r="G181" s="14" t="n">
+      <c r="G181" s="6" t="n">
         <v>2.4</v>
       </c>
       <c r="H181" s="7" t="n">
@@ -5604,7 +5600,7 @@
         <v>-24.04</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>12666318587084900</v>
       </c>
@@ -5623,7 +5619,7 @@
       <c r="F182" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G182" s="14" t="n">
+      <c r="G182" s="6" t="n">
         <v>4</v>
       </c>
       <c r="H182" s="7" t="n">
@@ -5635,7 +5631,7 @@
         <v>-24.04</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>20244279686424900</v>
       </c>
@@ -5654,7 +5650,7 @@
       <c r="F183" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G183" s="14" t="n">
+      <c r="G183" s="6" t="n">
         <v>10.8</v>
       </c>
       <c r="H183" s="7" t="n">
@@ -5666,7 +5662,7 @@
         <v>-19.24</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>13987380611245900</v>
       </c>
@@ -5685,7 +5681,7 @@
       <c r="F184" s="5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G184" s="14" t="n">
+      <c r="G184" s="6" t="n">
         <v>10.2</v>
       </c>
       <c r="H184" s="7" t="n">
@@ -5697,7 +5693,7 @@
         <v>-15.04</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>37932703551685900</v>
       </c>
@@ -5716,7 +5712,7 @@
       <c r="F185" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G185" s="14" t="n">
+      <c r="G185" s="6" t="n">
         <v>6.08</v>
       </c>
       <c r="H185" s="7" t="n">
@@ -5728,7 +5724,7 @@
         <v>-12.96</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>43666716380101900</v>
       </c>
@@ -5747,7 +5743,7 @@
       <c r="F186" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G186" s="14" t="n">
+      <c r="G186" s="6" t="n">
         <v>2.64</v>
       </c>
       <c r="H186" s="7" t="n">
@@ -5759,7 +5755,7 @@
         <v>-12.32</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>35072633660517900</v>
       </c>
@@ -5778,7 +5774,7 @@
       <c r="F187" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G187" s="14" t="n">
+      <c r="G187" s="6" t="n">
         <v>2.84</v>
       </c>
       <c r="H187" s="7" t="n">
@@ -5790,7 +5786,7 @@
         <v>-11.48</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>60519524816515900</v>
       </c>
@@ -5809,7 +5805,7 @@
       <c r="F188" s="5" t="n">
         <v>1.85</v>
       </c>
-      <c r="G188" s="14" t="n">
+      <c r="G188" s="6" t="n">
         <v>6</v>
       </c>
       <c r="H188" s="7" t="n">
@@ -5821,7 +5817,7 @@
         <v>-11.48</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>48133040936753900</v>
       </c>
@@ -5840,7 +5836,7 @@
       <c r="F189" s="5" t="n">
         <v>1.55</v>
       </c>
-      <c r="G189" s="14" t="n">
+      <c r="G189" s="6" t="n">
         <v>6.2</v>
       </c>
       <c r="H189" s="7" t="n">
@@ -5852,7 +5848,7 @@
         <v>-9.28</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>52237990770769900</v>
       </c>
@@ -5871,7 +5867,7 @@
       <c r="F190" s="5" t="n">
         <v>1.75</v>
       </c>
-      <c r="G190" s="14" t="n">
+      <c r="G190" s="6" t="n">
         <v>10.5</v>
       </c>
       <c r="H190" s="7" t="n">
@@ -5883,7 +5879,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>38814110247585900</v>
       </c>
@@ -5902,7 +5898,7 @@
       <c r="F191" s="5" t="n">
         <v>1.62</v>
       </c>
-      <c r="G191" s="14" t="n">
+      <c r="G191" s="6" t="n">
         <v>9.72</v>
       </c>
       <c r="H191" s="7" t="n">
@@ -5914,7 +5910,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>30848744351243900</v>
       </c>
@@ -5933,7 +5929,7 @@
       <c r="F192" s="5" t="n">
         <v>1.8</v>
       </c>
-      <c r="G192" s="14" t="n">
+      <c r="G192" s="6" t="n">
         <v>6</v>
       </c>
       <c r="H192" s="7" t="n">
@@ -5945,13 +5941,13 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I194" s="12" t="n">
         <f aca="false">SUM(H195:H199)</f>
         <v>8.2</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>41257706132760900</v>
       </c>
@@ -5970,7 +5966,7 @@
       <c r="F195" s="5" t="n">
         <v>2.15</v>
       </c>
-      <c r="G195" s="14" t="n">
+      <c r="G195" s="6" t="n">
         <v>8.6</v>
       </c>
       <c r="H195" s="7" t="n">
@@ -5982,7 +5978,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>65567828456232900</v>
       </c>
@@ -6001,7 +5997,7 @@
       <c r="F196" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G196" s="14" t="n">
+      <c r="G196" s="6" t="n">
         <v>2.96</v>
       </c>
       <c r="H196" s="7" t="n">
@@ -6013,7 +6009,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>1629785900846900</v>
       </c>
@@ -6032,7 +6028,7 @@
       <c r="F197" s="5" t="n">
         <v>1.09</v>
       </c>
-      <c r="G197" s="14" t="n">
+      <c r="G197" s="6" t="n">
         <v>2.18</v>
       </c>
       <c r="H197" s="7" t="n">
@@ -6044,7 +6040,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>56451816585226900</v>
       </c>
@@ -6063,7 +6059,7 @@
       <c r="F198" s="5" t="n">
         <v>1.03</v>
       </c>
-      <c r="G198" s="14" t="n">
+      <c r="G198" s="6" t="n">
         <v>2.06</v>
       </c>
       <c r="H198" s="7" t="n">
@@ -6075,7 +6071,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>58674434622887900</v>
       </c>
@@ -6094,7 +6090,7 @@
       <c r="F199" s="5" t="n">
         <v>2.2</v>
       </c>
-      <c r="G199" s="14" t="n">
+      <c r="G199" s="6" t="n">
         <v>4.4</v>
       </c>
       <c r="H199" s="7" t="n">
@@ -6106,19 +6102,17 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="3"/>
-      <c r="G200" s="14"/>
-    </row>
-    <row r="201" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="3"/>
-      <c r="G201" s="14"/>
       <c r="I201" s="12" t="n">
         <f aca="false">SUM(H202:H209)</f>
         <v>-11.64</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>89318965766687900</v>
       </c>
@@ -6137,7 +6131,7 @@
       <c r="F202" s="5" t="n">
         <v>1.45</v>
       </c>
-      <c r="G202" s="14" t="n">
+      <c r="G202" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H202" s="7" t="n">
@@ -6149,7 +6143,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>46743199948454900</v>
       </c>
@@ -6168,7 +6162,7 @@
       <c r="F203" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G203" s="14" t="n">
+      <c r="G203" s="6" t="n">
         <v>2.84</v>
       </c>
       <c r="H203" s="7" t="n">
@@ -6180,7 +6174,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>15161015662567900</v>
       </c>
@@ -6199,7 +6193,7 @@
       <c r="F204" s="5" t="n">
         <v>1.4</v>
       </c>
-      <c r="G204" s="14" t="n">
+      <c r="G204" s="6" t="n">
         <v>2.8</v>
       </c>
       <c r="H204" s="7" t="n">
@@ -6211,7 +6205,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>32382995632205900</v>
       </c>
@@ -6230,7 +6224,7 @@
       <c r="F205" s="5" t="n">
         <v>1.1</v>
       </c>
-      <c r="G205" s="14" t="n">
+      <c r="G205" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H205" s="7" t="n">
@@ -6242,7 +6236,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>86472197409674900</v>
       </c>
@@ -6261,7 +6255,7 @@
       <c r="F206" s="5" t="n">
         <v>1.34</v>
       </c>
-      <c r="G206" s="14" t="n">
+      <c r="G206" s="6" t="n">
         <v>2.68</v>
       </c>
       <c r="H206" s="7" t="n">
@@ -6273,7 +6267,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>12869048835643900</v>
       </c>
@@ -6292,7 +6286,7 @@
       <c r="F207" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G207" s="14" t="n">
+      <c r="G207" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H207" s="7" t="n">
@@ -6304,7 +6298,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>44697653567817900</v>
       </c>
@@ -6323,7 +6317,7 @@
       <c r="F208" s="5" t="n">
         <v>1.02</v>
       </c>
-      <c r="G208" s="14" t="n">
+      <c r="G208" s="6" t="n">
         <v>2.04</v>
       </c>
       <c r="H208" s="7" t="n">
@@ -6335,7 +6329,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>67091438717577900</v>
       </c>
@@ -6354,7 +6348,7 @@
       <c r="F209" s="5" t="n">
         <v>1.55</v>
       </c>
-      <c r="G209" s="14" t="n">
+      <c r="G209" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H209" s="7" t="n">
@@ -6366,19 +6360,17 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="3"/>
-      <c r="G210" s="14"/>
-    </row>
-    <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="3"/>
-      <c r="G211" s="14"/>
       <c r="I211" s="12" t="n">
         <f aca="false">SUM(H212:H215)</f>
         <v>-13.88</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>94586905761749900</v>
       </c>
@@ -6397,7 +6389,7 @@
       <c r="F212" s="5" t="n">
         <v>1.24</v>
       </c>
-      <c r="G212" s="14" t="n">
+      <c r="G212" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H212" s="7" t="n">
@@ -6409,7 +6401,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>38156907331643900</v>
       </c>
@@ -6428,7 +6420,7 @@
       <c r="F213" s="5" t="n">
         <v>1.48</v>
       </c>
-      <c r="G213" s="14" t="n">
+      <c r="G213" s="6" t="n">
         <v>10</v>
       </c>
       <c r="H213" s="7" t="n">
@@ -6440,7 +6432,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>97345893558110900</v>
       </c>
@@ -6459,7 +6451,7 @@
       <c r="F214" s="5" t="n">
         <v>3.4</v>
       </c>
-      <c r="G214" s="14" t="n">
+      <c r="G214" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="7" t="n">
@@ -6471,7 +6463,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>43539224216992900</v>
       </c>
@@ -6490,7 +6482,7 @@
       <c r="F215" s="5" t="n">
         <v>1.03</v>
       </c>
-      <c r="G215" s="14" t="n">
+      <c r="G215" s="6" t="n">
         <v>4.12</v>
       </c>
       <c r="H215" s="7" t="n">
@@ -6502,19 +6494,17 @@
         <v>-18.38</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="3"/>
-      <c r="G216" s="14"/>
-    </row>
-    <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="3"/>
-      <c r="G217" s="14"/>
       <c r="I217" s="12" t="n">
         <f aca="false">SUM(H218:H219)</f>
         <v>0.199999999999999</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>52645546416816900</v>
       </c>
@@ -6533,7 +6523,7 @@
       <c r="F218" s="5" t="n">
         <v>1.42</v>
       </c>
-      <c r="G218" s="14" t="n">
+      <c r="G218" s="6" t="n">
         <v>14.2</v>
       </c>
       <c r="H218" s="7" t="n">
@@ -6545,7 +6535,7 @@
         <v>-14.18</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>34293060984545900</v>
       </c>
@@ -6564,7 +6554,7 @@
       <c r="F219" s="5" t="n">
         <v>1.3</v>
       </c>
-      <c r="G219" s="14" t="n">
+      <c r="G219" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="7" t="n">
@@ -6576,7 +6566,7 @@
         <v>-18.18</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I221" s="12" t="n">
         <f aca="false">SUM(H222)</f>
         <v>1.6</v>
@@ -6601,7 +6591,7 @@
       <c r="F222" s="5" t="n">
         <v>1.4</v>
       </c>
-      <c r="G222" s="14" t="n">
+      <c r="G222" s="6" t="n">
         <v>5.6</v>
       </c>
       <c r="H222" s="7" t="n">
@@ -6613,8 +6603,7 @@
         <v>-16.58</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="12" t="n">
         <f aca="false">SUM(H225:H237)</f>
         <v>21.47</v>
@@ -6816,7 +6805,7 @@
       <c r="C231" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D231" s="19" t="s">
+      <c r="D231" s="18" t="s">
         <v>100</v>
       </c>
       <c r="E231" s="4" t="n">
@@ -7023,7 +7012,7 @@
         <v>4.89</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="12" t="n">
         <f aca="false">SUM(H240:H250)</f>
         <v>0.72</v>
@@ -7370,7 +7359,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I252" s="12" t="n">
         <f aca="false">SUM(H253:H260)</f>
         <v>-7.6</v>
@@ -7624,7 +7613,7 @@
         <v>-1.99</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I262" s="12" t="n">
         <f aca="false">SUM(H263:H273)</f>
         <v>-8.42</v>
@@ -7971,7 +7960,7 @@
         <v>-10.41</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I275" s="12" t="n">
         <f aca="false">SUM(H276:H288)</f>
         <v>-2.37</v>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="156">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -479,6 +479,15 @@
   </si>
   <si>
     <t xml:space="preserve">laaksonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dellien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brooksby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedene al</t>
   </si>
 </sst>
 </file>
@@ -758,12 +767,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G322" activeCellId="0" sqref="G322:G355"/>
+      <selection pane="bottomLeft" activeCell="H354" activeCellId="0" sqref="H354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10089,6 +10098,950 @@
         <v>-37.81</v>
       </c>
     </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I355" s="12" t="n">
+        <f aca="false">SUM(H356:H390)</f>
+        <v>-72.59</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E356" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F356" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G356" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H356" s="7" t="n">
+        <f aca="false">G356-E356</f>
+        <v>-3</v>
+      </c>
+      <c r="I356" s="7" t="n">
+        <f aca="false">SUM($H$2:H356)</f>
+        <v>-40.81</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E357" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F357" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G357" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H357" s="7" t="n">
+        <f aca="false">G357-E357</f>
+        <v>-5</v>
+      </c>
+      <c r="I357" s="7" t="n">
+        <f aca="false">SUM($H$2:H357)</f>
+        <v>-45.81</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E358" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F358" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G358" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H358" s="7" t="n">
+        <f aca="false">G358-E358</f>
+        <v>-4</v>
+      </c>
+      <c r="I358" s="7" t="n">
+        <f aca="false">SUM($H$2:H358)</f>
+        <v>-49.81</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E359" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F359" s="5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H359" s="7" t="n">
+        <f aca="false">G359-E359</f>
+        <v>-3</v>
+      </c>
+      <c r="I359" s="7" t="n">
+        <f aca="false">SUM($H$2:H359)</f>
+        <v>-52.81</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E360" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F360" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G360" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H360" s="7" t="n">
+        <f aca="false">G360-E360</f>
+        <v>-1</v>
+      </c>
+      <c r="I360" s="7" t="n">
+        <f aca="false">SUM($H$2:H360)</f>
+        <v>-53.81</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E361" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F361" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G361" s="6" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H361" s="7" t="n">
+        <f aca="false">G361-E361</f>
+        <v>0.72</v>
+      </c>
+      <c r="I361" s="7" t="n">
+        <f aca="false">SUM($H$2:H361)</f>
+        <v>-53.09</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E362" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" s="5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G362" s="6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H362" s="7" t="n">
+        <f aca="false">G362-E362</f>
+        <v>0.05</v>
+      </c>
+      <c r="I362" s="7" t="n">
+        <f aca="false">SUM($H$2:H362)</f>
+        <v>-53.04</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E363" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F363" s="5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G363" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H363" s="7" t="n">
+        <f aca="false">G363-E363</f>
+        <v>-5</v>
+      </c>
+      <c r="I363" s="7" t="n">
+        <f aca="false">SUM($H$2:H363)</f>
+        <v>-58.04</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E364" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F364" s="5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G364" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H364" s="7" t="n">
+        <f aca="false">G364-E364</f>
+        <v>-3</v>
+      </c>
+      <c r="I364" s="7" t="n">
+        <f aca="false">SUM($H$2:H364)</f>
+        <v>-61.04</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E365" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F365" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G365" s="6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H365" s="7" t="n">
+        <f aca="false">G365-E365</f>
+        <v>0.6</v>
+      </c>
+      <c r="I365" s="7" t="n">
+        <f aca="false">SUM($H$2:H365)</f>
+        <v>-60.44</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E366" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F366" s="5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G366" s="6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H366" s="7" t="n">
+        <f aca="false">G366-E366</f>
+        <v>0.05</v>
+      </c>
+      <c r="I366" s="7" t="n">
+        <f aca="false">SUM($H$2:H366)</f>
+        <v>-60.39</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E367" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F367" s="5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G367" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H367" s="7" t="n">
+        <f aca="false">G367-E367</f>
+        <v>-3</v>
+      </c>
+      <c r="I367" s="7" t="n">
+        <f aca="false">SUM($H$2:H367)</f>
+        <v>-63.39</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E368" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F368" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G368" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H368" s="7" t="n">
+        <f aca="false">G368-E368</f>
+        <v>-5</v>
+      </c>
+      <c r="I368" s="7" t="n">
+        <f aca="false">SUM($H$2:H368)</f>
+        <v>-68.39</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E369" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F369" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G369" s="6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H369" s="7" t="n">
+        <f aca="false">G369-E369</f>
+        <v>1.65</v>
+      </c>
+      <c r="I369" s="7" t="n">
+        <f aca="false">SUM($H$2:H369)</f>
+        <v>-66.74</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E370" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F370" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G370" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H370" s="7" t="n">
+        <f aca="false">G370-E370</f>
+        <v>-5</v>
+      </c>
+      <c r="I370" s="7" t="n">
+        <f aca="false">SUM($H$2:H370)</f>
+        <v>-71.74</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E371" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F371" s="5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G371" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H371" s="7" t="n">
+        <f aca="false">G371-E371</f>
+        <v>-7</v>
+      </c>
+      <c r="I371" s="7" t="n">
+        <f aca="false">SUM($H$2:H371)</f>
+        <v>-78.74</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E372" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F372" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G372" s="6" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H372" s="7" t="n">
+        <f aca="false">G372-E372</f>
+        <v>0.72</v>
+      </c>
+      <c r="I372" s="7" t="n">
+        <f aca="false">SUM($H$2:H372)</f>
+        <v>-78.02</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E373" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F373" s="5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G373" s="6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H373" s="7" t="n">
+        <f aca="false">G373-E373</f>
+        <v>0.02</v>
+      </c>
+      <c r="I373" s="7" t="n">
+        <f aca="false">SUM($H$2:H373)</f>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E374" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F374" s="5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H374" s="7" t="n">
+        <f aca="false">G374-E374</f>
+        <v>-3</v>
+      </c>
+      <c r="I374" s="7" t="n">
+        <f aca="false">SUM($H$2:H374)</f>
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E375" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F375" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G375" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H375" s="7" t="n">
+        <f aca="false">G375-E375</f>
+        <v>-1</v>
+      </c>
+      <c r="I375" s="7" t="n">
+        <f aca="false">SUM($H$2:H375)</f>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E376" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F376" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G376" s="6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H376" s="7" t="n">
+        <f aca="false">G376-E376</f>
+        <v>0.6</v>
+      </c>
+      <c r="I376" s="7" t="n">
+        <f aca="false">SUM($H$2:H376)</f>
+        <v>-81.4</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E377" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F377" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G377" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H377" s="7" t="n">
+        <f aca="false">G377-E377</f>
+        <v>12</v>
+      </c>
+      <c r="I377" s="7" t="n">
+        <f aca="false">SUM($H$2:H377)</f>
+        <v>-69.4</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E378" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F378" s="5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H378" s="7" t="n">
+        <f aca="false">G378-E378</f>
+        <v>-3</v>
+      </c>
+      <c r="I378" s="7" t="n">
+        <f aca="false">SUM($H$2:H378)</f>
+        <v>-72.4</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E379" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F379" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G379" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H379" s="7" t="n">
+        <f aca="false">G379-E379</f>
+        <v>-3</v>
+      </c>
+      <c r="I379" s="7" t="n">
+        <f aca="false">SUM($H$2:H379)</f>
+        <v>-75.4</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E380" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F380" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H380" s="7" t="n">
+        <f aca="false">G380-E380</f>
+        <v>-2</v>
+      </c>
+      <c r="I380" s="7" t="n">
+        <f aca="false">SUM($H$2:H380)</f>
+        <v>-77.4</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E381" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F381" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H381" s="7" t="n">
+        <f aca="false">G381-E381</f>
+        <v>-2</v>
+      </c>
+      <c r="I381" s="7" t="n">
+        <f aca="false">SUM($H$2:H381)</f>
+        <v>-79.4</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E382" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F382" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H382" s="7" t="n">
+        <f aca="false">G382-E382</f>
+        <v>-3</v>
+      </c>
+      <c r="I382" s="7" t="n">
+        <f aca="false">SUM($H$2:H382)</f>
+        <v>-82.4</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E383" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F383" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H383" s="7" t="n">
+        <f aca="false">G383-E383</f>
+        <v>-3</v>
+      </c>
+      <c r="I383" s="7" t="n">
+        <f aca="false">SUM($H$2:H383)</f>
+        <v>-85.4</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E384" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F384" s="5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H384" s="7" t="n">
+        <f aca="false">G384-E384</f>
+        <v>-2</v>
+      </c>
+      <c r="I384" s="7" t="n">
+        <f aca="false">SUM($H$2:H384)</f>
+        <v>-87.4</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E385" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F385" s="5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H385" s="7" t="n">
+        <f aca="false">G385-E385</f>
+        <v>-2</v>
+      </c>
+      <c r="I385" s="7" t="n">
+        <f aca="false">SUM($H$2:H385)</f>
+        <v>-89.4</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E386" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F386" s="5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H386" s="7" t="n">
+        <f aca="false">G386-E386</f>
+        <v>-3</v>
+      </c>
+      <c r="I386" s="7" t="n">
+        <f aca="false">SUM($H$2:H386)</f>
+        <v>-92.4</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E387" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F387" s="5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H387" s="7" t="n">
+        <f aca="false">G387-E387</f>
+        <v>-2</v>
+      </c>
+      <c r="I387" s="7" t="n">
+        <f aca="false">SUM($H$2:H387)</f>
+        <v>-94.4</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E388" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F388" s="5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H388" s="7" t="n">
+        <f aca="false">G388-E388</f>
+        <v>-4</v>
+      </c>
+      <c r="I388" s="7" t="n">
+        <f aca="false">SUM($H$2:H388)</f>
+        <v>-98.4</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E389" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F389" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H389" s="7" t="n">
+        <f aca="false">G389-E389</f>
+        <v>-10</v>
+      </c>
+      <c r="I389" s="7" t="n">
+        <f aca="false">SUM($H$2:H389)</f>
+        <v>-108.4</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E390" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F390" s="5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H390" s="7" t="n">
+        <f aca="false">G390-E390</f>
+        <v>-2</v>
+      </c>
+      <c r="I390" s="7" t="n">
+        <f aca="false">SUM($H$2:H390)</f>
+        <v>-110.4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -770,9 +770,9 @@
   <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H354" activeCellId="0" sqref="H354"/>
+      <selection pane="bottomLeft" activeCell="B392" activeCellId="0" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10101,7 +10101,7 @@
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I355" s="12" t="n">
         <f aca="false">SUM(H356:H390)</f>
-        <v>-72.59</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,6 +10204,9 @@
       <c r="F359" s="5" t="n">
         <v>1.05</v>
       </c>
+      <c r="G359" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H359" s="7" t="n">
         <f aca="false">G359-E359</f>
         <v>-3</v>
@@ -10621,6 +10624,9 @@
       <c r="F374" s="5" t="n">
         <v>1.05</v>
       </c>
+      <c r="G374" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H374" s="7" t="n">
         <f aca="false">G374-E374</f>
         <v>-3</v>
@@ -10730,13 +10736,16 @@
       <c r="F378" s="5" t="n">
         <v>2.04</v>
       </c>
+      <c r="G378" s="6" t="n">
+        <v>6.15</v>
+      </c>
       <c r="H378" s="7" t="n">
         <f aca="false">G378-E378</f>
-        <v>-3</v>
+        <v>3.15</v>
       </c>
       <c r="I378" s="7" t="n">
         <f aca="false">SUM($H$2:H378)</f>
-        <v>-72.4</v>
+        <v>-66.25</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,7 +10773,7 @@
       </c>
       <c r="I379" s="7" t="n">
         <f aca="false">SUM($H$2:H379)</f>
-        <v>-75.4</v>
+        <v>-69.25</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10783,13 +10792,16 @@
       <c r="F380" s="5" t="n">
         <v>1.28</v>
       </c>
+      <c r="G380" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H380" s="7" t="n">
         <f aca="false">G380-E380</f>
         <v>-2</v>
       </c>
       <c r="I380" s="7" t="n">
         <f aca="false">SUM($H$2:H380)</f>
-        <v>-77.4</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10808,13 +10820,16 @@
       <c r="F381" s="5" t="n">
         <v>1.52</v>
       </c>
+      <c r="G381" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H381" s="7" t="n">
         <f aca="false">G381-E381</f>
         <v>-2</v>
       </c>
       <c r="I381" s="7" t="n">
         <f aca="false">SUM($H$2:H381)</f>
-        <v>-79.4</v>
+        <v>-73.25</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10833,13 +10848,16 @@
       <c r="F382" s="5" t="n">
         <v>1.28</v>
       </c>
+      <c r="G382" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="H382" s="7" t="n">
         <f aca="false">G382-E382</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I382" s="7" t="n">
         <f aca="false">SUM($H$2:H382)</f>
-        <v>-82.4</v>
+        <v>-73.25</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10858,13 +10876,16 @@
       <c r="F383" s="5" t="n">
         <v>1.52</v>
       </c>
+      <c r="G383" s="6" t="n">
+        <v>4.56</v>
+      </c>
       <c r="H383" s="7" t="n">
         <f aca="false">G383-E383</f>
-        <v>-3</v>
+        <v>1.56</v>
       </c>
       <c r="I383" s="7" t="n">
         <f aca="false">SUM($H$2:H383)</f>
-        <v>-85.4</v>
+        <v>-71.69</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10883,13 +10904,16 @@
       <c r="F384" s="5" t="n">
         <v>1.08</v>
       </c>
+      <c r="G384" s="6" t="n">
+        <v>2.16</v>
+      </c>
       <c r="H384" s="7" t="n">
         <f aca="false">G384-E384</f>
-        <v>-2</v>
+        <v>0.16</v>
       </c>
       <c r="I384" s="7" t="n">
         <f aca="false">SUM($H$2:H384)</f>
-        <v>-87.4</v>
+        <v>-71.53</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10908,13 +10932,16 @@
       <c r="F385" s="5" t="n">
         <v>1.07</v>
       </c>
+      <c r="G385" s="6" t="n">
+        <v>2.14</v>
+      </c>
       <c r="H385" s="7" t="n">
         <f aca="false">G385-E385</f>
-        <v>-2</v>
+        <v>0.14</v>
       </c>
       <c r="I385" s="7" t="n">
         <f aca="false">SUM($H$2:H385)</f>
-        <v>-89.4</v>
+        <v>-71.39</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,13 +10960,16 @@
       <c r="F386" s="5" t="n">
         <v>1.12</v>
       </c>
+      <c r="G386" s="6" t="n">
+        <v>3.36</v>
+      </c>
       <c r="H386" s="7" t="n">
         <f aca="false">G386-E386</f>
-        <v>-3</v>
+        <v>0.36</v>
       </c>
       <c r="I386" s="7" t="n">
         <f aca="false">SUM($H$2:H386)</f>
-        <v>-92.4</v>
+        <v>-71.03</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10958,13 +10988,16 @@
       <c r="F387" s="5" t="n">
         <v>1.13</v>
       </c>
+      <c r="G387" s="6" t="n">
+        <v>2.28</v>
+      </c>
       <c r="H387" s="7" t="n">
         <f aca="false">G387-E387</f>
-        <v>-2</v>
+        <v>0.28</v>
       </c>
       <c r="I387" s="7" t="n">
         <f aca="false">SUM($H$2:H387)</f>
-        <v>-94.4</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10983,13 +11016,16 @@
       <c r="F388" s="5" t="n">
         <v>2.04</v>
       </c>
+      <c r="G388" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H388" s="7" t="n">
         <f aca="false">G388-E388</f>
         <v>-4</v>
       </c>
       <c r="I388" s="7" t="n">
         <f aca="false">SUM($H$2:H388)</f>
-        <v>-98.4</v>
+        <v>-74.75</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11008,13 +11044,16 @@
       <c r="F389" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="G389" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="H389" s="7" t="n">
         <f aca="false">G389-E389</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I389" s="7" t="n">
         <f aca="false">SUM($H$2:H389)</f>
-        <v>-108.4</v>
+        <v>-74.75</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11033,13 +11072,16 @@
       <c r="F390" s="5" t="n">
         <v>1.08</v>
       </c>
+      <c r="G390" s="6" t="n">
+        <v>2.16</v>
+      </c>
       <c r="H390" s="7" t="n">
         <f aca="false">G390-E390</f>
-        <v>-2</v>
+        <v>0.16</v>
       </c>
       <c r="I390" s="7" t="n">
         <f aca="false">SUM($H$2:H390)</f>
-        <v>-110.4</v>
+        <v>-74.59</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14620" windowHeight="15400" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="2040" windowWidth="14620" windowHeight="15400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="157">
   <si>
     <t>tx id</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>bedene al</t>
+  </si>
+  <si>
+    <t>f lopez</t>
   </si>
 </sst>
 </file>
@@ -958,11 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H367" sqref="H367"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11274,6 +11277,236 @@
         <v>-74.590000000000018</v>
       </c>
     </row>
+    <row r="392" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I392" s="12">
+        <f>SUM(H393:H400)</f>
+        <v>3.7000000000000028</v>
+      </c>
+    </row>
+    <row r="393" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B393" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E393" s="4">
+        <v>9</v>
+      </c>
+      <c r="F393" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="G393" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="H393" s="7">
+        <f t="shared" ref="H393:H400" si="20">G393-E393</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="I393" s="7">
+        <f>SUM($H$2:H393)</f>
+        <v>-61.990000000000016</v>
+      </c>
+    </row>
+    <row r="394" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B394" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E394" s="4">
+        <v>1</v>
+      </c>
+      <c r="F394" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G394" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H394" s="7">
+        <f t="shared" si="20"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="I394" s="7">
+        <f>SUM($H$2:H394)</f>
+        <v>-61.850000000000016</v>
+      </c>
+    </row>
+    <row r="395" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B395" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E395" s="4">
+        <v>1</v>
+      </c>
+      <c r="F395" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="G395" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H395" s="7">
+        <f t="shared" si="20"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="I395" s="7">
+        <f>SUM($H$2:H395)</f>
+        <v>-61.450000000000017</v>
+      </c>
+    </row>
+    <row r="396" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B396" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E396" s="4">
+        <v>2</v>
+      </c>
+      <c r="F396" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="G396" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="H396" s="7">
+        <f t="shared" si="20"/>
+        <v>0.48</v>
+      </c>
+      <c r="I396" s="7">
+        <f>SUM($H$2:H396)</f>
+        <v>-60.97000000000002</v>
+      </c>
+    </row>
+    <row r="397" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B397" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E397" s="4">
+        <v>1</v>
+      </c>
+      <c r="F397" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="G397" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="H397" s="7">
+        <f t="shared" si="20"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="I397" s="7">
+        <f>SUM($H$2:H397)</f>
+        <v>-60.940000000000019</v>
+      </c>
+    </row>
+    <row r="398" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B398" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E398" s="4">
+        <v>1</v>
+      </c>
+      <c r="F398" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="G398" s="6">
+        <v>0</v>
+      </c>
+      <c r="H398" s="7">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="I398" s="7">
+        <f>SUM($H$2:H398)</f>
+        <v>-61.940000000000019</v>
+      </c>
+    </row>
+    <row r="399" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B399" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E399" s="4">
+        <v>1</v>
+      </c>
+      <c r="F399" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G399" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H399" s="7">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I399" s="7">
+        <f>SUM($H$2:H399)</f>
+        <v>-61.890000000000022</v>
+      </c>
+    </row>
+    <row r="400" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B400" s="2">
+        <v>43707</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E400" s="4">
+        <v>9</v>
+      </c>
+      <c r="F400" s="5">
+        <v>3</v>
+      </c>
+      <c r="G400" s="6">
+        <v>0</v>
+      </c>
+      <c r="H400" s="7">
+        <f t="shared" si="20"/>
+        <v>-9</v>
+      </c>
+      <c r="I400" s="7">
+        <f>SUM($H$2:H400)</f>
+        <v>-70.890000000000015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="158">
   <si>
     <t>tx id</t>
   </si>
@@ -964,11 +964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C409" sqref="C409"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11730,6 +11730,79 @@
         <v>-86.690000000000026</v>
       </c>
     </row>
+    <row r="413" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I413" s="12">
+        <f>H414</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="414" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B414" s="2">
+        <v>43713</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E414" s="4">
+        <v>4</v>
+      </c>
+      <c r="F414" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="G414" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="H414" s="7">
+        <f t="shared" ref="H414" si="23">G414-E414</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I414" s="7">
+        <f>SUM($H$2:H414)</f>
+        <v>-84.490000000000023</v>
+      </c>
+    </row>
+    <row r="416" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I416" s="12">
+        <f>H417</f>
+        <v>0.12000000000000011</v>
+      </c>
+    </row>
+    <row r="417" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B417" s="2">
+        <v>43714</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E417" s="4">
+        <v>2</v>
+      </c>
+      <c r="F417" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="G417" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="H417" s="7">
+        <f t="shared" ref="H417" si="24">G417-E417</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="I417" s="7">
+        <f>SUM($H$2:H417)</f>
+        <v>-84.370000000000019</v>
+      </c>
+    </row>
+    <row r="420" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B420" s="2">
+        <v>43624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="163">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t xml:space="preserve">hoang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kukushkin</t>
   </si>
 </sst>
 </file>
@@ -782,12 +788,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A424" activeCellId="0" sqref="A424"/>
+      <selection pane="bottomLeft" activeCell="B429" activeCellId="0" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11769,6 +11775,292 @@
         <v>-86.49</v>
       </c>
     </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I428" s="12" t="n">
+        <f aca="false">SUM(H429:H438)</f>
+        <v>0.0499999999999989</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E429" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G429" s="6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H429" s="7" t="n">
+        <f aca="false">G429-E429</f>
+        <v>0.42</v>
+      </c>
+      <c r="I429" s="7" t="n">
+        <f aca="false">SUM($H$2:H429)</f>
+        <v>-86.07</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E430" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F430" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G430" s="6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H430" s="7" t="n">
+        <f aca="false">G430-E430</f>
+        <v>0.55</v>
+      </c>
+      <c r="I430" s="7" t="n">
+        <f aca="false">SUM($H$2:H430)</f>
+        <v>-85.52</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E431" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F431" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G431" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" s="7" t="n">
+        <f aca="false">G431-E431</f>
+        <v>-5</v>
+      </c>
+      <c r="I431" s="7" t="n">
+        <f aca="false">SUM($H$2:H431)</f>
+        <v>-90.52</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E432" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F432" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G432" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H432" s="7" t="n">
+        <f aca="false">G432-E432</f>
+        <v>0.8</v>
+      </c>
+      <c r="I432" s="7" t="n">
+        <f aca="false">SUM($H$2:H432)</f>
+        <v>-89.72</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E433" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F433" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G433" s="6" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="H433" s="7" t="n">
+        <f aca="false">G433-E433</f>
+        <v>3.36</v>
+      </c>
+      <c r="I433" s="7" t="n">
+        <f aca="false">SUM($H$2:H433)</f>
+        <v>-86.36</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E434" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F434" s="5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G434" s="6" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="H434" s="7" t="n">
+        <f aca="false">G434-E434</f>
+        <v>1.52</v>
+      </c>
+      <c r="I434" s="7" t="n">
+        <f aca="false">SUM($H$2:H434)</f>
+        <v>-84.84</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E435" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F435" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G435" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H435" s="7" t="n">
+        <f aca="false">G435-E435</f>
+        <v>-1</v>
+      </c>
+      <c r="I435" s="7" t="n">
+        <f aca="false">SUM($H$2:H435)</f>
+        <v>-85.84</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E436" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F436" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G436" s="6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H436" s="7" t="n">
+        <f aca="false">G436-E436</f>
+        <v>2.4</v>
+      </c>
+      <c r="I436" s="7" t="n">
+        <f aca="false">SUM($H$2:H436)</f>
+        <v>-83.44</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E437" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F437" s="5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G437" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H437" s="7" t="n">
+        <f aca="false">G437-E437</f>
+        <v>-2</v>
+      </c>
+      <c r="I437" s="7" t="n">
+        <f aca="false">SUM($H$2:H437)</f>
+        <v>-85.44</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E438" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F438" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G438" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H438" s="7" t="n">
+        <f aca="false">G438-E438</f>
+        <v>-1</v>
+      </c>
+      <c r="I438" s="7" t="n">
+        <f aca="false">SUM($H$2:H438)</f>
+        <v>-86.44</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="163">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -788,12 +788,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I445"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B429" activeCellId="0" sqref="B429"/>
+      <selection pane="bottomLeft" activeCell="A446" activeCellId="0" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12061,6 +12061,152 @@
         <v>-86.44</v>
       </c>
     </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I440" s="12" t="n">
+        <f aca="false">SUM(H441:H445)</f>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E441" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F441" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G441" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H441" s="7" t="n">
+        <f aca="false">G441-E441</f>
+        <v>-1</v>
+      </c>
+      <c r="I441" s="7" t="n">
+        <f aca="false">SUM($H$2:H441)</f>
+        <v>-87.44</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E442" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F442" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G442" s="6" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H442" s="7" t="n">
+        <f aca="false">G442-E442</f>
+        <v>1.44</v>
+      </c>
+      <c r="I442" s="7" t="n">
+        <f aca="false">SUM($H$2:H442)</f>
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E443" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F443" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G443" s="6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H443" s="7" t="n">
+        <f aca="false">G443-E443</f>
+        <v>0.24</v>
+      </c>
+      <c r="I443" s="7" t="n">
+        <f aca="false">SUM($H$2:H443)</f>
+        <v>-85.76</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E444" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F444" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G444" s="6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H444" s="7" t="n">
+        <f aca="false">G444-E444</f>
+        <v>0.42</v>
+      </c>
+      <c r="I444" s="7" t="n">
+        <f aca="false">SUM($H$2:H444)</f>
+        <v>-85.34</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E445" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F445" s="5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G445" s="6" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H445" s="7" t="n">
+        <f aca="false">G445-E445</f>
+        <v>0.63</v>
+      </c>
+      <c r="I445" s="7" t="n">
+        <f aca="false">SUM($H$2:H445)</f>
+        <v>-84.71</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="165">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t xml:space="preserve">bedene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chg</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
@@ -12536,6 +12539,40 @@
         <v>-80.3500000000001</v>
       </c>
     </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I464" s="12" t="n">
+        <f aca="false">SUM(H465)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="2" t="n">
+        <v>43731</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E465" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F465" s="5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G465" s="6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H465" s="7" t="n">
+        <f aca="false">G465-E465</f>
+        <v>0.16</v>
+      </c>
+      <c r="I465" s="7" t="n">
+        <f aca="false">SUM($H$2:H465)</f>
+        <v>-80.19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -797,9 +797,9 @@
   <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B465" activeCellId="0" sqref="B465"/>
+      <selection pane="bottomLeft" activeCell="L450" activeCellId="0" sqref="L450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="166">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t xml:space="preserve">chg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhu</t>
   </si>
 </sst>
 </file>
@@ -794,12 +797,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L450" activeCellId="0" sqref="L450"/>
+      <selection pane="bottomLeft" activeCell="A472" activeCellId="0" sqref="A472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12573,6 +12576,270 @@
         <v>-80.19</v>
       </c>
     </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I467" s="12" t="n">
+        <f aca="false">SUM(H468:H470)</f>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="2" t="n">
+        <v>43732</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E468" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F468" s="5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G468" s="6" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H468" s="7" t="n">
+        <f aca="false">G468-E468</f>
+        <v>1.28</v>
+      </c>
+      <c r="I468" s="7" t="n">
+        <f aca="false">SUM($H$2:H468)</f>
+        <v>-78.91</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="2" t="n">
+        <v>43732</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E469" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F469" s="5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G469" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H469" s="7" t="n">
+        <f aca="false">G469-E469</f>
+        <v>-4</v>
+      </c>
+      <c r="I469" s="7" t="n">
+        <f aca="false">SUM($H$2:H469)</f>
+        <v>-82.91</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="2" t="n">
+        <v>43732</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E470" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F470" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G470" s="6" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H470" s="7" t="n">
+        <f aca="false">G470-E470</f>
+        <v>1.92</v>
+      </c>
+      <c r="I470" s="7" t="n">
+        <f aca="false">SUM($H$2:H470)</f>
+        <v>-80.99</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I472" s="12" t="n">
+        <f aca="false">SUM(H473:H478)</f>
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E473" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F473" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G473" s="6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H473" s="7" t="n">
+        <f aca="false">G473-E473</f>
+        <v>0.42</v>
+      </c>
+      <c r="I473" s="7" t="n">
+        <f aca="false">SUM($H$2:H473)</f>
+        <v>-80.57</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E474" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F474" s="5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G474" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H474" s="7" t="n">
+        <f aca="false">G474-E474</f>
+        <v>-1</v>
+      </c>
+      <c r="I474" s="7" t="n">
+        <f aca="false">SUM($H$2:H474)</f>
+        <v>-81.57</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E475" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F475" s="5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G475" s="6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H475" s="7" t="n">
+        <f aca="false">G475-E475</f>
+        <v>0.75</v>
+      </c>
+      <c r="I475" s="7" t="n">
+        <f aca="false">SUM($H$2:H475)</f>
+        <v>-80.82</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E476" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F476" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G476" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" s="7" t="n">
+        <f aca="false">G476-E476</f>
+        <v>-1</v>
+      </c>
+      <c r="I476" s="7" t="n">
+        <f aca="false">SUM($H$2:H476)</f>
+        <v>-81.82</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E477" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F477" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G477" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H477" s="7" t="n">
+        <f aca="false">G477-E477</f>
+        <v>-1</v>
+      </c>
+      <c r="I477" s="7" t="n">
+        <f aca="false">SUM($H$2:H477)</f>
+        <v>-82.82</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E478" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F478" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G478" s="6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H478" s="7" t="n">
+        <f aca="false">G478-E478</f>
+        <v>0.52</v>
+      </c>
+      <c r="I478" s="7" t="n">
+        <f aca="false">SUM($H$2:H478)</f>
+        <v>-82.3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="167">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t xml:space="preserve">zhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seppi</t>
   </si>
 </sst>
 </file>
@@ -797,12 +800,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A472" activeCellId="0" sqref="A472"/>
+      <selection pane="bottomLeft" activeCell="B493" activeCellId="0" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12840,6 +12843,320 @@
         <v>-82.3</v>
       </c>
     </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I480" s="12" t="n">
+        <f aca="false">SUM(H481:H491)</f>
+        <v>-5.32</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E481" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F481" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G481" s="6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H481" s="7" t="n">
+        <f aca="false">G481-E481</f>
+        <v>0.48</v>
+      </c>
+      <c r="I481" s="7" t="n">
+        <f aca="false">SUM($H$2:H481)</f>
+        <v>-81.82</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E482" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F482" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G482" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H482" s="7" t="n">
+        <f aca="false">G482-E482</f>
+        <v>-1</v>
+      </c>
+      <c r="I482" s="7" t="n">
+        <f aca="false">SUM($H$2:H482)</f>
+        <v>-82.82</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E483" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F483" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G483" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H483" s="7" t="n">
+        <f aca="false">G483-E483</f>
+        <v>-1</v>
+      </c>
+      <c r="I483" s="7" t="n">
+        <f aca="false">SUM($H$2:H483)</f>
+        <v>-83.82</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E484" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F484" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G484" s="6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H484" s="7" t="n">
+        <f aca="false">G484-E484</f>
+        <v>0.24</v>
+      </c>
+      <c r="I484" s="7" t="n">
+        <f aca="false">SUM($H$2:H484)</f>
+        <v>-83.58</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E485" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F485" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G485" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H485" s="7" t="n">
+        <f aca="false">G485-E485</f>
+        <v>-2</v>
+      </c>
+      <c r="I485" s="7" t="n">
+        <f aca="false">SUM($H$2:H485)</f>
+        <v>-85.58</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E486" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F486" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G486" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H486" s="7" t="n">
+        <f aca="false">G486-E486</f>
+        <v>-6</v>
+      </c>
+      <c r="I486" s="7" t="n">
+        <f aca="false">SUM($H$2:H486)</f>
+        <v>-91.58</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E487" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F487" s="5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G487" s="6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H487" s="7" t="n">
+        <f aca="false">G487-E487</f>
+        <v>1.9</v>
+      </c>
+      <c r="I487" s="7" t="n">
+        <f aca="false">SUM($H$2:H487)</f>
+        <v>-89.68</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E488" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F488" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G488" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H488" s="7" t="n">
+        <f aca="false">G488-E488</f>
+        <v>0</v>
+      </c>
+      <c r="I488" s="7" t="n">
+        <f aca="false">SUM($H$2:H488)</f>
+        <v>-89.68</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E489" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F489" s="5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G489" s="6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H489" s="7" t="n">
+        <f aca="false">G489-E489</f>
+        <v>0.22</v>
+      </c>
+      <c r="I489" s="7" t="n">
+        <f aca="false">SUM($H$2:H489)</f>
+        <v>-89.46</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E490" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F490" s="5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G490" s="6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H490" s="7" t="n">
+        <f aca="false">G490-E490</f>
+        <v>0.32</v>
+      </c>
+      <c r="I490" s="7" t="n">
+        <f aca="false">SUM($H$2:H490)</f>
+        <v>-89.14</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E491" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F491" s="5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G491" s="6" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="H491" s="7" t="n">
+        <f aca="false">G491-E491</f>
+        <v>1.52</v>
+      </c>
+      <c r="I491" s="7" t="n">
+        <f aca="false">SUM($H$2:H491)</f>
+        <v>-87.62</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="171">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t xml:space="preserve">bej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouile</t>
   </si>
 </sst>
 </file>
@@ -809,12 +812,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B509" activeCellId="0" sqref="B509"/>
+      <selection pane="bottomLeft" activeCell="A518" activeCellId="0" sqref="A518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13486,6 +13489,264 @@
         <v>-86.1800000000001</v>
       </c>
     </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I508" s="12" t="n">
+        <f aca="false">SUM(H509:H517)</f>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E509" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F509" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G509" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H509" s="7" t="n">
+        <f aca="false">G509-E509</f>
+        <v>-3</v>
+      </c>
+      <c r="I509" s="7" t="n">
+        <f aca="false">SUM($H$2:H509)</f>
+        <v>-89.18</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E510" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F510" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G510" s="6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H510" s="7" t="n">
+        <f aca="false">G510-E510</f>
+        <v>0.85</v>
+      </c>
+      <c r="I510" s="7" t="n">
+        <f aca="false">SUM($H$2:H510)</f>
+        <v>-88.33</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B511" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E511" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F511" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G511" s="6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H511" s="7" t="n">
+        <f aca="false">G511-E511</f>
+        <v>1.7</v>
+      </c>
+      <c r="I511" s="7" t="n">
+        <f aca="false">SUM($H$2:H511)</f>
+        <v>-86.63</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B512" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E512" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F512" s="5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G512" s="6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H512" s="7" t="n">
+        <f aca="false">G512-E512</f>
+        <v>0.45</v>
+      </c>
+      <c r="I512" s="7" t="n">
+        <f aca="false">SUM($H$2:H512)</f>
+        <v>-86.18</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B513" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E513" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F513" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G513" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H513" s="7" t="n">
+        <f aca="false">G513-E513</f>
+        <v>-1</v>
+      </c>
+      <c r="I513" s="7" t="n">
+        <f aca="false">SUM($H$2:H513)</f>
+        <v>-87.18</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E514" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F514" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G514" s="6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H514" s="7" t="n">
+        <f aca="false">G514-E514</f>
+        <v>0.84</v>
+      </c>
+      <c r="I514" s="7" t="n">
+        <f aca="false">SUM($H$2:H514)</f>
+        <v>-86.34</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E515" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F515" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G515" s="6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H515" s="7" t="n">
+        <f aca="false">G515-E515</f>
+        <v>2.4</v>
+      </c>
+      <c r="I515" s="7" t="n">
+        <f aca="false">SUM($H$2:H515)</f>
+        <v>-83.94</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E516" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F516" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G516" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" s="7" t="n">
+        <f aca="false">G516-E516</f>
+        <v>-1</v>
+      </c>
+      <c r="I516" s="7" t="n">
+        <f aca="false">SUM($H$2:H516)</f>
+        <v>-84.94</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E517" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F517" s="5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G517" s="6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H517" s="7" t="n">
+        <f aca="false">G517-E517</f>
+        <v>0.32</v>
+      </c>
+      <c r="I517" s="7" t="n">
+        <f aca="false">SUM($H$2:H517)</f>
+        <v>-84.62</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="173">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t xml:space="preserve">pouile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j thompson</t>
   </si>
 </sst>
 </file>
@@ -812,12 +818,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A518" activeCellId="0" sqref="A518"/>
+      <selection pane="bottomLeft" activeCell="A519" activeCellId="0" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13747,6 +13753,404 @@
         <v>-84.62</v>
       </c>
     </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I519" s="12" t="n">
+        <f aca="false">SUM(H520:H533)</f>
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E520" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F520" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G520" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" s="7" t="n">
+        <f aca="false">G520-E520</f>
+        <v>-2</v>
+      </c>
+      <c r="I520" s="7" t="n">
+        <f aca="false">SUM($H$2:H520)</f>
+        <v>-86.62</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E521" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F521" s="5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G521" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" s="7" t="n">
+        <f aca="false">G521-E521</f>
+        <v>-1</v>
+      </c>
+      <c r="I521" s="7" t="n">
+        <f aca="false">SUM($H$2:H521)</f>
+        <v>-87.62</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E522" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F522" s="5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G522" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H522" s="7" t="n">
+        <f aca="false">G522-E522</f>
+        <v>-2</v>
+      </c>
+      <c r="I522" s="7" t="n">
+        <f aca="false">SUM($H$2:H522)</f>
+        <v>-89.62</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E523" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F523" s="5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G523" s="6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H523" s="7" t="n">
+        <f aca="false">G523-E523</f>
+        <v>0.0900000000000001</v>
+      </c>
+      <c r="I523" s="7" t="n">
+        <f aca="false">SUM($H$2:H523)</f>
+        <v>-89.53</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E524" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F524" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G524" s="6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H524" s="7" t="n">
+        <f aca="false">G524-E524</f>
+        <v>0.42</v>
+      </c>
+      <c r="I524" s="7" t="n">
+        <f aca="false">SUM($H$2:H524)</f>
+        <v>-89.11</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E525" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F525" s="5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G525" s="6" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H525" s="7" t="n">
+        <f aca="false">G525-E525</f>
+        <v>2.25</v>
+      </c>
+      <c r="I525" s="7" t="n">
+        <f aca="false">SUM($H$2:H525)</f>
+        <v>-86.86</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B526" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E526" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F526" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G526" s="6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H526" s="7" t="n">
+        <f aca="false">G526-E526</f>
+        <v>1.1</v>
+      </c>
+      <c r="I526" s="7" t="n">
+        <f aca="false">SUM($H$2:H526)</f>
+        <v>-85.76</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E527" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F527" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G527" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H527" s="7" t="n">
+        <f aca="false">G527-E527</f>
+        <v>-3</v>
+      </c>
+      <c r="I527" s="7" t="n">
+        <f aca="false">SUM($H$2:H527)</f>
+        <v>-88.76</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E528" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F528" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G528" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H528" s="7" t="n">
+        <f aca="false">G528-E528</f>
+        <v>-1</v>
+      </c>
+      <c r="I528" s="7" t="n">
+        <f aca="false">SUM($H$2:H528)</f>
+        <v>-89.76</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E529" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F529" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G529" s="6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H529" s="7" t="n">
+        <f aca="false">G529-E529</f>
+        <v>0.58</v>
+      </c>
+      <c r="I529" s="7" t="n">
+        <f aca="false">SUM($H$2:H529)</f>
+        <v>-89.18</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E530" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F530" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G530" s="6" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H530" s="7" t="n">
+        <f aca="false">G530-E530</f>
+        <v>2.08</v>
+      </c>
+      <c r="I530" s="7" t="n">
+        <f aca="false">SUM($H$2:H530)</f>
+        <v>-87.1</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E531" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F531" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G531" s="6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H531" s="7" t="n">
+        <f aca="false">G531-E531</f>
+        <v>0.26</v>
+      </c>
+      <c r="I531" s="7" t="n">
+        <f aca="false">SUM($H$2:H531)</f>
+        <v>-86.84</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E532" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F532" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G532" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H532" s="7" t="n">
+        <f aca="false">G532-E532</f>
+        <v>0</v>
+      </c>
+      <c r="I532" s="7" t="n">
+        <f aca="false">SUM($H$2:H532)</f>
+        <v>-86.84</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E533" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F533" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G533" s="6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H533" s="7" t="n">
+        <f aca="false">G533-E533</f>
+        <v>0.96</v>
+      </c>
+      <c r="I533" s="7" t="n">
+        <f aca="false">SUM($H$2:H533)</f>
+        <v>-85.88</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="174">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t xml:space="preserve">j thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albot</t>
   </si>
 </sst>
 </file>
@@ -818,12 +821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I533"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A519" activeCellId="0" sqref="A519"/>
+      <selection pane="bottomLeft" activeCell="I535" activeCellId="0" sqref="I535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14151,6 +14154,264 @@
         <v>-85.88</v>
       </c>
     </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I535" s="12" t="n">
+        <f aca="false">SUM(H536:H544)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E536" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F536" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G536" s="6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H536" s="7" t="n">
+        <f aca="false">G536-E536</f>
+        <v>2.8</v>
+      </c>
+      <c r="I536" s="7" t="n">
+        <f aca="false">SUM($H$2:H536)</f>
+        <v>-83.08</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E537" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F537" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G537" s="6" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H537" s="7" t="n">
+        <f aca="false">G537-E537</f>
+        <v>2.04</v>
+      </c>
+      <c r="I537" s="7" t="n">
+        <f aca="false">SUM($H$2:H537)</f>
+        <v>-81.04</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E538" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F538" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G538" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H538" s="7" t="n">
+        <f aca="false">G538-E538</f>
+        <v>-3</v>
+      </c>
+      <c r="I538" s="7" t="n">
+        <f aca="false">SUM($H$2:H538)</f>
+        <v>-84.04</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E539" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F539" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G539" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H539" s="7" t="n">
+        <f aca="false">G539-E539</f>
+        <v>-5</v>
+      </c>
+      <c r="I539" s="7" t="n">
+        <f aca="false">SUM($H$2:H539)</f>
+        <v>-89.04</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E540" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F540" s="5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G540" s="6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H540" s="7" t="n">
+        <f aca="false">G540-E540</f>
+        <v>0.0600000000000001</v>
+      </c>
+      <c r="I540" s="7" t="n">
+        <f aca="false">SUM($H$2:H540)</f>
+        <v>-88.98</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B541" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E541" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F541" s="5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G541" s="6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="H541" s="7" t="n">
+        <f aca="false">G541-E541</f>
+        <v>3.25</v>
+      </c>
+      <c r="I541" s="7" t="n">
+        <f aca="false">SUM($H$2:H541)</f>
+        <v>-85.73</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B542" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E542" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F542" s="5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G542" s="6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H542" s="7" t="n">
+        <f aca="false">G542-E542</f>
+        <v>0.68</v>
+      </c>
+      <c r="I542" s="7" t="n">
+        <f aca="false">SUM($H$2:H542)</f>
+        <v>-85.05</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B543" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E543" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F543" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G543" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H543" s="7" t="n">
+        <f aca="false">G543-E543</f>
+        <v>-1</v>
+      </c>
+      <c r="I543" s="7" t="n">
+        <f aca="false">SUM($H$2:H543)</f>
+        <v>-86.05</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D544" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E544" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F544" s="5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G544" s="6" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H544" s="7" t="n">
+        <f aca="false">G544-E544</f>
+        <v>0.42</v>
+      </c>
+      <c r="I544" s="7" t="n">
+        <f aca="false">SUM($H$2:H544)</f>
+        <v>-85.63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="174">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -821,12 +821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I535" activeCellId="0" sqref="I535"/>
+      <selection pane="bottomLeft" activeCell="B548" activeCellId="0" sqref="B548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14412,6 +14412,68 @@
         <v>-85.63</v>
       </c>
     </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I546" s="12" t="n">
+        <f aca="false">SUM(H547:H548)</f>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E547" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F547" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G547" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H547" s="7" t="n">
+        <f aca="false">G547-E547</f>
+        <v>0.8</v>
+      </c>
+      <c r="I547" s="7" t="n">
+        <f aca="false">SUM($H$2:H547)</f>
+        <v>-84.83</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E548" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F548" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G548" s="6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H548" s="7" t="n">
+        <f aca="false">G548-E548</f>
+        <v>0.48</v>
+      </c>
+      <c r="I548" s="7" t="n">
+        <f aca="false">SUM($H$2:H548)</f>
+        <v>-84.35</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="177">
   <si>
     <t>tx id</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>zverev</t>
+  </si>
+  <si>
+    <t>shg</t>
+  </si>
+  <si>
+    <t>murray</t>
   </si>
 </sst>
 </file>
@@ -1015,11 +1021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B573" sqref="B573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14965,6 +14971,152 @@
         <v>-86.719999999999985</v>
       </c>
     </row>
+    <row r="566" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I566" s="12">
+        <f>SUM(H567:H571)</f>
+        <v>2.8600000000000003</v>
+      </c>
+    </row>
+    <row r="567" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B567" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E567" s="4">
+        <v>4</v>
+      </c>
+      <c r="F567" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="G567" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="H567" s="7">
+        <f>G567-E567</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="I567" s="7">
+        <f>SUM($H$2:H567)</f>
+        <v>-83.319999999999979</v>
+      </c>
+    </row>
+    <row r="568" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B568" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E568" s="4">
+        <v>1</v>
+      </c>
+      <c r="F568" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="G568" s="6">
+        <v>0</v>
+      </c>
+      <c r="H568" s="7">
+        <f>G568-E568</f>
+        <v>-1</v>
+      </c>
+      <c r="I568" s="7">
+        <f>SUM($H$2:H568)</f>
+        <v>-84.319999999999979</v>
+      </c>
+    </row>
+    <row r="569" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B569" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E569" s="4">
+        <v>1</v>
+      </c>
+      <c r="F569" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="G569" s="6">
+        <v>0</v>
+      </c>
+      <c r="H569" s="7">
+        <f>G569-E569</f>
+        <v>-1</v>
+      </c>
+      <c r="I569" s="7">
+        <f>SUM($H$2:H569)</f>
+        <v>-85.319999999999979</v>
+      </c>
+    </row>
+    <row r="570" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B570" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E570" s="4">
+        <v>2</v>
+      </c>
+      <c r="F570" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="G570" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="H570" s="7">
+        <f>G570-E570</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I570" s="7">
+        <f>SUM($H$2:H570)</f>
+        <v>-84.759999999999977</v>
+      </c>
+    </row>
+    <row r="571" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B571" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E571" s="4">
+        <v>3</v>
+      </c>
+      <c r="F571" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="G571" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="H571" s="7">
+        <f>G571-E571</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I571" s="7">
+        <f>SUM($H$2:H571)</f>
+        <v>-83.859999999999971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="177">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -830,12 +830,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I573" activeCellId="0" sqref="I573"/>
+      <selection pane="bottomLeft" activeCell="A589" activeCellId="0" sqref="A589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15157,6 +15157,152 @@
         <v>-81.53</v>
       </c>
     </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I583" s="12" t="n">
+        <f aca="false">SUM(H584:H588)</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E584" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F584" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G584" s="6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H584" s="7" t="n">
+        <f aca="false">G584-E584</f>
+        <v>0.52</v>
+      </c>
+      <c r="I584" s="7" t="n">
+        <f aca="false">SUM($H$2:H584)</f>
+        <v>-81.01</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E585" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F585" s="5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G585" s="6" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H585" s="7" t="n">
+        <f aca="false">G585-E585</f>
+        <v>1.95</v>
+      </c>
+      <c r="I585" s="7" t="n">
+        <f aca="false">SUM($H$2:H585)</f>
+        <v>-79.06</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E586" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F586" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G586" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H586" s="7" t="n">
+        <f aca="false">G586-E586</f>
+        <v>0.9</v>
+      </c>
+      <c r="I586" s="7" t="n">
+        <f aca="false">SUM($H$2:H586)</f>
+        <v>-78.16</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E587" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F587" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G587" s="6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H587" s="7" t="n">
+        <f aca="false">G587-E587</f>
+        <v>0.4</v>
+      </c>
+      <c r="I587" s="7" t="n">
+        <f aca="false">SUM($H$2:H587)</f>
+        <v>-77.76</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E588" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F588" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G588" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H588" s="7" t="n">
+        <f aca="false">G588-E588</f>
+        <v>0</v>
+      </c>
+      <c r="I588" s="7" t="n">
+        <f aca="false">SUM($H$2:H588)</f>
+        <v>-77.76</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="177">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -830,12 +830,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I588"/>
+  <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A589" activeCellId="0" sqref="A589"/>
+      <selection pane="bottomLeft" activeCell="G601" activeCellId="0" sqref="G601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15303,6 +15303,236 @@
         <v>-77.76</v>
       </c>
     </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I590" s="12" t="n">
+        <f aca="false">SUM(H591:H598)</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E591" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F591" s="5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G591" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H591" s="7" t="n">
+        <f aca="false">G591-E591</f>
+        <v>-2</v>
+      </c>
+      <c r="I591" s="7" t="n">
+        <f aca="false">SUM($H$2:H591)</f>
+        <v>-79.76</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E592" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F592" s="5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G592" s="6" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H592" s="7" t="n">
+        <f aca="false">G592-E592</f>
+        <v>0.21</v>
+      </c>
+      <c r="I592" s="7" t="n">
+        <f aca="false">SUM($H$2:H592)</f>
+        <v>-79.55</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E593" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F593" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G593" s="6" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H593" s="7" t="n">
+        <f aca="false">G593-E593</f>
+        <v>2.04</v>
+      </c>
+      <c r="I593" s="7" t="n">
+        <f aca="false">SUM($H$2:H593)</f>
+        <v>-77.51</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B594" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D594" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E594" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F594" s="5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G594" s="6" t="n">
+        <v>8.96</v>
+      </c>
+      <c r="H594" s="7" t="n">
+        <f aca="false">G594-E594</f>
+        <v>0.960000000000001</v>
+      </c>
+      <c r="I594" s="7" t="n">
+        <f aca="false">SUM($H$2:H594)</f>
+        <v>-76.55</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E595" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F595" s="5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G595" s="6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H595" s="7" t="n">
+        <f aca="false">G595-E595</f>
+        <v>0.68</v>
+      </c>
+      <c r="I595" s="7" t="n">
+        <f aca="false">SUM($H$2:H595)</f>
+        <v>-75.8699999999999</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E596" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F596" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G596" s="6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H596" s="7" t="n">
+        <f aca="false">G596-E596</f>
+        <v>0.48</v>
+      </c>
+      <c r="I596" s="7" t="n">
+        <f aca="false">SUM($H$2:H596)</f>
+        <v>-75.3899999999999</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E597" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F597" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G597" s="6" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H597" s="7" t="n">
+        <f aca="false">G597-E597</f>
+        <v>0.72</v>
+      </c>
+      <c r="I597" s="7" t="n">
+        <f aca="false">SUM($H$2:H597)</f>
+        <v>-74.6699999999999</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E598" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F598" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G598" s="6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H598" s="7" t="n">
+        <f aca="false">G598-E598</f>
+        <v>1.2</v>
+      </c>
+      <c r="I598" s="7" t="n">
+        <f aca="false">SUM($H$2:H598)</f>
+        <v>-73.4699999999999</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="195">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t xml:space="preserve">ROI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">Hamburg European Open</t>
@@ -585,6 +600,12 @@
   <si>
     <t xml:space="preserve">copil</t>
   </si>
+  <si>
+    <t xml:space="preserve">kohlschreiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinner</t>
+  </si>
 </sst>
 </file>
 
@@ -717,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -810,6 +831,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -887,12 +920,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J639"/>
+  <dimension ref="A1:Q657"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J617" activeCellId="0" sqref="J617"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K642" activeCellId="0" sqref="K642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,6 +973,21 @@
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="15" t="n">
@@ -961,10 +1009,10 @@
         <v>43670</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>5</v>
@@ -996,10 +1044,10 @@
         <v>43670</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>5</v>
@@ -1031,10 +1079,10 @@
         <v>43670</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>20</v>
@@ -1066,10 +1114,10 @@
         <v>43670</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>5</v>
@@ -1101,10 +1149,10 @@
         <v>43670</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>20</v>
@@ -1136,10 +1184,10 @@
         <v>43670</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>20</v>
@@ -1171,10 +1219,10 @@
         <v>43670</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>5</v>
@@ -1206,10 +1254,10 @@
         <v>43670</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>5</v>
@@ -1241,10 +1289,10 @@
         <v>43670</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>5</v>
@@ -1276,10 +1324,10 @@
         <v>43670</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>20</v>
@@ -1311,10 +1359,10 @@
         <v>43670</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>20</v>
@@ -1346,10 +1394,10 @@
         <v>43670</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>5</v>
@@ -1396,10 +1444,10 @@
         <v>43671</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>20</v>
@@ -1431,10 +1479,10 @@
         <v>43671</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>20</v>
@@ -1466,10 +1514,10 @@
         <v>43671</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>5</v>
@@ -1501,10 +1549,10 @@
         <v>43671</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>5</v>
@@ -1536,10 +1584,10 @@
         <v>43671</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>20</v>
@@ -1571,10 +1619,10 @@
         <v>43671</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>5</v>
@@ -1606,10 +1654,10 @@
         <v>43671</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>5</v>
@@ -1641,10 +1689,10 @@
         <v>43671</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>20</v>
@@ -1676,10 +1724,10 @@
         <v>43671</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>20</v>
@@ -1711,10 +1759,10 @@
         <v>43671</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>20</v>
@@ -1746,10 +1794,10 @@
         <v>43671</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>20</v>
@@ -1781,10 +1829,10 @@
         <v>43671</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>20</v>
@@ -1833,10 +1881,10 @@
         <v>43672</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>20</v>
@@ -1868,10 +1916,10 @@
         <v>43672</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>10</v>
@@ -1903,10 +1951,10 @@
         <v>43672</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>10</v>
@@ -1938,10 +1986,10 @@
         <v>43672</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>10</v>
@@ -1973,10 +2021,10 @@
         <v>43672</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>10</v>
@@ -2008,10 +2056,10 @@
         <v>43672</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>10</v>
@@ -2043,10 +2091,10 @@
         <v>43672</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>10</v>
@@ -2078,10 +2126,10 @@
         <v>43672</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>10</v>
@@ -2113,10 +2161,10 @@
         <v>43672</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>10</v>
@@ -2148,10 +2196,10 @@
         <v>43672</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>10</v>
@@ -2183,10 +2231,10 @@
         <v>43672</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>10</v>
@@ -2218,10 +2266,10 @@
         <v>43672</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>10</v>
@@ -2271,10 +2319,10 @@
         <v>43674</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>15</v>
@@ -2306,10 +2354,10 @@
         <v>43674</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>15</v>
@@ -2341,10 +2389,10 @@
         <v>43674</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>15</v>
@@ -2376,10 +2424,10 @@
         <v>43674</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>15</v>
@@ -2411,10 +2459,10 @@
         <v>43674</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>15</v>
@@ -2446,10 +2494,10 @@
         <v>43674</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>15</v>
@@ -2481,10 +2529,10 @@
         <v>43674</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>15</v>
@@ -2516,10 +2564,10 @@
         <v>43674</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>15</v>
@@ -2551,10 +2599,10 @@
         <v>43674</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>15</v>
@@ -2586,10 +2634,10 @@
         <v>43674</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>15</v>
@@ -2621,10 +2669,10 @@
         <v>43674</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E55" s="3" t="n">
         <v>15</v>
@@ -2656,10 +2704,10 @@
         <v>43674</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>15</v>
@@ -2691,10 +2739,10 @@
         <v>43674</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E57" s="3" t="n">
         <v>15</v>
@@ -2740,10 +2788,10 @@
         <v>43676</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E60" s="3" t="n">
         <v>11</v>
@@ -2775,10 +2823,10 @@
         <v>43676</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E61" s="3" t="n">
         <v>11</v>
@@ -2810,10 +2858,10 @@
         <v>43676</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>11</v>
@@ -2845,10 +2893,10 @@
         <v>43676</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E63" s="3" t="n">
         <v>11</v>
@@ -2880,10 +2928,10 @@
         <v>43676</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E64" s="3" t="n">
         <v>12</v>
@@ -2915,10 +2963,10 @@
         <v>43676</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>11</v>
@@ -2950,10 +2998,10 @@
         <v>43676</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>12</v>
@@ -2985,10 +3033,10 @@
         <v>43676</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>6</v>
@@ -3020,10 +3068,10 @@
         <v>43676</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>6</v>
@@ -3055,10 +3103,10 @@
         <v>43676</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E69" s="3" t="n">
         <v>6</v>
@@ -3090,10 +3138,10 @@
         <v>43676</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>6</v>
@@ -3125,10 +3173,10 @@
         <v>43676</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E71" s="3" t="n">
         <v>6</v>
@@ -3160,10 +3208,10 @@
         <v>43676</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E72" s="3" t="n">
         <v>9</v>
@@ -3195,10 +3243,10 @@
         <v>43676</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>7</v>
@@ -3241,10 +3289,10 @@
         <v>43677</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E76" s="3" t="n">
         <v>4</v>
@@ -3276,10 +3324,10 @@
         <v>43677</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>4</v>
@@ -3311,10 +3359,10 @@
         <v>43677</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>4</v>
@@ -3346,10 +3394,10 @@
         <v>43677</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>3</v>
@@ -3381,10 +3429,10 @@
         <v>43677</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>4</v>
@@ -3416,10 +3464,10 @@
         <v>43677</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E81" s="3" t="n">
         <v>4</v>
@@ -3451,10 +3499,10 @@
         <v>43677</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>3</v>
@@ -3486,10 +3534,10 @@
         <v>43677</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E83" s="3" t="n">
         <v>4</v>
@@ -3521,10 +3569,10 @@
         <v>43677</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E84" s="3" t="n">
         <v>4</v>
@@ -3556,10 +3604,10 @@
         <v>43677</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E85" s="3" t="n">
         <v>4</v>
@@ -3591,10 +3639,10 @@
         <v>43677</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>4</v>
@@ -3626,10 +3674,10 @@
         <v>43677</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E87" s="3" t="n">
         <v>3</v>
@@ -3661,10 +3709,10 @@
         <v>43677</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E88" s="3" t="n">
         <v>4</v>
@@ -3696,10 +3744,10 @@
         <v>43677</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E89" s="3" t="n">
         <v>3</v>
@@ -3731,10 +3779,10 @@
         <v>43677</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>4</v>
@@ -3766,10 +3814,10 @@
         <v>43677</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E91" s="3" t="n">
         <v>4</v>
@@ -3801,10 +3849,10 @@
         <v>43677</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>3</v>
@@ -3836,10 +3884,10 @@
         <v>43677</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>3</v>
@@ -3871,10 +3919,10 @@
         <v>43677</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E94" s="3" t="n">
         <v>4</v>
@@ -3906,10 +3954,10 @@
         <v>43677</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E95" s="3" t="n">
         <v>3</v>
@@ -3952,10 +4000,10 @@
         <v>43678</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>4</v>
@@ -3987,10 +4035,10 @@
         <v>43678</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>3</v>
@@ -4022,10 +4070,10 @@
         <v>43678</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E100" s="3" t="n">
         <v>3</v>
@@ -4057,10 +4105,10 @@
         <v>43678</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E101" s="3" t="n">
         <v>3</v>
@@ -4092,10 +4140,10 @@
         <v>43678</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E102" s="3" t="n">
         <v>3</v>
@@ -4127,10 +4175,10 @@
         <v>43678</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E103" s="3" t="n">
         <v>3</v>
@@ -4162,10 +4210,10 @@
         <v>43678</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E104" s="3" t="n">
         <v>3</v>
@@ -4197,10 +4245,10 @@
         <v>43678</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E105" s="3" t="n">
         <v>4</v>
@@ -4243,10 +4291,10 @@
         <v>43679</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E108" s="3" t="n">
         <v>3</v>
@@ -4278,10 +4326,10 @@
         <v>43679</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E109" s="3" t="n">
         <v>4</v>
@@ -4313,10 +4361,10 @@
         <v>43679</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E110" s="3" t="n">
         <v>4</v>
@@ -4348,10 +4396,10 @@
         <v>43679</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>3</v>
@@ -4383,10 +4431,10 @@
         <v>43679</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E112" s="3" t="n">
         <v>4</v>
@@ -4418,10 +4466,10 @@
         <v>43679</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>3</v>
@@ -4453,10 +4501,10 @@
         <v>43679</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E114" s="3" t="n">
         <v>4</v>
@@ -4499,10 +4547,10 @@
         <v>43680</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E117" s="3" t="n">
         <v>3</v>
@@ -4534,10 +4582,10 @@
         <v>43680</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>4</v>
@@ -4569,10 +4617,10 @@
         <v>43680</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E119" s="3" t="n">
         <v>4</v>
@@ -4615,10 +4663,10 @@
         <v>43682</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E122" s="3" t="n">
         <v>4</v>
@@ -4650,10 +4698,10 @@
         <v>43682</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E123" s="3" t="n">
         <v>3</v>
@@ -4685,10 +4733,10 @@
         <v>43682</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E124" s="3" t="n">
         <v>3</v>
@@ -4720,10 +4768,10 @@
         <v>43682</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E125" s="3" t="n">
         <v>3</v>
@@ -4755,10 +4803,10 @@
         <v>43682</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E126" s="3" t="n">
         <v>3</v>
@@ -4801,10 +4849,10 @@
         <v>43683</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>4</v>
@@ -4836,10 +4884,10 @@
         <v>43683</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E130" s="3" t="n">
         <v>4</v>
@@ -4871,10 +4919,10 @@
         <v>43683</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>3</v>
@@ -4906,10 +4954,10 @@
         <v>43683</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E132" s="3" t="n">
         <v>3</v>
@@ -4941,10 +4989,10 @@
         <v>43683</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E133" s="3" t="n">
         <v>3</v>
@@ -4976,10 +5024,10 @@
         <v>43683</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E134" s="3" t="n">
         <v>4</v>
@@ -5011,10 +5059,10 @@
         <v>43683</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E135" s="3" t="n">
         <v>4</v>
@@ -5046,10 +5094,10 @@
         <v>43683</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E136" s="3" t="n">
         <v>4</v>
@@ -5081,10 +5129,10 @@
         <v>43683</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E137" s="3" t="n">
         <v>4</v>
@@ -5116,10 +5164,10 @@
         <v>43683</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E138" s="3" t="n">
         <v>4</v>
@@ -5151,10 +5199,10 @@
         <v>43683</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E139" s="3" t="n">
         <v>3</v>
@@ -5197,10 +5245,10 @@
         <v>43684</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E142" s="3" t="n">
         <v>3</v>
@@ -5232,10 +5280,10 @@
         <v>43684</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E143" s="3" t="n">
         <v>4</v>
@@ -5267,10 +5315,10 @@
         <v>43684</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E144" s="3" t="n">
         <v>3</v>
@@ -5302,10 +5350,10 @@
         <v>43684</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E145" s="3" t="n">
         <v>4</v>
@@ -5337,10 +5385,10 @@
         <v>43684</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E146" s="3" t="n">
         <v>4</v>
@@ -5372,10 +5420,10 @@
         <v>43684</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E147" s="3" t="n">
         <v>3</v>
@@ -5407,10 +5455,10 @@
         <v>43684</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E148" s="3" t="n">
         <v>4</v>
@@ -5442,10 +5490,10 @@
         <v>43684</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E149" s="3" t="n">
         <v>4</v>
@@ -5477,10 +5525,10 @@
         <v>43684</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E150" s="3" t="n">
         <v>3</v>
@@ -5512,10 +5560,10 @@
         <v>43684</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E151" s="3" t="n">
         <v>4</v>
@@ -5547,10 +5595,10 @@
         <v>43684</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E152" s="3" t="n">
         <v>3</v>
@@ -5582,10 +5630,10 @@
         <v>43684</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E153" s="3" t="n">
         <v>3</v>
@@ -5617,10 +5665,10 @@
         <v>43684</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E154" s="3" t="n">
         <v>4</v>
@@ -5663,10 +5711,10 @@
         <v>43685</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E157" s="3" t="n">
         <v>4</v>
@@ -5698,10 +5746,10 @@
         <v>43685</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E158" s="3" t="n">
         <v>4</v>
@@ -5733,10 +5781,10 @@
         <v>43685</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E159" s="3" t="n">
         <v>3</v>
@@ -5768,10 +5816,10 @@
         <v>43685</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E160" s="3" t="n">
         <v>4</v>
@@ -5803,10 +5851,10 @@
         <v>43685</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E161" s="3" t="n">
         <v>4</v>
@@ -5849,10 +5897,10 @@
         <v>43686</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E164" s="3" t="n">
         <v>2</v>
@@ -5884,10 +5932,10 @@
         <v>43686</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E165" s="3" t="n">
         <v>3</v>
@@ -5919,10 +5967,10 @@
         <v>43686</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E166" s="3" t="n">
         <v>3</v>
@@ -5954,10 +6002,10 @@
         <v>43686</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E167" s="3" t="n">
         <v>3</v>
@@ -6000,10 +6048,10 @@
         <v>43688</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E170" s="3" t="n">
         <v>2</v>
@@ -6035,10 +6083,10 @@
         <v>43688</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E171" s="3" t="n">
         <v>4</v>
@@ -6070,10 +6118,10 @@
         <v>43688</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E172" s="3" t="n">
         <v>2</v>
@@ -6105,10 +6153,10 @@
         <v>43688</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E173" s="3" t="n">
         <v>6</v>
@@ -6140,10 +6188,10 @@
         <v>43688</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E174" s="3" t="n">
         <v>6</v>
@@ -6175,10 +6223,10 @@
         <v>43688</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E175" s="3" t="n">
         <v>2</v>
@@ -6210,10 +6258,10 @@
         <v>43688</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E176" s="3" t="n">
         <v>6</v>
@@ -6245,10 +6293,10 @@
         <v>43688</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E177" s="3" t="n">
         <v>2</v>
@@ -6280,10 +6328,10 @@
         <v>43688</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E178" s="3" t="n">
         <v>2</v>
@@ -6315,10 +6363,10 @@
         <v>43688</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E179" s="3" t="n">
         <v>2</v>
@@ -6350,10 +6398,10 @@
         <v>43688</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E180" s="3" t="n">
         <v>2</v>
@@ -6385,10 +6433,10 @@
         <v>43688</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E181" s="3" t="n">
         <v>2</v>
@@ -6420,10 +6468,10 @@
         <v>43688</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E182" s="3" t="n">
         <v>4</v>
@@ -6455,10 +6503,10 @@
         <v>43688</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E183" s="3" t="n">
         <v>6</v>
@@ -6490,10 +6538,10 @@
         <v>43688</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E184" s="3" t="n">
         <v>6</v>
@@ -6525,10 +6573,10 @@
         <v>43688</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E185" s="3" t="n">
         <v>4</v>
@@ -6560,10 +6608,10 @@
         <v>43688</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E186" s="3" t="n">
         <v>2</v>
@@ -6595,10 +6643,10 @@
         <v>43688</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E187" s="3" t="n">
         <v>2</v>
@@ -6630,10 +6678,10 @@
         <v>43688</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E188" s="3" t="n">
         <v>6</v>
@@ -6665,10 +6713,10 @@
         <v>43688</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E189" s="3" t="n">
         <v>4</v>
@@ -6700,10 +6748,10 @@
         <v>43688</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E190" s="3" t="n">
         <v>6</v>
@@ -6735,10 +6783,10 @@
         <v>43688</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E191" s="3" t="n">
         <v>6</v>
@@ -6770,10 +6818,10 @@
         <v>43688</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E192" s="3" t="n">
         <v>6</v>
@@ -6816,10 +6864,10 @@
         <v>43690</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E195" s="3" t="n">
         <v>4</v>
@@ -6851,10 +6899,10 @@
         <v>43690</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E196" s="3" t="n">
         <v>2</v>
@@ -6886,10 +6934,10 @@
         <v>43690</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E197" s="3" t="n">
         <v>2</v>
@@ -6921,10 +6969,10 @@
         <v>43690</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E198" s="3" t="n">
         <v>2</v>
@@ -6956,10 +7004,10 @@
         <v>43690</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E199" s="3" t="n">
         <v>2</v>
@@ -7005,10 +7053,10 @@
         <v>43692</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E202" s="3" t="n">
         <v>2</v>
@@ -7040,10 +7088,10 @@
         <v>43692</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E203" s="3" t="n">
         <v>2</v>
@@ -7075,10 +7123,10 @@
         <v>43692</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E204" s="3" t="n">
         <v>2</v>
@@ -7110,10 +7158,10 @@
         <v>43692</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E205" s="3" t="n">
         <v>2</v>
@@ -7145,10 +7193,10 @@
         <v>43692</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E206" s="3" t="n">
         <v>2</v>
@@ -7180,10 +7228,10 @@
         <v>43692</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E207" s="3" t="n">
         <v>2</v>
@@ -7215,10 +7263,10 @@
         <v>43692</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E208" s="3" t="n">
         <v>2</v>
@@ -7250,10 +7298,10 @@
         <v>43692</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E209" s="3" t="n">
         <v>8</v>
@@ -7299,10 +7347,10 @@
         <v>43693</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E212" s="3" t="n">
         <v>4</v>
@@ -7334,10 +7382,10 @@
         <v>43693</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E213" s="3" t="n">
         <v>10</v>
@@ -7369,10 +7417,10 @@
         <v>43693</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E214" s="3" t="n">
         <v>10</v>
@@ -7404,10 +7452,10 @@
         <v>43693</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E215" s="3" t="n">
         <v>4</v>
@@ -7453,10 +7501,10 @@
         <v>43694</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E218" s="3" t="n">
         <v>10</v>
@@ -7488,10 +7536,10 @@
         <v>43694</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E219" s="3" t="n">
         <v>4</v>
@@ -7529,10 +7577,10 @@
         <v>43695</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E222" s="3" t="n">
         <v>4</v>
@@ -7570,10 +7618,10 @@
         <v>43696</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E225" s="4" t="n">
         <v>2</v>
@@ -7605,10 +7653,10 @@
         <v>43696</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E226" s="4" t="n">
         <v>2</v>
@@ -7640,10 +7688,10 @@
         <v>43696</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E227" s="4" t="n">
         <v>5</v>
@@ -7675,10 +7723,10 @@
         <v>43696</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E228" s="4" t="n">
         <v>2</v>
@@ -7710,10 +7758,10 @@
         <v>43696</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E229" s="4" t="n">
         <v>5</v>
@@ -7745,10 +7793,10 @@
         <v>43696</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E230" s="4" t="n">
         <v>3</v>
@@ -7780,10 +7828,10 @@
         <v>43696</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D231" s="22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E231" s="4" t="n">
         <v>2</v>
@@ -7815,10 +7863,10 @@
         <v>43696</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E232" s="4" t="n">
         <v>2</v>
@@ -7850,10 +7898,10 @@
         <v>43696</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E233" s="4" t="n">
         <v>2</v>
@@ -7885,10 +7933,10 @@
         <v>43696</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E234" s="4" t="n">
         <v>2</v>
@@ -7920,10 +7968,10 @@
         <v>43696</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E235" s="4" t="n">
         <v>2</v>
@@ -7955,10 +8003,10 @@
         <v>43696</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E236" s="4" t="n">
         <v>4</v>
@@ -7990,10 +8038,10 @@
         <v>43696</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E237" s="4" t="n">
         <v>4</v>
@@ -8031,10 +8079,10 @@
         <v>43697</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E240" s="4" t="n">
         <v>2</v>
@@ -8066,10 +8114,10 @@
         <v>43697</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E241" s="4" t="n">
         <v>2</v>
@@ -8101,10 +8149,10 @@
         <v>43697</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E242" s="4" t="n">
         <v>2</v>
@@ -8136,10 +8184,10 @@
         <v>43697</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E243" s="4" t="n">
         <v>3</v>
@@ -8171,10 +8219,10 @@
         <v>43697</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E244" s="4" t="n">
         <v>2</v>
@@ -8206,10 +8254,10 @@
         <v>43697</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E245" s="4" t="n">
         <v>2</v>
@@ -8241,10 +8289,10 @@
         <v>43697</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E246" s="4" t="n">
         <v>2</v>
@@ -8276,10 +8324,10 @@
         <v>43697</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E247" s="4" t="n">
         <v>2</v>
@@ -8311,10 +8359,10 @@
         <v>43697</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E248" s="4" t="n">
         <v>2</v>
@@ -8346,10 +8394,10 @@
         <v>43697</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E249" s="4" t="n">
         <v>2</v>
@@ -8381,10 +8429,10 @@
         <v>43697</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E250" s="4" t="n">
         <v>2</v>
@@ -8422,10 +8470,10 @@
         <v>43698</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E253" s="4" t="n">
         <v>2</v>
@@ -8457,10 +8505,10 @@
         <v>43698</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E254" s="4" t="n">
         <v>2</v>
@@ -8492,10 +8540,10 @@
         <v>43698</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E255" s="4" t="n">
         <v>2</v>
@@ -8527,10 +8575,10 @@
         <v>43698</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E256" s="4" t="n">
         <v>2</v>
@@ -8562,10 +8610,10 @@
         <v>43698</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E257" s="4" t="n">
         <v>2</v>
@@ -8597,10 +8645,10 @@
         <v>43698</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E258" s="4" t="n">
         <v>2</v>
@@ -8632,10 +8680,10 @@
         <v>43698</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E259" s="4" t="n">
         <v>8</v>
@@ -8667,10 +8715,10 @@
         <v>43698</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E260" s="4" t="n">
         <v>2</v>
@@ -8708,10 +8756,10 @@
         <v>43699</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E263" s="4" t="n">
         <v>6</v>
@@ -8743,10 +8791,10 @@
         <v>43699</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E264" s="4" t="n">
         <v>5</v>
@@ -8778,10 +8826,10 @@
         <v>43699</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E265" s="4" t="n">
         <v>5</v>
@@ -8813,10 +8861,10 @@
         <v>43699</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E266" s="4" t="n">
         <v>8</v>
@@ -8848,10 +8896,10 @@
         <v>43699</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E267" s="4" t="n">
         <v>6</v>
@@ -8883,10 +8931,10 @@
         <v>43699</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E268" s="4" t="n">
         <v>2</v>
@@ -8918,10 +8966,10 @@
         <v>43699</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E269" s="4" t="n">
         <v>4</v>
@@ -8953,10 +9001,10 @@
         <v>43699</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E270" s="4" t="n">
         <v>6</v>
@@ -8988,10 +9036,10 @@
         <v>43699</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E271" s="4" t="n">
         <v>3</v>
@@ -9023,10 +9071,10 @@
         <v>43699</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E272" s="4" t="n">
         <v>2</v>
@@ -9058,10 +9106,10 @@
         <v>43699</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E273" s="4" t="n">
         <v>4</v>
@@ -9099,10 +9147,10 @@
         <v>43700</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E276" s="4" t="n">
         <v>1</v>
@@ -9134,10 +9182,10 @@
         <v>43700</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E277" s="4" t="n">
         <v>2</v>
@@ -9169,10 +9217,10 @@
         <v>43700</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E278" s="4" t="n">
         <v>1</v>
@@ -9204,10 +9252,10 @@
         <v>43700</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E279" s="4" t="n">
         <v>2</v>
@@ -9239,10 +9287,10 @@
         <v>43700</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E280" s="4" t="n">
         <v>1</v>
@@ -9274,10 +9322,10 @@
         <v>43700</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E281" s="4" t="n">
         <v>1</v>
@@ -9309,10 +9357,10 @@
         <v>43700</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E282" s="4" t="n">
         <v>1</v>
@@ -9344,10 +9392,10 @@
         <v>43700</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E283" s="4" t="n">
         <v>3</v>
@@ -9379,10 +9427,10 @@
         <v>43700</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E284" s="4" t="n">
         <v>1</v>
@@ -9414,10 +9462,10 @@
         <v>43700</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E285" s="4" t="n">
         <v>1</v>
@@ -9449,10 +9497,10 @@
         <v>43700</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E286" s="4" t="n">
         <v>1</v>
@@ -9484,10 +9532,10 @@
         <v>43700</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E287" s="4" t="n">
         <v>1</v>
@@ -9519,10 +9567,10 @@
         <v>43700</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E288" s="4" t="n">
         <v>2</v>
@@ -9560,10 +9608,10 @@
         <v>43703</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E291" s="4" t="n">
         <v>2</v>
@@ -9595,10 +9643,10 @@
         <v>43703</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E292" s="4" t="n">
         <v>3</v>
@@ -9630,10 +9678,10 @@
         <v>43703</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E293" s="4" t="n">
         <v>3</v>
@@ -9665,10 +9713,10 @@
         <v>43703</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E294" s="4" t="n">
         <v>2</v>
@@ -9697,10 +9745,10 @@
         <v>43703</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E295" s="4" t="n">
         <v>2</v>
@@ -9729,10 +9777,10 @@
         <v>43703</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E296" s="4" t="n">
         <v>3</v>
@@ -9761,10 +9809,10 @@
         <v>43703</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E297" s="4" t="n">
         <v>4</v>
@@ -9793,10 +9841,10 @@
         <v>43703</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E298" s="4" t="n">
         <v>1</v>
@@ -9825,10 +9873,10 @@
         <v>43703</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E299" s="4" t="n">
         <v>1</v>
@@ -9857,10 +9905,10 @@
         <v>43703</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E300" s="4" t="n">
         <v>1</v>
@@ -9889,10 +9937,10 @@
         <v>43703</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E301" s="4" t="n">
         <v>1</v>
@@ -9921,10 +9969,10 @@
         <v>43703</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E302" s="4" t="n">
         <v>1</v>
@@ -9953,10 +10001,10 @@
         <v>43703</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E303" s="4" t="n">
         <v>1</v>
@@ -9985,10 +10033,10 @@
         <v>43703</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E304" s="4" t="n">
         <v>1</v>
@@ -10017,10 +10065,10 @@
         <v>43703</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E305" s="4" t="n">
         <v>1</v>
@@ -10049,10 +10097,10 @@
         <v>43703</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E306" s="4" t="n">
         <v>2</v>
@@ -10081,10 +10129,10 @@
         <v>43703</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E307" s="4" t="n">
         <v>2</v>
@@ -10113,10 +10161,10 @@
         <v>43703</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E308" s="4" t="n">
         <v>1</v>
@@ -10145,10 +10193,10 @@
         <v>43703</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E309" s="4" t="n">
         <v>1</v>
@@ -10177,10 +10225,10 @@
         <v>43703</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E310" s="4" t="n">
         <v>2</v>
@@ -10209,10 +10257,10 @@
         <v>43703</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E311" s="4" t="n">
         <v>2</v>
@@ -10241,10 +10289,10 @@
         <v>43703</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E312" s="4" t="n">
         <v>2</v>
@@ -10273,10 +10321,10 @@
         <v>43703</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E313" s="4" t="n">
         <v>2</v>
@@ -10305,10 +10353,10 @@
         <v>43703</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E314" s="4" t="n">
         <v>2</v>
@@ -10337,10 +10385,10 @@
         <v>43703</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E315" s="4" t="n">
         <v>1</v>
@@ -10369,10 +10417,10 @@
         <v>43703</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E316" s="4" t="n">
         <v>1</v>
@@ -10401,10 +10449,10 @@
         <v>43703</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E317" s="4" t="n">
         <v>3</v>
@@ -10433,10 +10481,10 @@
         <v>43703</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E318" s="4" t="n">
         <v>2</v>
@@ -10465,10 +10513,10 @@
         <v>43703</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E319" s="4" t="n">
         <v>1</v>
@@ -10503,10 +10551,10 @@
         <v>43704</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E322" s="4" t="n">
         <v>5</v>
@@ -10535,10 +10583,10 @@
         <v>43704</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E323" s="4" t="n">
         <v>5</v>
@@ -10567,10 +10615,10 @@
         <v>43704</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E324" s="4" t="n">
         <v>3</v>
@@ -10599,10 +10647,10 @@
         <v>43704</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E325" s="4" t="n">
         <v>2</v>
@@ -10631,10 +10679,10 @@
         <v>43704</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E326" s="4" t="n">
         <v>4</v>
@@ -10663,10 +10711,10 @@
         <v>43704</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E327" s="4" t="n">
         <v>4</v>
@@ -10695,10 +10743,10 @@
         <v>43704</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E328" s="4" t="n">
         <v>3</v>
@@ -10727,10 +10775,10 @@
         <v>43704</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E329" s="4" t="n">
         <v>2</v>
@@ -10759,10 +10807,10 @@
         <v>43704</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E330" s="4" t="n">
         <v>3</v>
@@ -10791,10 +10839,10 @@
         <v>43704</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E331" s="4" t="n">
         <v>2</v>
@@ -10823,10 +10871,10 @@
         <v>43704</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E332" s="4" t="n">
         <v>4</v>
@@ -10855,10 +10903,10 @@
         <v>43704</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E333" s="4" t="n">
         <v>3</v>
@@ -10887,10 +10935,10 @@
         <v>43704</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E334" s="4" t="n">
         <v>3</v>
@@ -10919,10 +10967,10 @@
         <v>43704</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E335" s="4" t="n">
         <v>2</v>
@@ -10951,10 +10999,10 @@
         <v>43704</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E336" s="4" t="n">
         <v>5</v>
@@ -10983,10 +11031,10 @@
         <v>43704</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E337" s="4" t="n">
         <v>3</v>
@@ -11015,10 +11063,10 @@
         <v>43704</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E338" s="4" t="n">
         <v>3</v>
@@ -11047,10 +11095,10 @@
         <v>43704</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E339" s="4" t="n">
         <v>3</v>
@@ -11079,10 +11127,10 @@
         <v>43704</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E340" s="4" t="n">
         <v>4</v>
@@ -11111,10 +11159,10 @@
         <v>43704</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E341" s="4" t="n">
         <v>3</v>
@@ -11143,10 +11191,10 @@
         <v>43704</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E342" s="4" t="n">
         <v>3</v>
@@ -11175,10 +11223,10 @@
         <v>43704</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E343" s="4" t="n">
         <v>3</v>
@@ -11207,10 +11255,10 @@
         <v>43704</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E344" s="4" t="n">
         <v>5</v>
@@ -11239,10 +11287,10 @@
         <v>43704</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E345" s="4" t="n">
         <v>2</v>
@@ -11271,10 +11319,10 @@
         <v>43704</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E346" s="4" t="n">
         <v>3</v>
@@ -11303,10 +11351,10 @@
         <v>43704</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E347" s="4" t="n">
         <v>6</v>
@@ -11335,10 +11383,10 @@
         <v>43704</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E348" s="4" t="n">
         <v>3</v>
@@ -11367,10 +11415,10 @@
         <v>43704</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E349" s="4" t="n">
         <v>3</v>
@@ -11399,10 +11447,10 @@
         <v>43704</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E350" s="4" t="n">
         <v>2</v>
@@ -11431,10 +11479,10 @@
         <v>43704</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E351" s="4" t="n">
         <v>2</v>
@@ -11463,10 +11511,10 @@
         <v>43704</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E352" s="4" t="n">
         <v>6</v>
@@ -11495,10 +11543,10 @@
         <v>43704</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E353" s="4" t="n">
         <v>2</v>
@@ -11533,10 +11581,10 @@
         <v>43706</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E356" s="4" t="n">
         <v>3</v>
@@ -11565,10 +11613,10 @@
         <v>43706</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E357" s="4" t="n">
         <v>5</v>
@@ -11597,10 +11645,10 @@
         <v>43706</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E358" s="4" t="n">
         <v>4</v>
@@ -11629,10 +11677,10 @@
         <v>43706</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E359" s="4" t="n">
         <v>3</v>
@@ -11661,10 +11709,10 @@
         <v>43706</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E360" s="4" t="n">
         <v>1</v>
@@ -11693,10 +11741,10 @@
         <v>43706</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E361" s="4" t="n">
         <v>3</v>
@@ -11725,10 +11773,10 @@
         <v>43706</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E362" s="4" t="n">
         <v>1</v>
@@ -11757,10 +11805,10 @@
         <v>43706</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E363" s="4" t="n">
         <v>5</v>
@@ -11789,10 +11837,10 @@
         <v>43706</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E364" s="4" t="n">
         <v>3</v>
@@ -11821,10 +11869,10 @@
         <v>43706</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E365" s="4" t="n">
         <v>2</v>
@@ -11853,10 +11901,10 @@
         <v>43706</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E366" s="4" t="n">
         <v>1</v>
@@ -11885,10 +11933,10 @@
         <v>43706</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E367" s="4" t="n">
         <v>3</v>
@@ -11917,10 +11965,10 @@
         <v>43706</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E368" s="4" t="n">
         <v>5</v>
@@ -11949,10 +11997,10 @@
         <v>43706</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E369" s="4" t="n">
         <v>3</v>
@@ -11981,10 +12029,10 @@
         <v>43706</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E370" s="4" t="n">
         <v>5</v>
@@ -12013,10 +12061,10 @@
         <v>43706</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E371" s="4" t="n">
         <v>7</v>
@@ -12045,10 +12093,10 @@
         <v>43706</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E372" s="4" t="n">
         <v>3</v>
@@ -12077,10 +12125,10 @@
         <v>43706</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E373" s="4" t="n">
         <v>1</v>
@@ -12109,10 +12157,10 @@
         <v>43706</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E374" s="4" t="n">
         <v>3</v>
@@ -12141,10 +12189,10 @@
         <v>43706</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E375" s="4" t="n">
         <v>1</v>
@@ -12173,10 +12221,10 @@
         <v>43706</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E376" s="4" t="n">
         <v>2</v>
@@ -12205,10 +12253,10 @@
         <v>43706</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E377" s="4" t="n">
         <v>6</v>
@@ -12237,10 +12285,10 @@
         <v>43706</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E378" s="4" t="n">
         <v>3</v>
@@ -12269,10 +12317,10 @@
         <v>43706</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E379" s="4" t="n">
         <v>3</v>
@@ -12301,10 +12349,10 @@
         <v>43706</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E380" s="4" t="n">
         <v>2</v>
@@ -12333,10 +12381,10 @@
         <v>43706</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E381" s="4" t="n">
         <v>2</v>
@@ -12365,10 +12413,10 @@
         <v>43706</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E382" s="4" t="n">
         <v>3</v>
@@ -12397,10 +12445,10 @@
         <v>43706</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E383" s="4" t="n">
         <v>3</v>
@@ -12429,10 +12477,10 @@
         <v>43706</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E384" s="4" t="n">
         <v>2</v>
@@ -12461,10 +12509,10 @@
         <v>43706</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E385" s="4" t="n">
         <v>2</v>
@@ -12493,10 +12541,10 @@
         <v>43706</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E386" s="4" t="n">
         <v>3</v>
@@ -12525,10 +12573,10 @@
         <v>43706</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E387" s="4" t="n">
         <v>2</v>
@@ -12557,10 +12605,10 @@
         <v>43706</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E388" s="4" t="n">
         <v>4</v>
@@ -12589,10 +12637,10 @@
         <v>43706</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E389" s="4" t="n">
         <v>10</v>
@@ -12621,10 +12669,10 @@
         <v>43706</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E390" s="4" t="n">
         <v>2</v>
@@ -12659,10 +12707,10 @@
         <v>43707</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E393" s="4" t="n">
         <v>9</v>
@@ -12691,10 +12739,10 @@
         <v>43707</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E394" s="4" t="n">
         <v>1</v>
@@ -12723,10 +12771,10 @@
         <v>43707</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E395" s="4" t="n">
         <v>1</v>
@@ -12755,10 +12803,10 @@
         <v>43707</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E396" s="4" t="n">
         <v>2</v>
@@ -12787,10 +12835,10 @@
         <v>43707</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E397" s="4" t="n">
         <v>1</v>
@@ -12819,10 +12867,10 @@
         <v>43707</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E398" s="4" t="n">
         <v>1</v>
@@ -12851,10 +12899,10 @@
         <v>43707</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E399" s="4" t="n">
         <v>1</v>
@@ -12883,10 +12931,10 @@
         <v>43707</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E400" s="4" t="n">
         <v>9</v>
@@ -12921,10 +12969,10 @@
         <v>43710</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E403" s="4" t="n">
         <v>1</v>
@@ -12953,10 +13001,10 @@
         <v>43710</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E404" s="4" t="n">
         <v>2</v>
@@ -12985,10 +13033,10 @@
         <v>43710</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E405" s="4" t="n">
         <v>1</v>
@@ -13017,10 +13065,10 @@
         <v>43710</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E406" s="4" t="n">
         <v>1</v>
@@ -13049,10 +13097,10 @@
         <v>43710</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E407" s="4" t="n">
         <v>1</v>
@@ -13087,10 +13135,10 @@
         <v>43711</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E410" s="4" t="n">
         <v>4</v>
@@ -13119,10 +13167,10 @@
         <v>43711</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E411" s="4" t="n">
         <v>9</v>
@@ -13157,10 +13205,10 @@
         <v>43713</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E414" s="4" t="n">
         <v>4</v>
@@ -13195,10 +13243,10 @@
         <v>43714</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E417" s="4" t="n">
         <v>2</v>
@@ -13233,10 +13281,10 @@
         <v>43724</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E420" s="4" t="n">
         <v>3</v>
@@ -13265,10 +13313,10 @@
         <v>43724</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E421" s="4" t="n">
         <v>2</v>
@@ -13297,10 +13345,10 @@
         <v>43724</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E422" s="4" t="n">
         <v>3</v>
@@ -13335,10 +13383,10 @@
         <v>43725</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E425" s="4" t="n">
         <v>3</v>
@@ -13367,10 +13415,10 @@
         <v>43725</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E426" s="4" t="n">
         <v>4</v>
@@ -13405,10 +13453,10 @@
         <v>43726</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E429" s="4" t="n">
         <v>1</v>
@@ -13437,10 +13485,10 @@
         <v>43726</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E430" s="4" t="n">
         <v>1</v>
@@ -13469,10 +13517,10 @@
         <v>43726</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E431" s="4" t="n">
         <v>5</v>
@@ -13501,10 +13549,10 @@
         <v>43726</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E432" s="4" t="n">
         <v>1</v>
@@ -13533,10 +13581,10 @@
         <v>43726</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E433" s="4" t="n">
         <v>12</v>
@@ -13565,10 +13613,10 @@
         <v>43726</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E434" s="4" t="n">
         <v>4</v>
@@ -13597,10 +13645,10 @@
         <v>43726</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E435" s="4" t="n">
         <v>1</v>
@@ -13629,10 +13677,10 @@
         <v>43726</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E436" s="4" t="n">
         <v>4</v>
@@ -13661,10 +13709,10 @@
         <v>43726</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E437" s="4" t="n">
         <v>2</v>
@@ -13693,10 +13741,10 @@
         <v>43726</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E438" s="4" t="n">
         <v>1</v>
@@ -13731,10 +13779,10 @@
         <v>43727</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E441" s="4" t="n">
         <v>1</v>
@@ -13763,10 +13811,10 @@
         <v>43727</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E442" s="4" t="n">
         <v>3</v>
@@ -13795,10 +13843,10 @@
         <v>43727</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E443" s="4" t="n">
         <v>1</v>
@@ -13827,10 +13875,10 @@
         <v>43727</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E444" s="4" t="n">
         <v>1</v>
@@ -13859,10 +13907,10 @@
         <v>43727</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E445" s="4" t="n">
         <v>7</v>
@@ -13897,10 +13945,10 @@
         <v>43728</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E448" s="4" t="n">
         <v>2</v>
@@ -13929,10 +13977,10 @@
         <v>43728</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E449" s="4" t="n">
         <v>1</v>
@@ -13961,10 +14009,10 @@
         <v>43728</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E450" s="4" t="n">
         <v>1</v>
@@ -13993,10 +14041,10 @@
         <v>43728</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E451" s="4" t="n">
         <v>3</v>
@@ -14025,10 +14073,10 @@
         <v>43728</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E452" s="4" t="n">
         <v>1</v>
@@ -14057,10 +14105,10 @@
         <v>43728</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E453" s="4" t="n">
         <v>2</v>
@@ -14095,10 +14143,10 @@
         <v>43729</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E456" s="4" t="n">
         <v>4</v>
@@ -14127,10 +14175,10 @@
         <v>43729</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E457" s="4" t="n">
         <v>3</v>
@@ -14159,10 +14207,10 @@
         <v>43729</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E458" s="4" t="n">
         <v>2</v>
@@ -14197,10 +14245,10 @@
         <v>43730</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E461" s="4" t="n">
         <v>1</v>
@@ -14229,10 +14277,10 @@
         <v>43730</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E462" s="4" t="n">
         <v>2</v>
@@ -14267,10 +14315,10 @@
         <v>43731</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E465" s="4" t="n">
         <v>1</v>
@@ -14305,10 +14353,10 @@
         <v>43732</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E468" s="4" t="n">
         <v>4</v>
@@ -14337,10 +14385,10 @@
         <v>43732</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E469" s="4" t="n">
         <v>4</v>
@@ -14369,10 +14417,10 @@
         <v>43732</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E470" s="4" t="n">
         <v>4</v>
@@ -14407,10 +14455,10 @@
         <v>43733</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E473" s="4" t="n">
         <v>1</v>
@@ -14439,10 +14487,10 @@
         <v>43733</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E474" s="4" t="n">
         <v>1</v>
@@ -14471,10 +14519,10 @@
         <v>43733</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E475" s="4" t="n">
         <v>1</v>
@@ -14503,10 +14551,10 @@
         <v>43733</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E476" s="4" t="n">
         <v>1</v>
@@ -14535,10 +14583,10 @@
         <v>43733</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E477" s="4" t="n">
         <v>1</v>
@@ -14567,10 +14615,10 @@
         <v>43733</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E478" s="4" t="n">
         <v>2</v>
@@ -14605,10 +14653,10 @@
         <v>43734</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E481" s="4" t="n">
         <v>1</v>
@@ -14637,10 +14685,10 @@
         <v>43734</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E482" s="4" t="n">
         <v>1</v>
@@ -14669,10 +14717,10 @@
         <v>43734</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E483" s="4" t="n">
         <v>1</v>
@@ -14701,10 +14749,10 @@
         <v>43734</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E484" s="4" t="n">
         <v>1</v>
@@ -14733,10 +14781,10 @@
         <v>43734</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E485" s="4" t="n">
         <v>2</v>
@@ -14765,10 +14813,10 @@
         <v>43734</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E486" s="4" t="n">
         <v>6</v>
@@ -14797,10 +14845,10 @@
         <v>43734</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E487" s="4" t="n">
         <v>5</v>
@@ -14829,10 +14877,10 @@
         <v>43734</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E488" s="4" t="n">
         <v>7</v>
@@ -14861,10 +14909,10 @@
         <v>43734</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E489" s="4" t="n">
         <v>1</v>
@@ -14893,10 +14941,10 @@
         <v>43734</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E490" s="4" t="n">
         <v>2</v>
@@ -14925,10 +14973,10 @@
         <v>43734</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E491" s="4" t="n">
         <v>4</v>
@@ -14963,10 +15011,10 @@
         <v>43735</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E494" s="4" t="n">
         <v>1</v>
@@ -14995,10 +15043,10 @@
         <v>43735</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E495" s="4" t="n">
         <v>1</v>
@@ -15027,10 +15075,10 @@
         <v>43735</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E496" s="4" t="n">
         <v>1</v>
@@ -15065,10 +15113,10 @@
         <v>43737</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E499" s="4" t="n">
         <v>1</v>
@@ -15097,10 +15145,10 @@
         <v>43737</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E500" s="4" t="n">
         <v>1</v>
@@ -15129,10 +15177,10 @@
         <v>43737</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E501" s="4" t="n">
         <v>1</v>
@@ -15161,10 +15209,10 @@
         <v>43737</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E502" s="4" t="n">
         <v>1</v>
@@ -15193,10 +15241,10 @@
         <v>43737</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E503" s="4" t="n">
         <v>3</v>
@@ -15225,10 +15273,10 @@
         <v>43737</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E504" s="4" t="n">
         <v>1</v>
@@ -15257,10 +15305,10 @@
         <v>43737</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E505" s="4" t="n">
         <v>1</v>
@@ -15289,10 +15337,10 @@
         <v>43737</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E506" s="4" t="n">
         <v>2</v>
@@ -15327,10 +15375,10 @@
         <v>43738</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E509" s="4" t="n">
         <v>3</v>
@@ -15359,10 +15407,10 @@
         <v>43738</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E510" s="4" t="n">
         <v>1</v>
@@ -15391,10 +15439,10 @@
         <v>43738</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E511" s="4" t="n">
         <v>2</v>
@@ -15423,10 +15471,10 @@
         <v>43738</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E512" s="4" t="n">
         <v>1</v>
@@ -15455,10 +15503,10 @@
         <v>43738</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E513" s="4" t="n">
         <v>1</v>
@@ -15487,10 +15535,10 @@
         <v>43738</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E514" s="4" t="n">
         <v>3</v>
@@ -15519,10 +15567,10 @@
         <v>43738</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E515" s="4" t="n">
         <v>5</v>
@@ -15551,10 +15599,10 @@
         <v>43738</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E516" s="4" t="n">
         <v>1</v>
@@ -15583,10 +15631,10 @@
         <v>43738</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E517" s="4" t="n">
         <v>2</v>
@@ -15621,10 +15669,10 @@
         <v>43739</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E520" s="4" t="n">
         <v>2</v>
@@ -15653,10 +15701,10 @@
         <v>43739</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E521" s="4" t="n">
         <v>1</v>
@@ -15685,10 +15733,10 @@
         <v>43739</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E522" s="4" t="n">
         <v>2</v>
@@ -15717,10 +15765,10 @@
         <v>43739</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E523" s="4" t="n">
         <v>1</v>
@@ -15749,10 +15797,10 @@
         <v>43739</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E524" s="4" t="n">
         <v>1</v>
@@ -15781,10 +15829,10 @@
         <v>43739</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E525" s="4" t="n">
         <v>5</v>
@@ -15813,10 +15861,10 @@
         <v>43739</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E526" s="4" t="n">
         <v>2</v>
@@ -15845,10 +15893,10 @@
         <v>43739</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E527" s="4" t="n">
         <v>3</v>
@@ -15877,10 +15925,10 @@
         <v>43739</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E528" s="4" t="n">
         <v>1</v>
@@ -15909,10 +15957,10 @@
         <v>43739</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E529" s="4" t="n">
         <v>1</v>
@@ -15941,10 +15989,10 @@
         <v>43739</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E530" s="4" t="n">
         <v>4</v>
@@ -15973,10 +16021,10 @@
         <v>43739</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E531" s="4" t="n">
         <v>1</v>
@@ -16005,10 +16053,10 @@
         <v>43739</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E532" s="4" t="n">
         <v>4</v>
@@ -16037,10 +16085,10 @@
         <v>43739</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E533" s="4" t="n">
         <v>2</v>
@@ -16075,10 +16123,10 @@
         <v>43740</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E536" s="4" t="n">
         <v>4</v>
@@ -16107,10 +16155,10 @@
         <v>43740</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E537" s="4" t="n">
         <v>3</v>
@@ -16139,10 +16187,10 @@
         <v>43740</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E538" s="4" t="n">
         <v>3</v>
@@ -16171,10 +16219,10 @@
         <v>43740</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E539" s="4" t="n">
         <v>5</v>
@@ -16203,10 +16251,10 @@
         <v>43740</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E540" s="4" t="n">
         <v>2</v>
@@ -16235,10 +16283,10 @@
         <v>43740</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E541" s="4" t="n">
         <v>5</v>
@@ -16267,10 +16315,10 @@
         <v>43740</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E542" s="4" t="n">
         <v>2</v>
@@ -16299,10 +16347,10 @@
         <v>43740</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E543" s="4" t="n">
         <v>1</v>
@@ -16331,10 +16379,10 @@
         <v>43740</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D544" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E544" s="4" t="n">
         <v>3</v>
@@ -16369,10 +16417,10 @@
         <v>43741</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E547" s="4" t="n">
         <v>1</v>
@@ -16401,10 +16449,10 @@
         <v>43741</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E548" s="4" t="n">
         <v>1</v>
@@ -16439,10 +16487,10 @@
         <v>43742</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E551" s="4" t="n">
         <v>1</v>
@@ -16471,10 +16519,10 @@
         <v>43742</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E552" s="4" t="n">
         <v>1</v>
@@ -16503,10 +16551,10 @@
         <v>43742</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E553" s="4" t="n">
         <v>4</v>
@@ -16535,10 +16583,10 @@
         <v>43742</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E554" s="4" t="n">
         <v>4</v>
@@ -16567,10 +16615,10 @@
         <v>43742</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E555" s="4" t="n">
         <v>1</v>
@@ -16605,10 +16653,10 @@
         <v>43743</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E558" s="4" t="n">
         <v>2</v>
@@ -16637,10 +16685,10 @@
         <v>43743</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E559" s="4" t="n">
         <v>4</v>
@@ -16669,10 +16717,10 @@
         <v>43743</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E560" s="4" t="n">
         <v>1</v>
@@ -16707,10 +16755,10 @@
         <v>43744</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E563" s="4" t="n">
         <v>6</v>
@@ -16739,10 +16787,10 @@
         <v>43744</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E564" s="4" t="n">
         <v>2</v>
@@ -16777,10 +16825,10 @@
         <v>43745</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E567" s="4" t="n">
         <v>4</v>
@@ -16809,10 +16857,10 @@
         <v>43745</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E568" s="4" t="n">
         <v>1</v>
@@ -16841,10 +16889,10 @@
         <v>43745</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E569" s="4" t="n">
         <v>1</v>
@@ -16873,10 +16921,10 @@
         <v>43745</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E570" s="4" t="n">
         <v>2</v>
@@ -16905,10 +16953,10 @@
         <v>43745</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E571" s="4" t="n">
         <v>3</v>
@@ -16943,10 +16991,10 @@
         <v>43746</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E574" s="4" t="n">
         <v>2</v>
@@ -16975,10 +17023,10 @@
         <v>43746</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E575" s="4" t="n">
         <v>2</v>
@@ -17007,10 +17055,10 @@
         <v>43746</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E576" s="4" t="n">
         <v>2</v>
@@ -17039,10 +17087,10 @@
         <v>43746</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E577" s="4" t="n">
         <v>2</v>
@@ -17071,10 +17119,10 @@
         <v>43746</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E578" s="4" t="n">
         <v>2</v>
@@ -17103,10 +17151,10 @@
         <v>43746</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E579" s="4" t="n">
         <v>3</v>
@@ -17135,10 +17183,10 @@
         <v>43746</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E580" s="4" t="n">
         <v>1</v>
@@ -17167,10 +17215,10 @@
         <v>43746</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E581" s="4" t="n">
         <v>2</v>
@@ -17205,10 +17253,10 @@
         <v>43747</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E584" s="4" t="n">
         <v>1</v>
@@ -17237,10 +17285,10 @@
         <v>43747</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E585" s="4" t="n">
         <v>3</v>
@@ -17269,10 +17317,10 @@
         <v>43747</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E586" s="4" t="n">
         <v>3</v>
@@ -17301,10 +17349,10 @@
         <v>43747</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E587" s="4" t="n">
         <v>4</v>
@@ -17333,10 +17381,10 @@
         <v>43747</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E588" s="4" t="n">
         <v>2</v>
@@ -17371,10 +17419,10 @@
         <v>43748</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E591" s="4" t="n">
         <v>2</v>
@@ -17403,10 +17451,10 @@
         <v>43748</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E592" s="4" t="n">
         <v>3</v>
@@ -17435,10 +17483,10 @@
         <v>43748</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E593" s="4" t="n">
         <v>3</v>
@@ -17467,10 +17515,10 @@
         <v>43748</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D594" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E594" s="4" t="n">
         <v>8</v>
@@ -17499,10 +17547,10 @@
         <v>43748</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E595" s="4" t="n">
         <v>2</v>
@@ -17531,10 +17579,10 @@
         <v>43748</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E596" s="4" t="n">
         <v>2</v>
@@ -17563,10 +17611,10 @@
         <v>43748</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E597" s="4" t="n">
         <v>3</v>
@@ -17595,10 +17643,10 @@
         <v>43748</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E598" s="4" t="n">
         <v>2</v>
@@ -17633,10 +17681,10 @@
         <v>43749</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E601" s="4" t="n">
         <v>4</v>
@@ -17665,10 +17713,10 @@
         <v>43749</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E602" s="4" t="n">
         <v>5</v>
@@ -17697,10 +17745,10 @@
         <v>43749</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E603" s="4" t="n">
         <v>2</v>
@@ -17729,10 +17777,10 @@
         <v>43749</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E604" s="4" t="n">
         <v>2</v>
@@ -17767,10 +17815,10 @@
         <v>43750</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E607" s="4" t="n">
         <v>1</v>
@@ -17799,10 +17847,10 @@
         <v>43750</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E608" s="4" t="n">
         <v>4</v>
@@ -17837,10 +17885,10 @@
         <v>43751</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E611" s="4" t="n">
         <v>6</v>
@@ -17869,10 +17917,10 @@
         <v>43751</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E612" s="4" t="n">
         <v>4</v>
@@ -17901,10 +17949,10 @@
         <v>43751</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E613" s="4" t="n">
         <v>1</v>
@@ -17933,10 +17981,10 @@
         <v>43751</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E614" s="4" t="n">
         <v>2</v>
@@ -17965,10 +18013,10 @@
         <v>43751</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E615" s="4" t="n">
         <v>4</v>
@@ -17997,10 +18045,10 @@
         <v>43751</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E616" s="4" t="n">
         <v>4</v>
@@ -18029,10 +18077,10 @@
         <v>43751</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E617" s="4" t="n">
         <v>1</v>
@@ -18061,10 +18109,10 @@
         <v>43751</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E618" s="4" t="n">
         <v>4</v>
@@ -18093,10 +18141,10 @@
         <v>43751</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E619" s="4" t="n">
         <v>1</v>
@@ -18125,10 +18173,10 @@
         <v>43751</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E620" s="4" t="n">
         <v>4</v>
@@ -18157,10 +18205,10 @@
         <v>43751</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E621" s="4" t="n">
         <v>1</v>
@@ -18189,10 +18237,10 @@
         <v>43751</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E622" s="4" t="n">
         <v>4</v>
@@ -18221,10 +18269,10 @@
         <v>43751</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E623" s="4" t="n">
         <v>4</v>
@@ -18253,10 +18301,10 @@
         <v>43751</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E624" s="4" t="n">
         <v>1</v>
@@ -18285,10 +18333,10 @@
         <v>43751</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E625" s="4" t="n">
         <v>4</v>
@@ -18317,10 +18365,10 @@
         <v>43751</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E626" s="4" t="n">
         <v>4</v>
@@ -18349,10 +18397,10 @@
         <v>43751</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E627" s="4" t="n">
         <v>4</v>
@@ -18381,10 +18429,10 @@
         <v>43751</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E628" s="4" t="n">
         <v>1</v>
@@ -18413,10 +18461,10 @@
         <v>43751</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E629" s="4" t="n">
         <v>1</v>
@@ -18445,10 +18493,10 @@
         <v>43751</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E630" s="4" t="n">
         <v>1</v>
@@ -18483,10 +18531,10 @@
         <v>43752</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E633" s="4" t="n">
         <v>1</v>
@@ -18515,10 +18563,10 @@
         <v>43752</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E634" s="4" t="n">
         <v>1</v>
@@ -18547,10 +18595,10 @@
         <v>43752</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E635" s="4" t="n">
         <v>1</v>
@@ -18579,10 +18627,10 @@
         <v>43752</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E636" s="4" t="n">
         <v>4</v>
@@ -18611,10 +18659,10 @@
         <v>43752</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E637" s="4" t="n">
         <v>1</v>
@@ -18643,10 +18691,10 @@
         <v>43752</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E638" s="4" t="n">
         <v>3</v>
@@ -18675,10 +18723,10 @@
         <v>43752</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E639" s="4" t="n">
         <v>1</v>
@@ -18700,6 +18748,848 @@
       <c r="J639" s="8" t="n">
         <f aca="false">SUM(H140:H639)/SUM(E140:E639)</f>
         <v>-0.0403488372093023</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L640" s="23"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I641" s="13" t="n">
+        <f aca="false">SUM(H642:H657)</f>
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B642" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E642" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F642" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G642" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H642" s="7" t="n">
+        <f aca="false">G642-E642</f>
+        <v>-2</v>
+      </c>
+      <c r="I642" s="7" t="n">
+        <f aca="false">SUM($H$2:H642)</f>
+        <v>-65.4099999999999</v>
+      </c>
+      <c r="J642" s="8" t="n">
+        <f aca="false">SUM(H143:H642)/SUM(E143:E642)</f>
+        <v>-0.0439212175470009</v>
+      </c>
+      <c r="K642" s="24" t="n">
+        <f aca="false">O642-(1-O642)/N642</f>
+        <v>-0.0882516379660233</v>
+      </c>
+      <c r="L642" s="25" t="n">
+        <f aca="false">SUMIF($H143:$H642,"&gt;0")</f>
+        <v>344.94</v>
+      </c>
+      <c r="M642" s="0" t="n">
+        <f aca="false">-SUMIF($H143:$H642,"&lt;0")</f>
+        <v>394</v>
+      </c>
+      <c r="N642" s="24" t="n">
+        <f aca="false">L642/M642</f>
+        <v>0.875482233502538</v>
+      </c>
+      <c r="O642" s="24" t="n">
+        <f aca="false">COUNTIF($H143:$H642,"&gt;0")/500</f>
+        <v>0.492</v>
+      </c>
+      <c r="Q642" s="24"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B643" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E643" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F643" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G643" s="6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H643" s="7" t="n">
+        <f aca="false">G643-E643</f>
+        <v>0.52</v>
+      </c>
+      <c r="I643" s="7" t="n">
+        <f aca="false">SUM($H$2:H643)</f>
+        <v>-64.8899999999999</v>
+      </c>
+      <c r="J643" s="8" t="n">
+        <f aca="false">SUM(H144:H643)/SUM(E144:E643)</f>
+        <v>-0.044721723518851</v>
+      </c>
+      <c r="K643" s="24" t="n">
+        <f aca="false">O643-(1-O643)/N643</f>
+        <v>-0.0895329188215471</v>
+      </c>
+      <c r="L643" s="25" t="n">
+        <f aca="false">SUMIF($H144:$H643,"&gt;0")</f>
+        <v>344.18</v>
+      </c>
+      <c r="M643" s="0" t="n">
+        <f aca="false">-SUMIF($H144:$H643,"&lt;0")</f>
+        <v>394</v>
+      </c>
+      <c r="N643" s="24" t="n">
+        <f aca="false">L643/M643</f>
+        <v>0.873553299492385</v>
+      </c>
+      <c r="O643" s="24" t="n">
+        <f aca="false">COUNTIF($H144:$H643,"&gt;0")/500</f>
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B644" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E644" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F644" s="5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G644" s="6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H644" s="7" t="n">
+        <f aca="false">G644-E644</f>
+        <v>0.62</v>
+      </c>
+      <c r="I644" s="7" t="n">
+        <f aca="false">SUM($H$2:H644)</f>
+        <v>-64.2699999999999</v>
+      </c>
+      <c r="J644" s="8" t="n">
+        <f aca="false">SUM(H145:H644)/SUM(E145:E644)</f>
+        <v>-0.041546762589928</v>
+      </c>
+      <c r="K644" s="24" t="n">
+        <f aca="false">O644-(1-O644)/N644</f>
+        <v>-0.0797993039443157</v>
+      </c>
+      <c r="L644" s="25" t="n">
+        <f aca="false">SUMIF($H145:$H644,"&gt;0")</f>
+        <v>344.8</v>
+      </c>
+      <c r="M644" s="0" t="n">
+        <f aca="false">-SUMIF($H145:$H644,"&lt;0")</f>
+        <v>391</v>
+      </c>
+      <c r="N644" s="24" t="n">
+        <f aca="false">L644/M644</f>
+        <v>0.881841432225064</v>
+      </c>
+      <c r="O644" s="24" t="n">
+        <f aca="false">COUNTIF($H145:$H644,"&gt;0")/500</f>
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B645" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E645" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F645" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G645" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H645" s="7" t="n">
+        <f aca="false">G645-E645</f>
+        <v>-1</v>
+      </c>
+      <c r="I645" s="7" t="n">
+        <f aca="false">SUM($H$2:H645)</f>
+        <v>-65.2699999999999</v>
+      </c>
+      <c r="J645" s="8" t="n">
+        <f aca="false">SUM(H146:H645)/SUM(E146:E645)</f>
+        <v>-0.0428494138863841</v>
+      </c>
+      <c r="K645" s="24" t="n">
+        <f aca="false">O645-(1-O645)/N645</f>
+        <v>-0.0860771017185324</v>
+      </c>
+      <c r="L645" s="25" t="n">
+        <f aca="false">SUMIF($H146:$H645,"&gt;0")</f>
+        <v>344.48</v>
+      </c>
+      <c r="M645" s="0" t="n">
+        <f aca="false">-SUMIF($H146:$H645,"&lt;0")</f>
+        <v>392</v>
+      </c>
+      <c r="N645" s="24" t="n">
+        <f aca="false">L645/M645</f>
+        <v>0.878775510204081</v>
+      </c>
+      <c r="O645" s="24" t="n">
+        <f aca="false">COUNTIF($H146:$H645,"&gt;0")/500</f>
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B646" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E646" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F646" s="5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G646" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H646" s="7" t="n">
+        <f aca="false">G646-E646</f>
+        <v>0</v>
+      </c>
+      <c r="I646" s="7" t="n">
+        <f aca="false">SUM($H$2:H646)</f>
+        <v>-65.2699999999999</v>
+      </c>
+      <c r="J646" s="8" t="n">
+        <f aca="false">SUM(H147:H646)/SUM(E147:E646)</f>
+        <v>-0.0444846292947558</v>
+      </c>
+      <c r="K646" s="24" t="n">
+        <f aca="false">O646-(1-O646)/N646</f>
+        <v>-0.0931971995332558</v>
+      </c>
+      <c r="L646" s="25" t="n">
+        <f aca="false">SUMIF($H147:$H646,"&gt;0")</f>
+        <v>342.8</v>
+      </c>
+      <c r="M646" s="0" t="n">
+        <f aca="false">-SUMIF($H147:$H646,"&lt;0")</f>
+        <v>392</v>
+      </c>
+      <c r="N646" s="24" t="n">
+        <f aca="false">L646/M646</f>
+        <v>0.874489795918367</v>
+      </c>
+      <c r="O646" s="24" t="n">
+        <f aca="false">COUNTIF($H147:$H646,"&gt;0")/500</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B647" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E647" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F647" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G647" s="6" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="H647" s="7" t="n">
+        <f aca="false">G647-E647</f>
+        <v>2.32</v>
+      </c>
+      <c r="I647" s="7" t="n">
+        <f aca="false">SUM($H$2:H647)</f>
+        <v>-62.9499999999999</v>
+      </c>
+      <c r="J647" s="8" t="n">
+        <f aca="false">SUM(H148:H647)/SUM(E148:E647)</f>
+        <v>-0.0396386630532972</v>
+      </c>
+      <c r="K647" s="24" t="n">
+        <f aca="false">O647-(1-O647)/N647</f>
+        <v>-0.0805892443208162</v>
+      </c>
+      <c r="L647" s="25" t="n">
+        <f aca="false">SUMIF($H148:$H647,"&gt;0")</f>
+        <v>345.12</v>
+      </c>
+      <c r="M647" s="0" t="n">
+        <f aca="false">-SUMIF($H148:$H647,"&lt;0")</f>
+        <v>389</v>
+      </c>
+      <c r="N647" s="24" t="n">
+        <f aca="false">L647/M647</f>
+        <v>0.88719794344473</v>
+      </c>
+      <c r="O647" s="24" t="n">
+        <f aca="false">COUNTIF($H148:$H647,"&gt;0")/500</f>
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B648" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E648" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F648" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G648" s="6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H648" s="7" t="n">
+        <f aca="false">G648-E648</f>
+        <v>0.28</v>
+      </c>
+      <c r="I648" s="7" t="n">
+        <f aca="false">SUM($H$2:H648)</f>
+        <v>-62.6699999999999</v>
+      </c>
+      <c r="J648" s="8" t="n">
+        <f aca="false">SUM(H149:H648)/SUM(E149:E648)</f>
+        <v>-0.041231884057971</v>
+      </c>
+      <c r="K648" s="24" t="n">
+        <f aca="false">O648-(1-O648)/N648</f>
+        <v>-0.0833231629206943</v>
+      </c>
+      <c r="L648" s="25" t="n">
+        <f aca="false">SUMIF($H149:$H648,"&gt;0")</f>
+        <v>343.48</v>
+      </c>
+      <c r="M648" s="0" t="n">
+        <f aca="false">-SUMIF($H149:$H648,"&lt;0")</f>
+        <v>389</v>
+      </c>
+      <c r="N648" s="24" t="n">
+        <f aca="false">L648/M648</f>
+        <v>0.882982005141388</v>
+      </c>
+      <c r="O648" s="24" t="n">
+        <f aca="false">COUNTIF($H149:$H648,"&gt;0")/500</f>
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B649" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E649" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F649" s="5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G649" s="6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H649" s="7" t="n">
+        <f aca="false">G649-E649</f>
+        <v>0.75</v>
+      </c>
+      <c r="I649" s="7" t="n">
+        <f aca="false">SUM($H$2:H649)</f>
+        <v>-61.9199999999999</v>
+      </c>
+      <c r="J649" s="8" t="n">
+        <f aca="false">SUM(H150:H649)/SUM(E150:E649)</f>
+        <v>-0.0370299727520436</v>
+      </c>
+      <c r="K649" s="24" t="n">
+        <f aca="false">O649-(1-O649)/N649</f>
+        <v>-0.071929756267612</v>
+      </c>
+      <c r="L649" s="25" t="n">
+        <f aca="false">SUMIF($H150:$H649,"&gt;0")</f>
+        <v>344.23</v>
+      </c>
+      <c r="M649" s="0" t="n">
+        <f aca="false">-SUMIF($H150:$H649,"&lt;0")</f>
+        <v>385</v>
+      </c>
+      <c r="N649" s="24" t="n">
+        <f aca="false">L649/M649</f>
+        <v>0.894103896103896</v>
+      </c>
+      <c r="O649" s="24" t="n">
+        <f aca="false">COUNTIF($H150:$H649,"&gt;0")/500</f>
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B650" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E650" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F650" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G650" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H650" s="7" t="n">
+        <f aca="false">G650-E650</f>
+        <v>2</v>
+      </c>
+      <c r="I650" s="7" t="n">
+        <f aca="false">SUM($H$2:H650)</f>
+        <v>-59.9199999999999</v>
+      </c>
+      <c r="J650" s="8" t="n">
+        <f aca="false">SUM(H151:H650)/SUM(E151:E650)</f>
+        <v>-0.0358023572076156</v>
+      </c>
+      <c r="K650" s="24" t="n">
+        <f aca="false">O650-(1-O650)/N650</f>
+        <v>-0.0698331741483608</v>
+      </c>
+      <c r="L650" s="25" t="n">
+        <f aca="false">SUMIF($H151:$H650,"&gt;0")</f>
+        <v>345.51</v>
+      </c>
+      <c r="M650" s="0" t="n">
+        <f aca="false">-SUMIF($H151:$H650,"&lt;0")</f>
+        <v>385</v>
+      </c>
+      <c r="N650" s="24" t="n">
+        <f aca="false">L650/M650</f>
+        <v>0.897428571428571</v>
+      </c>
+      <c r="O650" s="24" t="n">
+        <f aca="false">COUNTIF($H151:$H650,"&gt;0")/500</f>
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B651" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E651" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F651" s="5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G651" s="6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H651" s="7" t="n">
+        <f aca="false">G651-E651</f>
+        <v>0.62</v>
+      </c>
+      <c r="I651" s="7" t="n">
+        <f aca="false">SUM($H$2:H651)</f>
+        <v>-59.2999999999999</v>
+      </c>
+      <c r="J651" s="8" t="n">
+        <f aca="false">SUM(H152:H651)/SUM(E152:E651)</f>
+        <v>-0.0317</v>
+      </c>
+      <c r="K651" s="24" t="n">
+        <f aca="false">O651-(1-O651)/N651</f>
+        <v>-0.0587742177794472</v>
+      </c>
+      <c r="L651" s="25" t="n">
+        <f aca="false">SUMIF($H152:$H651,"&gt;0")</f>
+        <v>346.13</v>
+      </c>
+      <c r="M651" s="0" t="n">
+        <f aca="false">-SUMIF($H152:$H651,"&lt;0")</f>
+        <v>381</v>
+      </c>
+      <c r="N651" s="24" t="n">
+        <f aca="false">L651/M651</f>
+        <v>0.908477690288713</v>
+      </c>
+      <c r="O651" s="24" t="n">
+        <f aca="false">COUNTIF($H152:$H651,"&gt;0")/500</f>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B652" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E652" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F652" s="5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G652" s="6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H652" s="7" t="n">
+        <f aca="false">G652-E652</f>
+        <v>0.34</v>
+      </c>
+      <c r="I652" s="7" t="n">
+        <f aca="false">SUM($H$2:H652)</f>
+        <v>-58.9599999999999</v>
+      </c>
+      <c r="J652" s="8" t="n">
+        <f aca="false">SUM(H153:H652)/SUM(E153:E652)</f>
+        <v>-0.031448087431694</v>
+      </c>
+      <c r="K652" s="24" t="n">
+        <f aca="false">O652-(1-O652)/N652</f>
+        <v>-0.0540304788293362</v>
+      </c>
+      <c r="L652" s="25" t="n">
+        <f aca="false">SUMIF($H153:$H652,"&gt;0")</f>
+        <v>346.47</v>
+      </c>
+      <c r="M652" s="0" t="n">
+        <f aca="false">-SUMIF($H153:$H652,"&lt;0")</f>
+        <v>381</v>
+      </c>
+      <c r="N652" s="24" t="n">
+        <f aca="false">L652/M652</f>
+        <v>0.909370078740157</v>
+      </c>
+      <c r="O652" s="24" t="n">
+        <f aca="false">COUNTIF($H153:$H652,"&gt;0")/500</f>
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B653" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E653" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F653" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G653" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H653" s="7" t="n">
+        <f aca="false">G653-E653</f>
+        <v>-1</v>
+      </c>
+      <c r="I653" s="7" t="n">
+        <f aca="false">SUM($H$2:H653)</f>
+        <v>-59.9599999999999</v>
+      </c>
+      <c r="J653" s="8" t="n">
+        <f aca="false">SUM(H154:H653)/SUM(E154:E653)</f>
+        <v>-0.0296806569343066</v>
+      </c>
+      <c r="K653" s="24" t="n">
+        <f aca="false">O653-(1-O653)/N653</f>
+        <v>-0.0511326810402059</v>
+      </c>
+      <c r="L653" s="25" t="n">
+        <f aca="false">SUMIF($H154:$H653,"&gt;0")</f>
+        <v>346.47</v>
+      </c>
+      <c r="M653" s="0" t="n">
+        <f aca="false">-SUMIF($H154:$H653,"&lt;0")</f>
+        <v>379</v>
+      </c>
+      <c r="N653" s="24" t="n">
+        <f aca="false">L653/M653</f>
+        <v>0.914168865435356</v>
+      </c>
+      <c r="O653" s="24" t="n">
+        <f aca="false">COUNTIF($H154:$H653,"&gt;0")/500</f>
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E654" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F654" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G654" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H654" s="7" t="n">
+        <f aca="false">G654-E654</f>
+        <v>0.8</v>
+      </c>
+      <c r="I654" s="7" t="n">
+        <f aca="false">SUM($H$2:H654)</f>
+        <v>-59.1599999999999</v>
+      </c>
+      <c r="J654" s="8" t="n">
+        <f aca="false">SUM(H155:H654)/SUM(E155:E654)</f>
+        <v>-0.0253705397987191</v>
+      </c>
+      <c r="K654" s="24" t="n">
+        <f aca="false">O654-(1-O654)/N654</f>
+        <v>-0.039925706222824</v>
+      </c>
+      <c r="L654" s="25" t="n">
+        <f aca="false">SUMIF($H155:$H654,"&gt;0")</f>
+        <v>347.27</v>
+      </c>
+      <c r="M654" s="0" t="n">
+        <f aca="false">-SUMIF($H155:$H654,"&lt;0")</f>
+        <v>375</v>
+      </c>
+      <c r="N654" s="24" t="n">
+        <f aca="false">L654/M654</f>
+        <v>0.926053333333333</v>
+      </c>
+      <c r="O654" s="24" t="n">
+        <f aca="false">COUNTIF($H155:$H654,"&gt;0")/500</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E655" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F655" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G655" s="6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H655" s="7" t="n">
+        <f aca="false">G655-E655</f>
+        <v>0.52</v>
+      </c>
+      <c r="I655" s="7" t="n">
+        <f aca="false">SUM($H$2:H655)</f>
+        <v>-58.6399999999999</v>
+      </c>
+      <c r="J655" s="8" t="n">
+        <f aca="false">SUM(H156:H655)/SUM(E156:E655)</f>
+        <v>-0.0248493150684931</v>
+      </c>
+      <c r="K655" s="24" t="n">
+        <f aca="false">O655-(1-O655)/N655</f>
+        <v>-0.0349619598033298</v>
+      </c>
+      <c r="L655" s="25" t="n">
+        <f aca="false">SUMIF($H156:$H655,"&gt;0")</f>
+        <v>347.79</v>
+      </c>
+      <c r="M655" s="0" t="n">
+        <f aca="false">-SUMIF($H156:$H655,"&lt;0")</f>
+        <v>375</v>
+      </c>
+      <c r="N655" s="24" t="n">
+        <f aca="false">L655/M655</f>
+        <v>0.927439999999999</v>
+      </c>
+      <c r="O655" s="24" t="n">
+        <f aca="false">COUNTIF($H156:$H655,"&gt;0")/500</f>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B656" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E656" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F656" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G656" s="6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H656" s="7" t="n">
+        <f aca="false">G656-E656</f>
+        <v>0.78</v>
+      </c>
+      <c r="I656" s="7" t="n">
+        <f aca="false">SUM($H$2:H656)</f>
+        <v>-57.8599999999999</v>
+      </c>
+      <c r="J656" s="8" t="n">
+        <f aca="false">SUM(H157:H656)/SUM(E157:E656)</f>
+        <v>-0.0240710382513661</v>
+      </c>
+      <c r="K656" s="24" t="n">
+        <f aca="false">O656-(1-O656)/N656</f>
+        <v>-0.0296087442981328</v>
+      </c>
+      <c r="L656" s="25" t="n">
+        <f aca="false">SUMIF($H157:$H656,"&gt;0")</f>
+        <v>348.57</v>
+      </c>
+      <c r="M656" s="0" t="n">
+        <f aca="false">-SUMIF($H157:$H656,"&lt;0")</f>
+        <v>375</v>
+      </c>
+      <c r="N656" s="24" t="n">
+        <f aca="false">L656/M656</f>
+        <v>0.929519999999999</v>
+      </c>
+      <c r="O656" s="24" t="n">
+        <f aca="false">COUNTIF($H157:$H656,"&gt;0")/500</f>
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B657" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E657" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F657" s="5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G657" s="6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H657" s="7" t="n">
+        <f aca="false">G657-E657</f>
+        <v>0.14</v>
+      </c>
+      <c r="I657" s="7" t="n">
+        <f aca="false">SUM($H$2:H657)</f>
+        <v>-57.7199999999999</v>
+      </c>
+      <c r="J657" s="8" t="n">
+        <f aca="false">SUM(H158:H657)/SUM(E158:E657)</f>
+        <v>-0.0203375912408759</v>
+      </c>
+      <c r="K657" s="24" t="n">
+        <f aca="false">O657-(1-O657)/N657</f>
+        <v>-0.0195771271256922</v>
+      </c>
+      <c r="L657" s="25" t="n">
+        <f aca="false">SUMIF($H158:$H657,"&gt;0")</f>
+        <v>348.71</v>
+      </c>
+      <c r="M657" s="0" t="n">
+        <f aca="false">-SUMIF($H158:$H657,"&lt;0")</f>
+        <v>371</v>
+      </c>
+      <c r="N657" s="24" t="n">
+        <f aca="false">L657/M657</f>
+        <v>0.939919137466307</v>
+      </c>
+      <c r="O657" s="24" t="n">
+        <f aca="false">COUNTIF($H158:$H657,"&gt;0")/500</f>
+        <v>0.506</v>
       </c>
     </row>
   </sheetData>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="214">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -676,7 +676,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0%"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00"/>
     <numFmt numFmtId="171" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
     <numFmt numFmtId="173" formatCode="#,##0"/>
@@ -998,7 +998,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1048,7 +1048,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="97" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="89" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1061,7 +1061,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="97" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="89" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1331,7 +1331,7 @@
                   <c:v>20/10/19</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v/>
+                  <c:v>21/10/19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1547,7 +1547,7 @@
                   <c:v>193.57</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v/>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,11 +1562,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25809608"/>
-        <c:axId val="80518307"/>
+        <c:axId val="1853095"/>
+        <c:axId val="77060007"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25809608"/>
+        <c:axId val="1853095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1588,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="97" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="89" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1602,19 +1602,28 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80518307"/>
+        <c:crossAx val="77060007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80518307"/>
+        <c:axId val="77060007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1642,8 +1651,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25809608"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1853095"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1676,14 +1685,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:colOff>112680</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1692,7 +1701,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="203040" y="11861640"/>
-        <a:ext cx="7962480" cy="2742840"/>
+        <a:ext cx="7961400" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1710,12 +1719,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q722"/>
+  <dimension ref="A1:Q732"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H713" activeCellId="0" sqref="H713"/>
+      <selection pane="bottomLeft" activeCell="G728" activeCellId="0" sqref="G728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33564,6 +33573,474 @@
         <v>0.67062818336163</v>
       </c>
     </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B724" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E724" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F724" s="5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G724" s="6" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="H724" s="7" t="n">
+        <f aca="false">G724-E724</f>
+        <v>2.28</v>
+      </c>
+      <c r="I724" s="7" t="n">
+        <f aca="false">SUM($H$2:H724)</f>
+        <v>-35.5299999999999</v>
+      </c>
+      <c r="J724" s="8" t="n">
+        <f aca="false">SUM(H$3:H724)/SUM(E$3:E724)</f>
+        <v>-0.0154344048653345</v>
+      </c>
+      <c r="K724" s="9" t="n">
+        <f aca="false">O724-(1-O724)/N724</f>
+        <v>0.0142585394844933</v>
+      </c>
+      <c r="L724" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H724,"&gt;0")</f>
+        <v>2.02018918918919</v>
+      </c>
+      <c r="M724" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H724,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N724" s="11" t="n">
+        <f aca="false">L724/-M724</f>
+        <v>0.500532187359773</v>
+      </c>
+      <c r="O724" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G724,"&gt;0")/COUNTIF($B$3:$B724,"&gt;0")</f>
+        <v>0.671186440677966</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B725" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E725" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F725" s="5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G725" s="6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H725" s="7" t="n">
+        <f aca="false">G725-E725</f>
+        <v>0.62</v>
+      </c>
+      <c r="I725" s="7" t="n">
+        <f aca="false">SUM($H$2:H725)</f>
+        <v>-34.9099999999999</v>
+      </c>
+      <c r="J725" s="8" t="n">
+        <f aca="false">SUM(H$3:H725)/SUM(E$3:E725)</f>
+        <v>-0.0151584889274859</v>
+      </c>
+      <c r="K725" s="9" t="n">
+        <f aca="false">O725-(1-O725)/N725</f>
+        <v>0.0146989788026215</v>
+      </c>
+      <c r="L725" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H725,"&gt;0")</f>
+        <v>2.01641509433962</v>
+      </c>
+      <c r="M725" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H725,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N725" s="11" t="n">
+        <f aca="false">L725/-M725</f>
+        <v>0.49959709872527</v>
+      </c>
+      <c r="O725" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G725,"&gt;0")/COUNTIF($B$3:$B725,"&gt;0")</f>
+        <v>0.671742808798646</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B726" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E726" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F726" s="5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G726" s="6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H726" s="7" t="n">
+        <f aca="false">G726-E726</f>
+        <v>0.78</v>
+      </c>
+      <c r="I726" s="7" t="n">
+        <f aca="false">SUM($H$2:H726)</f>
+        <v>-34.1299999999999</v>
+      </c>
+      <c r="J726" s="8" t="n">
+        <f aca="false">SUM(H$3:H726)/SUM(E$3:E726)</f>
+        <v>-0.0148005203816132</v>
+      </c>
+      <c r="K726" s="9" t="n">
+        <f aca="false">O726-(1-O726)/N726</f>
+        <v>0.015280364758578</v>
+      </c>
+      <c r="L726" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H726,"&gt;0")</f>
+        <v>2.01309139784946</v>
+      </c>
+      <c r="M726" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H726,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N726" s="11" t="n">
+        <f aca="false">L726/-M726</f>
+        <v>0.498773603043161</v>
+      </c>
+      <c r="O726" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G726,"&gt;0")/COUNTIF($B$3:$B726,"&gt;0")</f>
+        <v>0.672297297297297</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E727" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F727" s="5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G727" s="6" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H727" s="7" t="n">
+        <f aca="false">G727-E727</f>
+        <v>1.28</v>
+      </c>
+      <c r="I727" s="7" t="n">
+        <f aca="false">SUM($H$2:H727)</f>
+        <v>-32.8499999999999</v>
+      </c>
+      <c r="J727" s="8" t="n">
+        <f aca="false">SUM(H$3:H727)/SUM(E$3:E727)</f>
+        <v>-0.0142207792207792</v>
+      </c>
+      <c r="K727" s="9" t="n">
+        <f aca="false">O727-(1-O727)/N727</f>
+        <v>0.0162999440584053</v>
+      </c>
+      <c r="L727" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H727,"&gt;0")</f>
+        <v>2.01112600536193</v>
+      </c>
+      <c r="M727" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H727,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N727" s="11" t="n">
+        <f aca="false">L727/-M727</f>
+        <v>0.498286647560938</v>
+      </c>
+      <c r="O727" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G727,"&gt;0")/COUNTIF($B$3:$B727,"&gt;0")</f>
+        <v>0.672849915682968</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E728" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F728" s="5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G728" s="6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H728" s="7" t="n">
+        <f aca="false">G728-E728</f>
+        <v>0.62</v>
+      </c>
+      <c r="I728" s="7" t="n">
+        <f aca="false">SUM($H$2:H728)</f>
+        <v>-32.2299999999999</v>
+      </c>
+      <c r="J728" s="8" t="n">
+        <f aca="false">SUM(H$3:H728)/SUM(E$3:E728)</f>
+        <v>-0.0139463435742103</v>
+      </c>
+      <c r="K728" s="9" t="n">
+        <f aca="false">O728-(1-O728)/N728</f>
+        <v>0.0167415101416191</v>
+      </c>
+      <c r="L728" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H728,"&gt;0")</f>
+        <v>2.0074064171123</v>
+      </c>
+      <c r="M728" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H728,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N728" s="11" t="n">
+        <f aca="false">L728/-M728</f>
+        <v>0.497365063754516</v>
+      </c>
+      <c r="O728" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G728,"&gt;0")/COUNTIF($B$3:$B728,"&gt;0")</f>
+        <v>0.673400673400673</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B729" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E729" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F729" s="5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G729" s="6" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H729" s="7" t="n">
+        <f aca="false">G729-E729</f>
+        <v>0.12</v>
+      </c>
+      <c r="I729" s="7" t="n">
+        <f aca="false">SUM($H$2:H729)</f>
+        <v>-32.1099999999999</v>
+      </c>
+      <c r="J729" s="8" t="n">
+        <f aca="false">SUM(H$3:H729)/SUM(E$3:E729)</f>
+        <v>-0.013876404494382</v>
+      </c>
+      <c r="K729" s="9" t="n">
+        <f aca="false">O729-(1-O729)/N729</f>
+        <v>0.0167462678182111</v>
+      </c>
+      <c r="L729" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H729,"&gt;0")</f>
+        <v>2.00237333333333</v>
+      </c>
+      <c r="M729" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H729,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N729" s="11" t="n">
+        <f aca="false">L729/-M729</f>
+        <v>0.49611804171988</v>
+      </c>
+      <c r="O729" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G729,"&gt;0")/COUNTIF($B$3:$B729,"&gt;0")</f>
+        <v>0.673949579831933</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B730" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E730" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F730" s="5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G730" s="6" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H730" s="7" t="n">
+        <f aca="false">G730-E730</f>
+        <v>1.24</v>
+      </c>
+      <c r="I730" s="7" t="n">
+        <f aca="false">SUM($H$2:H730)</f>
+        <v>-30.8699999999999</v>
+      </c>
+      <c r="J730" s="8" t="n">
+        <f aca="false">SUM(H$3:H730)/SUM(E$3:E730)</f>
+        <v>-0.0133290155440414</v>
+      </c>
+      <c r="K730" s="9" t="n">
+        <f aca="false">O730-(1-O730)/N730</f>
+        <v>0.017730986280841</v>
+      </c>
+      <c r="L730" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H730,"&gt;0")</f>
+        <v>2.00034574468085</v>
+      </c>
+      <c r="M730" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H730,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N730" s="11" t="n">
+        <f aca="false">L730/-M730</f>
+        <v>0.495615676204451</v>
+      </c>
+      <c r="O730" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G730,"&gt;0")/COUNTIF($B$3:$B730,"&gt;0")</f>
+        <v>0.674496644295302</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B731" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E731" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F731" s="5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G731" s="6" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="H731" s="7" t="n">
+        <f aca="false">G731-E731</f>
+        <v>0.49</v>
+      </c>
+      <c r="I731" s="7" t="n">
+        <f aca="false">SUM($H$2:H731)</f>
+        <v>-30.3799999999999</v>
+      </c>
+      <c r="J731" s="8" t="n">
+        <f aca="false">SUM(H$3:H731)/SUM(E$3:E731)</f>
+        <v>-0.0130779164873009</v>
+      </c>
+      <c r="K731" s="9" t="n">
+        <f aca="false">O731-(1-O731)/N731</f>
+        <v>0.0180605489068288</v>
+      </c>
+      <c r="L731" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H731,"&gt;0")</f>
+        <v>1.99633952254642</v>
+      </c>
+      <c r="M731" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H731,"&lt;0")</f>
+        <v>-4.0360824742268</v>
+      </c>
+      <c r="N731" s="11" t="n">
+        <f aca="false">L731/-M731</f>
+        <v>0.494623074551731</v>
+      </c>
+      <c r="O731" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G731,"&gt;0")/COUNTIF($B$3:$B731,"&gt;0")</f>
+        <v>0.675041876046901</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B732" s="2" t="n">
+        <v>43759</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E732" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F732" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G732" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H732" s="7" t="n">
+        <f aca="false">G732-E732</f>
+        <v>-1</v>
+      </c>
+      <c r="I732" s="7" t="n">
+        <f aca="false">SUM($H$2:H732)</f>
+        <v>-31.3799999999999</v>
+      </c>
+      <c r="J732" s="8" t="n">
+        <f aca="false">SUM(H$3:H732)/SUM(E$3:E732)</f>
+        <v>-0.0135025817555938</v>
+      </c>
+      <c r="K732" s="9" t="n">
+        <f aca="false">O732-(1-O732)/N732</f>
+        <v>0.0171926938128019</v>
+      </c>
+      <c r="L732" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H732,"&gt;0")</f>
+        <v>1.99633952254642</v>
+      </c>
+      <c r="M732" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H732,"&lt;0")</f>
+        <v>-4.02051282051282</v>
+      </c>
+      <c r="N732" s="11" t="n">
+        <f aca="false">L732/-M732</f>
+        <v>0.496538529204785</v>
+      </c>
+      <c r="O732" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G732,"&gt;0")/COUNTIF($B$3:$B732,"&gt;0")</f>
+        <v>0.673913043478261</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -33580,12 +34057,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N69" activeCellId="0" sqref="N69"/>
+      <selection pane="bottomLeft" activeCell="G70" activeCellId="0" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33653,7 +34130,7 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="n">
         <v>43670</v>
       </c>
@@ -33678,7 +34155,7 @@
         <v>38.3</v>
       </c>
       <c r="G3" s="29" t="n">
-        <f aca="false">F3/C3</f>
+        <f aca="false">all!J14</f>
         <v>0.283703703703704</v>
       </c>
       <c r="H3" s="29" t="n">
@@ -33708,7 +34185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="n">
         <v>43671</v>
       </c>
@@ -33733,8 +34210,8 @@
         <v>37.75</v>
       </c>
       <c r="G4" s="29" t="n">
-        <f aca="false">F4/C4</f>
-        <v>0.209722222222222</v>
+        <f aca="false">all!J28</f>
+        <v>0.241428571428571</v>
       </c>
       <c r="H4" s="29" t="n">
         <f aca="false">all!O28</f>
@@ -33763,7 +34240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="n">
         <v>43672</v>
       </c>
@@ -33788,8 +34265,8 @@
         <v>-10.9</v>
       </c>
       <c r="G5" s="29" t="n">
-        <f aca="false">F5/C5</f>
-        <v>-0.0838461538461538</v>
+        <f aca="false">all!J42</f>
+        <v>0.146404494382022</v>
       </c>
       <c r="H5" s="29" t="n">
         <f aca="false">all!O42</f>
@@ -33818,7 +34295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="n">
         <v>43674</v>
       </c>
@@ -33843,8 +34320,8 @@
         <v>-72.9</v>
       </c>
       <c r="G6" s="29" t="n">
-        <f aca="false">F6/C6</f>
-        <v>-0.373846153846154</v>
+        <f aca="false">all!J57</f>
+        <v>-0.012109375</v>
       </c>
       <c r="H6" s="29" t="n">
         <f aca="false">all!O57</f>
@@ -33873,7 +34350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="n">
         <v>43676</v>
       </c>
@@ -33898,8 +34375,8 @@
         <v>2.17</v>
       </c>
       <c r="G7" s="29" t="n">
-        <f aca="false">F7/C7</f>
-        <v>0.01736</v>
+        <f aca="false">all!J73</f>
+        <v>-0.00729411764705883</v>
       </c>
       <c r="H7" s="29" t="n">
         <f aca="false">all!O73</f>
@@ -33928,7 +34405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="n">
         <v>43677</v>
       </c>
@@ -33953,8 +34430,8 @@
         <v>-6.1</v>
       </c>
       <c r="G8" s="29" t="n">
-        <f aca="false">F8/C8</f>
-        <v>-0.0835616438356165</v>
+        <f aca="false">all!J95</f>
+        <v>-0.0139379474940334</v>
       </c>
       <c r="H8" s="29" t="n">
         <f aca="false">all!O95</f>
@@ -33983,7 +34460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="n">
         <v>43678</v>
       </c>
@@ -34008,8 +34485,8 @@
         <v>5.65</v>
       </c>
       <c r="G9" s="29" t="n">
-        <f aca="false">F9/C9</f>
-        <v>0.217307692307692</v>
+        <f aca="false">all!J105</f>
+        <v>-0.00697916666666668</v>
       </c>
       <c r="H9" s="29" t="n">
         <f aca="false">all!O105</f>
@@ -34038,7 +34515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="n">
         <v>43679</v>
       </c>
@@ -34063,8 +34540,8 @@
         <v>-10.16</v>
       </c>
       <c r="G10" s="29" t="n">
-        <f aca="false">F10/C10</f>
-        <v>-0.4064</v>
+        <f aca="false">all!J114</f>
+        <v>-0.0182114735658043</v>
       </c>
       <c r="H10" s="29" t="n">
         <f aca="false">all!O114</f>
@@ -34093,7 +34570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="n">
         <v>43680</v>
       </c>
@@ -34118,8 +34595,8 @@
         <v>-6.12</v>
       </c>
       <c r="G11" s="29" t="n">
-        <f aca="false">F11/C11</f>
-        <v>-0.556363636363636</v>
+        <f aca="false">all!J119</f>
+        <v>-0.0247888888888889</v>
       </c>
       <c r="H11" s="29" t="n">
         <f aca="false">all!O119</f>
@@ -34148,7 +34625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="n">
         <v>43682</v>
       </c>
@@ -34173,8 +34650,8 @@
         <v>-6.46</v>
       </c>
       <c r="G12" s="29" t="n">
-        <f aca="false">F12/C12</f>
-        <v>-0.40375</v>
+        <f aca="false">all!J126</f>
+        <v>-0.0314082969432314</v>
       </c>
       <c r="H12" s="29" t="n">
         <f aca="false">all!O126</f>
@@ -34203,7 +34680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="n">
         <v>43683</v>
       </c>
@@ -34228,8 +34705,8 @@
         <v>10.47</v>
       </c>
       <c r="G13" s="29" t="n">
-        <f aca="false">F13/C13</f>
-        <v>0.26175</v>
+        <f aca="false">all!J139</f>
+        <v>-0.0191422594142259</v>
       </c>
       <c r="H13" s="29" t="n">
         <f aca="false">all!O139</f>
@@ -34258,7 +34735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="n">
         <v>43684</v>
       </c>
@@ -34283,8 +34760,8 @@
         <v>-13.13</v>
       </c>
       <c r="G14" s="29" t="n">
-        <f aca="false">F14/C14</f>
-        <v>-0.285434782608696</v>
+        <f aca="false">all!J154</f>
+        <v>-0.0313672654690619</v>
       </c>
       <c r="H14" s="29" t="n">
         <f aca="false">all!O154</f>
@@ -34313,7 +34790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="n">
         <v>43685</v>
       </c>
@@ -34338,8 +34815,8 @@
         <v>-0.86</v>
       </c>
       <c r="G15" s="29" t="n">
-        <f aca="false">F15/C15</f>
-        <v>-0.0452631578947369</v>
+        <f aca="false">all!J161</f>
+        <v>-0.0316258570029383</v>
       </c>
       <c r="H15" s="29" t="n">
         <f aca="false">all!O161</f>
@@ -34368,7 +34845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="n">
         <v>43686</v>
       </c>
@@ -34393,8 +34870,8 @@
         <v>7.71</v>
       </c>
       <c r="G16" s="29" t="n">
-        <f aca="false">F16/C16</f>
-        <v>0.700909090909091</v>
+        <f aca="false">all!J167</f>
+        <v>-0.0238178294573643</v>
       </c>
       <c r="H16" s="29" t="n">
         <f aca="false">all!O167</f>
@@ -34423,7 +34900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="n">
         <v>43688</v>
       </c>
@@ -34448,8 +34925,8 @@
         <v>23.52</v>
       </c>
       <c r="G17" s="29" t="n">
-        <f aca="false">F17/C17</f>
-        <v>0.261333333333333</v>
+        <f aca="false">all!J192</f>
+        <v>-0.000944741532976827</v>
       </c>
       <c r="H17" s="29" t="n">
         <f aca="false">all!O192</f>
@@ -34478,7 +34955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="n">
         <v>43690</v>
       </c>
@@ -34503,8 +34980,8 @@
         <v>8.2</v>
       </c>
       <c r="G18" s="29" t="n">
-        <f aca="false">F18/C18</f>
-        <v>0.683333333333333</v>
+        <f aca="false">all!J199</f>
+        <v>0.0062962962962963</v>
       </c>
       <c r="H18" s="29" t="n">
         <f aca="false">all!O199</f>
@@ -34533,7 +35010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="n">
         <v>43692</v>
       </c>
@@ -34558,8 +35035,8 @@
         <v>-11.64</v>
       </c>
       <c r="G19" s="29" t="n">
-        <f aca="false">F19/C19</f>
-        <v>-0.529090909090909</v>
+        <f aca="false">all!J209</f>
+        <v>-0.00389273356401384</v>
       </c>
       <c r="H19" s="29" t="n">
         <f aca="false">all!O209</f>
@@ -34588,7 +35065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="n">
         <v>43693</v>
       </c>
@@ -34613,8 +35090,8 @@
         <v>-13.88</v>
       </c>
       <c r="G20" s="29" t="n">
-        <f aca="false">F20/C20</f>
-        <v>-0.495714285714286</v>
+        <f aca="false">all!J215</f>
+        <v>-0.0155236486486487</v>
       </c>
       <c r="H20" s="29" t="n">
         <f aca="false">all!O215</f>
@@ -34643,7 +35120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="n">
         <v>43694</v>
       </c>
@@ -34668,8 +35145,8 @@
         <v>0.199999999999999</v>
       </c>
       <c r="G21" s="29" t="n">
-        <f aca="false">F21/C21</f>
-        <v>0.0142857142857142</v>
+        <f aca="false">all!J219</f>
+        <v>-0.0151752921535893</v>
       </c>
       <c r="H21" s="29" t="n">
         <f aca="false">all!O219</f>
@@ -34698,7 +35175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="n">
         <v>43695</v>
       </c>
@@ -34723,8 +35200,8 @@
         <v>1.6</v>
       </c>
       <c r="G22" s="29" t="n">
-        <f aca="false">F22/C22</f>
-        <v>0.4</v>
+        <f aca="false">all!J222</f>
+        <v>-0.0137936772046589</v>
       </c>
       <c r="H22" s="29" t="n">
         <f aca="false">all!O222</f>
@@ -34753,7 +35230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="n">
         <v>43696</v>
       </c>
@@ -34778,8 +35255,8 @@
         <v>21.47</v>
       </c>
       <c r="G23" s="29" t="n">
-        <f aca="false">F23/C23</f>
-        <v>0.58027027027027</v>
+        <f aca="false">all!J237</f>
+        <v>0.00394673123486683</v>
       </c>
       <c r="H23" s="29" t="n">
         <f aca="false">all!O237</f>
@@ -34808,7 +35285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="n">
         <v>43697</v>
       </c>
@@ -34833,8 +35310,8 @@
         <v>0.720000000000001</v>
       </c>
       <c r="G24" s="29" t="n">
-        <f aca="false">F24/C24</f>
-        <v>0.031304347826087</v>
+        <f aca="false">all!J250</f>
+        <v>0.00444532488114105</v>
       </c>
       <c r="H24" s="29" t="n">
         <f aca="false">all!O250</f>
@@ -34863,7 +35340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="n">
         <v>43698</v>
       </c>
@@ -34888,8 +35365,8 @@
         <v>-7.6</v>
       </c>
       <c r="G25" s="29" t="n">
-        <f aca="false">F25/C25</f>
-        <v>-0.345454545454545</v>
+        <f aca="false">all!J260</f>
+        <v>-0.00154984423676012</v>
       </c>
       <c r="H25" s="29" t="n">
         <f aca="false">all!O260</f>
@@ -34918,7 +35395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="n">
         <v>43699</v>
       </c>
@@ -34943,8 +35420,8 @@
         <v>-8.42</v>
       </c>
       <c r="G26" s="29" t="n">
-        <f aca="false">F26/C26</f>
-        <v>-0.165098039215686</v>
+        <f aca="false">all!J273</f>
+        <v>-0.00779775280898876</v>
       </c>
       <c r="H26" s="29" t="n">
         <f aca="false">all!O273</f>
@@ -34973,7 +35450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="33" t="n">
         <v>43700</v>
       </c>
@@ -34998,8 +35475,8 @@
         <v>-2.37</v>
       </c>
       <c r="G27" s="29" t="n">
-        <f aca="false">F27/C27</f>
-        <v>-0.131666666666667</v>
+        <f aca="false">all!J288</f>
+        <v>-0.00944567627494457</v>
       </c>
       <c r="H27" s="29" t="n">
         <f aca="false">all!O288</f>
@@ -35028,7 +35505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="n">
         <v>43703</v>
       </c>
@@ -35053,8 +35530,8 @@
         <v>-17.19</v>
       </c>
       <c r="G28" s="29" t="n">
-        <f aca="false">F28/C28</f>
-        <v>-0.337058823529412</v>
+        <f aca="false">all!J319</f>
+        <v>-0.0213461538461538</v>
       </c>
       <c r="H28" s="29" t="n">
         <f aca="false">all!O319</f>
@@ -35083,7 +35560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="n">
         <v>43704</v>
       </c>
@@ -35108,8 +35585,8 @@
         <v>-7.84000000000001</v>
       </c>
       <c r="G29" s="29" t="n">
-        <f aca="false">F29/C29</f>
-        <v>-0.0739622641509435</v>
+        <f aca="false">all!J353</f>
+        <v>-0.0250397350993378</v>
       </c>
       <c r="H29" s="29" t="n">
         <f aca="false">all!O353</f>
@@ -35138,7 +35615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="n">
         <v>43706</v>
       </c>
@@ -35163,8 +35640,8 @@
         <v>-36.78</v>
       </c>
       <c r="G30" s="29" t="n">
-        <f aca="false">F30/C30</f>
-        <v>-0.331351351351351</v>
+        <f aca="false">all!J390</f>
+        <v>-0.046014805675509</v>
       </c>
       <c r="H30" s="29" t="n">
         <f aca="false">all!O390</f>
@@ -35193,7 +35670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="n">
         <v>43707</v>
       </c>
@@ -35218,8 +35695,8 @@
         <v>3.7</v>
       </c>
       <c r="G31" s="29" t="n">
-        <f aca="false">F31/C31</f>
-        <v>0.148</v>
+        <f aca="false">all!J400</f>
+        <v>-0.0430680437424058</v>
       </c>
       <c r="H31" s="29" t="n">
         <f aca="false">all!O400</f>
@@ -35248,7 +35725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="n">
         <v>43710</v>
       </c>
@@ -35273,8 +35750,8 @@
         <v>-2.8</v>
       </c>
       <c r="G32" s="29" t="n">
-        <f aca="false">F32/C32</f>
-        <v>-0.466666666666667</v>
+        <f aca="false">all!J407</f>
+        <v>-0.0446065375302664</v>
       </c>
       <c r="H32" s="29" t="n">
         <f aca="false">all!O407</f>
@@ -35303,7 +35780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="n">
         <v>43711</v>
       </c>
@@ -35328,8 +35805,8 @@
         <v>-13</v>
       </c>
       <c r="G33" s="29" t="n">
-        <f aca="false">F33/C33</f>
-        <v>-1</v>
+        <f aca="false">all!J411</f>
+        <v>-0.0520660660660661</v>
       </c>
       <c r="H33" s="29" t="n">
         <f aca="false">all!O411</f>
@@ -35358,7 +35835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="33" t="n">
         <v>43713</v>
       </c>
@@ -35383,8 +35860,8 @@
         <v>2.2</v>
       </c>
       <c r="G34" s="29" t="n">
-        <f aca="false">F34/C34</f>
-        <v>0.55</v>
+        <f aca="false">all!J414</f>
+        <v>-0.0506231276213302</v>
       </c>
       <c r="H34" s="29" t="n">
         <f aca="false">all!O414</f>
@@ -35413,7 +35890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="33" t="n">
         <v>43714</v>
       </c>
@@ -35438,8 +35915,8 @@
         <v>0.12</v>
       </c>
       <c r="G35" s="29" t="n">
-        <f aca="false">F35/C35</f>
-        <v>0.0600000000000001</v>
+        <f aca="false">all!J417</f>
+        <v>-0.050490724117295</v>
       </c>
       <c r="H35" s="29" t="n">
         <f aca="false">all!O417</f>
@@ -35468,7 +35945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="33" t="n">
         <v>43724</v>
       </c>
@@ -35493,8 +35970,8 @@
         <v>-0.48</v>
       </c>
       <c r="G36" s="29" t="n">
-        <f aca="false">F36/C36</f>
-        <v>-0.06</v>
+        <f aca="false">all!J422</f>
+        <v>-0.0505360333531864</v>
       </c>
       <c r="H36" s="29" t="n">
         <f aca="false">all!O422</f>
@@ -35523,7 +36000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="33" t="n">
         <v>43725</v>
       </c>
@@ -35548,8 +36025,8 @@
         <v>-1.64</v>
       </c>
       <c r="G37" s="29" t="n">
-        <f aca="false">F37/C37</f>
-        <v>-0.234285714285714</v>
+        <f aca="false">all!J426</f>
+        <v>-0.0512989323843416</v>
       </c>
       <c r="H37" s="29" t="n">
         <f aca="false">all!O426</f>
@@ -35578,7 +36055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33" t="n">
         <v>43726</v>
       </c>
@@ -35603,8 +36080,8 @@
         <v>0.0499999999999989</v>
       </c>
       <c r="G38" s="29" t="n">
-        <f aca="false">F38/C38</f>
-        <v>0.00156249999999997</v>
+        <f aca="false">all!J438</f>
+        <v>-0.050314318975553</v>
       </c>
       <c r="H38" s="29" t="n">
         <f aca="false">all!O438</f>
@@ -35633,7 +36110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="n">
         <v>43727</v>
       </c>
@@ -35658,8 +36135,8 @@
         <v>1.73</v>
       </c>
       <c r="G39" s="29" t="n">
-        <f aca="false">F39/C39</f>
-        <v>0.133076923076923</v>
+        <f aca="false">all!J445</f>
+        <v>-0.0489370306181398</v>
       </c>
       <c r="H39" s="29" t="n">
         <f aca="false">all!O445</f>
@@ -35688,7 +36165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="n">
         <v>43728</v>
       </c>
@@ -35713,8 +36190,8 @@
         <v>-2.02</v>
       </c>
       <c r="G40" s="29" t="n">
-        <f aca="false">F40/C40</f>
-        <v>-0.202</v>
+        <f aca="false">all!J453</f>
+        <v>-0.0498161975875934</v>
       </c>
       <c r="H40" s="29" t="n">
         <f aca="false">all!O453</f>
@@ -35743,7 +36220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="n">
         <v>43729</v>
       </c>
@@ -35768,8 +36245,8 @@
         <v>5.58</v>
       </c>
       <c r="G41" s="29" t="n">
-        <f aca="false">F41/C41</f>
-        <v>0.62</v>
+        <f aca="false">all!J458</f>
+        <v>-0.0463714285714286</v>
       </c>
       <c r="H41" s="29" t="n">
         <f aca="false">all!O458</f>
@@ -35798,7 +36275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="n">
         <v>43730</v>
       </c>
@@ -35823,8 +36300,8 @@
         <v>0.8</v>
       </c>
       <c r="G42" s="29" t="n">
-        <f aca="false">F42/C42</f>
-        <v>0.266666666666667</v>
+        <f aca="false">all!J462</f>
+        <v>-0.0458357102110668</v>
       </c>
       <c r="H42" s="29" t="n">
         <f aca="false">all!O462</f>
@@ -35853,7 +36330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="n">
         <v>43731</v>
       </c>
@@ -35878,8 +36355,8 @@
         <v>0.16</v>
       </c>
       <c r="G43" s="29" t="n">
-        <f aca="false">F43/C43</f>
-        <v>0.16</v>
+        <f aca="false">all!J465</f>
+        <v>-0.0457183580387686</v>
       </c>
       <c r="H43" s="29" t="n">
         <f aca="false">all!O465</f>
@@ -35908,7 +36385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="n">
         <v>43732</v>
       </c>
@@ -35933,8 +36410,8 @@
         <v>-0.8</v>
       </c>
       <c r="G44" s="29" t="n">
-        <f aca="false">F44/C44</f>
-        <v>-0.0666666666666667</v>
+        <f aca="false">all!J470</f>
+        <v>-0.0458607021517554</v>
       </c>
       <c r="H44" s="29" t="n">
         <f aca="false">all!O470</f>
@@ -35963,7 +36440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="n">
         <v>43733</v>
       </c>
@@ -35988,8 +36465,8 @@
         <v>-1.31</v>
       </c>
       <c r="G45" s="29" t="n">
-        <f aca="false">F45/C45</f>
-        <v>-0.187142857142857</v>
+        <f aca="false">all!J478</f>
+        <v>-0.0464184997179921</v>
       </c>
       <c r="H45" s="29" t="n">
         <f aca="false">all!O478</f>
@@ -36018,7 +36495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33" t="n">
         <v>43734</v>
       </c>
@@ -36043,8 +36520,8 @@
         <v>-5.32</v>
       </c>
       <c r="G46" s="29" t="n">
-        <f aca="false">F46/C46</f>
-        <v>-0.171612903225806</v>
+        <f aca="false">all!J491</f>
+        <v>-0.048569844789357</v>
       </c>
       <c r="H46" s="29" t="n">
         <f aca="false">all!O491</f>
@@ -36073,7 +36550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="n">
         <v>43735</v>
       </c>
@@ -36098,8 +36575,8 @@
         <v>1.7</v>
       </c>
       <c r="G47" s="29" t="n">
-        <f aca="false">F47/C47</f>
-        <v>0.566666666666667</v>
+        <f aca="false">all!J496</f>
+        <v>-0.0475484228002214</v>
       </c>
       <c r="H47" s="29" t="n">
         <f aca="false">all!O496</f>
@@ -36128,7 +36605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="n">
         <v>43737</v>
       </c>
@@ -36153,8 +36630,8 @@
         <v>-0.26</v>
       </c>
       <c r="G48" s="29" t="n">
-        <f aca="false">F48/C48</f>
-        <v>-0.0236363636363636</v>
+        <f aca="false">all!J506</f>
+        <v>-0.0474037403740374</v>
       </c>
       <c r="H48" s="29" t="n">
         <f aca="false">all!O506</f>
@@ -36183,7 +36660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="n">
         <v>43738</v>
       </c>
@@ -36208,8 +36685,8 @@
         <v>1.56</v>
       </c>
       <c r="G49" s="29" t="n">
-        <f aca="false">F49/C49</f>
-        <v>0.0821052631578948</v>
+        <f aca="false">all!J517</f>
+        <v>-0.0460642351660316</v>
       </c>
       <c r="H49" s="29" t="n">
         <f aca="false">all!O517</f>
@@ -36238,7 +36715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="n">
         <v>43739</v>
       </c>
@@ -36263,8 +36740,8 @@
         <v>-1.26</v>
       </c>
       <c r="G50" s="29" t="n">
-        <f aca="false">F50/C50</f>
-        <v>-0.042</v>
+        <f aca="false">all!J533</f>
+        <v>-0.045998928762721</v>
       </c>
       <c r="H50" s="29" t="n">
         <f aca="false">all!O533</f>
@@ -36293,7 +36770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="n">
         <v>43740</v>
       </c>
@@ -36318,8 +36795,8 @@
         <v>0.25</v>
       </c>
       <c r="G51" s="29" t="n">
-        <f aca="false">F51/C51</f>
-        <v>0.00892857142857143</v>
+        <f aca="false">all!J544</f>
+        <v>-0.0451873350923483</v>
       </c>
       <c r="H51" s="29" t="n">
         <f aca="false">all!O544</f>
@@ -36348,7 +36825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="n">
         <v>43741</v>
       </c>
@@ -36373,8 +36850,8 @@
         <v>1.28</v>
       </c>
       <c r="G52" s="29" t="n">
-        <f aca="false">F52/C52</f>
-        <v>0.64</v>
+        <f aca="false">all!J548</f>
+        <v>-0.0444649446494465</v>
       </c>
       <c r="H52" s="29" t="n">
         <f aca="false">all!O548</f>
@@ -36403,7 +36880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="n">
         <v>43742</v>
       </c>
@@ -36428,8 +36905,8 @@
         <v>5.37</v>
       </c>
       <c r="G53" s="29" t="n">
-        <f aca="false">F53/C53</f>
-        <v>0.488181818181818</v>
+        <f aca="false">all!J555</f>
+        <v>-0.0413941299790356</v>
       </c>
       <c r="H53" s="29" t="n">
         <f aca="false">all!O555</f>
@@ -36458,7 +36935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33" t="n">
         <v>43743</v>
       </c>
@@ -36483,8 +36960,8 @@
         <v>-1.86</v>
       </c>
       <c r="G54" s="29" t="n">
-        <f aca="false">F54/C54</f>
-        <v>-0.265714285714286</v>
+        <f aca="false">all!J560</f>
+        <v>-0.0443028720626632</v>
       </c>
       <c r="H54" s="29" t="n">
         <f aca="false">all!O560</f>
@@ -36513,7 +36990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="n">
         <v>43744</v>
       </c>
@@ -36538,8 +37015,8 @@
         <v>-1.88</v>
       </c>
       <c r="G55" s="29" t="n">
-        <f aca="false">F55/C55</f>
-        <v>-0.235</v>
+        <f aca="false">all!J564</f>
+        <v>-0.0450962038481539</v>
       </c>
       <c r="H55" s="29" t="n">
         <f aca="false">all!O564</f>
@@ -36568,7 +37045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="33" t="n">
         <v>43745</v>
       </c>
@@ -36593,8 +37070,8 @@
         <v>2.86</v>
       </c>
       <c r="G56" s="29" t="n">
-        <f aca="false">F56/C56</f>
-        <v>0.26</v>
+        <f aca="false">all!J571</f>
+        <v>-0.0433609100310238</v>
       </c>
       <c r="H56" s="29" t="n">
         <f aca="false">all!O571</f>
@@ -36623,7 +37100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="n">
         <v>43746</v>
       </c>
@@ -36648,8 +37125,8 @@
         <v>2.33</v>
       </c>
       <c r="G57" s="29" t="n">
-        <f aca="false">F57/C57</f>
-        <v>0.145625</v>
+        <f aca="false">all!J581</f>
+        <v>-0.0418102564102564</v>
       </c>
       <c r="H57" s="29" t="n">
         <f aca="false">all!O581</f>
@@ -36678,7 +37155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="n">
         <v>43747</v>
       </c>
@@ -36703,8 +37180,8 @@
         <v>3.77</v>
       </c>
       <c r="G58" s="29" t="n">
-        <f aca="false">F58/C58</f>
-        <v>0.29</v>
+        <f aca="false">all!J588</f>
+        <v>-0.0396128374936322</v>
       </c>
       <c r="H58" s="29" t="n">
         <f aca="false">all!O588</f>
@@ -36733,7 +37210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33" t="n">
         <v>43748</v>
       </c>
@@ -36758,8 +37235,8 @@
         <v>4.29</v>
       </c>
       <c r="G59" s="29" t="n">
-        <f aca="false">F59/C59</f>
-        <v>0.1716</v>
+        <f aca="false">all!J598</f>
+        <v>-0.0369567404426559</v>
       </c>
       <c r="H59" s="29" t="n">
         <f aca="false">all!O598</f>
@@ -36788,7 +37265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33" t="n">
         <v>43749</v>
       </c>
@@ -36813,8 +37290,8 @@
         <v>-8.2</v>
       </c>
       <c r="G60" s="29" t="n">
-        <f aca="false">F60/C60</f>
-        <v>-0.630769230769231</v>
+        <f aca="false">all!J604</f>
+        <v>-0.0408145927036482</v>
       </c>
       <c r="H60" s="29" t="n">
         <f aca="false">all!O604</f>
@@ -36843,7 +37320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="33" t="n">
         <v>43750</v>
       </c>
@@ -36868,8 +37345,8 @@
         <v>2.8</v>
       </c>
       <c r="G61" s="29" t="n">
-        <f aca="false">F61/C61</f>
-        <v>0.56</v>
+        <f aca="false">all!J608</f>
+        <v>-0.0393170488534396</v>
       </c>
       <c r="H61" s="29" t="n">
         <f aca="false">all!O608</f>
@@ -36898,7 +37375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="33" t="n">
         <v>43751</v>
       </c>
@@ -36923,8 +37400,8 @@
         <v>11.19</v>
       </c>
       <c r="G62" s="29" t="n">
-        <f aca="false">F62/C62</f>
-        <v>0.199821428571429</v>
+        <f aca="false">all!J630</f>
+        <v>-0.0328225024248302</v>
       </c>
       <c r="H62" s="29" t="n">
         <f aca="false">all!O630</f>
@@ -36953,7 +37430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="33" t="n">
         <v>43752</v>
       </c>
@@ -36978,8 +37455,8 @@
         <v>4.27</v>
       </c>
       <c r="G63" s="29" t="n">
-        <f aca="false">F63/C63</f>
-        <v>0.355833333333333</v>
+        <f aca="false">all!J639</f>
+        <v>-0.0305737704918032</v>
       </c>
       <c r="H63" s="29" t="n">
         <f aca="false">all!O639</f>
@@ -37008,7 +37485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33" t="n">
         <v>43753</v>
       </c>
@@ -37033,8 +37510,8 @@
         <v>5.69</v>
       </c>
       <c r="G64" s="29" t="n">
-        <f aca="false">F64/C64</f>
-        <v>0.203214285714286</v>
+        <f aca="false">all!J657</f>
+        <v>-0.0274595623215984</v>
       </c>
       <c r="H64" s="29" t="n">
         <f aca="false">all!O657</f>
@@ -37063,7 +37540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="33" t="n">
         <v>43754</v>
       </c>
@@ -37088,8 +37565,8 @@
         <v>13.44</v>
       </c>
       <c r="G65" s="29" t="n">
-        <f aca="false">F65/C65</f>
-        <v>0.384</v>
+        <f aca="false">all!J669</f>
+        <v>-0.0207206364061768</v>
       </c>
       <c r="H65" s="29" t="n">
         <f aca="false">all!O669</f>
@@ -37118,7 +37595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="33" t="n">
         <v>43755</v>
       </c>
@@ -37143,8 +37620,8 @@
         <v>-5.32</v>
       </c>
       <c r="G66" s="29" t="n">
-        <f aca="false">F66/C66</f>
-        <v>-0.171612903225806</v>
+        <f aca="false">all!J683</f>
+        <v>-0.0228782287822878</v>
       </c>
       <c r="H66" s="29" t="n">
         <f aca="false">all!O683</f>
@@ -37173,7 +37650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33" t="n">
         <v>43756</v>
       </c>
@@ -37198,8 +37675,8 @@
         <v>9.44</v>
       </c>
       <c r="G67" s="29" t="n">
-        <f aca="false">F67/C67</f>
-        <v>0.286060606060606</v>
+        <f aca="false">all!J694</f>
+        <v>-0.018246251703771</v>
       </c>
       <c r="H67" s="29" t="n">
         <f aca="false">all!O694</f>
@@ -37228,7 +37705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="33" t="n">
         <v>43757</v>
       </c>
@@ -37253,8 +37730,8 @@
         <v>4.05</v>
       </c>
       <c r="G68" s="29" t="n">
-        <f aca="false">F68/C68</f>
-        <v>0.0778846153846154</v>
+        <f aca="false">all!J711</f>
+        <v>-0.0160275188637372</v>
       </c>
       <c r="H68" s="29" t="n">
         <f aca="false">all!O711</f>
@@ -37308,8 +37785,8 @@
         <v>-1.7</v>
       </c>
       <c r="G69" s="29" t="n">
-        <f aca="false">F69/C69</f>
-        <v>-0.0395348837209302</v>
+        <f aca="false">all!J722</f>
+        <v>-0.0164677700348432</v>
       </c>
       <c r="H69" s="29" t="n">
         <f aca="false">all!O722</f>
@@ -37335,6 +37812,61 @@
         <v>7.80603279119104</v>
       </c>
       <c r="O69" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="33" t="n">
+        <v>43759</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <f aca="false">COUNT(all!B724:B732)</f>
+        <v>9</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <f aca="false">SUM(all!E724:E732)</f>
+        <v>28</v>
+      </c>
+      <c r="D70" s="27" t="n">
+        <f aca="false">SUMIF(all!H724:H732,"&gt;0")</f>
+        <v>7.43</v>
+      </c>
+      <c r="E70" s="30" t="n">
+        <f aca="false">SUMIF(all!H724:H732,"&lt;0")</f>
+        <v>-1</v>
+      </c>
+      <c r="F70" s="27" t="n">
+        <f aca="false">D70+E70</f>
+        <v>6.43</v>
+      </c>
+      <c r="G70" s="29" t="n">
+        <f aca="false">all!J732</f>
+        <v>-0.0135025817555938</v>
+      </c>
+      <c r="H70" s="29" t="n">
+        <f aca="false">all!O732</f>
+        <v>0.673913043478261</v>
+      </c>
+      <c r="I70" s="29" t="n">
+        <f aca="false">all!K732</f>
+        <v>0.0171926938128019</v>
+      </c>
+      <c r="K70" s="30" t="n">
+        <f aca="false">AVERAGE($C41:$C70)</f>
+        <v>19.4333333333333</v>
+      </c>
+      <c r="L70" s="30" t="n">
+        <v>200</v>
+      </c>
+      <c r="M70" s="29" t="n">
+        <f aca="false">K70/L69</f>
+        <v>0.100394344853714</v>
+      </c>
+      <c r="N70" s="29" t="n">
+        <f aca="false">M70/I70</f>
+        <v>5.83936094871644</v>
+      </c>
+      <c r="O70" s="3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="230">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -1158,7 +1158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="83" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="80" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1171,7 +1171,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="83" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="80" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1233,9 +1233,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>daily!$A$3:$A$72</c:f>
+              <c:f>daily!$A$3:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>24/07/19</c:v>
                 </c:pt>
@@ -1444,6 +1444,9 @@
                   <c:v>22/10/19</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>23/10/19</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1451,10 +1454,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$L$3:$L$72</c:f>
+              <c:f>daily!$L$3:$L$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>230.3</c:v>
                 </c:pt>
@@ -1663,6 +1666,9 @@
                   <c:v>197.82</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>206.22</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1678,11 +1684,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="28296312"/>
-        <c:axId val="49394171"/>
+        <c:axId val="60145527"/>
+        <c:axId val="30849076"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28296312"/>
+        <c:axId val="60145527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1710,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="83" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="80" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1718,14 +1724,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49394171"/>
+        <c:crossAx val="30849076"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49394171"/>
+        <c:axId val="30849076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1773,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28296312"/>
+        <c:crossAx val="60145527"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1801,14 +1807,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:colOff>111600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1816,8 +1822,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203040" y="11861640"/>
-        <a:ext cx="7960680" cy="2741040"/>
+        <a:off x="203040" y="12024360"/>
+        <a:ext cx="7960320" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1838,14 +1844,14 @@
   <dimension ref="A1:Q65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B742" activeCellId="0" sqref="B742"/>
+      <selection pane="bottomLeft" activeCell="K751" activeCellId="0" sqref="K751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15"/>
@@ -34641,37 +34647,404 @@
       <c r="F744" s="5" t="n">
         <v>1.18</v>
       </c>
+      <c r="G744" s="6" t="n">
+        <v>2.36</v>
+      </c>
       <c r="H744" s="7" t="n">
         <f aca="false">G744-E744</f>
-        <v>-2</v>
+        <v>0.36</v>
       </c>
       <c r="I744" s="7" t="n">
         <f aca="false">SUM($H$2:H733)</f>
         <v>-31.3799999999999</v>
       </c>
       <c r="J744" s="8" t="n">
-        <f aca="false">SUM(H$3:H733)/SUM(E$3:E733)</f>
-        <v>-0.0135025817555938</v>
+        <f aca="false">SUM(H$3:H744)/SUM(E$3:E744)</f>
+        <v>-0.0132259431962696</v>
       </c>
       <c r="K744" s="9" t="n">
         <f aca="false">O744-(1-O744)/N744</f>
-        <v>0.0171926938128019</v>
+        <v>0.0170313598213913</v>
       </c>
       <c r="L744" s="10" t="n">
-        <f aca="false">AVERAGEIF($H$3:$H733,"&gt;0")</f>
-        <v>1.99633952254642</v>
+        <f aca="false">AVERAGEIF($H$3:$H744,"&gt;0")</f>
+        <v>1.99425587467363</v>
       </c>
       <c r="M744" s="10" t="n">
-        <f aca="false">AVERAGEIF($H$3:$H733,"&lt;0")</f>
-        <v>-4.02051282051282</v>
+        <f aca="false">AVERAGEIF($H$3:$H744,"&lt;0")</f>
+        <v>-3.99497487437186</v>
       </c>
       <c r="N744" s="11" t="n">
         <f aca="false">L744/-M744</f>
-        <v>0.496538529204785</v>
+        <v>0.499191093157298</v>
       </c>
       <c r="O744" s="11" t="n">
-        <f aca="false">COUNTIF($G$3:$G733,"&gt;0")/COUNTIF($B$3:$B733,"&gt;0")</f>
-        <v>0.673913043478261</v>
+        <f aca="false">COUNTIF($G$3:$G744,"&gt;0")/COUNTIF($B$3:$B744,"&gt;0")</f>
+        <v>0.672697368421053</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E745" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F745" s="5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G745" s="6" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="H745" s="7" t="n">
+        <f aca="false">G745-E745</f>
+        <v>3.3</v>
+      </c>
+      <c r="I745" s="7" t="n">
+        <f aca="false">SUM($H$2:H734)</f>
+        <v>-28.7799999999999</v>
+      </c>
+      <c r="J745" s="8" t="n">
+        <f aca="false">SUM(H$3:H745)/SUM(E$3:E745)</f>
+        <v>-0.0117970401691332</v>
+      </c>
+      <c r="K745" s="9" t="n">
+        <f aca="false">O745-(1-O745)/N745</f>
+        <v>0.0197596603675919</v>
+      </c>
+      <c r="L745" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H745,"&gt;0")</f>
+        <v>1.99765625</v>
+      </c>
+      <c r="M745" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H745,"&lt;0")</f>
+        <v>-3.99497487437186</v>
+      </c>
+      <c r="N745" s="11" t="n">
+        <f aca="false">L745/-M745</f>
+        <v>0.500042256289308</v>
+      </c>
+      <c r="O745" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G745,"&gt;0")/COUNTIF($B$3:$B745,"&gt;0")</f>
+        <v>0.673234811165846</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E746" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F746" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G746" s="6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H746" s="7" t="n">
+        <f aca="false">G746-E746</f>
+        <v>0.42</v>
+      </c>
+      <c r="I746" s="7" t="n">
+        <f aca="false">SUM($H$2:H735)</f>
+        <v>-29.7799999999999</v>
+      </c>
+      <c r="J746" s="8" t="n">
+        <f aca="false">SUM(H$3:H746)/SUM(E$3:E746)</f>
+        <v>-0.011614539306847</v>
+      </c>
+      <c r="K746" s="9" t="n">
+        <f aca="false">O746-(1-O746)/N746</f>
+        <v>0.0200255795117844</v>
+      </c>
+      <c r="L746" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H746,"&gt;0")</f>
+        <v>1.99355844155844</v>
+      </c>
+      <c r="M746" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H746,"&lt;0")</f>
+        <v>-3.99497487437186</v>
+      </c>
+      <c r="N746" s="11" t="n">
+        <f aca="false">L746/-M746</f>
+        <v>0.499016515559911</v>
+      </c>
+      <c r="O746" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G746,"&gt;0")/COUNTIF($B$3:$B746,"&gt;0")</f>
+        <v>0.673770491803279</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E747" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F747" s="5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G747" s="6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H747" s="7" t="n">
+        <f aca="false">G747-E747</f>
+        <v>0.36</v>
+      </c>
+      <c r="I747" s="7" t="n">
+        <f aca="false">SUM($H$2:H736)</f>
+        <v>-37.7799999999999</v>
+      </c>
+      <c r="J747" s="8" t="n">
+        <f aca="false">SUM(H$3:H747)/SUM(E$3:E747)</f>
+        <v>-0.0114527027027027</v>
+      </c>
+      <c r="K747" s="9" t="n">
+        <f aca="false">O747-(1-O747)/N747</f>
+        <v>0.0202409899869271</v>
+      </c>
+      <c r="L747" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H747,"&gt;0")</f>
+        <v>1.98932642487046</v>
+      </c>
+      <c r="M747" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H747,"&lt;0")</f>
+        <v>-3.99497487437186</v>
+      </c>
+      <c r="N747" s="11" t="n">
+        <f aca="false">L747/-M747</f>
+        <v>0.49795718056506</v>
+      </c>
+      <c r="O747" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G747,"&gt;0")/COUNTIF($B$3:$B747,"&gt;0")</f>
+        <v>0.67430441898527</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E748" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F748" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G748" s="6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H748" s="7" t="n">
+        <f aca="false">G748-E748</f>
+        <v>2.6</v>
+      </c>
+      <c r="I748" s="7" t="n">
+        <f aca="false">SUM($H$2:H737)</f>
+        <v>-38.7799999999999</v>
+      </c>
+      <c r="J748" s="8" t="n">
+        <f aca="false">SUM(H$3:H748)/SUM(E$3:E748)</f>
+        <v>-0.0103329119258323</v>
+      </c>
+      <c r="K748" s="9" t="n">
+        <f aca="false">O748-(1-O748)/N748</f>
+        <v>0.0223594594796348</v>
+      </c>
+      <c r="L748" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H748,"&gt;0")</f>
+        <v>1.99090439276486</v>
+      </c>
+      <c r="M748" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H748,"&lt;0")</f>
+        <v>-3.99497487437186</v>
+      </c>
+      <c r="N748" s="11" t="n">
+        <f aca="false">L748/-M748</f>
+        <v>0.498352168754977</v>
+      </c>
+      <c r="O748" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G748,"&gt;0")/COUNTIF($B$3:$B748,"&gt;0")</f>
+        <v>0.67483660130719</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B749" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E749" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F749" s="5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G749" s="6" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H749" s="7" t="n">
+        <f aca="false">G749-E749</f>
+        <v>0.04</v>
+      </c>
+      <c r="I749" s="7" t="n">
+        <f aca="false">SUM($H$2:H738)</f>
+        <v>-32.2799999999999</v>
+      </c>
+      <c r="J749" s="8" t="n">
+        <f aca="false">SUM(H$3:H749)/SUM(E$3:E749)</f>
+        <v>-0.0102986958350862</v>
+      </c>
+      <c r="K749" s="9" t="n">
+        <f aca="false">O749-(1-O749)/N749</f>
+        <v>0.0223049724941581</v>
+      </c>
+      <c r="L749" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H749,"&gt;0")</f>
+        <v>1.98587628865979</v>
+      </c>
+      <c r="M749" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H749,"&lt;0")</f>
+        <v>-3.99497487437186</v>
+      </c>
+      <c r="N749" s="11" t="n">
+        <f aca="false">L749/-M749</f>
+        <v>0.497093561563898</v>
+      </c>
+      <c r="O749" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G749,"&gt;0")/COUNTIF($B$3:$B749,"&gt;0")</f>
+        <v>0.67536704730832</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E750" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F750" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G750" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H750" s="7" t="n">
+        <f aca="false">G750-E750</f>
+        <v>-3</v>
+      </c>
+      <c r="I750" s="7" t="n">
+        <f aca="false">SUM($H$2:H739)</f>
+        <v>-33.2799999999999</v>
+      </c>
+      <c r="J750" s="8" t="n">
+        <f aca="false">SUM(H$3:H750)/SUM(E$3:E750)</f>
+        <v>-0.0115462184873949</v>
+      </c>
+      <c r="K750" s="9" t="n">
+        <f aca="false">O750-(1-O750)/N750</f>
+        <v>0.0198082736460721</v>
+      </c>
+      <c r="L750" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H750,"&gt;0")</f>
+        <v>1.98587628865979</v>
+      </c>
+      <c r="M750" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H750,"&lt;0")</f>
+        <v>-3.99</v>
+      </c>
+      <c r="N750" s="11" t="n">
+        <f aca="false">L750/-M750</f>
+        <v>0.497713355553833</v>
+      </c>
+      <c r="O750" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G750,"&gt;0")/COUNTIF($B$3:$B750,"&gt;0")</f>
+        <v>0.674267100977199</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B751" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E751" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F751" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G751" s="6" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="H751" s="7" t="n">
+        <f aca="false">G751-E751</f>
+        <v>2.32</v>
+      </c>
+      <c r="I751" s="7" t="n">
+        <f aca="false">SUM($H$2:H740)</f>
+        <v>-32.7999999999999</v>
+      </c>
+      <c r="J751" s="8" t="n">
+        <f aca="false">SUM(H$3:H751)/SUM(E$3:E751)</f>
+        <v>-0.0105536912751678</v>
+      </c>
+      <c r="K751" s="9" t="n">
+        <f aca="false">O751-(1-O751)/N751</f>
+        <v>0.0216845649642766</v>
+      </c>
+      <c r="L751" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H751,"&gt;0")</f>
+        <v>1.986735218509</v>
+      </c>
+      <c r="M751" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H751,"&lt;0")</f>
+        <v>-3.99</v>
+      </c>
+      <c r="N751" s="11" t="n">
+        <f aca="false">L751/-M751</f>
+        <v>0.497928626192731</v>
+      </c>
+      <c r="O751" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G751,"&gt;0")/COUNTIF($B$3:$B751,"&gt;0")</f>
+        <v>0.67479674796748</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -34691,12 +35064,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38553,9 +38926,64 @@
       </c>
       <c r="N71" s="29" t="n">
         <f aca="false">M71/I71</f>
-        <v>6.01543984746315</v>
+        <v>6.01543984746317</v>
       </c>
       <c r="O71" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="33" t="n">
+        <v>43761</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <f aca="false">COUNT(all!B744:B751)</f>
+        <v>8</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <f aca="false">SUM(all!E744:E751)</f>
+        <v>27</v>
+      </c>
+      <c r="D72" s="27" t="n">
+        <f aca="false">SUMIF(all!H744:H751,"&gt;0")</f>
+        <v>9.4</v>
+      </c>
+      <c r="E72" s="30" t="n">
+        <f aca="false">SUMIF(all!H744:H751,"&lt;0")</f>
+        <v>-3</v>
+      </c>
+      <c r="F72" s="27" t="n">
+        <f aca="false">D72+E72</f>
+        <v>6.4</v>
+      </c>
+      <c r="G72" s="29" t="n">
+        <f aca="false">all!J751</f>
+        <v>-0.0105536912751678</v>
+      </c>
+      <c r="H72" s="29" t="n">
+        <f aca="false">all!O751</f>
+        <v>0.67479674796748</v>
+      </c>
+      <c r="I72" s="29" t="n">
+        <f aca="false">all!K751</f>
+        <v>0.0216845649642766</v>
+      </c>
+      <c r="K72" s="30" t="n">
+        <f aca="false">AVERAGE($C43:$C72)</f>
+        <v>21.0333333333333</v>
+      </c>
+      <c r="L72" s="30" t="n">
+        <v>206.22</v>
+      </c>
+      <c r="M72" s="29" t="n">
+        <f aca="false">K72/L71</f>
+        <v>0.106325615879756</v>
+      </c>
+      <c r="N72" s="29" t="n">
+        <f aca="false">M72/I72</f>
+        <v>4.90328563450168</v>
+      </c>
+      <c r="O72" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38578,7 +39006,7 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -38655,51 +39083,51 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="34" t="n">
         <f aca="false">SUM(C3:C25)</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">SUM(D3:D25)</f>
-        <v>3.61083333333333</v>
+        <v>4.14416666666666</v>
       </c>
       <c r="E2" s="34" t="n">
         <f aca="false">SUM(E3:E25)</f>
-        <v>-1.32333333333334</v>
+        <v>-0.790000000000007</v>
       </c>
       <c r="F2" s="34" t="n">
         <f aca="false">SUM(F3:F25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="G2" s="34" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="H2" s="34" t="n">
         <f aca="false">SUM(H3:H25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="I2" s="34" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="J2" s="34" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="K2" s="34" t="n">
         <f aca="false">SUM(K3:K25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="L2" s="34" t="n">
         <f aca="false">SUM(L3:L25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="M2" s="34" t="n">
         <f aca="false">SUM(M3:M25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="N2" s="34" t="n">
         <f aca="false">SUM(N3:N25)</f>
-        <v>-2.29666666666667</v>
+        <v>-1.76333333333334</v>
       </c>
       <c r="O2" s="35" t="n">
         <f aca="false">SUM(O3:O25)</f>
@@ -38723,56 +39151,56 @@
         <v>226</v>
       </c>
       <c r="B4" s="26" t="n">
-        <f aca="false">SUM(daily!F50:F72)</f>
-        <v>57.06</v>
+        <f aca="false">SUM(daily!F50:F73)</f>
+        <v>63.46</v>
       </c>
       <c r="C4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="D4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="E4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="F4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="G4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="H4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="I4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="J4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="K4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="L4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="M4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="N4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.755</v>
+        <v>5.28833333333333</v>
       </c>
       <c r="P4" s="41"/>
     </row>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="230">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -1158,7 +1158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="80" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="75" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1171,7 +1171,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="80" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="75" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1233,9 +1233,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>daily!$A$3:$A$73</c:f>
+              <c:f>daily!$A$3:$A$74</c:f>
               <c:strCache>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>24/07/19</c:v>
                 </c:pt>
@@ -1447,6 +1447,9 @@
                   <c:v>23/10/19</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>24/10/19</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1454,10 +1457,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$L$3:$L$73</c:f>
+              <c:f>daily!$L$3:$L$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>230.3</c:v>
                 </c:pt>
@@ -1669,6 +1672,9 @@
                   <c:v>206.22</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>214.82</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1684,11 +1690,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="60145527"/>
-        <c:axId val="30849076"/>
+        <c:axId val="13942250"/>
+        <c:axId val="650519"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60145527"/>
+        <c:axId val="13942250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,7 +1716,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="80" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="75" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1724,14 +1730,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30849076"/>
+        <c:crossAx val="650519"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30849076"/>
+        <c:axId val="650519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60145527"/>
+        <c:crossAx val="13942250"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1807,14 +1813,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:colOff>110880</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1822,8 +1828,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203040" y="12024360"/>
-        <a:ext cx="7960320" cy="2740680"/>
+        <a:off x="203040" y="12187080"/>
+        <a:ext cx="7959600" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1844,9 +1850,9 @@
   <dimension ref="A1:Q65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K751" activeCellId="0" sqref="K751"/>
+      <selection pane="bottomLeft" activeCell="M759" activeCellId="0" sqref="M759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35047,6 +35053,370 @@
         <v>0.67479674796748</v>
       </c>
     </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B753" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E753" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F753" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G753" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H753" s="7" t="n">
+        <f aca="false">G753-E753</f>
+        <v>0.8</v>
+      </c>
+      <c r="I753" s="7" t="n">
+        <f aca="false">SUM($H$2:H742)</f>
+        <v>-31.5599999999999</v>
+      </c>
+      <c r="J753" s="8" t="n">
+        <f aca="false">SUM(H$3:H753)/SUM(E$3:E753)</f>
+        <v>-0.0102138364779874</v>
+      </c>
+      <c r="K753" s="9" t="n">
+        <f aca="false">O753-(1-O753)/N753</f>
+        <v>0.0222725157578572</v>
+      </c>
+      <c r="L753" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H753,"&gt;0")</f>
+        <v>1.98369230769231</v>
+      </c>
+      <c r="M753" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H753,"&lt;0")</f>
+        <v>-3.99</v>
+      </c>
+      <c r="N753" s="11" t="n">
+        <f aca="false">L753/-M753</f>
+        <v>0.497165991902834</v>
+      </c>
+      <c r="O753" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G753,"&gt;0")/COUNTIF($B$3:$B753,"&gt;0")</f>
+        <v>0.675324675324675</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B754" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E754" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F754" s="5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G754" s="6" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="H754" s="7" t="n">
+        <f aca="false">G754-E754</f>
+        <v>2.38</v>
+      </c>
+      <c r="I754" s="7" t="n">
+        <f aca="false">SUM($H$2:H743)</f>
+        <v>-31.5599999999999</v>
+      </c>
+      <c r="J754" s="8" t="n">
+        <f aca="false">SUM(H$3:H754)/SUM(E$3:E754)</f>
+        <v>-0.00918896321070232</v>
+      </c>
+      <c r="K754" s="9" t="n">
+        <f aca="false">O754-(1-O754)/N754</f>
+        <v>0.0241901316099176</v>
+      </c>
+      <c r="L754" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H754,"&gt;0")</f>
+        <v>1.98470588235294</v>
+      </c>
+      <c r="M754" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H754,"&lt;0")</f>
+        <v>-3.99</v>
+      </c>
+      <c r="N754" s="11" t="n">
+        <f aca="false">L754/-M754</f>
+        <v>0.497420020639834</v>
+      </c>
+      <c r="O754" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G754,"&gt;0")/COUNTIF($B$3:$B754,"&gt;0")</f>
+        <v>0.675850891410049</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B755" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E755" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F755" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G755" s="6" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="H755" s="7" t="n">
+        <f aca="false">G755-E755</f>
+        <v>9.1</v>
+      </c>
+      <c r="I755" s="7" t="n">
+        <f aca="false">SUM($H$2:H744)</f>
+        <v>-31.1999999999999</v>
+      </c>
+      <c r="J755" s="8" t="n">
+        <f aca="false">SUM(H$3:H755)/SUM(E$3:E755)</f>
+        <v>-0.00535550935550933</v>
+      </c>
+      <c r="K755" s="9" t="n">
+        <f aca="false">O755-(1-O755)/N755</f>
+        <v>0.0316653509318627</v>
+      </c>
+      <c r="L755" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H755,"&gt;0")</f>
+        <v>2.00285714285714</v>
+      </c>
+      <c r="M755" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H755,"&lt;0")</f>
+        <v>-3.99</v>
+      </c>
+      <c r="N755" s="11" t="n">
+        <f aca="false">L755/-M755</f>
+        <v>0.501969208736126</v>
+      </c>
+      <c r="O755" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G755,"&gt;0")/COUNTIF($B$3:$B755,"&gt;0")</f>
+        <v>0.676375404530744</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B756" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E756" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F756" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G756" s="6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H756" s="7" t="n">
+        <f aca="false">G756-E756</f>
+        <v>1.2</v>
+      </c>
+      <c r="I756" s="7" t="n">
+        <f aca="false">SUM($H$2:H745)</f>
+        <v>-27.8999999999999</v>
+      </c>
+      <c r="J756" s="8" t="n">
+        <f aca="false">SUM(H$3:H756)/SUM(E$3:E756)</f>
+        <v>-0.00484647302904562</v>
+      </c>
+      <c r="K756" s="9" t="n">
+        <f aca="false">O756-(1-O756)/N756</f>
+        <v>0.032572498611556</v>
+      </c>
+      <c r="L756" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H756,"&gt;0")</f>
+        <v>2.00081424936387</v>
+      </c>
+      <c r="M756" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H756,"&lt;0")</f>
+        <v>-3.99</v>
+      </c>
+      <c r="N756" s="11" t="n">
+        <f aca="false">L756/-M756</f>
+        <v>0.501457205354352</v>
+      </c>
+      <c r="O756" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G756,"&gt;0")/COUNTIF($B$3:$B756,"&gt;0")</f>
+        <v>0.676898222940226</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B757" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E757" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F757" s="5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G757" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H757" s="7" t="n">
+        <f aca="false">G757-E757</f>
+        <v>-5</v>
+      </c>
+      <c r="I757" s="7" t="n">
+        <f aca="false">SUM($H$2:H746)</f>
+        <v>-27.4799999999999</v>
+      </c>
+      <c r="J757" s="8" t="n">
+        <f aca="false">SUM(H$3:H757)/SUM(E$3:E757)</f>
+        <v>-0.00690683229813662</v>
+      </c>
+      <c r="K757" s="9" t="n">
+        <f aca="false">O757-(1-O757)/N757</f>
+        <v>0.0284893452226619</v>
+      </c>
+      <c r="L757" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H757,"&gt;0")</f>
+        <v>2.00081424936387</v>
+      </c>
+      <c r="M757" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H757,"&lt;0")</f>
+        <v>-3.99502487562189</v>
+      </c>
+      <c r="N757" s="11" t="n">
+        <f aca="false">L757/-M757</f>
+        <v>0.500826480849486</v>
+      </c>
+      <c r="O757" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G757,"&gt;0")/COUNTIF($B$3:$B757,"&gt;0")</f>
+        <v>0.675806451612903</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B758" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E758" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F758" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G758" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H758" s="7" t="n">
+        <f aca="false">G758-E758</f>
+        <v>-1</v>
+      </c>
+      <c r="I758" s="7" t="n">
+        <f aca="false">SUM($H$2:H747)</f>
+        <v>-27.1199999999999</v>
+      </c>
+      <c r="J758" s="8" t="n">
+        <f aca="false">SUM(H$3:H758)/SUM(E$3:E758)</f>
+        <v>-0.00731788079470196</v>
+      </c>
+      <c r="K758" s="9" t="n">
+        <f aca="false">O758-(1-O758)/N758</f>
+        <v>0.0276386433454909</v>
+      </c>
+      <c r="L758" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H758,"&gt;0")</f>
+        <v>2.00081424936387</v>
+      </c>
+      <c r="M758" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H758,"&lt;0")</f>
+        <v>-3.98019801980198</v>
+      </c>
+      <c r="N758" s="11" t="n">
+        <f aca="false">L758/-M758</f>
+        <v>0.502692137277986</v>
+      </c>
+      <c r="O758" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G758,"&gt;0")/COUNTIF($B$3:$B758,"&gt;0")</f>
+        <v>0.674718196457327</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B759" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E759" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F759" s="5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G759" s="6" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="H759" s="7" t="n">
+        <f aca="false">G759-E759</f>
+        <v>1.12</v>
+      </c>
+      <c r="I759" s="7" t="n">
+        <f aca="false">SUM($H$2:H748)</f>
+        <v>-24.5199999999999</v>
+      </c>
+      <c r="J759" s="8" t="n">
+        <f aca="false">SUM(H$3:H759)/SUM(E$3:E759)</f>
+        <v>-0.00683450268262482</v>
+      </c>
+      <c r="K759" s="9" t="n">
+        <f aca="false">O759-(1-O759)/N759</f>
+        <v>0.0284792790214728</v>
+      </c>
+      <c r="L759" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H759,"&gt;0")</f>
+        <v>1.99857868020304</v>
+      </c>
+      <c r="M759" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H759,"&lt;0")</f>
+        <v>-3.98019801980198</v>
+      </c>
+      <c r="N759" s="11" t="n">
+        <f aca="false">L759/-M759</f>
+        <v>0.502130464429123</v>
+      </c>
+      <c r="O759" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G759,"&gt;0")/COUNTIF($B$3:$B759,"&gt;0")</f>
+        <v>0.67524115755627</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -35064,12 +35434,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="K73" activeCellId="0" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35174,7 +35544,7 @@
         <v>0.420571010248902</v>
       </c>
       <c r="K3" s="30" t="n">
-        <f aca="false">AVERAGE(C3)</f>
+        <f aca="false">C3</f>
         <v>135</v>
       </c>
       <c r="L3" s="30" t="n">
@@ -35229,7 +35599,7 @@
         <v>0.412230400547758</v>
       </c>
       <c r="K4" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C4)</f>
+        <f aca="false">MEDIAN($C$3:$C4)</f>
         <v>157.5</v>
       </c>
       <c r="L4" s="30" t="n">
@@ -35284,19 +35654,19 @@
         <v>0.272136705974135</v>
       </c>
       <c r="K5" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C5)</f>
-        <v>148.333333333333</v>
+        <f aca="false">MEDIAN($C$3:$C5)</f>
+        <v>135</v>
       </c>
       <c r="L5" s="30" t="n">
         <v>257.15</v>
       </c>
       <c r="M5" s="29" t="n">
         <f aca="false">K5/L4</f>
-        <v>0.55337934464963</v>
+        <v>0.503637381085618</v>
       </c>
       <c r="N5" s="29" t="n">
         <f aca="false">M5/I5</f>
-        <v>2.03346087646929</v>
+        <v>1.85067787633722</v>
       </c>
       <c r="O5" s="3" t="n">
         <v>1</v>
@@ -35339,19 +35709,19 @@
         <v>-0.00216058805570563</v>
       </c>
       <c r="K6" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C6)</f>
-        <v>160</v>
+        <f aca="false">MEDIAN($C$3:$C6)</f>
+        <v>157.5</v>
       </c>
       <c r="L6" s="30" t="n">
         <v>154.35</v>
       </c>
       <c r="M6" s="29" t="n">
         <f aca="false">K6/L5</f>
-        <v>0.622204938751701</v>
+        <v>0.612482986583706</v>
       </c>
       <c r="N6" s="29" t="n">
         <f aca="false">M6/I6</f>
-        <v>-287.979440184629</v>
+        <v>-283.479761431743</v>
       </c>
       <c r="O6" s="3" t="n">
         <v>1</v>
@@ -35394,19 +35764,19 @@
         <v>0.0179830873638659</v>
       </c>
       <c r="K7" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C7)</f>
-        <v>153</v>
+        <f aca="false">MEDIAN($C$3:$C7)</f>
+        <v>135</v>
       </c>
       <c r="L7" s="30" t="n">
         <v>148.72</v>
       </c>
       <c r="M7" s="29" t="n">
         <f aca="false">K7/L6</f>
-        <v>0.991253644314869</v>
+        <v>0.874635568513119</v>
       </c>
       <c r="N7" s="29" t="n">
         <f aca="false">M7/I7</f>
-        <v>55.121438508197</v>
+        <v>48.6365633895856</v>
       </c>
       <c r="O7" s="3" t="n">
         <v>1</v>
@@ -35449,19 +35819,19 @@
         <v>0.00966227387837415</v>
       </c>
       <c r="K8" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C8)</f>
-        <v>139.666666666667</v>
+        <f aca="false">MEDIAN($C$3:$C8)</f>
+        <v>132.5</v>
       </c>
       <c r="L8" s="30" t="n">
         <v>143.82</v>
       </c>
       <c r="M8" s="29" t="n">
         <f aca="false">K8/L7</f>
-        <v>0.939124977586516</v>
+        <v>0.890935987089833</v>
       </c>
       <c r="N8" s="29" t="n">
         <f aca="false">M8/I8</f>
-        <v>97.1950277344592</v>
+        <v>92.2076933757698</v>
       </c>
       <c r="O8" s="3" t="n">
         <v>1</v>
@@ -35504,19 +35874,19 @@
         <v>0.0203440808604604</v>
       </c>
       <c r="K9" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C9)</f>
-        <v>123.428571428571</v>
+        <f aca="false">MEDIAN($C$3:$C9)</f>
+        <v>130</v>
       </c>
       <c r="L9" s="30" t="n">
         <v>156.07</v>
       </c>
       <c r="M9" s="29" t="n">
         <f aca="false">K9/L8</f>
-        <v>0.858215626676202</v>
+        <v>0.903907662355723</v>
       </c>
       <c r="N9" s="29" t="n">
         <f aca="false">M9/I9</f>
-        <v>42.1850282921448</v>
+        <v>44.4309904465876</v>
       </c>
       <c r="O9" s="3" t="n">
         <v>1</v>
@@ -35559,19 +35929,19 @@
         <v>-0.00211681328116986</v>
       </c>
       <c r="K10" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C10)</f>
-        <v>111.125</v>
+        <f aca="false">MEDIAN($C$3:$C10)</f>
+        <v>127.5</v>
       </c>
       <c r="L10" s="30" t="n">
         <v>145.91</v>
       </c>
       <c r="M10" s="29" t="n">
         <f aca="false">K10/L9</f>
-        <v>0.712020247324918</v>
+        <v>0.816941116165823</v>
       </c>
       <c r="N10" s="29" t="n">
         <f aca="false">M10/I10</f>
-        <v>-336.364219583609</v>
+        <v>-385.929700759596</v>
       </c>
       <c r="O10" s="3" t="n">
         <v>1</v>
@@ -35614,19 +35984,19 @@
         <v>-0.0146690051508749</v>
       </c>
       <c r="K11" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C11)</f>
-        <v>100</v>
+        <f aca="false">MEDIAN($C$3:$C11)</f>
+        <v>125</v>
       </c>
       <c r="L11" s="30" t="n">
         <v>141.19</v>
       </c>
       <c r="M11" s="29" t="n">
         <f aca="false">K11/L10</f>
-        <v>0.685353985333425</v>
+        <v>0.856692481666781</v>
       </c>
       <c r="N11" s="29" t="n">
         <f aca="false">M11/I11</f>
-        <v>-46.7212314866867</v>
+        <v>-58.4015393583583</v>
       </c>
       <c r="O11" s="3" t="n">
         <v>1</v>
@@ -35669,19 +36039,19 @@
         <v>-0.0273766886271171</v>
       </c>
       <c r="K12" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C12)</f>
-        <v>91.6</v>
+        <f aca="false">MEDIAN($C$3:$C12)</f>
+        <v>99</v>
       </c>
       <c r="L12" s="30" t="n">
         <v>134.73</v>
       </c>
       <c r="M12" s="29" t="n">
         <f aca="false">K12/L11</f>
-        <v>0.648771159430555</v>
+        <v>0.701182803314682</v>
       </c>
       <c r="N12" s="29" t="n">
         <f aca="false">M12/I12</f>
-        <v>-23.697941276504</v>
+        <v>-25.6124037813744</v>
       </c>
       <c r="O12" s="3" t="n">
         <v>1</v>
@@ -35724,19 +36094,19 @@
         <v>-0.00818263190830371</v>
       </c>
       <c r="K13" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C13)</f>
-        <v>86.9090909090909</v>
+        <f aca="false">MEDIAN($C$3:$C13)</f>
+        <v>73</v>
       </c>
       <c r="L13" s="30" t="n">
         <v>145.2</v>
       </c>
       <c r="M13" s="29" t="n">
         <f aca="false">K13/L12</f>
-        <v>0.64506116610325</v>
+        <v>0.54182438951978</v>
       </c>
       <c r="N13" s="29" t="n">
         <f aca="false">M13/I13</f>
-        <v>-78.8329688212719</v>
+        <v>-66.21639535929</v>
       </c>
       <c r="O13" s="3" t="n">
         <v>1</v>
@@ -35779,19 +36149,19 @@
         <v>-0.0246473073327129</v>
       </c>
       <c r="K14" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C14)</f>
-        <v>83.5</v>
+        <f aca="false">MEDIAN($C$3:$C14)</f>
+        <v>59.5</v>
       </c>
       <c r="L14" s="30" t="n">
         <v>132.07</v>
       </c>
       <c r="M14" s="29" t="n">
         <f aca="false">K14/L13</f>
-        <v>0.575068870523416</v>
+        <v>0.409779614325069</v>
       </c>
       <c r="N14" s="29" t="n">
         <f aca="false">M14/I14</f>
-        <v>-23.3319146290743</v>
+        <v>-16.6257355740111</v>
       </c>
       <c r="O14" s="3" t="n">
         <v>1</v>
@@ -35834,19 +36204,19 @@
         <v>-0.0275387095739041</v>
       </c>
       <c r="K15" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C15)</f>
-        <v>78.5384615384615</v>
+        <f aca="false">MEDIAN($C$3:$C15)</f>
+        <v>46</v>
       </c>
       <c r="L15" s="30" t="n">
         <v>131.21</v>
       </c>
       <c r="M15" s="29" t="n">
         <f aca="false">K15/L14</f>
-        <v>0.594672988100716</v>
+        <v>0.348300143863103</v>
       </c>
       <c r="N15" s="29" t="n">
         <f aca="false">M15/I15</f>
-        <v>-21.5940760225102</v>
+        <v>-12.6476566713625</v>
       </c>
       <c r="O15" s="3" t="n">
         <v>1</v>
@@ -35889,19 +36259,19 @@
         <v>-0.0146027912206769</v>
       </c>
       <c r="K16" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C16)</f>
-        <v>73.7142857142857</v>
+        <f aca="false">MEDIAN($C$3:$C16)</f>
+        <v>43</v>
       </c>
       <c r="L16" s="30" t="n">
         <v>232.32</v>
       </c>
       <c r="M16" s="29" t="n">
         <f aca="false">K16/L15</f>
-        <v>0.561803869478589</v>
+        <v>0.32771892386251</v>
       </c>
       <c r="N16" s="29" t="n">
         <f aca="false">M16/I16</f>
-        <v>-38.4723619607121</v>
+        <v>-22.4422111437487</v>
       </c>
       <c r="O16" s="3" t="n">
         <v>1</v>
@@ -35944,19 +36314,19 @@
         <v>0.0414785938325832</v>
       </c>
       <c r="K17" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C17)</f>
-        <v>74.8</v>
+        <f aca="false">MEDIAN($C$3:$C17)</f>
+        <v>46</v>
       </c>
       <c r="L17" s="30" t="n">
         <v>173.54</v>
       </c>
       <c r="M17" s="29" t="n">
         <f aca="false">K17/L16</f>
-        <v>0.321969696969697</v>
+        <v>0.198002754820937</v>
       </c>
       <c r="N17" s="29" t="n">
         <f aca="false">M17/I17</f>
-        <v>7.76230983791875</v>
+        <v>4.77361300192865</v>
       </c>
       <c r="O17" s="3" t="n">
         <v>1</v>
@@ -35999,19 +36369,19 @@
         <v>0.0535420586805878</v>
       </c>
       <c r="K18" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C18)</f>
-        <v>70.875</v>
+        <f aca="false">MEDIAN($C$3:$C18)</f>
+        <v>43</v>
       </c>
       <c r="L18" s="30" t="n">
         <v>255.84</v>
       </c>
       <c r="M18" s="29" t="n">
         <f aca="false">K18/L17</f>
-        <v>0.408407283623372</v>
+        <v>0.247781491298836</v>
       </c>
       <c r="N18" s="29" t="n">
         <f aca="false">M18/I18</f>
-        <v>7.6277844686507</v>
+        <v>4.62779163530131</v>
       </c>
       <c r="O18" s="3" t="n">
         <v>1</v>
@@ -36054,19 +36424,19 @@
         <v>0.0327854384997241</v>
       </c>
       <c r="K19" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C19)</f>
-        <v>68</v>
+        <f aca="false">MEDIAN($C$3:$C19)</f>
+        <v>40</v>
       </c>
       <c r="L19" s="30" t="n">
         <v>244.2</v>
       </c>
       <c r="M19" s="29" t="n">
         <f aca="false">K19/L18</f>
-        <v>0.265791119449656</v>
+        <v>0.156347717323327</v>
       </c>
       <c r="N19" s="29" t="n">
         <f aca="false">M19/I19</f>
-        <v>8.1069868701586</v>
+        <v>4.76881580597566</v>
       </c>
       <c r="O19" s="3" t="n">
         <v>1</v>
@@ -36109,19 +36479,19 @@
         <v>0.0156284276493043</v>
       </c>
       <c r="K20" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C20)</f>
-        <v>65.7777777777778</v>
+        <f aca="false">MEDIAN($C$3:$C20)</f>
+        <v>34</v>
       </c>
       <c r="L20" s="30" t="n">
         <v>230.32</v>
       </c>
       <c r="M20" s="29" t="n">
         <f aca="false">K20/L19</f>
-        <v>0.269360269360269</v>
+        <v>0.139230139230139</v>
       </c>
       <c r="N20" s="29" t="n">
         <f aca="false">M20/I20</f>
-        <v>17.2352763441472</v>
+        <v>8.90877459680578</v>
       </c>
       <c r="O20" s="3" t="n">
         <v>1</v>
@@ -36164,19 +36534,19 @@
         <v>0.0158167842046504</v>
       </c>
       <c r="K21" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C21)</f>
-        <v>63.0526315789474</v>
+        <f aca="false">MEDIAN($C$3:$C21)</f>
+        <v>28</v>
       </c>
       <c r="L21" s="30" t="n">
         <v>222.94</v>
       </c>
       <c r="M21" s="29" t="n">
         <f aca="false">K21/L20</f>
-        <v>0.273760991572366</v>
+        <v>0.121569989579715</v>
       </c>
       <c r="N21" s="29" t="n">
         <f aca="false">M21/I21</f>
-        <v>17.3082586213623</v>
+        <v>7.6861382191692</v>
       </c>
       <c r="O21" s="3" t="n">
         <v>1</v>
@@ -36219,19 +36589,19 @@
         <v>0.0180874852544647</v>
       </c>
       <c r="K22" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C22)</f>
-        <v>60.1</v>
+        <f aca="false">MEDIAN($C$3:$C22)</f>
+        <v>27</v>
       </c>
       <c r="L22" s="30" t="n">
         <v>224.54</v>
       </c>
       <c r="M22" s="29" t="n">
         <f aca="false">K22/L21</f>
-        <v>0.269579258993451</v>
+        <v>0.121108818516193</v>
       </c>
       <c r="N22" s="29" t="n">
         <f aca="false">M22/I22</f>
-        <v>14.9041868010319</v>
+        <v>6.69572451959834</v>
       </c>
       <c r="O22" s="3" t="n">
         <v>1</v>
@@ -36274,19 +36644,19 @@
         <v>0.0585856026090935</v>
       </c>
       <c r="K23" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C23)</f>
-        <v>59</v>
+        <f aca="false">MEDIAN($C$3:$C23)</f>
+        <v>28</v>
       </c>
       <c r="L23" s="30" t="n">
         <v>226.65</v>
       </c>
       <c r="M23" s="29" t="n">
         <f aca="false">K23/L22</f>
-        <v>0.262759419257148</v>
+        <v>0.124699385410172</v>
       </c>
       <c r="N23" s="29" t="n">
         <f aca="false">M23/I23</f>
-        <v>4.48505106297845</v>
+        <v>2.1284988095491</v>
       </c>
       <c r="O23" s="3" t="n">
         <v>1</v>
@@ -36329,19 +36699,19 @@
         <v>0.0616328822191117</v>
       </c>
       <c r="K24" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C24)</f>
-        <v>57.3636363636364</v>
+        <f aca="false">MEDIAN($C$3:$C24)</f>
+        <v>27</v>
       </c>
       <c r="L24" s="30" t="n">
         <v>246.73</v>
       </c>
       <c r="M24" s="29" t="n">
         <f aca="false">K24/L23</f>
-        <v>0.253093476124581</v>
+        <v>0.119126406353408</v>
       </c>
       <c r="N24" s="29" t="n">
         <f aca="false">M24/I24</f>
-        <v>4.10646828465374</v>
+        <v>1.9328384794646</v>
       </c>
       <c r="O24" s="3" t="n">
         <v>1</v>
@@ -36384,19 +36754,19 @@
         <v>0.0579298306228622</v>
       </c>
       <c r="K25" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C25)</f>
-        <v>55.8260869565217</v>
+        <f aca="false">MEDIAN($C$3:$C25)</f>
+        <v>26</v>
       </c>
       <c r="L25" s="30" t="n">
         <v>239.13</v>
       </c>
       <c r="M25" s="29" t="n">
         <f aca="false">K25/L24</f>
-        <v>0.226263879368223</v>
+        <v>0.105378348802335</v>
       </c>
       <c r="N25" s="29" t="n">
         <f aca="false">M25/I25</f>
-        <v>3.90582670336563</v>
+        <v>1.81906882290705</v>
       </c>
       <c r="O25" s="3" t="n">
         <v>1</v>
@@ -36439,19 +36809,19 @@
         <v>0.0439772077254126</v>
       </c>
       <c r="K26" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C26)</f>
-        <v>55.625</v>
+        <f aca="false">MEDIAN($C$3:$C26)</f>
+        <v>27</v>
       </c>
       <c r="L26" s="30" t="n">
         <v>227.67</v>
       </c>
       <c r="M26" s="29" t="n">
         <f aca="false">K26/L25</f>
-        <v>0.23261405929829</v>
+        <v>0.11290929619872</v>
       </c>
       <c r="N26" s="29" t="n">
         <f aca="false">M26/I26</f>
-        <v>5.2894231200557</v>
+        <v>2.56745032344277</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>1</v>
@@ -36494,19 +36864,19 @@
         <v>0.0379005833420866</v>
       </c>
       <c r="K27" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C27)</f>
-        <v>54.12</v>
+        <f aca="false">MEDIAN($C$3:$C27)</f>
+        <v>26</v>
       </c>
       <c r="L27" s="30" t="n">
         <v>228.34</v>
       </c>
       <c r="M27" s="29" t="n">
         <f aca="false">K27/L26</f>
-        <v>0.237712478587429</v>
+        <v>0.114200377739711</v>
       </c>
       <c r="N27" s="29" t="n">
         <f aca="false">M27/I27</f>
-        <v>6.27200052415716</v>
+        <v>3.0131562015537</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>1</v>
@@ -36549,19 +36919,19 @@
         <v>0.0182867851311751</v>
       </c>
       <c r="K28" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C28)</f>
-        <v>54</v>
+        <f aca="false">MEDIAN($C$3:$C28)</f>
+        <v>27</v>
       </c>
       <c r="L28" s="30" t="n">
         <v>211.15</v>
       </c>
       <c r="M28" s="29" t="n">
         <f aca="false">K28/L27</f>
-        <v>0.236489445563633</v>
+        <v>0.118244722781817</v>
       </c>
       <c r="N28" s="29" t="n">
         <f aca="false">M28/I28</f>
-        <v>12.9322592170927</v>
+        <v>6.46612960854636</v>
       </c>
       <c r="O28" s="3" t="n">
         <v>1</v>
@@ -36604,19 +36974,19 @@
         <v>0.0103058667153006</v>
       </c>
       <c r="K29" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C29)</f>
-        <v>55.9259259259259</v>
+        <f aca="false">MEDIAN($C$3:$C29)</f>
+        <v>28</v>
       </c>
       <c r="L29" s="30" t="n">
         <v>203.31</v>
       </c>
       <c r="M29" s="29" t="n">
         <f aca="false">K29/L28</f>
-        <v>0.264863490058849</v>
+        <v>0.132607151314232</v>
       </c>
       <c r="N29" s="29" t="n">
         <f aca="false">M29/I29</f>
-        <v>25.7002634883312</v>
+        <v>12.8671517862109</v>
       </c>
       <c r="O29" s="3" t="n">
         <v>1</v>
@@ -36659,19 +37029,19 @@
         <v>-0.0259243306766082</v>
       </c>
       <c r="K30" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C30)</f>
-        <v>57.8928571428571</v>
+        <f aca="false">MEDIAN($C$3:$C30)</f>
+        <v>32.5</v>
       </c>
       <c r="L30" s="30" t="n">
         <v>166.53</v>
       </c>
       <c r="M30" s="29" t="n">
         <f aca="false">K30/L29</f>
-        <v>0.284751645973426</v>
+        <v>0.159854409522404</v>
       </c>
       <c r="N30" s="29" t="n">
         <f aca="false">M30/I30</f>
-        <v>-10.9839536274069</v>
+        <v>-6.16619235098102</v>
       </c>
       <c r="O30" s="3" t="n">
         <v>1</v>
@@ -36714,19 +37084,19 @@
         <v>-0.021868609419226</v>
       </c>
       <c r="K31" s="30" t="n">
-        <f aca="false">AVERAGE($C$3:$C31)</f>
-        <v>56.7586206896552</v>
+        <f aca="false">MEDIAN($C$3:$C31)</f>
+        <v>28</v>
       </c>
       <c r="L31" s="30" t="n">
         <v>169.18</v>
       </c>
       <c r="M31" s="29" t="n">
         <f aca="false">K31/L30</f>
-        <v>0.340831205726627</v>
+        <v>0.168137873055906</v>
       </c>
       <c r="N31" s="29" t="n">
         <f aca="false">M31/I31</f>
-        <v>-15.5854082531184</v>
+        <v>-7.68854890737066</v>
       </c>
       <c r="O31" s="3" t="n">
         <v>1</v>
@@ -36769,19 +37139,19 @@
         <v>-0.0223186183250949</v>
       </c>
       <c r="K32" s="30" t="n">
-        <f aca="false">AVERAGE($C3:$C32)</f>
-        <v>55.0666666666667</v>
+        <f aca="false">MEDIAN($C3:$C32)</f>
+        <v>27</v>
       </c>
       <c r="L32" s="30" t="n">
         <v>157.69</v>
       </c>
       <c r="M32" s="29" t="n">
         <f aca="false">K32/L31</f>
-        <v>0.32549158687</v>
+        <v>0.159593332545218</v>
       </c>
       <c r="N32" s="29" t="n">
         <f aca="false">M32/I32</f>
-        <v>-14.583859185585</v>
+        <v>-7.15068156193936</v>
       </c>
       <c r="O32" s="3" t="n">
         <v>1</v>
@@ -36824,19 +37194,19 @@
         <v>-0.0357097262497493</v>
       </c>
       <c r="K33" s="30" t="n">
-        <f aca="false">AVERAGE($C4:$C33)</f>
-        <v>51</v>
+        <f aca="false">MEDIAN($C4:$C33)</f>
+        <v>25.5</v>
       </c>
       <c r="L33" s="30" t="n">
         <v>144.69</v>
       </c>
       <c r="M33" s="29" t="n">
         <f aca="false">K33/L32</f>
-        <v>0.323419367112689</v>
+        <v>0.161709683556345</v>
       </c>
       <c r="N33" s="29" t="n">
         <f aca="false">M33/I33</f>
-        <v>-9.05689852816947</v>
+        <v>-4.52844926408474</v>
       </c>
       <c r="O33" s="3" t="n">
         <v>1</v>
@@ -36879,19 +37249,19 @@
         <v>-0.033414781618084</v>
       </c>
       <c r="K34" s="30" t="n">
-        <f aca="false">AVERAGE($C5:$C34)</f>
-        <v>45.1333333333333</v>
+        <f aca="false">MEDIAN($C5:$C34)</f>
+        <v>25</v>
       </c>
       <c r="L34" s="30" t="n">
         <v>140.69</v>
       </c>
       <c r="M34" s="29" t="n">
         <f aca="false">K34/L33</f>
-        <v>0.311931255327482</v>
+        <v>0.172783191651116</v>
       </c>
       <c r="N34" s="29" t="n">
         <f aca="false">M34/I34</f>
-        <v>-9.33512775551601</v>
+        <v>-5.17086101671861</v>
       </c>
       <c r="O34" s="3" t="n">
         <v>1</v>
@@ -36934,19 +37304,19 @@
         <v>-0.0336128836210562</v>
       </c>
       <c r="K35" s="30" t="n">
-        <f aca="false">AVERAGE($C6:$C35)</f>
-        <v>40.8666666666667</v>
+        <f aca="false">MEDIAN($C6:$C35)</f>
+        <v>24</v>
       </c>
       <c r="L35" s="30" t="n">
         <v>138.69</v>
       </c>
       <c r="M35" s="29" t="n">
         <f aca="false">K35/L34</f>
-        <v>0.290473144265169</v>
+        <v>0.170587817186723</v>
       </c>
       <c r="N35" s="29" t="n">
         <f aca="false">M35/I35</f>
-        <v>-8.64172046468538</v>
+        <v>-5.07507237730299</v>
       </c>
       <c r="O35" s="3" t="n">
         <v>1</v>
@@ -36989,19 +37359,19 @@
         <v>-0.0342910225003076</v>
       </c>
       <c r="K36" s="30" t="n">
-        <f aca="false">AVERAGE($C7:$C36)</f>
-        <v>34.6333333333333</v>
+        <f aca="false">MEDIAN($C7:$C36)</f>
+        <v>22.5</v>
       </c>
       <c r="L36" s="30" t="n">
         <v>141.49</v>
       </c>
       <c r="M36" s="29" t="n">
         <f aca="false">K36/L35</f>
-        <v>0.249717595596895</v>
+        <v>0.162232316677482</v>
       </c>
       <c r="N36" s="29" t="n">
         <f aca="false">M36/I36</f>
-        <v>-7.2823024042125</v>
+        <v>-4.73104342910821</v>
       </c>
       <c r="O36" s="3" t="n">
         <v>1</v>
@@ -37044,19 +37414,19 @@
         <v>-0.0360084589309437</v>
       </c>
       <c r="K37" s="30" t="n">
-        <f aca="false">AVERAGE($C8:$C37)</f>
-        <v>30.7</v>
+        <f aca="false">MEDIAN($C8:$C37)</f>
+        <v>22</v>
       </c>
       <c r="L37" s="30" t="n">
         <v>139.53</v>
       </c>
       <c r="M37" s="29" t="n">
         <f aca="false">K37/L36</f>
-        <v>0.216976464767828</v>
+        <v>0.155488020354795</v>
       </c>
       <c r="N37" s="29" t="n">
         <f aca="false">M37/I37</f>
-        <v>-6.0257081588507</v>
+        <v>-4.31809705194513</v>
       </c>
       <c r="O37" s="3" t="n">
         <v>1</v>
@@ -37099,19 +37469,19 @@
         <v>-0.0360935380739226</v>
       </c>
       <c r="K38" s="30" t="n">
-        <f aca="false">AVERAGE($C9:$C38)</f>
-        <v>29.3333333333333</v>
+        <f aca="false">MEDIAN($C9:$C38)</f>
+        <v>22</v>
       </c>
       <c r="L38" s="30" t="n">
         <v>144.94</v>
       </c>
       <c r="M38" s="29" t="n">
         <f aca="false">K38/L37</f>
-        <v>0.210229580257531</v>
+        <v>0.157672185193148</v>
       </c>
       <c r="N38" s="29" t="n">
         <f aca="false">M38/I38</f>
-        <v>-5.82457668258965</v>
+        <v>-4.36843251194224</v>
       </c>
       <c r="O38" s="3" t="n">
         <v>1</v>
@@ -37154,19 +37524,19 @@
         <v>-0.0350721314248571</v>
       </c>
       <c r="K39" s="30" t="n">
-        <f aca="false">AVERAGE($C10:$C39)</f>
-        <v>28.9</v>
+        <f aca="false">MEDIAN($C10:$C39)</f>
+        <v>20.5</v>
       </c>
       <c r="L39" s="30" t="n">
         <v>146.67</v>
       </c>
       <c r="M39" s="29" t="n">
         <f aca="false">K39/L38</f>
-        <v>0.19939285221471</v>
+        <v>0.141437836346074</v>
       </c>
       <c r="N39" s="29" t="n">
         <f aca="false">M39/I39</f>
-        <v>-5.68522197294777</v>
+        <v>-4.03276991160655</v>
       </c>
       <c r="O39" s="3" t="n">
         <v>1</v>
@@ -37209,19 +37579,19 @@
         <v>-0.0347978290851488</v>
       </c>
       <c r="K40" s="30" t="n">
-        <f aca="false">AVERAGE($C11:$C40)</f>
-        <v>28.4</v>
+        <f aca="false">MEDIAN($C11:$C40)</f>
+        <v>18.5</v>
       </c>
       <c r="L40" s="30" t="n">
         <v>144.65</v>
       </c>
       <c r="M40" s="29" t="n">
         <f aca="false">K40/L39</f>
-        <v>0.193631962909934</v>
+        <v>0.126133496965978</v>
       </c>
       <c r="N40" s="29" t="n">
         <f aca="false">M40/I40</f>
-        <v>-5.56448399226643</v>
+        <v>-3.62475189637074</v>
       </c>
       <c r="O40" s="3" t="n">
         <v>1</v>
@@ -37264,19 +37634,19 @@
         <v>-0.029239256545127</v>
       </c>
       <c r="K41" s="30" t="n">
-        <f aca="false">AVERAGE($C12:$C41)</f>
-        <v>28.3333333333333</v>
+        <f aca="false">MEDIAN($C12:$C41)</f>
+        <v>18.5</v>
       </c>
       <c r="L41" s="30" t="n">
         <v>150.23</v>
       </c>
       <c r="M41" s="29" t="n">
         <f aca="false">K41/L40</f>
-        <v>0.195875100818067</v>
+        <v>0.127894918769443</v>
       </c>
       <c r="N41" s="29" t="n">
         <f aca="false">M41/I41</f>
-        <v>-6.69904518658874</v>
+        <v>-4.37408244536089</v>
       </c>
       <c r="O41" s="3" t="n">
         <v>1</v>
@@ -37319,19 +37689,19 @@
         <v>-0.0289030928454972</v>
       </c>
       <c r="K42" s="30" t="n">
-        <f aca="false">AVERAGE($C13:$C42)</f>
-        <v>27.9</v>
+        <f aca="false">MEDIAN($C13:$C42)</f>
+        <v>18.5</v>
       </c>
       <c r="L42" s="30" t="n">
         <v>151.03</v>
       </c>
       <c r="M42" s="29" t="n">
         <f aca="false">K42/L41</f>
-        <v>0.185715236637156</v>
+        <v>0.123144511748652</v>
       </c>
       <c r="N42" s="29" t="n">
         <f aca="false">M42/I42</f>
-        <v>-6.42544511170156</v>
+        <v>-4.26059980525014</v>
       </c>
       <c r="O42" s="3" t="n">
         <v>1</v>
@@ -37374,19 +37744,19 @@
         <v>-0.029007973255597</v>
       </c>
       <c r="K43" s="30" t="n">
-        <f aca="false">AVERAGE($C14:$C43)</f>
-        <v>26.6</v>
+        <f aca="false">MEDIAN($C14:$C43)</f>
+        <v>16</v>
       </c>
       <c r="L43" s="30" t="n">
         <v>151.19</v>
       </c>
       <c r="M43" s="29" t="n">
         <f aca="false">K43/L42</f>
-        <v>0.176123948884328</v>
+        <v>0.105939217374032</v>
       </c>
       <c r="N43" s="29" t="n">
         <f aca="false">M43/I43</f>
-        <v>-6.07157030008448</v>
+        <v>-3.65207236095307</v>
       </c>
       <c r="O43" s="3" t="n">
         <v>1</v>
@@ -37429,19 +37799,19 @@
         <v>-0.0298619266586724</v>
       </c>
       <c r="K44" s="30" t="n">
-        <f aca="false">AVERAGE($C15:$C44)</f>
-        <v>25.4666666666667</v>
+        <f aca="false">MEDIAN($C15:$C44)</f>
+        <v>13.5</v>
       </c>
       <c r="L44" s="30" t="n">
         <v>150.39</v>
       </c>
       <c r="M44" s="29" t="n">
         <f aca="false">K44/L43</f>
-        <v>0.168441475406222</v>
+        <v>0.0892916198161254</v>
       </c>
       <c r="N44" s="29" t="n">
         <f aca="false">M44/I44</f>
-        <v>-5.64067674974694</v>
+        <v>-2.99014932414596</v>
       </c>
       <c r="O44" s="3" t="n">
         <v>1</v>
@@ -37484,19 +37854,19 @@
         <v>-0.0315539705618317</v>
       </c>
       <c r="K45" s="30" t="n">
-        <f aca="false">AVERAGE($C16:$C45)</f>
-        <v>25.0666666666667</v>
+        <f aca="false">MEDIAN($C16:$C45)</f>
+        <v>13</v>
       </c>
       <c r="L45" s="30" t="n">
         <v>149.08</v>
       </c>
       <c r="M45" s="29" t="n">
         <f aca="false">K45/L44</f>
-        <v>0.166677748963805</v>
+        <v>0.0864419176806969</v>
       </c>
       <c r="N45" s="29" t="n">
         <f aca="false">M45/I45</f>
-        <v>-5.28230666366349</v>
+        <v>-2.73949414737867</v>
       </c>
       <c r="O45" s="3" t="n">
         <v>1</v>
@@ -37539,19 +37909,19 @@
         <v>-0.0349508295232962</v>
       </c>
       <c r="K46" s="30" t="n">
-        <f aca="false">AVERAGE($C17:$C46)</f>
-        <v>25.7333333333333</v>
+        <f aca="false">MEDIAN($C17:$C46)</f>
+        <v>13.5</v>
       </c>
       <c r="L46" s="30" t="n">
         <v>143.76</v>
       </c>
       <c r="M46" s="29" t="n">
         <f aca="false">K46/L45</f>
-        <v>0.172614256327699</v>
+        <v>0.090555406493158</v>
       </c>
       <c r="N46" s="29" t="n">
         <f aca="false">M46/I46</f>
-        <v>-4.93877423460419</v>
+        <v>-2.59093726038173</v>
       </c>
       <c r="O46" s="3" t="n">
         <v>1</v>
@@ -37594,19 +37964,19 @@
         <v>-0.0338533786809649</v>
       </c>
       <c r="K47" s="30" t="n">
-        <f aca="false">AVERAGE($C18:$C47)</f>
-        <v>22.8333333333333</v>
+        <f aca="false">MEDIAN($C18:$C47)</f>
+        <v>13</v>
       </c>
       <c r="L47" s="30" t="n">
         <v>145.46</v>
       </c>
       <c r="M47" s="29" t="n">
         <f aca="false">K47/L46</f>
-        <v>0.158829530699314</v>
+        <v>0.0904284919309961</v>
       </c>
       <c r="N47" s="29" t="n">
         <f aca="false">M47/I47</f>
-        <v>-4.69168918695315</v>
+        <v>-2.67118070498063</v>
       </c>
       <c r="O47" s="3" t="n">
         <v>1</v>
@@ -37649,19 +38019,19 @@
         <v>-0.0350369727143484</v>
       </c>
       <c r="K48" s="30" t="n">
-        <f aca="false">AVERAGE($C19:$C48)</f>
-        <v>22.8</v>
+        <f aca="false">MEDIAN($C19:$C48)</f>
+        <v>13</v>
       </c>
       <c r="L48" s="30" t="n">
         <v>145.2</v>
       </c>
       <c r="M48" s="29" t="n">
         <f aca="false">K48/L47</f>
-        <v>0.156744122095421</v>
+        <v>0.0893716485631789</v>
       </c>
       <c r="N48" s="29" t="n">
         <f aca="false">M48/I48</f>
-        <v>-4.47367765969209</v>
+        <v>-2.55078112175426</v>
       </c>
       <c r="O48" s="3" t="n">
         <v>1</v>
@@ -37704,19 +38074,19 @@
         <v>-0.0338781570796284</v>
       </c>
       <c r="K49" s="30" t="n">
-        <f aca="false">AVERAGE($C20:$C49)</f>
-        <v>22.7</v>
+        <f aca="false">MEDIAN($C20:$C49)</f>
+        <v>13</v>
       </c>
       <c r="L49" s="30" t="n">
         <v>146.76</v>
       </c>
       <c r="M49" s="29" t="n">
         <f aca="false">K49/L48</f>
-        <v>0.15633608815427</v>
+        <v>0.0895316804407713</v>
       </c>
       <c r="N49" s="29" t="n">
         <f aca="false">M49/I49</f>
-        <v>-4.61465739670586</v>
+        <v>-2.64275533732053</v>
       </c>
       <c r="O49" s="3" t="n">
         <v>1</v>
@@ -37759,19 +38129,19 @@
         <v>-0.0332594900220617</v>
       </c>
       <c r="K50" s="30" t="n">
-        <f aca="false">AVERAGE($C21:$C50)</f>
-        <v>22.7666666666667</v>
+        <f aca="false">MEDIAN($C21:$C50)</f>
+        <v>13</v>
       </c>
       <c r="L50" s="30" t="n">
         <v>145.5</v>
       </c>
       <c r="M50" s="29" t="n">
         <f aca="false">K50/L49</f>
-        <v>0.155128554556192</v>
+        <v>0.0885799945489234</v>
       </c>
       <c r="N50" s="29" t="n">
         <f aca="false">M50/I50</f>
-        <v>-4.66418921196</v>
+        <v>-2.66329984284685</v>
       </c>
       <c r="O50" s="3" t="n">
         <v>1</v>
@@ -37814,19 +38184,19 @@
         <v>-0.0329962361140773</v>
       </c>
       <c r="K51" s="30" t="n">
-        <f aca="false">AVERAGE($C22:$C51)</f>
-        <v>23.2333333333333</v>
+        <f aca="false">MEDIAN($C22:$C51)</f>
+        <v>13</v>
       </c>
       <c r="L51" s="30" t="n">
         <v>145.75</v>
       </c>
       <c r="M51" s="29" t="n">
         <f aca="false">K51/L50</f>
-        <v>0.159679266895762</v>
+        <v>0.0893470790378007</v>
       </c>
       <c r="N51" s="29" t="n">
         <f aca="false">M51/I51</f>
-        <v>-4.83931762227987</v>
+        <v>-2.70779608707195</v>
       </c>
       <c r="O51" s="3" t="n">
         <v>1</v>
@@ -37869,19 +38239,19 @@
         <v>-0.0320683736969937</v>
       </c>
       <c r="K52" s="30" t="n">
-        <f aca="false">AVERAGE($C23:$C52)</f>
-        <v>23.1666666666667</v>
+        <f aca="false">MEDIAN($C23:$C52)</f>
+        <v>13</v>
       </c>
       <c r="L52" s="30" t="n">
         <v>147.03</v>
       </c>
       <c r="M52" s="29" t="n">
         <f aca="false">K52/L51</f>
-        <v>0.158947970268725</v>
+        <v>0.0891938250428816</v>
       </c>
       <c r="N52" s="29" t="n">
         <f aca="false">M52/I52</f>
-        <v>-4.95653355454149</v>
+        <v>-2.78136415290817</v>
       </c>
       <c r="O52" s="3" t="n">
         <v>1</v>
@@ -37924,19 +38294,19 @@
         <v>-0.027358513607729</v>
       </c>
       <c r="K53" s="30" t="n">
-        <f aca="false">AVERAGE($C24:$C53)</f>
-        <v>22.3</v>
+        <f aca="false">MEDIAN($C24:$C53)</f>
+        <v>12.5</v>
       </c>
       <c r="L53" s="30" t="n">
         <v>152.4</v>
       </c>
       <c r="M53" s="29" t="n">
         <f aca="false">K53/L52</f>
-        <v>0.151669727266544</v>
+        <v>0.0850166632660001</v>
       </c>
       <c r="N53" s="29" t="n">
         <f aca="false">M53/I53</f>
-        <v>-5.54378536207085</v>
+        <v>-3.1075030056451</v>
       </c>
       <c r="O53" s="3" t="n">
         <v>1</v>
@@ -37979,19 +38349,19 @@
         <v>-0.0330564098908263</v>
       </c>
       <c r="K54" s="30" t="n">
-        <f aca="false">AVERAGE($C25:$C54)</f>
-        <v>21.7666666666667</v>
+        <f aca="false">MEDIAN($C25:$C54)</f>
+        <v>11.5</v>
       </c>
       <c r="L54" s="30" t="n">
         <v>146.54</v>
       </c>
       <c r="M54" s="29" t="n">
         <f aca="false">K54/L53</f>
-        <v>0.142825896762905</v>
+        <v>0.0754593175853018</v>
       </c>
       <c r="N54" s="29" t="n">
         <f aca="false">M54/I54</f>
-        <v>-4.32067176183405</v>
+        <v>-2.28274388642074</v>
       </c>
       <c r="O54" s="3" t="n">
         <v>1</v>
@@ -38034,19 +38404,19 @@
         <v>-0.0349950423854222</v>
       </c>
       <c r="K55" s="30" t="n">
-        <f aca="false">AVERAGE($C26:$C55)</f>
-        <v>21.3</v>
+        <f aca="false">MEDIAN($C26:$C55)</f>
+        <v>11</v>
       </c>
       <c r="L55" s="30" t="n">
         <v>144.66</v>
       </c>
       <c r="M55" s="29" t="n">
         <f aca="false">K55/L54</f>
-        <v>0.145352804694964</v>
+        <v>0.075064828715709</v>
       </c>
       <c r="N55" s="29" t="n">
         <f aca="false">M55/I55</f>
-        <v>-4.15352560783047</v>
+        <v>-2.14501322470118</v>
       </c>
       <c r="O55" s="3" t="n">
         <v>1</v>
@@ -38089,19 +38459,19 @@
         <v>-0.0321601222665219</v>
       </c>
       <c r="K56" s="30" t="n">
-        <f aca="false">AVERAGE($C27:$C56)</f>
-        <v>19.9666666666667</v>
+        <f aca="false">MEDIAN($C27:$C56)</f>
+        <v>11</v>
       </c>
       <c r="L56" s="30" t="n">
         <v>147.52</v>
       </c>
       <c r="M56" s="29" t="n">
         <f aca="false">K56/L55</f>
-        <v>0.138024793769298</v>
+        <v>0.0760403705239873</v>
       </c>
       <c r="N56" s="29" t="n">
         <f aca="false">M56/I56</f>
-        <v>-4.29179941000969</v>
+        <v>-2.36443039282671</v>
       </c>
       <c r="O56" s="3" t="n">
         <v>1</v>
@@ -38144,19 +38514,19 @@
         <v>-0.0279218742019979</v>
       </c>
       <c r="K57" s="30" t="n">
-        <f aca="false">AVERAGE($C28:$C57)</f>
-        <v>19.9</v>
+        <f aca="false">MEDIAN($C28:$C57)</f>
+        <v>11</v>
       </c>
       <c r="L57" s="30" t="n">
         <v>149.85</v>
       </c>
       <c r="M57" s="29" t="n">
         <f aca="false">K57/L56</f>
-        <v>0.134896963123644</v>
+        <v>0.0745661605206074</v>
       </c>
       <c r="N57" s="29" t="n">
         <f aca="false">M57/I57</f>
-        <v>-4.83122881178198</v>
+        <v>-2.67052848892471</v>
       </c>
       <c r="O57" s="3" t="n">
         <v>1</v>
@@ -38199,19 +38569,19 @@
         <v>-0.0226146248437037</v>
       </c>
       <c r="K58" s="30" t="n">
-        <f aca="false">AVERAGE($C29:$C58)</f>
-        <v>18.6333333333333</v>
+        <f aca="false">MEDIAN($C29:$C58)</f>
+        <v>11</v>
       </c>
       <c r="L58" s="30" t="n">
         <v>153.62</v>
       </c>
       <c r="M58" s="29" t="n">
         <f aca="false">K58/L57</f>
-        <v>0.124346568791013</v>
+        <v>0.0734067400734067</v>
       </c>
       <c r="N58" s="29" t="n">
         <f aca="false">M58/I58</f>
-        <v>-5.49850239172256</v>
+        <v>-3.24598531175035</v>
       </c>
       <c r="O58" s="3" t="n">
         <v>1</v>
@@ -38254,19 +38624,19 @@
         <v>-0.0192690498553756</v>
       </c>
       <c r="K59" s="30" t="n">
-        <f aca="false">AVERAGE($C30:$C59)</f>
-        <v>15.9333333333333</v>
+        <f aca="false">MEDIAN($C30:$C59)</f>
+        <v>11</v>
       </c>
       <c r="L59" s="30" t="n">
         <v>157.91</v>
       </c>
       <c r="M59" s="29" t="n">
         <f aca="false">K59/L58</f>
-        <v>0.103719133793343</v>
+        <v>0.0716052597318057</v>
       </c>
       <c r="N59" s="29" t="n">
         <f aca="false">M59/I59</f>
-        <v>-5.3826802344594</v>
+        <v>-3.71607631249289</v>
       </c>
       <c r="O59" s="3" t="n">
         <v>1</v>
@@ -38309,19 +38679,19 @@
         <v>-0.0268991246774997</v>
       </c>
       <c r="K60" s="30" t="n">
-        <f aca="false">AVERAGE($C31:$C60)</f>
-        <v>12.6666666666667</v>
+        <f aca="false">MEDIAN($C31:$C60)</f>
+        <v>11</v>
       </c>
       <c r="L60" s="30" t="n">
         <v>149.71</v>
       </c>
       <c r="M60" s="29" t="n">
         <f aca="false">K60/L59</f>
-        <v>0.080214468156967</v>
+        <v>0.0696599328731556</v>
       </c>
       <c r="N60" s="29" t="n">
         <f aca="false">M60/I60</f>
-        <v>-2.98204752454507</v>
+        <v>-2.58967285026282</v>
       </c>
       <c r="O60" s="3" t="n">
         <v>1</v>
@@ -38364,19 +38734,19 @@
         <v>-0.0243730657671595</v>
       </c>
       <c r="K61" s="30" t="n">
-        <f aca="false">AVERAGE($C32:$C61)</f>
-        <v>12</v>
+        <f aca="false">MEDIAN($C32:$C61)</f>
+        <v>10.5</v>
       </c>
       <c r="L61" s="30" t="n">
         <v>152.51</v>
       </c>
       <c r="M61" s="29" t="n">
         <f aca="false">K61/L60</f>
-        <v>0.0801549662681184</v>
+        <v>0.0701355954846036</v>
       </c>
       <c r="N61" s="29" t="n">
         <f aca="false">M61/I61</f>
-        <v>-3.28866983882348</v>
+        <v>-2.87758610897054</v>
       </c>
       <c r="O61" s="3" t="n">
         <v>1</v>
@@ -38419,19 +38789,19 @@
         <v>-0.0149737764401742</v>
       </c>
       <c r="K62" s="30" t="n">
-        <f aca="false">AVERAGE($C33:$C62)</f>
-        <v>13.6666666666667</v>
+        <f aca="false">MEDIAN($C33:$C62)</f>
+        <v>11</v>
       </c>
       <c r="L62" s="30" t="n">
         <v>163.7</v>
       </c>
       <c r="M62" s="29" t="n">
         <f aca="false">K62/L61</f>
-        <v>0.0896116101676393</v>
+        <v>0.0721264179398072</v>
       </c>
       <c r="N62" s="29" t="n">
         <f aca="false">M62/I62</f>
-        <v>-5.98456979277547</v>
+        <v>-4.81684885759976</v>
       </c>
       <c r="O62" s="3" t="n">
         <v>1</v>
@@ -38474,19 +38844,19 @@
         <v>-0.0115571601934996</v>
       </c>
       <c r="K63" s="30" t="n">
-        <f aca="false">AVERAGE($C34:$C63)</f>
-        <v>13.6333333333333</v>
+        <f aca="false">MEDIAN($C34:$C63)</f>
+        <v>11</v>
       </c>
       <c r="L63" s="30" t="n">
         <v>167.97</v>
       </c>
       <c r="M63" s="29" t="n">
         <f aca="false">K63/L62</f>
-        <v>0.0832824272042354</v>
+        <v>0.0671960904092853</v>
       </c>
       <c r="N63" s="29" t="n">
         <f aca="false">M63/I63</f>
-        <v>-7.20613245899958</v>
+        <v>-5.8142389033493</v>
       </c>
       <c r="O63" s="3" t="n">
         <v>1</v>
@@ -38529,19 +38899,19 @@
         <v>-0.00546866752030539</v>
       </c>
       <c r="K64" s="30" t="n">
-        <f aca="false">AVERAGE($C35:$C64)</f>
-        <v>14.4333333333333</v>
+        <f aca="false">MEDIAN($C35:$C64)</f>
+        <v>11</v>
       </c>
       <c r="L64" s="30" t="n">
         <v>173.66</v>
       </c>
       <c r="M64" s="29" t="n">
         <f aca="false">K64/L63</f>
-        <v>0.0859280427060388</v>
+        <v>0.0654878847413229</v>
       </c>
       <c r="N64" s="29" t="n">
         <f aca="false">M64/I64</f>
-        <v>-15.7127933609027</v>
+        <v>-11.9751081041522</v>
       </c>
       <c r="O64" s="3" t="n">
         <v>1</v>
@@ -38584,19 +38954,19 @@
         <v>0.00636572159548254</v>
       </c>
       <c r="K65" s="30" t="n">
-        <f aca="false">AVERAGE($C36:$C65)</f>
-        <v>15.5333333333333</v>
+        <f aca="false">MEDIAN($C36:$C65)</f>
+        <v>11.5</v>
       </c>
       <c r="L65" s="30" t="n">
         <v>187.1</v>
       </c>
       <c r="M65" s="29" t="n">
         <f aca="false">K65/L64</f>
-        <v>0.0894468117778034</v>
+        <v>0.0662213520672579</v>
       </c>
       <c r="N65" s="29" t="n">
         <f aca="false">M65/I65</f>
-        <v>14.0513232374598</v>
+        <v>10.4028036843855</v>
       </c>
       <c r="O65" s="3" t="n">
         <v>1</v>
@@ -38639,19 +39009,19 @@
         <v>0.00121404552542215</v>
       </c>
       <c r="K66" s="30" t="n">
-        <f aca="false">AVERAGE($C37:$C66)</f>
-        <v>16.3</v>
+        <f aca="false">MEDIAN($C37:$C66)</f>
+        <v>12</v>
       </c>
       <c r="L66" s="30" t="n">
         <v>180.48</v>
       </c>
       <c r="M66" s="29" t="n">
         <f aca="false">K66/L65</f>
-        <v>0.0871191876002138</v>
+        <v>0.0641368252271513</v>
       </c>
       <c r="N66" s="29" t="n">
         <f aca="false">M66/I66</f>
-        <v>71.7594075147394</v>
+        <v>52.8290116672927</v>
       </c>
       <c r="O66" s="3" t="n">
         <v>1</v>
@@ -38694,19 +39064,19 @@
         <v>0.00941174698890623</v>
       </c>
       <c r="K67" s="30" t="n">
-        <f aca="false">AVERAGE($C38:$C67)</f>
-        <v>17.1666666666667</v>
+        <f aca="false">MEDIAN($C38:$C67)</f>
+        <v>12.5</v>
       </c>
       <c r="L67" s="30" t="n">
         <v>191.22</v>
       </c>
       <c r="M67" s="29" t="n">
         <f aca="false">K67/L66</f>
-        <v>0.0951167257683215</v>
+        <v>0.0692597517730497</v>
       </c>
       <c r="N67" s="29" t="n">
         <f aca="false">M67/I67</f>
-        <v>10.1061711370309</v>
+        <v>7.35886247842055</v>
       </c>
       <c r="O67" s="3" t="n">
         <v>1</v>
@@ -38749,19 +39119,19 @@
         <v>0.0123300657007156</v>
       </c>
       <c r="K68" s="30" t="n">
-        <f aca="false">AVERAGE($C39:$C68)</f>
-        <v>17.8333333333333</v>
+        <f aca="false">MEDIAN($C39:$C68)</f>
+        <v>12.5</v>
       </c>
       <c r="L68" s="30" t="n">
         <v>195.27</v>
       </c>
       <c r="M68" s="29" t="n">
         <f aca="false">K68/L67</f>
-        <v>0.0932608165115225</v>
+        <v>0.0653697311996653</v>
       </c>
       <c r="N68" s="29" t="n">
         <f aca="false">M68/I68</f>
-        <v>7.56369177384918</v>
+        <v>5.30165311251111</v>
       </c>
       <c r="O68" s="3" t="n">
         <v>1</v>
@@ -38804,19 +39174,19 @@
         <v>0.0123555276099975</v>
       </c>
       <c r="K69" s="30" t="n">
-        <f aca="false">AVERAGE($C40:$C69)</f>
-        <v>18.8333333333333</v>
+        <f aca="false">MEDIAN($C40:$C69)</f>
+        <v>12.5</v>
       </c>
       <c r="L69" s="30" t="n">
         <v>193.57</v>
       </c>
       <c r="M69" s="29" t="n">
         <f aca="false">K69/L68</f>
-        <v>0.0964476536761066</v>
+        <v>0.0640139294310442</v>
       </c>
       <c r="N69" s="29" t="n">
         <f aca="false">M69/I69</f>
-        <v>7.80603279119104</v>
+        <v>5.18099521539228</v>
       </c>
       <c r="O69" s="3" t="n">
         <v>1</v>
@@ -38859,19 +39229,19 @@
         <v>0.0171926938128019</v>
       </c>
       <c r="K70" s="30" t="n">
-        <f aca="false">AVERAGE($C41:$C70)</f>
-        <v>19.4333333333333</v>
+        <f aca="false">MEDIAN($C41:$C70)</f>
+        <v>13</v>
       </c>
       <c r="L70" s="30" t="n">
         <v>200</v>
       </c>
       <c r="M70" s="29" t="n">
         <f aca="false">K70/L69</f>
-        <v>0.100394344853714</v>
+        <v>0.0671591672263264</v>
       </c>
       <c r="N70" s="29" t="n">
         <f aca="false">M70/I70</f>
-        <v>5.83936094871642</v>
+        <v>3.90626204116535</v>
       </c>
       <c r="O70" s="3" t="n">
         <v>1</v>
@@ -38914,19 +39284,19 @@
         <v>0.01681783364675</v>
       </c>
       <c r="K71" s="30" t="n">
-        <f aca="false">AVERAGE($C42:$C71)</f>
-        <v>20.2333333333333</v>
+        <f aca="false">MEDIAN($C42:$C71)</f>
+        <v>14.5</v>
       </c>
       <c r="L71" s="30" t="n">
         <v>197.82</v>
       </c>
       <c r="M71" s="29" t="n">
         <f aca="false">K71/L70</f>
-        <v>0.101166666666667</v>
+        <v>0.0725</v>
       </c>
       <c r="N71" s="29" t="n">
         <f aca="false">M71/I71</f>
-        <v>6.01543984746317</v>
+        <v>4.31090005543077</v>
       </c>
       <c r="O71" s="3" t="n">
         <v>1</v>
@@ -38969,21 +39339,76 @@
         <v>0.0216845649642766</v>
       </c>
       <c r="K72" s="30" t="n">
-        <f aca="false">AVERAGE($C43:$C72)</f>
-        <v>21.0333333333333</v>
+        <f aca="false">MEDIAN($C43:$C72)</f>
+        <v>17.5</v>
       </c>
       <c r="L72" s="30" t="n">
         <v>206.22</v>
       </c>
       <c r="M72" s="29" t="n">
         <f aca="false">K72/L71</f>
-        <v>0.106325615879756</v>
+        <v>0.0884642604387827</v>
       </c>
       <c r="N72" s="29" t="n">
         <f aca="false">M72/I72</f>
-        <v>4.90328563450168</v>
+        <v>4.07959581317494</v>
       </c>
       <c r="O72" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="33" t="n">
+        <v>43762</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <f aca="false">COUNT(all!B753:B759)</f>
+        <v>7</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <f aca="false">SUM(all!E753:E759)</f>
+        <v>39</v>
+      </c>
+      <c r="D73" s="27" t="n">
+        <f aca="false">SUMIF(all!H753:H759,"&gt;0")</f>
+        <v>14.6</v>
+      </c>
+      <c r="E73" s="30" t="n">
+        <f aca="false">SUMIF(all!H753:H759,"&lt;0")</f>
+        <v>-6</v>
+      </c>
+      <c r="F73" s="27" t="n">
+        <f aca="false">D73+E73</f>
+        <v>8.6</v>
+      </c>
+      <c r="G73" s="29" t="n">
+        <f aca="false">all!J759</f>
+        <v>-0.00683450268262482</v>
+      </c>
+      <c r="H73" s="29" t="n">
+        <f aca="false">all!O759</f>
+        <v>0.67524115755627</v>
+      </c>
+      <c r="I73" s="29" t="n">
+        <f aca="false">all!K759</f>
+        <v>0.0284792790214728</v>
+      </c>
+      <c r="K73" s="30" t="n">
+        <f aca="false">MEDIAN($C44:$C73)</f>
+        <v>22</v>
+      </c>
+      <c r="L73" s="30" t="n">
+        <v>214.82</v>
+      </c>
+      <c r="M73" s="29" t="n">
+        <f aca="false">K73/L72</f>
+        <v>0.106682184075259</v>
+      </c>
+      <c r="N73" s="29" t="n">
+        <f aca="false">M73/I73</f>
+        <v>3.74595803478112</v>
+      </c>
+      <c r="O73" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39006,12 +39431,12 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39083,51 +39508,51 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="34" t="n">
         <f aca="false">SUM(C3:C25)</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">SUM(D3:D25)</f>
-        <v>4.14416666666666</v>
+        <v>4.86083333333333</v>
       </c>
       <c r="E2" s="34" t="n">
         <f aca="false">SUM(E3:E25)</f>
-        <v>-0.790000000000007</v>
+        <v>-0.0733333333333404</v>
       </c>
       <c r="F2" s="34" t="n">
         <f aca="false">SUM(F3:F25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="G2" s="34" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="H2" s="34" t="n">
         <f aca="false">SUM(H3:H25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="I2" s="34" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="J2" s="34" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="K2" s="34" t="n">
         <f aca="false">SUM(K3:K25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="L2" s="34" t="n">
         <f aca="false">SUM(L3:L25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="M2" s="34" t="n">
         <f aca="false">SUM(M3:M25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="N2" s="34" t="n">
         <f aca="false">SUM(N3:N25)</f>
-        <v>-1.76333333333334</v>
+        <v>-1.04666666666667</v>
       </c>
       <c r="O2" s="35" t="n">
         <f aca="false">SUM(O3:O25)</f>
@@ -39151,56 +39576,56 @@
         <v>226</v>
       </c>
       <c r="B4" s="26" t="n">
-        <f aca="false">SUM(daily!F50:F73)</f>
-        <v>63.46</v>
+        <f aca="false">SUM(daily!F50:F74)</f>
+        <v>72.06</v>
       </c>
       <c r="C4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="D4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="E4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="F4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="G4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="H4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="I4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="J4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="K4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="L4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="M4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="N4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.28833333333333</v>
+        <v>6.005</v>
       </c>
       <c r="P4" s="41"/>
     </row>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="232">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -1164,7 +1164,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="72" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="66" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1177,7 +1177,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="72" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="66" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1239,9 +1239,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>daily!$A$3:$A$77</c:f>
+              <c:f>daily!$A$3:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>24/07/19</c:v>
                 </c:pt>
@@ -1465,6 +1465,9 @@
                   <c:v>27/10/19</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>28/10/19</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1472,10 +1475,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$L$3:$L$77</c:f>
+              <c:f>daily!$L$3:$L$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>230.3</c:v>
                 </c:pt>
@@ -1699,6 +1702,9 @@
                   <c:v>211.76</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>200.64</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1714,11 +1720,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63295206"/>
-        <c:axId val="85661358"/>
+        <c:axId val="10928336"/>
+        <c:axId val="50892556"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63295206"/>
+        <c:axId val="10928336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1746,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="72" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="66" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1754,14 +1760,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85661358"/>
+        <c:crossAx val="50892556"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85661358"/>
+        <c:axId val="50892556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1810,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63295206"/>
+        <c:crossAx val="10928336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1838,14 +1844,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:colOff>109800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1853,8 +1859,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203040" y="12862800"/>
-        <a:ext cx="7959240" cy="2739600"/>
+        <a:off x="203040" y="13025520"/>
+        <a:ext cx="7958520" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1872,12 +1878,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q772"/>
+  <dimension ref="A1:Q780"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B772" activeCellId="0" sqref="B772"/>
+      <selection pane="bottomLeft" activeCell="G781" activeCellId="0" sqref="G781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35962,6 +35968,370 @@
         <v>0.675632911392405</v>
       </c>
     </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B774" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E774" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F774" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G774" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H774" s="7" t="n">
+        <f aca="false">G774-E774</f>
+        <v>-3</v>
+      </c>
+      <c r="I774" s="7" t="n">
+        <f aca="false">SUM($H$2:H763)</f>
+        <v>-12.9999999999999</v>
+      </c>
+      <c r="J774" s="8" t="n">
+        <f aca="false">SUM(H$3:H774)/SUM(E$3:E774)</f>
+        <v>-0.00916531604538085</v>
+      </c>
+      <c r="K774" s="9" t="n">
+        <f aca="false">O774-(1-O774)/N774</f>
+        <v>0.0231259374482929</v>
+      </c>
+      <c r="L774" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H774,"&gt;0")</f>
+        <v>1.99097256857855</v>
+      </c>
+      <c r="M774" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H774,"&lt;0")</f>
+        <v>-3.98543689320388</v>
+      </c>
+      <c r="N774" s="11" t="n">
+        <f aca="false">L774/-M774</f>
+        <v>0.499561935599491</v>
+      </c>
+      <c r="O774" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G774,"&gt;0")/COUNTIF($B$3:$B774,"&gt;0")</f>
+        <v>0.674565560821485</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B775" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E775" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F775" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G775" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H775" s="7" t="n">
+        <f aca="false">G775-E775</f>
+        <v>-4</v>
+      </c>
+      <c r="I775" s="7" t="n">
+        <f aca="false">SUM($H$2:H764)</f>
+        <v>-10.3399999999999</v>
+      </c>
+      <c r="J775" s="8" t="n">
+        <f aca="false">SUM(H$3:H775)/SUM(E$3:E775)</f>
+        <v>-0.0107686084142395</v>
+      </c>
+      <c r="K775" s="9" t="n">
+        <f aca="false">O775-(1-O775)/N775</f>
+        <v>0.0199205836614094</v>
+      </c>
+      <c r="L775" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H775,"&gt;0")</f>
+        <v>1.99097256857855</v>
+      </c>
+      <c r="M775" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H775,"&lt;0")</f>
+        <v>-3.98550724637681</v>
+      </c>
+      <c r="N775" s="11" t="n">
+        <f aca="false">L775/-M775</f>
+        <v>0.499553117206982</v>
+      </c>
+      <c r="O775" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G775,"&gt;0")/COUNTIF($B$3:$B775,"&gt;0")</f>
+        <v>0.673501577287066</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B776" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E776" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F776" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G776" s="6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H776" s="7" t="n">
+        <f aca="false">G776-E776</f>
+        <v>0.68</v>
+      </c>
+      <c r="I776" s="7" t="n">
+        <f aca="false">SUM($H$2:H765)</f>
+        <v>-10.3399999999999</v>
+      </c>
+      <c r="J776" s="8" t="n">
+        <f aca="false">SUM(H$3:H776)/SUM(E$3:E776)</f>
+        <v>-0.0104892842701172</v>
+      </c>
+      <c r="K776" s="9" t="n">
+        <f aca="false">O776-(1-O776)/N776</f>
+        <v>0.0203934110769127</v>
+      </c>
+      <c r="L776" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H776,"&gt;0")</f>
+        <v>1.98771144278607</v>
+      </c>
+      <c r="M776" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H776,"&lt;0")</f>
+        <v>-3.98550724637681</v>
+      </c>
+      <c r="N776" s="11" t="n">
+        <f aca="false">L776/-M776</f>
+        <v>0.49873487109905</v>
+      </c>
+      <c r="O776" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G776,"&gt;0")/COUNTIF($B$3:$B776,"&gt;0")</f>
+        <v>0.674015748031496</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B777" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E777" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F777" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G777" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H777" s="7" t="n">
+        <f aca="false">G777-E777</f>
+        <v>-1</v>
+      </c>
+      <c r="I777" s="7" t="n">
+        <f aca="false">SUM($H$2:H766)</f>
+        <v>-9.43999999999994</v>
+      </c>
+      <c r="J777" s="8" t="n">
+        <f aca="false">SUM(H$3:H777)/SUM(E$3:E777)</f>
+        <v>-0.0108892481810832</v>
+      </c>
+      <c r="K777" s="9" t="n">
+        <f aca="false">O777-(1-O777)/N777</f>
+        <v>0.0195703221725774</v>
+      </c>
+      <c r="L777" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H777,"&gt;0")</f>
+        <v>1.98771144278607</v>
+      </c>
+      <c r="M777" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H777,"&lt;0")</f>
+        <v>-3.97115384615385</v>
+      </c>
+      <c r="N777" s="11" t="n">
+        <f aca="false">L777/-M777</f>
+        <v>0.500537506173732</v>
+      </c>
+      <c r="O777" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G777,"&gt;0")/COUNTIF($B$3:$B777,"&gt;0")</f>
+        <v>0.672955974842767</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B778" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E778" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F778" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G778" s="6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H778" s="7" t="n">
+        <f aca="false">G778-E778</f>
+        <v>1.2</v>
+      </c>
+      <c r="I778" s="7" t="n">
+        <f aca="false">SUM($H$2:H767)</f>
+        <v>-7.99999999999994</v>
+      </c>
+      <c r="J778" s="8" t="n">
+        <f aca="false">SUM(H$3:H778)/SUM(E$3:E778)</f>
+        <v>-0.0103957996768982</v>
+      </c>
+      <c r="K778" s="9" t="n">
+        <f aca="false">O778-(1-O778)/N778</f>
+        <v>0.0204673277103304</v>
+      </c>
+      <c r="L778" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H778,"&gt;0")</f>
+        <v>1.98575682382134</v>
+      </c>
+      <c r="M778" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H778,"&lt;0")</f>
+        <v>-3.97115384615385</v>
+      </c>
+      <c r="N778" s="11" t="n">
+        <f aca="false">L778/-M778</f>
+        <v>0.500045301882371</v>
+      </c>
+      <c r="O778" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G778,"&gt;0")/COUNTIF($B$3:$B778,"&gt;0")</f>
+        <v>0.673469387755102</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B779" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E779" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F779" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G779" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H779" s="7" t="n">
+        <f aca="false">G779-E779</f>
+        <v>-4</v>
+      </c>
+      <c r="I779" s="7" t="n">
+        <f aca="false">SUM($H$2:H768)</f>
+        <v>-13.9999999999999</v>
+      </c>
+      <c r="J779" s="8" t="n">
+        <f aca="false">SUM(H$3:H779)/SUM(E$3:E779)</f>
+        <v>-0.0119919354838709</v>
+      </c>
+      <c r="K779" s="9" t="n">
+        <f aca="false">O779-(1-O779)/N779</f>
+        <v>0.0172779661656979</v>
+      </c>
+      <c r="L779" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H779,"&gt;0")</f>
+        <v>1.98575682382134</v>
+      </c>
+      <c r="M779" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H779,"&lt;0")</f>
+        <v>-3.97129186602871</v>
+      </c>
+      <c r="N779" s="11" t="n">
+        <f aca="false">L779/-M779</f>
+        <v>0.500027923106819</v>
+      </c>
+      <c r="O779" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G779,"&gt;0")/COUNTIF($B$3:$B779,"&gt;0")</f>
+        <v>0.672413793103448</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B780" s="2" t="n">
+        <v>43766</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E780" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F780" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G780" s="6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H780" s="7" t="n">
+        <f aca="false">G780-E780</f>
+        <v>0.52</v>
+      </c>
+      <c r="I780" s="7" t="n">
+        <f aca="false">SUM($H$2:H769)</f>
+        <v>-12.8799999999999</v>
+      </c>
+      <c r="J780" s="8" t="n">
+        <f aca="false">SUM(H$3:H780)/SUM(E$3:E780)</f>
+        <v>-0.0117775090689238</v>
+      </c>
+      <c r="K780" s="9" t="n">
+        <f aca="false">O780-(1-O780)/N780</f>
+        <v>0.0176185808820748</v>
+      </c>
+      <c r="L780" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H780,"&gt;0")</f>
+        <v>1.98212871287129</v>
+      </c>
+      <c r="M780" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H780,"&lt;0")</f>
+        <v>-3.97129186602871</v>
+      </c>
+      <c r="N780" s="11" t="n">
+        <f aca="false">L780/-M780</f>
+        <v>0.499114338542288</v>
+      </c>
+      <c r="O780" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G780,"&gt;0")/COUNTIF($B$3:$B780,"&gt;0")</f>
+        <v>0.672926447574335</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -35978,12 +36348,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40118,6 +40488,61 @@
         <v>4.07171488019149</v>
       </c>
       <c r="O76" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="33" t="n">
+        <v>43766</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <f aca="false">COUNT(all!B774:B780)</f>
+        <v>7</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <f aca="false">SUM(all!E774:E780)</f>
+        <v>16</v>
+      </c>
+      <c r="D77" s="27" t="n">
+        <f aca="false">SUMIF(all!H774:H780,"&gt;0")</f>
+        <v>2.4</v>
+      </c>
+      <c r="E77" s="30" t="n">
+        <f aca="false">SUMIF(all!H774:H780,"&lt;0")</f>
+        <v>-12</v>
+      </c>
+      <c r="F77" s="27" t="n">
+        <f aca="false">D77+E77</f>
+        <v>-9.6</v>
+      </c>
+      <c r="G77" s="29" t="n">
+        <f aca="false">all!J780</f>
+        <v>-0.0117775090689238</v>
+      </c>
+      <c r="H77" s="29" t="n">
+        <f aca="false">all!O780</f>
+        <v>0.672926447574335</v>
+      </c>
+      <c r="I77" s="29" t="n">
+        <f aca="false">all!K780</f>
+        <v>0.0176185808820748</v>
+      </c>
+      <c r="K77" s="30" t="n">
+        <f aca="false">MEDIAN($C48:$C77)</f>
+        <v>22</v>
+      </c>
+      <c r="L77" s="30" t="n">
+        <v>200.64</v>
+      </c>
+      <c r="M77" s="29" t="n">
+        <f aca="false">K77/L76</f>
+        <v>0.103891197582169</v>
+      </c>
+      <c r="N77" s="29" t="n">
+        <f aca="false">M77/I77</f>
+        <v>5.8966836363006</v>
+      </c>
+      <c r="O77" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40152,8 +40577,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="34" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="35" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="34" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="35" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="36" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="3" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.83"/>
@@ -40217,51 +40642,51 @@
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="34" t="n">
         <f aca="false">SUM(C3:C25)</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">SUM(D3:D25)</f>
-        <v>4.60583333333333</v>
+        <v>3.80583333333333</v>
       </c>
       <c r="E2" s="34" t="n">
         <f aca="false">SUM(E3:E25)</f>
-        <v>-0.328333333333334</v>
+        <v>-1.12833333333334</v>
       </c>
       <c r="F2" s="34" t="n">
         <f aca="false">SUM(F3:F25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="G2" s="34" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="H2" s="34" t="n">
         <f aca="false">SUM(H3:H25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="I2" s="34" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="J2" s="34" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="K2" s="34" t="n">
         <f aca="false">SUM(K3:K25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="L2" s="34" t="n">
         <f aca="false">SUM(L3:L25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="M2" s="34" t="n">
         <f aca="false">SUM(M3:M25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="N2" s="34" t="n">
         <f aca="false">SUM(N3:N25)</f>
-        <v>-1.30166666666667</v>
+        <v>-2.10166666666667</v>
       </c>
       <c r="O2" s="35" t="n">
         <f aca="false">SUM(O3:O25)</f>
@@ -40285,56 +40710,56 @@
         <v>228</v>
       </c>
       <c r="B4" s="26" t="n">
-        <f aca="false">SUM(daily!F50:F77)</f>
-        <v>69</v>
+        <f aca="false">SUM(daily!F50:F78)</f>
+        <v>59.4</v>
       </c>
       <c r="C4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="D4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="E4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="F4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="G4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="H4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="I4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="J4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="K4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="L4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="M4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="N4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>5.75</v>
+        <v>4.95</v>
       </c>
       <c r="P4" s="41"/>
     </row>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="233">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -639,6 +639,9 @@
     <t xml:space="preserve">londero</t>
   </si>
   <si>
+    <t xml:space="preserve">moutet</t>
+  </si>
+  <si>
     <t xml:space="preserve">no bets</t>
   </si>
   <si>
@@ -1164,7 +1167,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="66" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="60" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1177,7 +1180,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="66" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="60" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1239,9 +1242,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>daily!$A$3:$A$78</c:f>
+              <c:f>daily!$A$3:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>24/07/19</c:v>
                 </c:pt>
@@ -1468,6 +1471,9 @@
                   <c:v>28/10/19</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>29/10/19</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1475,10 +1481,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$L$3:$L$78</c:f>
+              <c:f>daily!$L$3:$L$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>230.3</c:v>
                 </c:pt>
@@ -1705,6 +1711,9 @@
                   <c:v>200.64</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>205.61</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1720,11 +1729,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="10928336"/>
-        <c:axId val="50892556"/>
+        <c:axId val="73349840"/>
+        <c:axId val="29424168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10928336"/>
+        <c:axId val="73349840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1755,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="66" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="60" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1760,14 +1769,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50892556"/>
+        <c:crossAx val="29424168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50892556"/>
+        <c:axId val="29424168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +1819,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10928336"/>
+        <c:crossAx val="73349840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,14 +1853,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>109800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:colOff>109080</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1859,8 +1868,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203040" y="13025520"/>
-        <a:ext cx="7958520" cy="2738880"/>
+        <a:off x="203040" y="13188240"/>
+        <a:ext cx="7957800" cy="2738520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1878,12 +1887,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q780"/>
+  <dimension ref="A1:Q788"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G781" activeCellId="0" sqref="G781"/>
+      <selection pane="bottomLeft" activeCell="G789" activeCellId="0" sqref="G789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36332,6 +36341,370 @@
         <v>0.672926447574335</v>
       </c>
     </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B782" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E782" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F782" s="5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G782" s="6" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H782" s="7" t="n">
+        <f aca="false">G782-E782</f>
+        <v>2.55</v>
+      </c>
+      <c r="I782" s="7" t="n">
+        <f aca="false">SUM($H$2:H771)</f>
+        <v>-19.8799999999999</v>
+      </c>
+      <c r="J782" s="8" t="n">
+        <f aca="false">SUM(H$3:H782)/SUM(E$3:E782)</f>
+        <v>-0.0107367149758454</v>
+      </c>
+      <c r="K782" s="9" t="n">
+        <f aca="false">O782-(1-O782)/N782</f>
+        <v>0.0196160629815888</v>
+      </c>
+      <c r="L782" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H782,"&gt;0")</f>
+        <v>1.98353086419753</v>
+      </c>
+      <c r="M782" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H782,"&lt;0")</f>
+        <v>-3.97129186602871</v>
+      </c>
+      <c r="N782" s="11" t="n">
+        <f aca="false">L782/-M782</f>
+        <v>0.499467410382269</v>
+      </c>
+      <c r="O782" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G782,"&gt;0")/COUNTIF($B$3:$B782,"&gt;0")</f>
+        <v>0.6734375</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E783" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F783" s="5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G783" s="6" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H783" s="7" t="n">
+        <f aca="false">G783-E783</f>
+        <v>0.42</v>
+      </c>
+      <c r="I783" s="7" t="n">
+        <f aca="false">SUM($H$2:H772)</f>
+        <v>-19.6199999999999</v>
+      </c>
+      <c r="J783" s="8" t="n">
+        <f aca="false">SUM(H$3:H783)/SUM(E$3:E783)</f>
+        <v>-0.0105548854041013</v>
+      </c>
+      <c r="K783" s="9" t="n">
+        <f aca="false">O783-(1-O783)/N783</f>
+        <v>0.0198756317282236</v>
+      </c>
+      <c r="L783" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H783,"&gt;0")</f>
+        <v>1.97967980295566</v>
+      </c>
+      <c r="M783" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H783,"&lt;0")</f>
+        <v>-3.97129186602871</v>
+      </c>
+      <c r="N783" s="11" t="n">
+        <f aca="false">L783/-M783</f>
+        <v>0.498497685322571</v>
+      </c>
+      <c r="O783" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G783,"&gt;0")/COUNTIF($B$3:$B783,"&gt;0")</f>
+        <v>0.673946957878315</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B784" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E784" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F784" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G784" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H784" s="7" t="n">
+        <f aca="false">G784-E784</f>
+        <v>-1</v>
+      </c>
+      <c r="I784" s="7" t="n">
+        <f aca="false">SUM($H$2:H773)</f>
+        <v>-19.6199999999999</v>
+      </c>
+      <c r="J784" s="8" t="n">
+        <f aca="false">SUM(H$3:H784)/SUM(E$3:E784)</f>
+        <v>-0.0109525723472669</v>
+      </c>
+      <c r="K784" s="9" t="n">
+        <f aca="false">O784-(1-O784)/N784</f>
+        <v>0.0190578625310672</v>
+      </c>
+      <c r="L784" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H784,"&gt;0")</f>
+        <v>1.97967980295566</v>
+      </c>
+      <c r="M784" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H784,"&lt;0")</f>
+        <v>-3.95714285714286</v>
+      </c>
+      <c r="N784" s="11" t="n">
+        <f aca="false">L784/-M784</f>
+        <v>0.500280094609734</v>
+      </c>
+      <c r="O784" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G784,"&gt;0")/COUNTIF($B$3:$B784,"&gt;0")</f>
+        <v>0.672897196261682</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E785" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F785" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G785" s="6" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H785" s="7" t="n">
+        <f aca="false">G785-E785</f>
+        <v>4.8</v>
+      </c>
+      <c r="I785" s="7" t="n">
+        <f aca="false">SUM($H$2:H774)</f>
+        <v>-22.6199999999999</v>
+      </c>
+      <c r="J785" s="8" t="n">
+        <f aca="false">SUM(H$3:H785)/SUM(E$3:E785)</f>
+        <v>-0.00900160384923815</v>
+      </c>
+      <c r="K785" s="9" t="n">
+        <f aca="false">O785-(1-O785)/N785</f>
+        <v>0.0228605572654536</v>
+      </c>
+      <c r="L785" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H785,"&gt;0")</f>
+        <v>1.98660933660934</v>
+      </c>
+      <c r="M785" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H785,"&lt;0")</f>
+        <v>-3.95714285714286</v>
+      </c>
+      <c r="N785" s="11" t="n">
+        <f aca="false">L785/-M785</f>
+        <v>0.502031240298388</v>
+      </c>
+      <c r="O785" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G785,"&gt;0")/COUNTIF($B$3:$B785,"&gt;0")</f>
+        <v>0.673405909797823</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B786" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E786" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F786" s="5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G786" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H786" s="7" t="n">
+        <f aca="false">G786-E786</f>
+        <v>0</v>
+      </c>
+      <c r="I786" s="7" t="n">
+        <f aca="false">SUM($H$2:H775)</f>
+        <v>-26.6199999999999</v>
+      </c>
+      <c r="J786" s="8" t="n">
+        <f aca="false">SUM(H$3:H786)/SUM(E$3:E786)</f>
+        <v>-0.00898718975180142</v>
+      </c>
+      <c r="K786" s="9" t="n">
+        <f aca="false">O786-(1-O786)/N786</f>
+        <v>0.0243778545367805</v>
+      </c>
+      <c r="L786" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H786,"&gt;0")</f>
+        <v>1.98660933660934</v>
+      </c>
+      <c r="M786" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H786,"&lt;0")</f>
+        <v>-3.95714285714286</v>
+      </c>
+      <c r="N786" s="11" t="n">
+        <f aca="false">L786/-M786</f>
+        <v>0.502031240298388</v>
+      </c>
+      <c r="O786" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G786,"&gt;0")/COUNTIF($B$3:$B786,"&gt;0")</f>
+        <v>0.673913043478261</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E787" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F787" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G787" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H787" s="7" t="n">
+        <f aca="false">G787-E787</f>
+        <v>-5</v>
+      </c>
+      <c r="I787" s="7" t="n">
+        <f aca="false">SUM($H$2:H776)</f>
+        <v>-25.9399999999999</v>
+      </c>
+      <c r="J787" s="8" t="n">
+        <f aca="false">SUM(H$3:H787)/SUM(E$3:E787)</f>
+        <v>-0.0109668397922493</v>
+      </c>
+      <c r="K787" s="9" t="n">
+        <f aca="false">O787-(1-O787)/N787</f>
+        <v>0.0204379646021512</v>
+      </c>
+      <c r="L787" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H787,"&gt;0")</f>
+        <v>1.98660933660934</v>
+      </c>
+      <c r="M787" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H787,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N787" s="11" t="n">
+        <f aca="false">L787/-M787</f>
+        <v>0.501404988067667</v>
+      </c>
+      <c r="O787" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G787,"&gt;0")/COUNTIF($B$3:$B787,"&gt;0")</f>
+        <v>0.672868217054264</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B788" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E788" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F788" s="5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G788" s="6" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="H788" s="7" t="n">
+        <f aca="false">G788-E788</f>
+        <v>1.68</v>
+      </c>
+      <c r="I788" s="7" t="n">
+        <f aca="false">SUM($H$2:H777)</f>
+        <v>-26.9399999999999</v>
+      </c>
+      <c r="J788" s="8" t="n">
+        <f aca="false">SUM(H$3:H788)/SUM(E$3:E788)</f>
+        <v>-0.0102710243124751</v>
+      </c>
+      <c r="K788" s="9" t="n">
+        <f aca="false">O788-(1-O788)/N788</f>
+        <v>0.0217078023443936</v>
+      </c>
+      <c r="L788" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H788,"&gt;0")</f>
+        <v>1.98585784313725</v>
+      </c>
+      <c r="M788" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H788,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N788" s="11" t="n">
+        <f aca="false">L788/-M788</f>
+        <v>0.501215316868374</v>
+      </c>
+      <c r="O788" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G788,"&gt;0")/COUNTIF($B$3:$B788,"&gt;0")</f>
+        <v>0.673374613003096</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -36348,12 +36721,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="L78" activeCellId="0" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36377,44 +36750,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40543,6 +40916,61 @@
         <v>5.8966836363006</v>
       </c>
       <c r="O77" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="33" t="n">
+        <v>43767</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <f aca="false">COUNT(all!B782:B788)</f>
+        <v>7</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <f aca="false">SUM(all!E782:E788)</f>
+        <v>28</v>
+      </c>
+      <c r="D78" s="27" t="n">
+        <f aca="false">SUMIF(all!H782:H788,"&gt;0")</f>
+        <v>9.45</v>
+      </c>
+      <c r="E78" s="30" t="n">
+        <f aca="false">SUMIF(all!H782:H788,"&lt;0")</f>
+        <v>-6</v>
+      </c>
+      <c r="F78" s="27" t="n">
+        <f aca="false">D78+E78</f>
+        <v>3.45</v>
+      </c>
+      <c r="G78" s="29" t="n">
+        <f aca="false">all!J788</f>
+        <v>-0.0102710243124751</v>
+      </c>
+      <c r="H78" s="29" t="n">
+        <f aca="false">all!O788</f>
+        <v>0.673374613003096</v>
+      </c>
+      <c r="I78" s="29" t="n">
+        <f aca="false">all!K788</f>
+        <v>0.0217078023443936</v>
+      </c>
+      <c r="K78" s="30" t="n">
+        <f aca="false">MEDIAN($C49:$C78)</f>
+        <v>25</v>
+      </c>
+      <c r="L78" s="30" t="n">
+        <v>205.61</v>
+      </c>
+      <c r="M78" s="29" t="n">
+        <f aca="false">K78/L77</f>
+        <v>0.124601275917065</v>
+      </c>
+      <c r="N78" s="29" t="n">
+        <f aca="false">M78/I78</f>
+        <v>5.73993046095913</v>
+      </c>
+      <c r="O78" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40586,55 +41014,55 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
@@ -40642,51 +41070,51 @@
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="34" t="n">
         <f aca="false">SUM(C3:C25)</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="D2" s="34" t="n">
         <f aca="false">SUM(D3:D25)</f>
-        <v>3.80583333333333</v>
+        <v>4.09333333333333</v>
       </c>
       <c r="E2" s="34" t="n">
         <f aca="false">SUM(E3:E25)</f>
-        <v>-1.12833333333334</v>
+        <v>-0.84083333333334</v>
       </c>
       <c r="F2" s="34" t="n">
         <f aca="false">SUM(F3:F25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="G2" s="34" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="H2" s="34" t="n">
         <f aca="false">SUM(H3:H25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="I2" s="34" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="J2" s="34" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="K2" s="34" t="n">
         <f aca="false">SUM(K3:K25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="L2" s="34" t="n">
         <f aca="false">SUM(L3:L25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="M2" s="34" t="n">
         <f aca="false">SUM(M3:M25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="N2" s="34" t="n">
         <f aca="false">SUM(N3:N25)</f>
-        <v>-2.10166666666667</v>
+        <v>-1.81416666666667</v>
       </c>
       <c r="O2" s="35" t="n">
         <f aca="false">SUM(O3:O25)</f>
@@ -40707,65 +41135,65 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B4" s="26" t="n">
-        <f aca="false">SUM(daily!F50:F78)</f>
-        <v>59.4</v>
+        <f aca="false">SUM(daily!F50:F79)</f>
+        <v>62.85</v>
       </c>
       <c r="C4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="D4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="E4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="F4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="G4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="H4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="I4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="J4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="K4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="L4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="M4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="N4" s="34" t="n">
         <f aca="false">$B$4/12</f>
-        <v>4.95</v>
+        <v>5.2375</v>
       </c>
       <c r="P4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" s="26" t="n">
         <f aca="false">SUM(daily!F32:F49)</f>
@@ -40823,7 +41251,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B6" s="26" t="n">
         <f aca="false">SUM(daily!F9:F31)</f>
@@ -40881,7 +41309,7 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B7" s="26" t="n">
         <f aca="false">SUM(daily!F3:F8)</f>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="235">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -678,6 +678,12 @@
     <t xml:space="preserve">month</t>
   </si>
   <si>
+    <t xml:space="preserve">bets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagered</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-09</t>
   </si>
   <si>
@@ -914,7 +920,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1051,6 +1057,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1061,6 +1075,10 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1076,6 +1094,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1167,7 +1189,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="60" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="55" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1180,7 +1202,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="60" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="55" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1242,9 +1264,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>daily!$A$3:$A$79</c:f>
+              <c:f>daily!$A$3:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>24/07/19</c:v>
                 </c:pt>
@@ -1474,6 +1496,9 @@
                   <c:v>29/10/19</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>30/10/19</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1481,10 +1506,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$L$3:$L$79</c:f>
+              <c:f>daily!$L$3:$L$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>230.3</c:v>
                 </c:pt>
@@ -1714,6 +1739,9 @@
                   <c:v>205.61</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>214.41</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1729,11 +1757,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="73349840"/>
-        <c:axId val="29424168"/>
+        <c:axId val="9952591"/>
+        <c:axId val="98487618"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73349840"/>
+        <c:axId val="9952591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1783,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="60" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="55" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1769,14 +1797,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29424168"/>
+        <c:crossAx val="98487618"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29424168"/>
+        <c:axId val="98487618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1847,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73349840"/>
+        <c:crossAx val="9952591"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1853,14 +1881,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:colOff>108360</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1868,8 +1896,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203040" y="13188240"/>
-        <a:ext cx="7957800" cy="2738520"/>
+        <a:off x="203040" y="13350960"/>
+        <a:ext cx="7957080" cy="2737800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1887,12 +1915,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q788"/>
+  <dimension ref="A1:Q797"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G789" activeCellId="0" sqref="G789"/>
+      <selection pane="bottomLeft" activeCell="G798" activeCellId="0" sqref="G798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36705,6 +36733,422 @@
         <v>0.673374613003096</v>
       </c>
     </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B790" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E790" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F790" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G790" s="6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H790" s="7" t="n">
+        <f aca="false">G790-E790</f>
+        <v>0.58</v>
+      </c>
+      <c r="I790" s="7" t="n">
+        <f aca="false">SUM($H$2:H779)</f>
+        <v>-29.7399999999999</v>
+      </c>
+      <c r="J790" s="8" t="n">
+        <f aca="false">SUM(H$3:H790)/SUM(E$3:E790)</f>
+        <v>-0.0100358565737052</v>
+      </c>
+      <c r="K790" s="9" t="n">
+        <f aca="false">O790-(1-O790)/N790</f>
+        <v>0.0220916717567925</v>
+      </c>
+      <c r="L790" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H790,"&gt;0")</f>
+        <v>1.98242053789731</v>
+      </c>
+      <c r="M790" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H790,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N790" s="11" t="n">
+        <f aca="false">L790/-M790</f>
+        <v>0.50034776734011</v>
+      </c>
+      <c r="O790" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G790,"&gt;0")/COUNTIF($B$3:$B790,"&gt;0")</f>
+        <v>0.673879443585781</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B791" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E791" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F791" s="5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G791" s="6" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H791" s="7" t="n">
+        <f aca="false">G791-E791</f>
+        <v>4.16</v>
+      </c>
+      <c r="I791" s="7" t="n">
+        <f aca="false">SUM($H$2:H780)</f>
+        <v>-29.2199999999999</v>
+      </c>
+      <c r="J791" s="8" t="n">
+        <f aca="false">SUM(H$3:H791)/SUM(E$3:E791)</f>
+        <v>-0.00835186656076249</v>
+      </c>
+      <c r="K791" s="9" t="n">
+        <f aca="false">O791-(1-O791)/N791</f>
+        <v>0.0253396625824439</v>
+      </c>
+      <c r="L791" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H791,"&gt;0")</f>
+        <v>1.98773170731707</v>
+      </c>
+      <c r="M791" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H791,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N791" s="11" t="n">
+        <f aca="false">L791/-M791</f>
+        <v>0.501688265841988</v>
+      </c>
+      <c r="O791" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G791,"&gt;0")/COUNTIF($B$3:$B791,"&gt;0")</f>
+        <v>0.674382716049383</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B792" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E792" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F792" s="5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G792" s="6" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H792" s="7" t="n">
+        <f aca="false">G792-E792</f>
+        <v>1.36</v>
+      </c>
+      <c r="I792" s="7" t="n">
+        <f aca="false">SUM($H$2:H781)</f>
+        <v>-29.2199999999999</v>
+      </c>
+      <c r="J792" s="8" t="n">
+        <f aca="false">SUM(H$3:H792)/SUM(E$3:E792)</f>
+        <v>-0.00780555555555553</v>
+      </c>
+      <c r="K792" s="9" t="n">
+        <f aca="false">O792-(1-O792)/N792</f>
+        <v>0.0263431261002652</v>
+      </c>
+      <c r="L792" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H792,"&gt;0")</f>
+        <v>1.98620437956204</v>
+      </c>
+      <c r="M792" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H792,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N792" s="11" t="n">
+        <f aca="false">L792/-M792</f>
+        <v>0.50130278000908</v>
+      </c>
+      <c r="O792" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G792,"&gt;0")/COUNTIF($B$3:$B792,"&gt;0")</f>
+        <v>0.674884437596302</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B793" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E793" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F793" s="5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G793" s="6" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="H793" s="7" t="n">
+        <f aca="false">G793-E793</f>
+        <v>3.84</v>
+      </c>
+      <c r="I793" s="7" t="n">
+        <f aca="false">SUM($H$2:H782)</f>
+        <v>-26.6699999999999</v>
+      </c>
+      <c r="J793" s="8" t="n">
+        <f aca="false">SUM(H$3:H793)/SUM(E$3:E793)</f>
+        <v>-0.00626186708860757</v>
+      </c>
+      <c r="K793" s="9" t="n">
+        <f aca="false">O793-(1-O793)/N793</f>
+        <v>0.0293046751095686</v>
+      </c>
+      <c r="L793" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H793,"&gt;0")</f>
+        <v>1.99070388349514</v>
+      </c>
+      <c r="M793" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H793,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N793" s="11" t="n">
+        <f aca="false">L793/-M793</f>
+        <v>0.502438420355832</v>
+      </c>
+      <c r="O793" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G793,"&gt;0")/COUNTIF($B$3:$B793,"&gt;0")</f>
+        <v>0.675384615384615</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B794" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E794" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F794" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G794" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H794" s="7" t="n">
+        <f aca="false">G794-E794</f>
+        <v>3</v>
+      </c>
+      <c r="I794" s="7" t="n">
+        <f aca="false">SUM($H$2:H783)</f>
+        <v>-26.2499999999999</v>
+      </c>
+      <c r="J794" s="8" t="n">
+        <f aca="false">SUM(H$3:H794)/SUM(E$3:E794)</f>
+        <v>-0.00506514015001972</v>
+      </c>
+      <c r="K794" s="9" t="n">
+        <f aca="false">O794-(1-O794)/N794</f>
+        <v>0.0315867061222443</v>
+      </c>
+      <c r="L794" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H794,"&gt;0")</f>
+        <v>1.99314769975787</v>
+      </c>
+      <c r="M794" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H794,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N794" s="11" t="n">
+        <f aca="false">L794/-M794</f>
+        <v>0.503055220871902</v>
+      </c>
+      <c r="O794" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G794,"&gt;0")/COUNTIF($B$3:$B794,"&gt;0")</f>
+        <v>0.675883256528418</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B795" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E795" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F795" s="5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G795" s="6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H795" s="7" t="n">
+        <f aca="false">G795-E795</f>
+        <v>0.02</v>
+      </c>
+      <c r="I795" s="7" t="n">
+        <f aca="false">SUM($H$2:H784)</f>
+        <v>-27.2499999999999</v>
+      </c>
+      <c r="J795" s="8" t="n">
+        <f aca="false">SUM(H$3:H795)/SUM(E$3:E795)</f>
+        <v>-0.0050532544378698</v>
+      </c>
+      <c r="K795" s="9" t="n">
+        <f aca="false">O795-(1-O795)/N795</f>
+        <v>0.0315300227001088</v>
+      </c>
+      <c r="L795" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H795,"&gt;0")</f>
+        <v>1.98838164251208</v>
+      </c>
+      <c r="M795" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H795,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N795" s="11" t="n">
+        <f aca="false">L795/-M795</f>
+        <v>0.501852304509627</v>
+      </c>
+      <c r="O795" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G795,"&gt;0")/COUNTIF($B$3:$B795,"&gt;0")</f>
+        <v>0.67638036809816</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B796" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E796" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F796" s="5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G796" s="6" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H796" s="7" t="n">
+        <f aca="false">G796-E796</f>
+        <v>0.84</v>
+      </c>
+      <c r="I796" s="7" t="n">
+        <f aca="false">SUM($H$2:H785)</f>
+        <v>-22.4499999999999</v>
+      </c>
+      <c r="J796" s="8" t="n">
+        <f aca="false">SUM(H$3:H796)/SUM(E$3:E796)</f>
+        <v>-0.00471074380165287</v>
+      </c>
+      <c r="K796" s="9" t="n">
+        <f aca="false">O796-(1-O796)/N796</f>
+        <v>0.032115833663187</v>
+      </c>
+      <c r="L796" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H796,"&gt;0")</f>
+        <v>1.98561445783132</v>
+      </c>
+      <c r="M796" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H796,"&lt;0")</f>
+        <v>-3.96208530805687</v>
+      </c>
+      <c r="N796" s="11" t="n">
+        <f aca="false">L796/-M796</f>
+        <v>0.501153888280394</v>
+      </c>
+      <c r="O796" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G796,"&gt;0")/COUNTIF($B$3:$B796,"&gt;0")</f>
+        <v>0.67687595712098</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B797" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E797" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F797" s="5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G797" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H797" s="7" t="n">
+        <f aca="false">G797-E797</f>
+        <v>-5</v>
+      </c>
+      <c r="I797" s="7" t="n">
+        <f aca="false">SUM($H$2:H786)</f>
+        <v>-22.4499999999999</v>
+      </c>
+      <c r="J797" s="8" t="n">
+        <f aca="false">SUM(H$3:H797)/SUM(E$3:E797)</f>
+        <v>-0.00666535742340925</v>
+      </c>
+      <c r="K797" s="9" t="n">
+        <f aca="false">O797-(1-O797)/N797</f>
+        <v>0.0282164024119393</v>
+      </c>
+      <c r="L797" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H797,"&gt;0")</f>
+        <v>1.98561445783132</v>
+      </c>
+      <c r="M797" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H797,"&lt;0")</f>
+        <v>-3.96698113207547</v>
+      </c>
+      <c r="N797" s="11" t="n">
+        <f aca="false">L797/-M797</f>
+        <v>0.500535392461642</v>
+      </c>
+      <c r="O797" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G797,"&gt;0")/COUNTIF($B$3:$B797,"&gt;0")</f>
+        <v>0.675840978593272</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -36721,12 +37165,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L78" activeCellId="0" sqref="L78"/>
+      <selection pane="bottomLeft" activeCell="N79" activeCellId="0" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40974,6 +41418,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="33" t="n">
+        <v>43768</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <f aca="false">COUNT(all!B790:B797)</f>
+        <v>8</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <f aca="false">SUM(all!E790:E797)</f>
+        <v>37</v>
+      </c>
+      <c r="D79" s="27" t="n">
+        <f aca="false">SUMIF(all!H790:H797,"&gt;0")</f>
+        <v>13.8</v>
+      </c>
+      <c r="E79" s="30" t="n">
+        <f aca="false">SUMIF(all!H790:H797,"&lt;0")</f>
+        <v>-5</v>
+      </c>
+      <c r="F79" s="27" t="n">
+        <f aca="false">D79+E79</f>
+        <v>8.8</v>
+      </c>
+      <c r="G79" s="29" t="n">
+        <f aca="false">all!J797</f>
+        <v>-0.00666535742340925</v>
+      </c>
+      <c r="H79" s="29" t="n">
+        <f aca="false">all!O797</f>
+        <v>0.675840978593272</v>
+      </c>
+      <c r="I79" s="29" t="n">
+        <f aca="false">all!K797</f>
+        <v>0.0282164024119393</v>
+      </c>
+      <c r="K79" s="30" t="n">
+        <f aca="false">MEDIAN($C50:$C79)</f>
+        <v>26</v>
+      </c>
+      <c r="L79" s="30" t="n">
+        <v>214.41</v>
+      </c>
+      <c r="M79" s="29" t="n">
+        <f aca="false">K79/L78</f>
+        <v>0.126452993531443</v>
+      </c>
+      <c r="N79" s="29" t="n">
+        <f aca="false">M79/I79</f>
+        <v>4.48154203662535</v>
+      </c>
+      <c r="O79" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -40991,379 +41490,437 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="34" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="35" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="36" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="20" style="3" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="36" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="37" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="38" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="3" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="Q1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="34" t="n">
-        <f aca="false">SUM(C3:C25)</f>
-        <v>5.2375</v>
-      </c>
-      <c r="D2" s="34" t="n">
-        <f aca="false">SUM(D3:D25)</f>
-        <v>4.09333333333333</v>
-      </c>
-      <c r="E2" s="34" t="n">
-        <f aca="false">SUM(E3:E25)</f>
-        <v>-0.84083333333334</v>
-      </c>
-      <c r="F2" s="34" t="n">
+      <c r="S1" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="36" t="n">
         <f aca="false">SUM(F3:F25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="G2" s="34" t="n">
+        <v>5.97083333333333</v>
+      </c>
+      <c r="G2" s="36" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="H2" s="34" t="n">
+        <v>4.82666666666666</v>
+      </c>
+      <c r="H2" s="36" t="n">
         <f aca="false">SUM(H3:H25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="I2" s="34" t="n">
+        <v>-0.107500000000008</v>
+      </c>
+      <c r="I2" s="36" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="J2" s="34" t="n">
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="J2" s="36" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="K2" s="34" t="n">
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="K2" s="36" t="n">
         <f aca="false">SUM(K3:K25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="L2" s="34" t="n">
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="L2" s="36" t="n">
         <f aca="false">SUM(L3:L25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="M2" s="34" t="n">
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="M2" s="36" t="n">
         <f aca="false">SUM(M3:M25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="N2" s="34" t="n">
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="N2" s="36" t="n">
         <f aca="false">SUM(N3:N25)</f>
-        <v>-1.81416666666667</v>
-      </c>
-      <c r="O2" s="35" t="n">
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="O2" s="36" t="n">
         <f aca="false">SUM(O3:O25)</f>
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="P2" s="36" t="n">
+        <f aca="false">SUM(P3:P25)</f>
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="Q2" s="36" t="n">
+        <f aca="false">SUM(Q3:Q25)</f>
+        <v>-1.08083333333334</v>
+      </c>
+      <c r="R2" s="37" t="n">
+        <f aca="false">SUM(R3:R25)</f>
         <v>-7.05166666666667</v>
       </c>
-      <c r="P2" s="35" t="n">
-        <f aca="false">SUM(P3:P25)</f>
+      <c r="S2" s="37" t="n">
+        <f aca="false">SUM(S3:S25)</f>
         <v>-5.9075</v>
       </c>
-      <c r="Q2" s="35" t="n">
-        <f aca="false">SUM(Q3:Q25)</f>
+      <c r="T2" s="37" t="n">
+        <f aca="false">SUM(T3:T25)</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="R2" s="40"/>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R3" s="40"/>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="26" t="n">
-        <f aca="false">SUM(daily!F50:F79)</f>
-        <v>62.85</v>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="34" t="n">
+        <f aca="false">SUM(daily!B50:B79)</f>
+        <v>231</v>
       </c>
       <c r="C4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="D4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="E4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="F4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="G4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="H4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="I4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="J4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="K4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="L4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="M4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="N4" s="34" t="n">
-        <f aca="false">$B$4/12</f>
-        <v>5.2375</v>
-      </c>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="26" t="n">
+        <f aca="false">SUM(daily!C50:C79)</f>
+        <v>709</v>
+      </c>
+      <c r="D4" s="35" t="n">
+        <f aca="false">SUM(daily!F50:F80)</f>
+        <v>71.65</v>
+      </c>
+      <c r="E4" s="44" t="n">
+        <f aca="false">D4/C4</f>
+        <v>0.101057827926657</v>
+      </c>
+      <c r="F4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="I4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="J4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="K4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="L4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="M4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="N4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="O4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="P4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="Q4" s="36" t="n">
+        <f aca="false">$D$4/12</f>
+        <v>5.97083333333333</v>
+      </c>
+      <c r="S4" s="45"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="34" t="n">
+        <f aca="false">SUM(daily!B32:B49)</f>
+        <v>81</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <f aca="false">SUM(daily!C32:C49)</f>
+        <v>191</v>
+      </c>
+      <c r="D5" s="35" t="n">
         <f aca="false">SUM(daily!F32:F49)</f>
         <v>-13.73</v>
       </c>
-      <c r="D5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="E5" s="44" t="n">
+        <f aca="false">D5/C5</f>
+        <v>-0.0718848167539267</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="E5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="H5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="F5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="I5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="G5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="J5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="H5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="K5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="I5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="L5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="J5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="M5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="K5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="N5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="L5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="O5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="M5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="P5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="N5" s="34" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="Q5" s="36" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="O5" s="35" t="n">
-        <f aca="false">$B$5/12</f>
+      <c r="R5" s="37" t="n">
+        <f aca="false">$D$5/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="P5" s="41"/>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="26" t="n">
+      <c r="S5" s="45"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="34" t="n">
+        <f aca="false">SUM(daily!B9:B31)</f>
+        <v>259</v>
+      </c>
+      <c r="C6" s="34" t="n">
+        <f aca="false">SUM(daily!C9:C31)</f>
+        <v>808</v>
+      </c>
+      <c r="D6" s="35" t="n">
         <f aca="false">SUM(daily!F9:F31)</f>
         <v>-59.21</v>
       </c>
-      <c r="E6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="E6" s="44" t="n">
+        <f aca="false">D6/C6</f>
+        <v>-0.073279702970297</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="F6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="I6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="G6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="J6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="H6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="K6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="I6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="L6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="J6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="M6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="K6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="N6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="L6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="O6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="M6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="P6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="N6" s="34" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="Q6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="O6" s="35" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="R6" s="37" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="P6" s="35" t="n">
-        <f aca="false">$B$6/12</f>
+      <c r="S6" s="37" t="n">
+        <f aca="false">$D$6/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="R6" s="40"/>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="26" t="n">
+      <c r="U6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="34" t="n">
+        <f aca="false">SUM(daily!B3:B8)</f>
+        <v>83</v>
+      </c>
+      <c r="C7" s="34" t="n">
+        <f aca="false">SUM(daily!C3:C8)</f>
+        <v>838</v>
+      </c>
+      <c r="D7" s="35" t="n">
         <f aca="false">SUM(daily!F3:F8)</f>
         <v>-11.68</v>
       </c>
-      <c r="F7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="E7" s="44" t="n">
+        <f aca="false">D7/C7</f>
+        <v>-0.0139379474940334</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="G7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="J7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="H7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="K7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="I7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="L7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="J7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="M7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="K7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="N7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="L7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="O7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="M7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="P7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="N7" s="34" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="Q7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="O7" s="35" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="R7" s="37" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="P7" s="35" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="S7" s="37" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="Q7" s="35" t="n">
-        <f aca="false">$B$7/12</f>
+      <c r="T7" s="37" t="n">
+        <f aca="false">$D$7/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="R7" s="40"/>
+      <c r="U7" s="43"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="235">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -1189,7 +1189,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="55" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="49" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1202,7 +1202,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="55" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="49" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1264,9 +1264,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>daily!$A$3:$A$80</c:f>
+              <c:f>daily!$A$3:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>24/07/19</c:v>
                 </c:pt>
@@ -1499,6 +1499,9 @@
                   <c:v>30/10/19</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>31/10/19</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1506,10 +1509,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$L$3:$L$80</c:f>
+              <c:f>daily!$L$3:$L$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>230.3</c:v>
                 </c:pt>
@@ -1742,6 +1745,9 @@
                   <c:v>214.41</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>212.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1757,11 +1763,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="9952591"/>
-        <c:axId val="98487618"/>
+        <c:axId val="7845757"/>
+        <c:axId val="85745239"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9952591"/>
+        <c:axId val="7845757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1789,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="55" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="49" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1797,14 +1803,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98487618"/>
+        <c:crossAx val="85745239"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98487618"/>
+        <c:axId val="85745239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9952591"/>
+        <c:crossAx val="7845757"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1881,14 +1887,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:colOff>107640</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1896,8 +1902,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203040" y="13350960"/>
-        <a:ext cx="7957080" cy="2737800"/>
+        <a:off x="203040" y="13513680"/>
+        <a:ext cx="7956360" cy="2737080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1915,12 +1921,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q797"/>
+  <dimension ref="A1:Q803"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G798" activeCellId="0" sqref="G798"/>
+      <selection pane="bottomLeft" activeCell="H801" activeCellId="0" sqref="H801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33301,7 +33307,7 @@
         <v>0.670689655172414</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33353,7 +33359,7 @@
         <v>0.671256454388985</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33405,7 +33411,7 @@
         <v>0.670103092783505</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33457,7 +33463,7 @@
         <v>0.668953687821612</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B717" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33509,7 +33515,7 @@
         <v>0.669520547945205</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33561,7 +33567,7 @@
         <v>0.67008547008547</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33613,7 +33619,7 @@
         <v>0.670648464163823</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33665,7 +33671,7 @@
         <v>0.671209540034072</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B721" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33717,7 +33723,7 @@
         <v>0.671768707482993</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="2" t="n">
         <v>43758</v>
       </c>
@@ -33769,7 +33775,7 @@
         <v>0.67062818336163</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="2" t="n">
         <v>43759</v>
       </c>
@@ -33821,7 +33827,7 @@
         <v>0.671186440677966</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="2" t="n">
         <v>43759</v>
       </c>
@@ -33873,7 +33879,7 @@
         <v>0.671742808798646</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="2" t="n">
         <v>43759</v>
       </c>
@@ -33925,7 +33931,7 @@
         <v>0.672297297297297</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="2" t="n">
         <v>43759</v>
       </c>
@@ -33977,7 +33983,7 @@
         <v>0.672849915682968</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="2" t="n">
         <v>43759</v>
       </c>
@@ -34029,7 +34035,7 @@
         <v>0.673400673400673</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="2" t="n">
         <v>43759</v>
       </c>
@@ -34081,7 +34087,7 @@
         <v>0.673949579831933</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B730" s="2" t="n">
         <v>43759</v>
       </c>
@@ -34133,7 +34139,7 @@
         <v>0.674496644295302</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B731" s="2" t="n">
         <v>43759</v>
       </c>
@@ -34185,7 +34191,7 @@
         <v>0.675041876046901</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B732" s="2" t="n">
         <v>43759</v>
       </c>
@@ -34237,7 +34243,7 @@
         <v>0.673913043478261</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B734" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34289,7 +34295,7 @@
         <v>0.674457429048414</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34341,7 +34347,7 @@
         <v>0.673333333333333</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34393,7 +34399,7 @@
         <v>0.672212978369384</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34445,7 +34451,7 @@
         <v>0.67109634551495</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34497,7 +34503,7 @@
         <v>0.671641791044776</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B739" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34549,7 +34555,7 @@
         <v>0.670529801324503</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34601,7 +34607,7 @@
         <v>0.671074380165289</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B741" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34653,7 +34659,7 @@
         <v>0.671617161716172</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34705,7 +34711,7 @@
         <v>0.672158154859967</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B744" s="2" t="n">
         <v>43760</v>
       </c>
@@ -34729,8 +34735,8 @@
         <v>0.36</v>
       </c>
       <c r="I744" s="7" t="n">
-        <f aca="false">SUM($H$2:H733)</f>
-        <v>-31.3799999999999</v>
+        <f aca="false">SUM($H$2:H744)</f>
+        <v>-31.1999999999999</v>
       </c>
       <c r="J744" s="8" t="n">
         <f aca="false">SUM(H$3:H744)/SUM(E$3:E744)</f>
@@ -34757,7 +34763,7 @@
         <v>0.672697368421053</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B745" s="2" t="n">
         <v>43761</v>
       </c>
@@ -34781,8 +34787,8 @@
         <v>3.3</v>
       </c>
       <c r="I745" s="7" t="n">
-        <f aca="false">SUM($H$2:H734)</f>
-        <v>-28.7799999999999</v>
+        <f aca="false">SUM($H$2:H745)</f>
+        <v>-27.8999999999999</v>
       </c>
       <c r="J745" s="8" t="n">
         <f aca="false">SUM(H$3:H745)/SUM(E$3:E745)</f>
@@ -34809,7 +34815,7 @@
         <v>0.673234811165846</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="2" t="n">
         <v>43761</v>
       </c>
@@ -34833,8 +34839,8 @@
         <v>0.42</v>
       </c>
       <c r="I746" s="7" t="n">
-        <f aca="false">SUM($H$2:H735)</f>
-        <v>-29.7799999999999</v>
+        <f aca="false">SUM($H$2:H746)</f>
+        <v>-27.4799999999999</v>
       </c>
       <c r="J746" s="8" t="n">
         <f aca="false">SUM(H$3:H746)/SUM(E$3:E746)</f>
@@ -34861,7 +34867,7 @@
         <v>0.673770491803279</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="2" t="n">
         <v>43761</v>
       </c>
@@ -34885,8 +34891,8 @@
         <v>0.36</v>
       </c>
       <c r="I747" s="7" t="n">
-        <f aca="false">SUM($H$2:H736)</f>
-        <v>-37.7799999999999</v>
+        <f aca="false">SUM($H$2:H747)</f>
+        <v>-27.1199999999999</v>
       </c>
       <c r="J747" s="8" t="n">
         <f aca="false">SUM(H$3:H747)/SUM(E$3:E747)</f>
@@ -34913,7 +34919,7 @@
         <v>0.67430441898527</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="2" t="n">
         <v>43761</v>
       </c>
@@ -34937,8 +34943,8 @@
         <v>2.6</v>
       </c>
       <c r="I748" s="7" t="n">
-        <f aca="false">SUM($H$2:H737)</f>
-        <v>-38.7799999999999</v>
+        <f aca="false">SUM($H$2:H748)</f>
+        <v>-24.5199999999999</v>
       </c>
       <c r="J748" s="8" t="n">
         <f aca="false">SUM(H$3:H748)/SUM(E$3:E748)</f>
@@ -34965,7 +34971,7 @@
         <v>0.67483660130719</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B749" s="2" t="n">
         <v>43761</v>
       </c>
@@ -34989,8 +34995,8 @@
         <v>0.04</v>
       </c>
       <c r="I749" s="7" t="n">
-        <f aca="false">SUM($H$2:H738)</f>
-        <v>-32.2799999999999</v>
+        <f aca="false">SUM($H$2:H749)</f>
+        <v>-24.4799999999999</v>
       </c>
       <c r="J749" s="8" t="n">
         <f aca="false">SUM(H$3:H749)/SUM(E$3:E749)</f>
@@ -35017,7 +35023,7 @@
         <v>0.67536704730832</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="2" t="n">
         <v>43761</v>
       </c>
@@ -35041,8 +35047,8 @@
         <v>-3</v>
       </c>
       <c r="I750" s="7" t="n">
-        <f aca="false">SUM($H$2:H739)</f>
-        <v>-33.2799999999999</v>
+        <f aca="false">SUM($H$2:H750)</f>
+        <v>-27.4799999999999</v>
       </c>
       <c r="J750" s="8" t="n">
         <f aca="false">SUM(H$3:H750)/SUM(E$3:E750)</f>
@@ -35069,7 +35075,7 @@
         <v>0.674267100977199</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B751" s="2" t="n">
         <v>43761</v>
       </c>
@@ -35093,8 +35099,8 @@
         <v>2.32</v>
       </c>
       <c r="I751" s="7" t="n">
-        <f aca="false">SUM($H$2:H740)</f>
-        <v>-32.7999999999999</v>
+        <f aca="false">SUM($H$2:H751)</f>
+        <v>-25.1599999999999</v>
       </c>
       <c r="J751" s="8" t="n">
         <f aca="false">SUM(H$3:H751)/SUM(E$3:E751)</f>
@@ -35121,7 +35127,7 @@
         <v>0.67479674796748</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B753" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35145,8 +35151,8 @@
         <v>0.8</v>
       </c>
       <c r="I753" s="7" t="n">
-        <f aca="false">SUM($H$2:H742)</f>
-        <v>-31.5599999999999</v>
+        <f aca="false">SUM($H$2:H753)</f>
+        <v>-24.3599999999999</v>
       </c>
       <c r="J753" s="8" t="n">
         <f aca="false">SUM(H$3:H753)/SUM(E$3:E753)</f>
@@ -35173,7 +35179,7 @@
         <v>0.675324675324675</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B754" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35197,8 +35203,8 @@
         <v>2.38</v>
       </c>
       <c r="I754" s="7" t="n">
-        <f aca="false">SUM($H$2:H743)</f>
-        <v>-31.5599999999999</v>
+        <f aca="false">SUM($H$2:H754)</f>
+        <v>-21.9799999999999</v>
       </c>
       <c r="J754" s="8" t="n">
         <f aca="false">SUM(H$3:H754)/SUM(E$3:E754)</f>
@@ -35225,7 +35231,7 @@
         <v>0.675850891410049</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B755" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35249,8 +35255,8 @@
         <v>9.1</v>
       </c>
       <c r="I755" s="7" t="n">
-        <f aca="false">SUM($H$2:H744)</f>
-        <v>-31.1999999999999</v>
+        <f aca="false">SUM($H$2:H755)</f>
+        <v>-12.8799999999999</v>
       </c>
       <c r="J755" s="8" t="n">
         <f aca="false">SUM(H$3:H755)/SUM(E$3:E755)</f>
@@ -35277,7 +35283,7 @@
         <v>0.676375404530744</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B756" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35301,8 +35307,8 @@
         <v>1.2</v>
       </c>
       <c r="I756" s="7" t="n">
-        <f aca="false">SUM($H$2:H745)</f>
-        <v>-27.8999999999999</v>
+        <f aca="false">SUM($H$2:H756)</f>
+        <v>-11.6799999999999</v>
       </c>
       <c r="J756" s="8" t="n">
         <f aca="false">SUM(H$3:H756)/SUM(E$3:E756)</f>
@@ -35329,7 +35335,7 @@
         <v>0.676898222940226</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35353,8 +35359,8 @@
         <v>-5</v>
       </c>
       <c r="I757" s="7" t="n">
-        <f aca="false">SUM($H$2:H746)</f>
-        <v>-27.4799999999999</v>
+        <f aca="false">SUM($H$2:H757)</f>
+        <v>-16.6799999999999</v>
       </c>
       <c r="J757" s="8" t="n">
         <f aca="false">SUM(H$3:H757)/SUM(E$3:E757)</f>
@@ -35381,7 +35387,7 @@
         <v>0.675806451612903</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B758" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35405,8 +35411,8 @@
         <v>-1</v>
       </c>
       <c r="I758" s="7" t="n">
-        <f aca="false">SUM($H$2:H747)</f>
-        <v>-27.1199999999999</v>
+        <f aca="false">SUM($H$2:H758)</f>
+        <v>-17.6799999999999</v>
       </c>
       <c r="J758" s="8" t="n">
         <f aca="false">SUM(H$3:H758)/SUM(E$3:E758)</f>
@@ -35433,7 +35439,7 @@
         <v>0.674718196457327</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B759" s="2" t="n">
         <v>43762</v>
       </c>
@@ -35457,8 +35463,8 @@
         <v>1.12</v>
       </c>
       <c r="I759" s="7" t="n">
-        <f aca="false">SUM($H$2:H748)</f>
-        <v>-24.5199999999999</v>
+        <f aca="false">SUM($H$2:H759)</f>
+        <v>-16.5599999999999</v>
       </c>
       <c r="J759" s="8" t="n">
         <f aca="false">SUM(H$3:H759)/SUM(E$3:E759)</f>
@@ -35485,7 +35491,7 @@
         <v>0.67524115755627</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B761" s="2" t="n">
         <v>43763</v>
       </c>
@@ -35509,8 +35515,8 @@
         <v>3.6</v>
       </c>
       <c r="I761" s="7" t="n">
-        <f aca="false">SUM($H$2:H750)</f>
-        <v>-27.4799999999999</v>
+        <f aca="false">SUM($H$2:H761)</f>
+        <v>-12.9599999999999</v>
       </c>
       <c r="J761" s="8" t="n">
         <f aca="false">SUM(H$3:H761)/SUM(E$3:E761)</f>
@@ -35537,7 +35543,7 @@
         <v>0.675762439807384</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B762" s="2" t="n">
         <v>43763</v>
       </c>
@@ -35561,8 +35567,8 @@
         <v>-1</v>
       </c>
       <c r="I762" s="7" t="n">
-        <f aca="false">SUM($H$2:H751)</f>
-        <v>-25.1599999999999</v>
+        <f aca="false">SUM($H$2:H762)</f>
+        <v>-13.9599999999999</v>
       </c>
       <c r="J762" s="8" t="n">
         <f aca="false">SUM(H$3:H762)/SUM(E$3:E762)</f>
@@ -35589,7 +35595,7 @@
         <v>0.674679487179487</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="2" t="n">
         <v>43763</v>
       </c>
@@ -35613,8 +35619,8 @@
         <v>0.96</v>
       </c>
       <c r="I763" s="7" t="n">
-        <f aca="false">SUM($H$2:H752)</f>
-        <v>-25.1599999999999</v>
+        <f aca="false">SUM($H$2:H763)</f>
+        <v>-12.9999999999999</v>
       </c>
       <c r="J763" s="8" t="n">
         <f aca="false">SUM(H$3:H763)/SUM(E$3:E763)</f>
@@ -35641,7 +35647,7 @@
         <v>0.6752</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B764" s="2" t="n">
         <v>43763</v>
       </c>
@@ -35665,8 +35671,8 @@
         <v>2.66</v>
       </c>
       <c r="I764" s="7" t="n">
-        <f aca="false">SUM($H$2:H753)</f>
-        <v>-24.3599999999999</v>
+        <f aca="false">SUM($H$2:H764)</f>
+        <v>-10.3399999999999</v>
       </c>
       <c r="J764" s="8" t="n">
         <f aca="false">SUM(H$3:H764)/SUM(E$3:E764)</f>
@@ -35693,7 +35699,7 @@
         <v>0.675718849840256</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B766" s="2" t="n">
         <v>43764</v>
       </c>
@@ -35717,8 +35723,8 @@
         <v>0.9</v>
       </c>
       <c r="I766" s="7" t="n">
-        <f aca="false">SUM($H$2:H755)</f>
-        <v>-12.8799999999999</v>
+        <f aca="false">SUM($H$2:H766)</f>
+        <v>-9.43999999999994</v>
       </c>
       <c r="J766" s="8" t="n">
         <f aca="false">SUM(H$3:H766)/SUM(E$3:E766)</f>
@@ -35745,7 +35751,7 @@
         <v>0.676236044657097</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B767" s="2" t="n">
         <v>43764</v>
       </c>
@@ -35769,8 +35775,8 @@
         <v>1.44</v>
       </c>
       <c r="I767" s="7" t="n">
-        <f aca="false">SUM($H$2:H756)</f>
-        <v>-11.6799999999999</v>
+        <f aca="false">SUM($H$2:H767)</f>
+        <v>-7.99999999999994</v>
       </c>
       <c r="J767" s="8" t="n">
         <f aca="false">SUM(H$3:H767)/SUM(E$3:E767)</f>
@@ -35797,7 +35803,7 @@
         <v>0.676751592356688</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B768" s="2" t="n">
         <v>43764</v>
       </c>
@@ -35821,8 +35827,8 @@
         <v>-6</v>
       </c>
       <c r="I768" s="7" t="n">
-        <f aca="false">SUM($H$2:H757)</f>
-        <v>-16.6799999999999</v>
+        <f aca="false">SUM($H$2:H768)</f>
+        <v>-13.9999999999999</v>
       </c>
       <c r="J768" s="8" t="n">
         <f aca="false">SUM(H$3:H768)/SUM(E$3:E768)</f>
@@ -35849,7 +35855,7 @@
         <v>0.675675675675676</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B769" s="2" t="n">
         <v>43764</v>
       </c>
@@ -35873,8 +35879,8 @@
         <v>1.12</v>
       </c>
       <c r="I769" s="7" t="n">
-        <f aca="false">SUM($H$2:H758)</f>
-        <v>-17.6799999999999</v>
+        <f aca="false">SUM($H$2:H769)</f>
+        <v>-12.8799999999999</v>
       </c>
       <c r="J769" s="8" t="n">
         <f aca="false">SUM(H$3:H769)/SUM(E$3:E769)</f>
@@ -35901,7 +35907,7 @@
         <v>0.676190476190476</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B770" s="2" t="n">
         <v>43764</v>
       </c>
@@ -35925,8 +35931,8 @@
         <v>-7</v>
       </c>
       <c r="I770" s="7" t="n">
-        <f aca="false">SUM($H$2:H759)</f>
-        <v>-16.5599999999999</v>
+        <f aca="false">SUM($H$2:H770)</f>
+        <v>-19.8799999999999</v>
       </c>
       <c r="J770" s="8" t="n">
         <f aca="false">SUM(H$3:H770)/SUM(E$3:E770)</f>
@@ -35977,8 +35983,8 @@
         <v>0.26</v>
       </c>
       <c r="I772" s="7" t="n">
-        <f aca="false">SUM($H$2:H761)</f>
-        <v>-12.96</v>
+        <f aca="false">SUM($H$2:H772)</f>
+        <v>-19.6199999999999</v>
       </c>
       <c r="J772" s="8" t="n">
         <f aca="false">SUM(H$3:H772)/SUM(E$3:E772)</f>
@@ -36029,8 +36035,8 @@
         <v>-3</v>
       </c>
       <c r="I774" s="7" t="n">
-        <f aca="false">SUM($H$2:H763)</f>
-        <v>-12.9999999999999</v>
+        <f aca="false">SUM($H$2:H774)</f>
+        <v>-22.6199999999999</v>
       </c>
       <c r="J774" s="8" t="n">
         <f aca="false">SUM(H$3:H774)/SUM(E$3:E774)</f>
@@ -36081,8 +36087,8 @@
         <v>-4</v>
       </c>
       <c r="I775" s="7" t="n">
-        <f aca="false">SUM($H$2:H764)</f>
-        <v>-10.3399999999999</v>
+        <f aca="false">SUM($H$2:H775)</f>
+        <v>-26.6199999999999</v>
       </c>
       <c r="J775" s="8" t="n">
         <f aca="false">SUM(H$3:H775)/SUM(E$3:E775)</f>
@@ -36133,8 +36139,8 @@
         <v>0.68</v>
       </c>
       <c r="I776" s="7" t="n">
-        <f aca="false">SUM($H$2:H765)</f>
-        <v>-10.3399999999999</v>
+        <f aca="false">SUM($H$2:H776)</f>
+        <v>-25.9399999999999</v>
       </c>
       <c r="J776" s="8" t="n">
         <f aca="false">SUM(H$3:H776)/SUM(E$3:E776)</f>
@@ -36185,8 +36191,8 @@
         <v>-1</v>
       </c>
       <c r="I777" s="7" t="n">
-        <f aca="false">SUM($H$2:H766)</f>
-        <v>-9.43999999999994</v>
+        <f aca="false">SUM($H$2:H777)</f>
+        <v>-26.9399999999999</v>
       </c>
       <c r="J777" s="8" t="n">
         <f aca="false">SUM(H$3:H777)/SUM(E$3:E777)</f>
@@ -36237,8 +36243,8 @@
         <v>1.2</v>
       </c>
       <c r="I778" s="7" t="n">
-        <f aca="false">SUM($H$2:H767)</f>
-        <v>-7.99999999999994</v>
+        <f aca="false">SUM($H$2:H778)</f>
+        <v>-25.7399999999999</v>
       </c>
       <c r="J778" s="8" t="n">
         <f aca="false">SUM(H$3:H778)/SUM(E$3:E778)</f>
@@ -36289,8 +36295,8 @@
         <v>-4</v>
       </c>
       <c r="I779" s="7" t="n">
-        <f aca="false">SUM($H$2:H768)</f>
-        <v>-13.9999999999999</v>
+        <f aca="false">SUM($H$2:H779)</f>
+        <v>-29.7399999999999</v>
       </c>
       <c r="J779" s="8" t="n">
         <f aca="false">SUM(H$3:H779)/SUM(E$3:E779)</f>
@@ -36341,8 +36347,8 @@
         <v>0.52</v>
       </c>
       <c r="I780" s="7" t="n">
-        <f aca="false">SUM($H$2:H769)</f>
-        <v>-12.8799999999999</v>
+        <f aca="false">SUM($H$2:H780)</f>
+        <v>-29.2199999999999</v>
       </c>
       <c r="J780" s="8" t="n">
         <f aca="false">SUM(H$3:H780)/SUM(E$3:E780)</f>
@@ -36393,8 +36399,8 @@
         <v>2.55</v>
       </c>
       <c r="I782" s="7" t="n">
-        <f aca="false">SUM($H$2:H771)</f>
-        <v>-19.8799999999999</v>
+        <f aca="false">SUM($H$2:H782)</f>
+        <v>-26.6699999999999</v>
       </c>
       <c r="J782" s="8" t="n">
         <f aca="false">SUM(H$3:H782)/SUM(E$3:E782)</f>
@@ -36445,8 +36451,8 @@
         <v>0.42</v>
       </c>
       <c r="I783" s="7" t="n">
-        <f aca="false">SUM($H$2:H772)</f>
-        <v>-19.6199999999999</v>
+        <f aca="false">SUM($H$2:H783)</f>
+        <v>-26.2499999999999</v>
       </c>
       <c r="J783" s="8" t="n">
         <f aca="false">SUM(H$3:H783)/SUM(E$3:E783)</f>
@@ -36497,8 +36503,8 @@
         <v>-1</v>
       </c>
       <c r="I784" s="7" t="n">
-        <f aca="false">SUM($H$2:H773)</f>
-        <v>-19.6199999999999</v>
+        <f aca="false">SUM($H$2:H784)</f>
+        <v>-27.2499999999999</v>
       </c>
       <c r="J784" s="8" t="n">
         <f aca="false">SUM(H$3:H784)/SUM(E$3:E784)</f>
@@ -36549,8 +36555,8 @@
         <v>4.8</v>
       </c>
       <c r="I785" s="7" t="n">
-        <f aca="false">SUM($H$2:H774)</f>
-        <v>-22.6199999999999</v>
+        <f aca="false">SUM($H$2:H785)</f>
+        <v>-22.4499999999999</v>
       </c>
       <c r="J785" s="8" t="n">
         <f aca="false">SUM(H$3:H785)/SUM(E$3:E785)</f>
@@ -36601,8 +36607,8 @@
         <v>0</v>
       </c>
       <c r="I786" s="7" t="n">
-        <f aca="false">SUM($H$2:H775)</f>
-        <v>-26.6199999999999</v>
+        <f aca="false">SUM($H$2:H786)</f>
+        <v>-22.4499999999999</v>
       </c>
       <c r="J786" s="8" t="n">
         <f aca="false">SUM(H$3:H786)/SUM(E$3:E786)</f>
@@ -36653,8 +36659,8 @@
         <v>-5</v>
       </c>
       <c r="I787" s="7" t="n">
-        <f aca="false">SUM($H$2:H776)</f>
-        <v>-25.9399999999999</v>
+        <f aca="false">SUM($H$2:H787)</f>
+        <v>-27.4499999999999</v>
       </c>
       <c r="J787" s="8" t="n">
         <f aca="false">SUM(H$3:H787)/SUM(E$3:E787)</f>
@@ -36705,8 +36711,8 @@
         <v>1.68</v>
       </c>
       <c r="I788" s="7" t="n">
-        <f aca="false">SUM($H$2:H777)</f>
-        <v>-26.9399999999999</v>
+        <f aca="false">SUM($H$2:H788)</f>
+        <v>-25.7699999999999</v>
       </c>
       <c r="J788" s="8" t="n">
         <f aca="false">SUM(H$3:H788)/SUM(E$3:E788)</f>
@@ -36757,8 +36763,8 @@
         <v>0.58</v>
       </c>
       <c r="I790" s="7" t="n">
-        <f aca="false">SUM($H$2:H779)</f>
-        <v>-29.7399999999999</v>
+        <f aca="false">SUM($H$2:H790)</f>
+        <v>-25.1899999999999</v>
       </c>
       <c r="J790" s="8" t="n">
         <f aca="false">SUM(H$3:H790)/SUM(E$3:E790)</f>
@@ -36809,8 +36815,8 @@
         <v>4.16</v>
       </c>
       <c r="I791" s="7" t="n">
-        <f aca="false">SUM($H$2:H780)</f>
-        <v>-29.2199999999999</v>
+        <f aca="false">SUM($H$2:H791)</f>
+        <v>-21.0299999999999</v>
       </c>
       <c r="J791" s="8" t="n">
         <f aca="false">SUM(H$3:H791)/SUM(E$3:E791)</f>
@@ -36861,8 +36867,8 @@
         <v>1.36</v>
       </c>
       <c r="I792" s="7" t="n">
-        <f aca="false">SUM($H$2:H781)</f>
-        <v>-29.2199999999999</v>
+        <f aca="false">SUM($H$2:H792)</f>
+        <v>-19.6699999999999</v>
       </c>
       <c r="J792" s="8" t="n">
         <f aca="false">SUM(H$3:H792)/SUM(E$3:E792)</f>
@@ -36913,8 +36919,8 @@
         <v>3.84</v>
       </c>
       <c r="I793" s="7" t="n">
-        <f aca="false">SUM($H$2:H782)</f>
-        <v>-26.6699999999999</v>
+        <f aca="false">SUM($H$2:H793)</f>
+        <v>-15.8299999999999</v>
       </c>
       <c r="J793" s="8" t="n">
         <f aca="false">SUM(H$3:H793)/SUM(E$3:E793)</f>
@@ -36965,8 +36971,8 @@
         <v>3</v>
       </c>
       <c r="I794" s="7" t="n">
-        <f aca="false">SUM($H$2:H783)</f>
-        <v>-26.2499999999999</v>
+        <f aca="false">SUM($H$2:H794)</f>
+        <v>-12.8299999999999</v>
       </c>
       <c r="J794" s="8" t="n">
         <f aca="false">SUM(H$3:H794)/SUM(E$3:E794)</f>
@@ -37017,8 +37023,8 @@
         <v>0.02</v>
       </c>
       <c r="I795" s="7" t="n">
-        <f aca="false">SUM($H$2:H784)</f>
-        <v>-27.2499999999999</v>
+        <f aca="false">SUM($H$2:H795)</f>
+        <v>-12.8099999999999</v>
       </c>
       <c r="J795" s="8" t="n">
         <f aca="false">SUM(H$3:H795)/SUM(E$3:E795)</f>
@@ -37069,8 +37075,8 @@
         <v>0.84</v>
       </c>
       <c r="I796" s="7" t="n">
-        <f aca="false">SUM($H$2:H785)</f>
-        <v>-22.4499999999999</v>
+        <f aca="false">SUM($H$2:H796)</f>
+        <v>-11.9699999999999</v>
       </c>
       <c r="J796" s="8" t="n">
         <f aca="false">SUM(H$3:H796)/SUM(E$3:E796)</f>
@@ -37121,8 +37127,8 @@
         <v>-5</v>
       </c>
       <c r="I797" s="7" t="n">
-        <f aca="false">SUM($H$2:H786)</f>
-        <v>-22.4499999999999</v>
+        <f aca="false">SUM($H$2:H797)</f>
+        <v>-16.9699999999999</v>
       </c>
       <c r="J797" s="8" t="n">
         <f aca="false">SUM(H$3:H797)/SUM(E$3:E797)</f>
@@ -37147,6 +37153,266 @@
       <c r="O797" s="11" t="n">
         <f aca="false">COUNTIF($G$3:$G797,"&gt;0")/COUNTIF($B$3:$B797,"&gt;0")</f>
         <v>0.675840978593272</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B799" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E799" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F799" s="5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G799" s="6" t="n">
+        <v>8.64</v>
+      </c>
+      <c r="H799" s="7" t="n">
+        <f aca="false">G799-E799</f>
+        <v>0.640000000000001</v>
+      </c>
+      <c r="I799" s="7" t="n">
+        <f aca="false">SUM($H$2:H799)</f>
+        <v>-16.3299999999999</v>
+      </c>
+      <c r="J799" s="8" t="n">
+        <f aca="false">SUM(H$3:H799)/SUM(E$3:E799)</f>
+        <v>-0.00639389193422081</v>
+      </c>
+      <c r="K799" s="9" t="n">
+        <f aca="false">O799-(1-O799)/N799</f>
+        <v>0.0286449254696091</v>
+      </c>
+      <c r="L799" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H799,"&gt;0")</f>
+        <v>1.98237980769231</v>
+      </c>
+      <c r="M799" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H799,"&lt;0")</f>
+        <v>-3.96698113207547</v>
+      </c>
+      <c r="N799" s="11" t="n">
+        <f aca="false">L799/-M799</f>
+        <v>0.499719999085338</v>
+      </c>
+      <c r="O799" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G799,"&gt;0")/COUNTIF($B$3:$B799,"&gt;0")</f>
+        <v>0.676335877862595</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B800" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E800" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F800" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G800" s="6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H800" s="7" t="n">
+        <f aca="false">G800-E800</f>
+        <v>1.8</v>
+      </c>
+      <c r="I800" s="7" t="n">
+        <f aca="false">SUM($H$2:H800)</f>
+        <v>-14.5299999999999</v>
+      </c>
+      <c r="J800" s="8" t="n">
+        <f aca="false">SUM(H$3:H800)/SUM(E$3:E800)</f>
+        <v>-0.00568244035979661</v>
+      </c>
+      <c r="K800" s="9" t="n">
+        <f aca="false">O800-(1-O800)/N800</f>
+        <v>0.0299829394896363</v>
+      </c>
+      <c r="L800" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H800,"&gt;0")</f>
+        <v>1.98194244604316</v>
+      </c>
+      <c r="M800" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H800,"&lt;0")</f>
+        <v>-3.96698113207547</v>
+      </c>
+      <c r="N800" s="11" t="n">
+        <f aca="false">L800/-M800</f>
+        <v>0.499609748586386</v>
+      </c>
+      <c r="O800" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G800,"&gt;0")/COUNTIF($B$3:$B800,"&gt;0")</f>
+        <v>0.676829268292683</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B801" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E801" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F801" s="5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G801" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H801" s="7" t="n">
+        <f aca="false">G801-E801</f>
+        <v>-5</v>
+      </c>
+      <c r="I801" s="7" t="n">
+        <f aca="false">SUM($H$2:H801)</f>
+        <v>-19.5299999999999</v>
+      </c>
+      <c r="J801" s="8" t="n">
+        <f aca="false">SUM(H$3:H801)/SUM(E$3:E801)</f>
+        <v>-0.00762295081967211</v>
+      </c>
+      <c r="K801" s="9" t="n">
+        <f aca="false">O801-(1-O801)/N801</f>
+        <v>0.0260974592220977</v>
+      </c>
+      <c r="L801" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H801,"&gt;0")</f>
+        <v>1.98194244604316</v>
+      </c>
+      <c r="M801" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H801,"&lt;0")</f>
+        <v>-3.97183098591549</v>
+      </c>
+      <c r="N801" s="11" t="n">
+        <f aca="false">L801/-M801</f>
+        <v>0.498999693861931</v>
+      </c>
+      <c r="O801" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G801,"&gt;0")/COUNTIF($B$3:$B801,"&gt;0")</f>
+        <v>0.675799086757991</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B802" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E802" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F802" s="5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G802" s="6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H802" s="7" t="n">
+        <f aca="false">G802-E802</f>
+        <v>0.48</v>
+      </c>
+      <c r="I802" s="7" t="n">
+        <f aca="false">SUM($H$2:H802)</f>
+        <v>-19.0499999999999</v>
+      </c>
+      <c r="J802" s="8" t="n">
+        <f aca="false">SUM(H$3:H802)/SUM(E$3:E802)</f>
+        <v>-0.00742979719188765</v>
+      </c>
+      <c r="K802" s="9" t="n">
+        <f aca="false">O802-(1-O802)/N802</f>
+        <v>0.0263993313400704</v>
+      </c>
+      <c r="L802" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H802,"&gt;0")</f>
+        <v>1.97834928229665</v>
+      </c>
+      <c r="M802" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H802,"&lt;0")</f>
+        <v>-3.97183098591549</v>
+      </c>
+      <c r="N802" s="11" t="n">
+        <f aca="false">L802/-M802</f>
+        <v>0.498095032067596</v>
+      </c>
+      <c r="O802" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G802,"&gt;0")/COUNTIF($B$3:$B802,"&gt;0")</f>
+        <v>0.67629179331307</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B803" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E803" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F803" s="5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G803" s="6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H803" s="7" t="n">
+        <f aca="false">G803-E803</f>
+        <v>0.44</v>
+      </c>
+      <c r="I803" s="7" t="n">
+        <f aca="false">SUM($H$2:H803)</f>
+        <v>-18.6099999999999</v>
+      </c>
+      <c r="J803" s="8" t="n">
+        <f aca="false">SUM(H$3:H803)/SUM(E$3:E803)</f>
+        <v>-0.00725253312548712</v>
+      </c>
+      <c r="K803" s="9" t="n">
+        <f aca="false">O803-(1-O803)/N803</f>
+        <v>0.0266702241784458</v>
+      </c>
+      <c r="L803" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H803,"&gt;0")</f>
+        <v>1.97467780429594</v>
+      </c>
+      <c r="M803" s="10" t="n">
+        <f aca="false">AVERAGEIF($H$3:$H803,"&lt;0")</f>
+        <v>-3.97183098591549</v>
+      </c>
+      <c r="N803" s="11" t="n">
+        <f aca="false">L803/-M803</f>
+        <v>0.497170652854652</v>
+      </c>
+      <c r="O803" s="11" t="n">
+        <f aca="false">COUNTIF($G$3:$G803,"&gt;0")/COUNTIF($B$3:$B803,"&gt;0")</f>
+        <v>0.676783004552352</v>
       </c>
     </row>
   </sheetData>
@@ -37165,12 +37431,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N79" activeCellId="0" sqref="N79"/>
+      <selection pane="bottomLeft" activeCell="M80" activeCellId="0" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41473,6 +41739,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="33" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <f aca="false">COUNT(all!B799:B803)</f>
+        <v>5</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <f aca="false">SUM(all!E799:E803)</f>
+        <v>20</v>
+      </c>
+      <c r="D80" s="27" t="n">
+        <f aca="false">SUMIF(all!H799:H803,"&gt;0")</f>
+        <v>3.36</v>
+      </c>
+      <c r="E80" s="30" t="n">
+        <f aca="false">SUMIF(all!H799:H803,"&lt;0")</f>
+        <v>-5</v>
+      </c>
+      <c r="F80" s="27" t="n">
+        <f aca="false">D80+E80</f>
+        <v>-1.64</v>
+      </c>
+      <c r="G80" s="29" t="n">
+        <f aca="false">all!J803</f>
+        <v>-0.00725253312548712</v>
+      </c>
+      <c r="H80" s="29" t="n">
+        <f aca="false">all!O803</f>
+        <v>0.676783004552352</v>
+      </c>
+      <c r="I80" s="29" t="n">
+        <f aca="false">all!K803</f>
+        <v>0.0266702241784458</v>
+      </c>
+      <c r="K80" s="30" t="n">
+        <f aca="false">MEDIAN($C51:$C80)</f>
+        <v>25</v>
+      </c>
+      <c r="L80" s="30" t="n">
+        <v>212.77</v>
+      </c>
+      <c r="M80" s="29" t="n">
+        <f aca="false">K80/L79</f>
+        <v>0.116599039223917</v>
+      </c>
+      <c r="N80" s="29" t="n">
+        <f aca="false">M80/I80</f>
+        <v>4.37188073275175</v>
+      </c>
+      <c r="O80" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -41492,12 +41813,12 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41579,51 +41900,51 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F2" s="36" t="n">
         <f aca="false">SUM(F3:F25)</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="G2" s="36" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>4.82666666666666</v>
+        <v>4.69</v>
       </c>
       <c r="H2" s="36" t="n">
         <f aca="false">SUM(H3:H25)</f>
-        <v>-0.107500000000008</v>
+        <v>-0.244166666666675</v>
       </c>
       <c r="I2" s="36" t="n">
         <f aca="false">SUM(I3:I25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="J2" s="36" t="n">
         <f aca="false">SUM(J3:J25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="K2" s="36" t="n">
         <f aca="false">SUM(K3:K25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="L2" s="36" t="n">
         <f aca="false">SUM(L3:L25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="M2" s="36" t="n">
         <f aca="false">SUM(M3:M25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="N2" s="36" t="n">
         <f aca="false">SUM(N3:N25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="O2" s="36" t="n">
         <f aca="false">SUM(O3:O25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="P2" s="36" t="n">
         <f aca="false">SUM(P3:P25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="Q2" s="36" t="n">
         <f aca="false">SUM(Q3:Q25)</f>
-        <v>-1.08083333333334</v>
+        <v>-1.21750000000001</v>
       </c>
       <c r="R2" s="37" t="n">
         <f aca="false">SUM(R3:R25)</f>
@@ -41647,68 +41968,68 @@
         <v>231</v>
       </c>
       <c r="B4" s="34" t="n">
-        <f aca="false">SUM(daily!B50:B79)</f>
-        <v>231</v>
+        <f aca="false">SUM(daily!B50:B80)</f>
+        <v>236</v>
       </c>
       <c r="C4" s="34" t="n">
-        <f aca="false">SUM(daily!C50:C79)</f>
-        <v>709</v>
+        <f aca="false">SUM(daily!C50:C80)</f>
+        <v>729</v>
       </c>
       <c r="D4" s="35" t="n">
         <f aca="false">SUM(daily!F50:F80)</f>
-        <v>71.65</v>
+        <v>70.01</v>
       </c>
       <c r="E4" s="44" t="n">
         <f aca="false">D4/C4</f>
-        <v>0.101057827926657</v>
+        <v>0.0960356652949245</v>
       </c>
       <c r="F4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="G4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="H4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="I4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="J4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="K4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="L4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="M4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="N4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="O4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="P4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="Q4" s="36" t="n">
         <f aca="false">$D$4/12</f>
-        <v>5.97083333333333</v>
+        <v>5.83416666666667</v>
       </c>
       <c r="S4" s="45"/>
     </row>

--- a/atp_mens/tabresults.xlsx
+++ b/atp_mens/tabresults.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="238">
   <si>
     <t xml:space="preserve">tx id</t>
   </si>
@@ -684,6 +684,12 @@
     <t xml:space="preserve">wagered</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-10</t>
   </si>
   <si>
@@ -749,7 +755,7 @@
     <numFmt numFmtId="173" formatCode="#,##0"/>
     <numFmt numFmtId="174" formatCode="#,##0;[RED]\-#,##0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -880,6 +886,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -923,7 +937,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1096,6 +1110,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1104,11 +1122,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1200,7 +1218,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1500" spc="46" strike="noStrike">
+              <a:defRPr b="1" sz="1500" spc="43" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1213,7 +1231,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1500" spc="46" strike="noStrike">
+              <a:rPr b="1" sz="1500" spc="43" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1792,11 +1810,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="1043253"/>
-        <c:axId val="77668984"/>
+        <c:axId val="47961422"/>
+        <c:axId val="45151905"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1043253"/>
+        <c:axId val="47961422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1836,7 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="46" strike="noStrike">
+              <a:defRPr b="0" sz="900" spc="43" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
                 </a:solidFill>
@@ -1832,14 +1850,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77668984"/>
+        <c:crossAx val="45151905"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77668984"/>
+        <c:axId val="45151905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1900,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043253"/>
+        <c:crossAx val="47961422"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1921,9 +1939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1932,7 +1950,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="203040" y="14021640"/>
-        <a:ext cx="7956000" cy="2737080"/>
+        <a:ext cx="7955640" cy="2736720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -42265,29 +42283,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="36" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="37" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="38" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="3" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="1.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="36" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="19" style="37" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="38" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="3" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
         <v>217</v>
       </c>
@@ -42303,482 +42322,632 @@
       <c r="E1" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W1" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="40" t="n">
-        <f aca="false">SUM(F3:F26)</f>
+      <c r="F2" s="40"/>
+      <c r="G2" s="43" t="n">
+        <f aca="false">SUM(G3:G1235)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="43" t="n">
+        <f aca="false">SUM(H3:H1235)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="43" t="n">
+        <f aca="false">SUM(I3:I1235)</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="G2" s="40" t="n">
-        <f aca="false">SUM(G3:G26)</f>
+      <c r="J2" s="43" t="n">
+        <f aca="false">SUM(J3:J1235)</f>
         <v>6.03</v>
       </c>
-      <c r="H2" s="40" t="n">
-        <f aca="false">SUM(H3:H26)</f>
+      <c r="K2" s="43" t="n">
+        <f aca="false">SUM(K3:K1235)</f>
         <v>4.88583333333333</v>
       </c>
-      <c r="I2" s="40" t="n">
-        <f aca="false">SUM(I3:I26)</f>
-        <v>-0.0483333333333333</v>
-      </c>
-      <c r="J2" s="40" t="n">
-        <f aca="false">SUM(J3:J26)</f>
+      <c r="L2" s="43" t="n">
+        <f aca="false">SUM(L3:L1235)</f>
+        <v>-0.0483333333333372</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <f aca="false">SUM(M3:M1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="K2" s="40" t="n">
-        <f aca="false">SUM(K3:K26)</f>
+      <c r="N2" s="43" t="n">
+        <f aca="false">SUM(N3:N1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="L2" s="40" t="n">
-        <f aca="false">SUM(L3:L26)</f>
+      <c r="O2" s="43" t="n">
+        <f aca="false">SUM(O3:O1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="M2" s="40" t="n">
-        <f aca="false">SUM(M3:M26)</f>
+      <c r="P2" s="43" t="n">
+        <f aca="false">SUM(P3:P1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="N2" s="40" t="n">
-        <f aca="false">SUM(N3:N26)</f>
+      <c r="Q2" s="43" t="n">
+        <f aca="false">SUM(Q3:Q1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="O2" s="40" t="n">
-        <f aca="false">SUM(O3:O26)</f>
+      <c r="R2" s="43" t="n">
+        <f aca="false">SUM(R3:R1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="P2" s="40" t="n">
-        <f aca="false">SUM(P3:P26)</f>
+      <c r="S2" s="41" t="n">
+        <f aca="false">SUM(S3:S1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="Q2" s="40" t="n">
-        <f aca="false">SUM(Q3:Q26)</f>
+      <c r="T2" s="41" t="n">
+        <f aca="false">SUM(T3:T1235)</f>
         <v>-1.02166666666667</v>
       </c>
-      <c r="R2" s="40" t="n">
-        <f aca="false">SUM(R3:R26)</f>
+      <c r="U2" s="41" t="n">
+        <f aca="false">SUM(U3:U1235)</f>
         <v>-1.2175</v>
       </c>
-      <c r="S2" s="41" t="n">
-        <f aca="false">SUM(S3:S26)</f>
+      <c r="V2" s="41" t="n">
+        <f aca="false">SUM(V3:V1235)</f>
         <v>-7.05166666666667</v>
       </c>
-      <c r="T2" s="41" t="n">
-        <f aca="false">SUM(T3:T26)</f>
+      <c r="W2" s="41" t="n">
+        <f aca="false">SUM(W3:W1235)</f>
         <v>-5.9075</v>
       </c>
-      <c r="U2" s="41" t="n">
-        <f aca="false">SUM(U3:U26)</f>
+      <c r="X2" s="41" t="n">
+        <f aca="false">SUM(X3:X1235)</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="42"/>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V3" s="44"/>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="42"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y3" s="45"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46" t="e">
+        <f aca="false">D4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="37" t="n">
+        <f aca="false">$D4/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="45"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46" t="e">
+        <f aca="false">D5/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="37" t="n">
+        <f aca="false">$D5/12</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="45"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="34" t="n">
         <f aca="false">SUM(daily!B81:B85)</f>
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="n">
+      <c r="C6" s="34" t="n">
         <f aca="false">SUM(daily!C81:C85)</f>
         <v>13</v>
       </c>
-      <c r="D4" s="35" t="n">
+      <c r="D6" s="35" t="n">
         <f aca="false">SUM(daily!F81:F85)</f>
         <v>2.35</v>
       </c>
-      <c r="E4" s="46" t="n">
-        <f aca="false">D4/C4</f>
+      <c r="E6" s="46" t="n">
+        <f aca="false">D6/C6</f>
         <v>0.180769230769231</v>
       </c>
-      <c r="F4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="I6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="G4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="J6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="H4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="K6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="I4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="L6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="J4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="M6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="K4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="N6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="L4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="O6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="M4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="P6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="N4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="Q6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="O4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="R6" s="36" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="P4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="S6" s="37" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="Q4" s="36" t="n">
-        <f aca="false">$D$4/12</f>
+      <c r="T6" s="37" t="n">
+        <f aca="false">$D$6/12</f>
         <v>0.195833333333333</v>
       </c>
-      <c r="V4" s="44"/>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="34" t="n">
+      <c r="Y6" s="45"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="34" t="n">
         <f aca="false">SUM(daily!B50:B80)</f>
         <v>236</v>
       </c>
-      <c r="C5" s="34" t="n">
+      <c r="C7" s="34" t="n">
         <f aca="false">SUM(daily!C50:C80)</f>
         <v>729</v>
       </c>
-      <c r="D5" s="35" t="n">
+      <c r="D7" s="35" t="n">
         <f aca="false">SUM(daily!F50:F80)</f>
         <v>70.01</v>
       </c>
-      <c r="E5" s="46" t="n">
-        <f aca="false">D5/C5</f>
+      <c r="E7" s="46" t="n">
+        <f aca="false">D7/C7</f>
         <v>0.0960356652949246</v>
       </c>
-      <c r="G5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="J7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="H5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="K7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="I5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="L7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="J5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="M7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="K5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="N7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="L5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="O7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="M5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="P7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="N5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="Q7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="O5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="R7" s="36" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="P5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="S7" s="37" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="Q5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="T7" s="37" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="R5" s="36" t="n">
-        <f aca="false">$D$5/12</f>
+      <c r="U7" s="37" t="n">
+        <f aca="false">$D$7/12</f>
         <v>5.83416666666667</v>
       </c>
-      <c r="T5" s="47"/>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="34" t="n">
+      <c r="W7" s="48"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="34" t="n">
         <f aca="false">SUM(daily!B32:B49)</f>
         <v>81</v>
       </c>
-      <c r="C6" s="34" t="n">
+      <c r="C8" s="34" t="n">
         <f aca="false">SUM(daily!C32:C49)</f>
         <v>191</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D8" s="35" t="n">
         <f aca="false">SUM(daily!F32:F49)</f>
         <v>-13.73</v>
       </c>
-      <c r="E6" s="46" t="n">
-        <f aca="false">D6/C6</f>
+      <c r="E8" s="46" t="n">
+        <f aca="false">D8/C8</f>
         <v>-0.0718848167539267</v>
       </c>
-      <c r="H6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="K8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="I6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="L8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="J6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="M8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="K6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="N8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="L6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="O8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="M6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="P8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="N6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="Q8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="O6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="R8" s="36" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="P6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="S8" s="37" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="Q6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="T8" s="37" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="R6" s="36" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="U8" s="37" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="S6" s="37" t="n">
-        <f aca="false">$D$6/12</f>
+      <c r="V8" s="37" t="n">
+        <f aca="false">$D$8/12</f>
         <v>-1.14416666666667</v>
       </c>
-      <c r="T6" s="47"/>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="34" t="n">
+      <c r="W8" s="48"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="34" t="n">
         <f aca="false">SUM(daily!B9:B31)</f>
         <v>259</v>
       </c>
-      <c r="C7" s="34" t="n">
+      <c r="C9" s="34" t="n">
         <f aca="false">SUM(daily!C9:C31)</f>
         <v>808</v>
       </c>
-      <c r="D7" s="35" t="n">
+      <c r="D9" s="35" t="n">
         <f aca="false">SUM(daily!F9:F31)</f>
         <v>-59.21</v>
       </c>
-      <c r="E7" s="46" t="n">
-        <f aca="false">D7/C7</f>
+      <c r="E9" s="46" t="n">
+        <f aca="false">D9/C9</f>
         <v>-0.073279702970297</v>
       </c>
-      <c r="I7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="L9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="J7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="M9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="K7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="N9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="L7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="O9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="M7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="P9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="N7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="Q9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="O7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="R9" s="36" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="P7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="S9" s="37" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="Q7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="T9" s="37" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="R7" s="36" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="U9" s="37" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="S7" s="37" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="V9" s="37" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="T7" s="37" t="n">
-        <f aca="false">$D$7/12</f>
+      <c r="W9" s="37" t="n">
+        <f aca="false">$D$9/12</f>
         <v>-4.93416666666667</v>
       </c>
-      <c r="V7" s="44"/>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="34" t="n">
+      <c r="Y9" s="45"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="34" t="n">
         <f aca="false">SUM(daily!B3:B8)</f>
         <v>83</v>
       </c>
-      <c r="C8" s="34" t="n">
+      <c r="C10" s="34" t="n">
         <f aca="false">SUM(daily!C3:C8)</f>
         <v>838</v>
       </c>
-      <c r="D8" s="35" t="n">
+      <c r="D10" s="35" t="n">
         <f aca="false">SUM(daily!F3:F8)</f>
         <v>-11.68</v>
       </c>
-      <c r="E8" s="46" t="n">
-        <f aca="false">D8/C8</f>
+      <c r="E10" s="46" t="n">
+        <f aca="false">D10/C10</f>
         <v>-0.0139379474940334</v>
       </c>
-      <c r="J8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="M10" s="36" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="K8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="N10" s="36" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="L8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="O10" s="36" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="M8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="P10" s="36" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="N8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="Q10" s="36" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="O8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="R10" s="36" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="P8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="S10" s="37" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="Q8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="T10" s="37" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="R8" s="36" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="U10" s="37" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="S8" s="37" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="V10" s="37" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="T8" s="37" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="W10" s="37" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="U8" s="37" t="n">
-        <f aca="false">$D$8/12</f>
+      <c r="X10" s="37" t="n">
+        <f aca="false">$D$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="V8" s="44"/>
+      <c r="Y10" s="45"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
